--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,97 +667,97 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P2" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="W2" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -766,19 +766,19 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>2.74</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Kanchanaburi</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="G4" t="n">
-        <v>2.48</v>
+        <v>2.12</v>
       </c>
       <c r="H4" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K4" t="n">
         <v>4.4</v>
       </c>
-      <c r="J4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.56</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
-        <v>3.95</v>
+        <v>2.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1198,31 +1198,31 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="K6" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.81</v>
+        <v>2.74</v>
       </c>
       <c r="G7" t="n">
-        <v>2.28</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>2.52</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K7" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.6</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
         <v>1.01</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.86</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>1.33</v>
+        <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>1.53</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.86</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.89</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>8.4</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="G10" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>2.18</v>
+        <v>1.31</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>1.51</v>
       </c>
       <c r="J10" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="G11" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>1.96</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.54</v>
+        <v>4.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="K11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>2.44</v>
       </c>
       <c r="H12" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.91</v>
+        <v>2.74</v>
       </c>
       <c r="K12" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
         <v>1.01</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.49</v>
+        <v>1.99</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>2.24</v>
+        <v>2.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
-        <v>2.24</v>
+        <v>2.9</v>
       </c>
       <c r="K13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.8</v>
+        <v>1.86</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.14</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,66 +2408,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>5.9</v>
       </c>
       <c r="I15" t="n">
-        <v>3.7</v>
+        <v>7.8</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.28</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.52</v>
+        <v>3.85</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>3.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>2.12</v>
       </c>
       <c r="I16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.65</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>2.62</v>
+        <v>4.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="P16" t="n">
-        <v>1.54</v>
+        <v>2.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.78</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>5.9</v>
+        <v>3.15</v>
       </c>
       <c r="T16" t="n">
-        <v>2.2</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>1.79</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,193 +2611,463 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC16" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="Y16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7</v>
-      </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
         <v>85</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>230</v>
       </c>
       <c r="AN16" t="n">
         <v>42</v>
       </c>
       <c r="AO16" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J17" t="n">
+      <c r="F19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.95</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K19" t="n">
         <v>4.1</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P17" t="n">
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P19" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R17" t="n">
+      <c r="Q19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.4</v>
       </c>
-      <c r="S17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="S19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.88</v>
       </c>
-      <c r="U17" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="U19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>42</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AA19" t="n">
         <v>160</v>
       </c>
-      <c r="AB17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD17" t="n">
+      <c r="AB19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD19" t="n">
         <v>21</v>
       </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG17" t="n">
+      <c r="AE19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG19" t="n">
         <v>10</v>
       </c>
-      <c r="AH17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AH19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AK19" t="n">
         <v>18.5</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AL19" t="n">
         <v>36</v>
       </c>
-      <c r="AM17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>100</v>
+      <c r="AM19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G2" t="n">
         <v>5.4</v>
@@ -676,7 +676,7 @@
         <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -715,7 +715,7 @@
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="W2" t="n">
         <v>1.22</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -973,25 +973,25 @@
         <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y4" t="n">
         <v>22</v>
@@ -1018,10 +1018,10 @@
         <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>FK Kudrivka</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.1</v>
       </c>
-      <c r="G5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.9</v>
-      </c>
       <c r="I5" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>2.08</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,33 +1193,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="G6" t="n">
-        <v>2.08</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
         <v>7</v>
@@ -1240,7 +1240,7 @@
         <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.74</v>
+        <v>1.74</v>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>2.08</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>2.52</v>
+        <v>5.7</v>
       </c>
       <c r="J7" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>2.96</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.92</v>
+        <v>2.16</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>1.31</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.51</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.8</v>
+        <v>2.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>1.31</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>1.51</v>
       </c>
       <c r="J11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2008,31 +2008,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="G12" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2143,31 +2143,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="H13" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.9</v>
+        <v>2.74</v>
       </c>
       <c r="K13" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,36 +2408,36 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.54</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>5.9</v>
+        <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.85</v>
+        <v>1.54</v>
       </c>
       <c r="G16" t="n">
-        <v>3.9</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>2.12</v>
+        <v>5.9</v>
       </c>
       <c r="I16" t="n">
-        <v>2.14</v>
+        <v>7.8</v>
       </c>
       <c r="J16" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,64 +2611,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,67 +2678,67 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>3.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>2.08</v>
       </c>
       <c r="I17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.7</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.44</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="U17" t="n">
         <v>2.3</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.95</v>
-      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>11.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA17" t="n">
         <v>26</v>
       </c>
-      <c r="AA17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC17" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL17" t="n">
         <v>55</v>
       </c>
-      <c r="AF17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>50</v>
-      </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AO17" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="G18" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I18" t="n">
         <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S18" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.22</v>
+        <v>1.96</v>
       </c>
       <c r="U18" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,192 +2881,327 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC18" t="n">
         <v>7.8</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7</v>
-      </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ18" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F20" t="n">
         <v>1.77</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G20" t="n">
         <v>1.79</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>5.1</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>5.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J20" t="n">
         <v>3.95</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K20" t="n">
         <v>4.1</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.07</v>
       </c>
-      <c r="N19" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="N20" t="n">
+        <v>4</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.31</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P20" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q20" t="n">
         <v>1.93</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="R20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S20" t="n">
         <v>3.4</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T20" t="n">
         <v>1.88</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U20" t="n">
         <v>2.06</v>
       </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Y20" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="Z20" t="n">
         <v>42</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AA20" t="n">
         <v>160</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AB20" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AC20" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AD20" t="n">
         <v>21</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AE20" t="n">
         <v>75</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AF20" t="n">
         <v>11</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AG20" t="n">
         <v>10</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AH20" t="n">
         <v>20</v>
       </c>
-      <c r="AI19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="n">
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
         <v>36</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AM20" t="n">
         <v>140</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AN20" t="n">
         <v>11.5</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AO20" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,13 +670,13 @@
         <v>4.9</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
         <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="J2" t="n">
         <v>4</v>
@@ -694,31 +694,31 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
         <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
@@ -727,7 +727,7 @@
         <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -739,7 +739,7 @@
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>22</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
@@ -964,7 +964,7 @@
         <v>4.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
         <v>2.18</v>
@@ -982,7 +982,7 @@
         <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
         <v>1.29</v>
@@ -1000,7 +1000,7 @@
         <v>38</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB4" t="n">
         <v>14</v>
@@ -1024,10 +1024,10 @@
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK4" t="n">
         <v>24</v>
@@ -1042,7 +1042,7 @@
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.1</v>
       </c>
-      <c r="I5" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.6</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>1.95</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="W5" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.3</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.88</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>2.08</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,33 +1328,33 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.74</v>
+        <v>3.1</v>
       </c>
       <c r="G7" t="n">
-        <v>2.08</v>
+        <v>4.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
         <v>7</v>
@@ -1375,7 +1375,7 @@
         <v>2.08</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1468,31 +1468,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.74</v>
+        <v>1.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.8</v>
+        <v>2.08</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.52</v>
+        <v>5.7</v>
       </c>
       <c r="J8" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1603,31 +1603,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="G9" t="n">
         <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="I9" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.16</v>
+        <v>2.74</v>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>1.31</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.51</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.92</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2029,7 +2029,7 @@
         <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
         <v>7.4</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
@@ -2164,7 +2164,7 @@
         <v>4.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="K13" t="n">
         <v>7.4</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="I14" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>3.95</v>
       </c>
       <c r="K14" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H15" t="n">
         <v>3.25</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,36 +2543,36 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>5.9</v>
+        <v>1.33</v>
       </c>
       <c r="I16" t="n">
-        <v>7.8</v>
+        <v>1.51</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="K16" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.66</v>
+        <v>1.01</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.9</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
-        <v>2.08</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
-        <v>2.12</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,66 +2813,66 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.32</v>
+        <v>3.9</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>3.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.55</v>
+        <v>2.08</v>
       </c>
       <c r="I18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.7</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.35</v>
-      </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S18" t="n">
         <v>3.1</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
         <v>1.72</v>
       </c>
-      <c r="Q18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.95</v>
+        <v>2.28</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,58 +2881,58 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y18" t="n">
         <v>11</v>
       </c>
-      <c r="Y18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA18" t="n">
         <v>26</v>
       </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.4</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AD18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH18" t="n">
         <v>17.5</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AI18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL18" t="n">
         <v>55</v>
       </c>
-      <c r="AF18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>50</v>
-      </c>
       <c r="AM18" t="n">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="AN18" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AO18" t="n">
-        <v>65</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="19">
@@ -2971,7 +2971,7 @@
         <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -2992,7 +2992,7 @@
         <v>1.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q19" t="n">
         <v>2.78</v>
@@ -3007,7 +3007,7 @@
         <v>2.22</v>
       </c>
       <c r="U19" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3019,13 +3019,13 @@
         <v>7.8</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z19" t="n">
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="n">
         <v>7.4</v>
@@ -3037,7 +3037,7 @@
         <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
         <v>15</v>
@@ -3046,7 +3046,7 @@
         <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>85</v>
@@ -3073,135 +3073,270 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Girona</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="F21" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J21" t="n">
         <v>3.95</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K21" t="n">
         <v>4.1</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.07</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N21" t="n">
         <v>4</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O21" t="n">
         <v>1.31</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P21" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q21" t="n">
         <v>1.93</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R21" t="n">
         <v>1.39</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S21" t="n">
         <v>3.4</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T21" t="n">
         <v>1.88</v>
       </c>
-      <c r="U20" t="n">
+      <c r="U21" t="n">
         <v>2.06</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Y21" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="Z21" t="n">
         <v>42</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AA21" t="n">
         <v>160</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AB21" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AC21" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AD21" t="n">
         <v>21</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AE21" t="n">
         <v>75</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AF21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN21" t="n">
         <v>11</v>
       </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO20" t="n">
+      <c r="AO21" t="n">
         <v>110</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -700,7 +700,7 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.02</v>
@@ -841,13 +841,13 @@
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H5" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
         <v>4.3</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1102,29 +1102,29 @@
         <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.81</v>
       </c>
-      <c r="V5" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.72</v>
-      </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>2.54</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,13 +1231,13 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
         <v>1.34</v>
@@ -1246,7 +1246,7 @@
         <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Metalist 1925</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.08</v>
+        <v>1.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.74</v>
+        <v>2.94</v>
       </c>
       <c r="G8" t="n">
-        <v>2.08</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>2.08</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.86</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>2.08</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>4.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>3.45</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.28</v>
+        <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H10" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>1.82</v>
       </c>
       <c r="I11" t="n">
-        <v>3.8</v>
+        <v>2.14</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.5</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.81</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>1.96</v>
       </c>
       <c r="J12" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>7.4</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,36 +2273,36 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.94</v>
+        <v>1.89</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="J14" t="n">
-        <v>3.95</v>
+        <v>2.64</v>
       </c>
       <c r="K14" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.92</v>
+        <v>3.8</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="I16" t="n">
-        <v>1.51</v>
+        <v>2.16</v>
       </c>
       <c r="J16" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>1.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="I18" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.84</v>
+        <v>1.19</v>
       </c>
       <c r="R18" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="S18" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="T18" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,66 +2948,66 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.52</v>
+        <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>2.56</v>
+        <v>1.37</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>10.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.65</v>
+        <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="K19" t="n">
-        <v>3.05</v>
+        <v>6.6</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.53</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.78</v>
+        <v>1.51</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="G20" t="n">
-        <v>2.34</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA20" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN20" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="AO20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,2961 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.76</v>
+        <v>2.8</v>
       </c>
       <c r="G21" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="H21" t="n">
-        <v>5.2</v>
+        <v>2.56</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>2.92</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Versailles 78 FC</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Le Puy</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Fleury Merogis</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Villefranche Beaujolais</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Bourg-en-Bresse</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Chateauroux</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dijon</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>French National</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Rouen</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Quevilly Rouen</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Jong PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Almere City</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>De Graafschap</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Roda JC</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Emmen</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Helmond Sport</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Den Bosch</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>FC Oss</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SKU Amstetten</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Admira Wacker</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>230</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K41" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
         <v>1.07</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N41" t="n">
         <v>4</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O41" t="n">
         <v>1.31</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P41" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q41" t="n">
         <v>1.93</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R41" t="n">
         <v>1.39</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S41" t="n">
         <v>3.4</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T41" t="n">
         <v>1.88</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U41" t="n">
         <v>2.06</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>15.5</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Y41" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="Z41" t="n">
         <v>42</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AA41" t="n">
         <v>160</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AB41" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AC41" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AD41" t="n">
         <v>21</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AE41" t="n">
         <v>75</v>
       </c>
-      <c r="AF21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG21" t="n">
+      <c r="AF41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG41" t="n">
         <v>10</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AH41" t="n">
         <v>20</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AI41" t="n">
         <v>75</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AJ41" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AK41" t="n">
         <v>19</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AL41" t="n">
         <v>36</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AM41" t="n">
         <v>140</v>
       </c>
-      <c r="AN21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AN41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO41" t="n">
         <v>110</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="H2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
         <v>1.79</v>
@@ -694,7 +694,7 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
@@ -724,22 +724,22 @@
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>11.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
         <v>22</v>
@@ -751,7 +751,7 @@
         <v>25</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
         <v>40</v>
@@ -772,7 +772,7 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -841,7 +841,7 @@
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
@@ -946,10 +946,10 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
@@ -982,7 +982,7 @@
         <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
         <v>1.29</v>
@@ -1075,16 +1075,16 @@
         <v>1.97</v>
       </c>
       <c r="G5" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
         <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1093,7 +1093,7 @@
         <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>3.1</v>
@@ -1105,13 +1105,13 @@
         <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
         <v>1.87</v>
@@ -1123,7 +1123,7 @@
         <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1246,13 +1246,13 @@
         <v>1.16</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.24</v>
@@ -1342,13 +1342,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.84</v>
+        <v>1.39</v>
       </c>
       <c r="I7" t="n">
         <v>2.5</v>
@@ -1357,7 +1357,7 @@
         <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>7.8</v>
+        <v>500</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1366,28 +1366,28 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.66</v>
@@ -1486,52 +1486,52 @@
         <v>2.36</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="O8" t="n">
         <v>1.06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
         <v>1.86</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
         <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>15</v>
@@ -1555,7 +1555,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG8" t="n">
         <v>20</v>
@@ -1567,7 +1567,7 @@
         <v>60</v>
       </c>
       <c r="AJ8" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="n">
         <v>55</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>1.03</v>
+        <v>2.82</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1648,16 +1648,16 @@
         <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
         <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.34</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
         <v>6.6</v>
@@ -1756,13 +1756,13 @@
         <v>1.63</v>
       </c>
       <c r="I10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="J10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,22 +1780,22 @@
         <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>1.59</v>
+        <v>2.04</v>
       </c>
       <c r="T10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W10" t="n">
         <v>1.17</v>
@@ -1885,28 +1885,28 @@
         <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I11" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>2.02</v>
+        <v>2.96</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
@@ -1918,22 +1918,22 @@
         <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S11" t="n">
-        <v>1.79</v>
+        <v>2.18</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V11" t="n">
         <v>1.87</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G12" t="n">
         <v>4.3</v>
@@ -2032,7 +2032,7 @@
         <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.3</v>
@@ -2041,10 +2041,10 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
         <v>2.44</v>
@@ -2053,16 +2053,16 @@
         <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="U12" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="V12" t="n">
         <v>2.02</v>
@@ -2071,58 +2071,58 @@
         <v>1.3</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
         <v>34</v>
       </c>
-      <c r="AB12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>46</v>
-      </c>
       <c r="AO12" t="n">
-        <v>13.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -2167,7 +2167,7 @@
         <v>3.7</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2188,7 +2188,7 @@
         <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
         <v>2.88</v>
@@ -2203,7 +2203,7 @@
         <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X13" t="n">
         <v>17.5</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
         <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="I14" t="n">
         <v>2.46</v>
       </c>
       <c r="J14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="K14" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2422,103 +2422,103 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="O15" t="n">
         <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
         <v>1.7</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V15" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,46 +2557,46 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="G16" t="n">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="I16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.16</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.1</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="S16" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2605,64 +2605,64 @@
         <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,43 +2692,43 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
         <v>2.74</v>
       </c>
       <c r="I17" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>2.84</v>
       </c>
       <c r="K17" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S17" t="n">
         <v>3.35</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H18" t="n">
         <v>1.91</v>
@@ -2842,7 +2842,7 @@
         <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,13 +2857,13 @@
         <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
         <v>1.19</v>
       </c>
       <c r="R18" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
         <v>1.01</v>
@@ -2965,7 +2965,7 @@
         <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="H19" t="n">
         <v>10.5</v>
@@ -3088,55 +3088,55 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="G20" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.15</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.8</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S20" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3145,64 +3145,64 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,55 +3223,55 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="G21" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="H21" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I21" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.01</v>
       </c>
       <c r="P21" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,10 +3280,10 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="W21" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3358,55 +3358,55 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>3.85</v>
       </c>
       <c r="G22" t="n">
-        <v>2.56</v>
+        <v>6.6</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>1.72</v>
       </c>
       <c r="I22" t="n">
-        <v>4.9</v>
+        <v>2.16</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M22" t="n">
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O22" t="n">
         <v>1.01</v>
       </c>
       <c r="P22" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="W22" t="n">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3493,55 +3493,55 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>3.85</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>110</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.01</v>
       </c>
       <c r="N23" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="O23" t="n">
         <v>1.01</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.16</v>
+        <v>1.02</v>
       </c>
       <c r="R23" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
         <v>1.01</v>
@@ -3550,10 +3550,10 @@
         <v>1.01</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W23" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3628,67 +3628,67 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.44</v>
+        <v>2.02</v>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
-        <v>2.62</v>
+        <v>3.85</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>1.6</v>
+        <v>2.76</v>
       </c>
       <c r="O24" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V24" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F25" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.9</v>
       </c>
-      <c r="G25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.2</v>
-      </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>1.62</v>
+        <v>2.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P25" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="U25" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="V25" t="n">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="W25" t="n">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I26" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>2.46</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -4048,7 +4048,7 @@
         <v>1.71</v>
       </c>
       <c r="H27" t="n">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="I27" t="n">
         <v>9</v>
@@ -4060,16 +4060,16 @@
         <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
         <v>1.76</v>
@@ -4078,82 +4078,82 @@
         <v>2.04</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="G28" t="n">
-        <v>2.08</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P28" t="n">
-        <v>2.08</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.59</v>
+        <v>2.42</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S29" t="n">
         <v>2.86</v>
       </c>
-      <c r="G29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>2.66</v>
+        <v>1.79</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.81</v>
+        <v>1.55</v>
       </c>
       <c r="G31" t="n">
-        <v>2.24</v>
+        <v>1.59</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>2.98</v>
+        <v>4.3</v>
       </c>
       <c r="K31" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.64</v>
+        <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="G32" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="J32" t="n">
-        <v>1.29</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="G33" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N33" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S33" t="n">
         <v>2.4</v>
       </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="G34" t="n">
-        <v>2.26</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>2.32</v>
       </c>
       <c r="I34" t="n">
-        <v>4.3</v>
+        <v>2.54</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5113,127 +5113,127 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H35" t="n">
-        <v>1.33</v>
+        <v>3.1</v>
       </c>
       <c r="I35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T35" t="n">
         <v>1.5</v>
       </c>
-      <c r="J35" t="n">
-        <v>3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,132 +5243,132 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.54</v>
+        <v>4.4</v>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>14.5</v>
       </c>
       <c r="H36" t="n">
-        <v>5.9</v>
+        <v>1.35</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>1.46</v>
       </c>
       <c r="J36" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="K36" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.66</v>
+        <v>1.13</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>2.26</v>
       </c>
       <c r="H37" t="n">
-        <v>2.14</v>
+        <v>2.86</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>4.7</v>
       </c>
       <c r="J37" t="n">
-        <v>3.35</v>
+        <v>1.09</v>
       </c>
       <c r="K37" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>1.84</v>
+        <v>1.57</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.84</v>
+        <v>1.19</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,132 +5513,132 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.9</v>
+        <v>1.77</v>
       </c>
       <c r="G38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I38" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J38" t="n">
         <v>3.95</v>
       </c>
-      <c r="H38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K38" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="O38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V38" t="n">
         <v>1.28</v>
       </c>
-      <c r="P38" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="W38" t="n">
         <v>1.84</v>
       </c>
-      <c r="R38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T38" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U38" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z38" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE38" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG38" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH38" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM38" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO38" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="G39" t="n">
         <v>2.34</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="I39" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M39" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="P39" t="n">
-        <v>1.71</v>
+        <v>2.66</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.3</v>
+        <v>1.49</v>
       </c>
       <c r="R39" t="n">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>4.4</v>
+        <v>2.02</v>
       </c>
       <c r="T39" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="U39" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X39" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Z39" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO39" t="n">
         <v>26</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="G40" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.6</v>
+        <v>2.08</v>
       </c>
       <c r="I40" t="n">
-        <v>3.65</v>
+        <v>2.28</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>3.05</v>
+        <v>4.9</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="M40" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="O40" t="n">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="P40" t="n">
-        <v>1.54</v>
+        <v>3.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.78</v>
+        <v>1.29</v>
       </c>
       <c r="R40" t="n">
-        <v>1.18</v>
+        <v>1.89</v>
       </c>
       <c r="S40" t="n">
-        <v>5.9</v>
+        <v>1.71</v>
       </c>
       <c r="T40" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="U40" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X40" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD40" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,123 +5918,123 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="G41" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="H41" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="I41" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K41" t="n">
         <v>5.5</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O41" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>1.66</v>
       </c>
       <c r="R41" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="S41" t="n">
-        <v>3.4</v>
+        <v>2.66</v>
       </c>
       <c r="T41" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="U41" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="X41" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AA41" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE41" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AF41" t="n">
         <v>11</v>
       </c>
       <c r="AG41" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ41" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AK41" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM41" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>11.5</v>
+        <v>7.6</v>
       </c>
       <c r="AO41" t="n">
         <v>110</v>
@@ -6043,136 +6043,1351 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Leonesa</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Italian Serie C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Juventus B</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>US Pianese</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Austrian Erste Liga</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SKU Amstetten</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Admira Wacker</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X44" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Union Berlin</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Palermo</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Sampdoria</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H46" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K46" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X46" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>French Ligue 1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Angers</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X48" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Ayr</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>St Johnstone</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H50" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K50" t="n">
+        <v>4</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N50" t="n">
+        <v>4</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Portuguese Segunda Liga</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Torreense</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Feirense</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
+      <c r="F51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K51" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V51" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
         <v>1.75</v>
@@ -700,13 +700,13 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
@@ -727,7 +727,7 @@
         <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
         <v>23</v>
@@ -736,7 +736,7 @@
         <v>21</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -748,13 +748,13 @@
         <v>50</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>150</v>
@@ -946,10 +946,10 @@
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
         <v>4.4</v>
@@ -982,13 +982,13 @@
         <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="V4" t="n">
         <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>1.99</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
         <v>4.3</v>
@@ -1102,7 +1102,7 @@
         <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
         <v>1.98</v>
@@ -1114,19 +1114,19 @@
         <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W5" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>1.39</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="J7" t="n">
         <v>2.92</v>
@@ -1366,16 +1366,16 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
@@ -1390,7 +1390,7 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1501,7 +1501,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="O8" t="n">
         <v>1.06</v>
@@ -1900,7 +1900,7 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1930,7 +1930,7 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
         <v>4.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="I12" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="J12" t="n">
         <v>3.85</v>
@@ -2053,19 +2053,19 @@
         <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
         <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="U12" t="n">
         <v>2.42</v>
       </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="W12" t="n">
         <v>1.3</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
@@ -2203,10 +2203,10 @@
         <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
         <v>17</v>
@@ -2230,7 +2230,7 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2248,7 +2248,7 @@
         <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
@@ -2293,16 +2293,16 @@
         <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I14" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
@@ -2446,16 +2446,16 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="O15" t="n">
         <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
@@ -2464,16 +2464,16 @@
         <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -2599,10 +2599,10 @@
         <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
         <v>1.98</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="O18" t="n">
         <v>1.19</v>
@@ -2995,7 +2995,7 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
         <v>2.92</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
         <v>1.35</v>
@@ -3127,10 +3127,10 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
         <v>1.21</v>
@@ -3145,10 +3145,10 @@
         <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3652,16 +3652,16 @@
         <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -3670,7 +3670,7 @@
         <v>1.69</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
         <v>1.23</v>
@@ -3679,10 +3679,10 @@
         <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="U24" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
@@ -3775,13 +3775,13 @@
         <v>2.56</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H25" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J25" t="n">
         <v>2.76</v>
@@ -3811,19 +3811,19 @@
         <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
         <v>1.76</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
@@ -3910,7 +3910,7 @@
         <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H26" t="n">
         <v>2.36</v>
@@ -3949,7 +3949,7 @@
         <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
         <v>1.95</v>
@@ -3970,7 +3970,7 @@
         <v>16.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3982,7 +3982,7 @@
         <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
         <v>23</v>
@@ -3997,10 +3997,10 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK26" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="n">
         <v>65</v>
@@ -4009,7 +4009,7 @@
         <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AO26" t="n">
         <v>32</v>
@@ -4048,10 +4048,10 @@
         <v>1.71</v>
       </c>
       <c r="H27" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
         <v>3.7</v>
@@ -4060,7 +4060,7 @@
         <v>4.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
@@ -4090,7 +4090,7 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W27" t="n">
         <v>2.4</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G28" t="n">
         <v>2.94</v>
@@ -4186,7 +4186,7 @@
         <v>2.92</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -4315,7 +4315,7 @@
         <v>2.48</v>
       </c>
       <c r="G29" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
         <v>2.76</v>
@@ -4324,7 +4324,7 @@
         <v>3.55</v>
       </c>
       <c r="J29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>3.85</v>
@@ -4345,7 +4345,7 @@
         <v>1.95</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R29" t="n">
         <v>1.32</v>
@@ -4354,16 +4354,16 @@
         <v>2.86</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X29" t="n">
         <v>22</v>
@@ -4450,7 +4450,7 @@
         <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -4462,13 +4462,13 @@
         <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
         <v>3.25</v>
@@ -4492,13 +4492,13 @@
         <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="X30" t="n">
         <v>14</v>
@@ -4534,7 +4534,7 @@
         <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
@@ -4726,10 +4726,10 @@
         <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="J32" t="n">
-        <v>3.8</v>
+        <v>2.78</v>
       </c>
       <c r="K32" t="n">
         <v>5</v>
@@ -4741,16 +4741,16 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.21</v>
+        <v>1.58</v>
       </c>
       <c r="R32" t="n">
         <v>1.44</v>
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>3.45</v>
@@ -4864,10 +4864,10 @@
         <v>3.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4879,10 +4879,10 @@
         <v>5.3</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P33" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q33" t="n">
         <v>1.51</v>
@@ -4894,16 +4894,16 @@
         <v>2.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="U33" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V33" t="n">
         <v>1.34</v>
       </c>
       <c r="W33" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X33" t="n">
         <v>25</v>
@@ -4921,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD33" t="n">
         <v>16.5</v>
@@ -5122,16 +5122,16 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -5140,7 +5140,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5155,13 +5155,13 @@
         <v>2.66</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R35" t="n">
         <v>1.67</v>
       </c>
       <c r="S35" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="T35" t="n">
         <v>1.5</v>
@@ -5170,10 +5170,10 @@
         <v>2.66</v>
       </c>
       <c r="V35" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W35" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X35" t="n">
         <v>29</v>
@@ -5281,13 +5281,13 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>1.68</v>
+        <v>2.62</v>
       </c>
       <c r="Q36" t="n">
         <v>1.13</v>
@@ -5296,13 +5296,13 @@
         <v>1.68</v>
       </c>
       <c r="S36" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T36" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U36" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="V36" t="n">
         <v>2.88</v>
@@ -5422,7 +5422,7 @@
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="Q37" t="n">
         <v>1.19</v>
@@ -5431,7 +5431,7 @@
         <v>1.25</v>
       </c>
       <c r="S37" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="T37" t="n">
         <v>1.01</v>
@@ -5530,13 +5530,13 @@
         <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J38" t="n">
         <v>3.95</v>
@@ -5560,7 +5560,7 @@
         <v>2.62</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.35</v>
+        <v>1.12</v>
       </c>
       <c r="R38" t="n">
         <v>1.69</v>
@@ -5575,10 +5575,10 @@
         <v>1.01</v>
       </c>
       <c r="V38" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W38" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5674,7 +5674,7 @@
         <v>3.45</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
         <v>5.2</v>
@@ -5701,7 +5701,7 @@
         <v>1.67</v>
       </c>
       <c r="S39" t="n">
-        <v>2.02</v>
+        <v>2.22</v>
       </c>
       <c r="T39" t="n">
         <v>1.01</v>
@@ -5710,7 +5710,7 @@
         <v>1.01</v>
       </c>
       <c r="V39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W39" t="n">
         <v>1.74</v>
@@ -5830,7 +5830,7 @@
         <v>3.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R40" t="n">
         <v>1.89</v>
@@ -5974,10 +5974,10 @@
         <v>2.66</v>
       </c>
       <c r="T41" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="U41" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="V41" t="n">
         <v>1.16</v>
@@ -6070,7 +6070,7 @@
         <v>2.46</v>
       </c>
       <c r="G42" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H42" t="n">
         <v>3.35</v>
@@ -6082,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6106,19 +6106,19 @@
         <v>1.17</v>
       </c>
       <c r="S42" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="T42" t="n">
         <v>2.14</v>
       </c>
       <c r="U42" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="V42" t="n">
         <v>1.37</v>
       </c>
       <c r="W42" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X42" t="n">
         <v>1000</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
@@ -6214,13 +6214,13 @@
         <v>5.2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="K43" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M43" t="n">
         <v>1.01</v>
@@ -6250,10 +6250,10 @@
         <v>1.01</v>
       </c>
       <c r="V43" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W43" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6343,31 +6343,31 @@
         <v>4.3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I44" t="n">
         <v>2.58</v>
       </c>
       <c r="J44" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>4.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="O44" t="n">
         <v>1.06</v>
       </c>
       <c r="P44" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q44" t="n">
         <v>1.86</v>
@@ -6496,13 +6496,13 @@
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O45" t="n">
         <v>1.28</v>
       </c>
       <c r="P45" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="Q45" t="n">
         <v>1.84</v>
@@ -6514,10 +6514,10 @@
         <v>3.1</v>
       </c>
       <c r="T45" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V45" t="n">
         <v>1.91</v>
@@ -6571,13 +6571,13 @@
         <v>48</v>
       </c>
       <c r="AM45" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN45" t="n">
         <v>40</v>
       </c>
       <c r="AO45" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="46">
@@ -6607,10 +6607,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="G46" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H46" t="n">
         <v>5.3</v>
@@ -6655,10 +6655,10 @@
         <v>1.74</v>
       </c>
       <c r="V46" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W46" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X46" t="n">
         <v>13</v>
@@ -6772,7 +6772,7 @@
         <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q47" t="n">
         <v>2.3</v>
@@ -6784,7 +6784,7 @@
         <v>4.4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U47" t="n">
         <v>1.95</v>
@@ -6796,7 +6796,7 @@
         <v>1.74</v>
       </c>
       <c r="X47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y47" t="n">
         <v>12</v>
@@ -6886,7 +6886,7 @@
         <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -6895,16 +6895,16 @@
         <v>3.05</v>
       </c>
       <c r="L48" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="M48" t="n">
         <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="O48" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="P48" t="n">
         <v>1.53</v>
@@ -6934,7 +6934,7 @@
         <v>7.8</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z48" t="n">
         <v>22</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G49" t="n">
         <v>4.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="I49" t="n">
         <v>2.62</v>
@@ -7030,22 +7030,22 @@
         <v>3.75</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M49" t="n">
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O49" t="n">
         <v>1.07</v>
       </c>
       <c r="P49" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
         <v>1.26</v>
@@ -7147,13 +7147,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G50" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="H50" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I50" t="n">
         <v>5.3</v>
@@ -7213,7 +7213,7 @@
         <v>140</v>
       </c>
       <c r="AB50" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC50" t="n">
         <v>8.6</v>
@@ -7282,25 +7282,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="G51" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="H51" t="n">
         <v>3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="J51" t="n">
         <v>3.05</v>
       </c>
       <c r="K51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L51" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M51" t="n">
         <v>1.08</v>
@@ -7315,13 +7315,13 @@
         <v>1.61</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="R51" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S51" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T51" t="n">
         <v>1.01</v>
@@ -7330,10 +7330,10 @@
         <v>1.01</v>
       </c>
       <c r="V51" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="W51" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -691,7 +691,7 @@
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>
@@ -709,7 +709,7 @@
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
         <v>2.12</v>
@@ -943,19 +943,19 @@
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -979,16 +979,16 @@
         <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="U4" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
         <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1000,7 +1000,7 @@
         <v>38</v>
       </c>
       <c r="AA4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
         <v>14</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G5" t="n">
         <v>1.99</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.39</v>
@@ -1096,7 +1096,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
         <v>1.37</v>
@@ -1120,7 +1120,7 @@
         <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
@@ -1213,7 +1213,7 @@
         <v>2.42</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
         <v>5.1</v>
@@ -1222,7 +1222,7 @@
         <v>2.54</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1240,7 +1240,7 @@
         <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R6" t="n">
         <v>1.16</v>
@@ -1348,7 +1348,7 @@
         <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.39</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
         <v>2.48</v>
@@ -1363,7 +1363,7 @@
         <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>2.1</v>
@@ -1900,7 +1900,7 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1930,7 +1930,7 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -2059,10 +2059,10 @@
         <v>2.48</v>
       </c>
       <c r="T12" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="U12" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V12" t="n">
         <v>1.97</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
         <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
@@ -2185,7 +2185,7 @@
         <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
         <v>1.46</v>
@@ -2194,13 +2194,13 @@
         <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U13" t="n">
         <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
         <v>1.84</v>
@@ -2293,13 +2293,13 @@
         <v>4.6</v>
       </c>
       <c r="H14" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="I14" t="n">
         <v>2.44</v>
       </c>
       <c r="J14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K14" t="n">
         <v>6</v>
@@ -2446,16 +2446,16 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>1.31</v>
+        <v>2.56</v>
       </c>
       <c r="O15" t="n">
         <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
@@ -2467,7 +2467,7 @@
         <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
         <v>1.27</v>
@@ -2599,7 +2599,7 @@
         <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -2713,13 +2713,13 @@
         <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>1.71</v>
+        <v>2.68</v>
       </c>
       <c r="O17" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P17" t="n">
         <v>1.7</v>
@@ -2734,10 +2734,10 @@
         <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
         <v>1.35</v>
@@ -2851,28 +2851,28 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
         <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.79</v>
@@ -2965,7 +2965,7 @@
         <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="H19" t="n">
         <v>10.5</v>
@@ -2974,7 +2974,7 @@
         <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="K19" t="n">
         <v>6.6</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G20" t="n">
         <v>3.25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I20" t="n">
         <v>3.2</v>
@@ -3127,10 +3127,10 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
         <v>1.21</v>
@@ -3139,10 +3139,10 @@
         <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
         <v>1.46</v>
@@ -3253,13 +3253,13 @@
         <v>1.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>1.6</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="P21" t="n">
         <v>1.6</v>
@@ -3274,10 +3274,10 @@
         <v>3.85</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V21" t="n">
         <v>1.39</v>
@@ -3373,7 +3373,7 @@
         <v>6.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I22" t="n">
         <v>2.16</v>
@@ -3382,19 +3382,19 @@
         <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.35</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>1.64</v>
+        <v>2.64</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P22" t="n">
         <v>1.64</v>
@@ -3409,10 +3409,10 @@
         <v>3.35</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
         <v>1.86</v>
@@ -3523,19 +3523,19 @@
         <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>1.61</v>
+        <v>2.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P23" t="n">
         <v>1.61</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.02</v>
+        <v>1.76</v>
       </c>
       <c r="R23" t="n">
         <v>1.18</v>
@@ -3544,10 +3544,10 @@
         <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
         <v>1.26</v>
@@ -3775,13 +3775,13 @@
         <v>2.56</v>
       </c>
       <c r="G25" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J25" t="n">
         <v>2.76</v>
@@ -3811,19 +3811,19 @@
         <v>1.23</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U25" t="n">
         <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
@@ -3910,7 +3910,7 @@
         <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
         <v>2.36</v>
@@ -3967,10 +3967,10 @@
         <v>9.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
@@ -3982,16 +3982,16 @@
         <v>12.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AG26" t="n">
         <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4009,7 +4009,7 @@
         <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
         <v>32</v>
@@ -4063,13 +4063,13 @@
         <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>1.76</v>
+        <v>2.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P27" t="n">
         <v>1.76</v>
@@ -4084,13 +4084,13 @@
         <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W27" t="n">
         <v>2.4</v>
@@ -4327,16 +4327,16 @@
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>1.95</v>
+        <v>1.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
@@ -4357,7 +4357,7 @@
         <v>1.6</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
         <v>1.49</v>
@@ -4450,7 +4450,7 @@
         <v>1.99</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H30" t="n">
         <v>4</v>
@@ -4459,7 +4459,7 @@
         <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>3.95</v>
@@ -4477,13 +4477,13 @@
         <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q30" t="n">
         <v>1.98</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S30" t="n">
         <v>3.45</v>
@@ -4492,19 +4492,19 @@
         <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="V30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="X30" t="n">
         <v>14</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z30" t="n">
         <v>32</v>
@@ -4534,7 +4534,7 @@
         <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
@@ -4624,10 +4624,10 @@
         <v>2.48</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
         <v>1.15</v>
@@ -4720,7 +4720,7 @@
         <v>1.82</v>
       </c>
       <c r="G32" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H32" t="n">
         <v>3.45</v>
@@ -4729,7 +4729,7 @@
         <v>5.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="K32" t="n">
         <v>5</v>
@@ -4741,16 +4741,16 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="O32" t="n">
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="R32" t="n">
         <v>1.44</v>
@@ -4759,16 +4759,16 @@
         <v>2.38</v>
       </c>
       <c r="T32" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.23</v>
       </c>
       <c r="W32" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -5011,7 +5011,7 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
@@ -5029,10 +5029,10 @@
         <v>2.16</v>
       </c>
       <c r="T34" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="U34" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V34" t="n">
         <v>1.66</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G35" t="n">
         <v>2.3</v>
@@ -5140,7 +5140,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5272,7 +5272,7 @@
         <v>5.3</v>
       </c>
       <c r="K36" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,13 +5281,13 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O36" t="n">
         <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q36" t="n">
         <v>1.13</v>
@@ -5296,7 +5296,7 @@
         <v>1.68</v>
       </c>
       <c r="S36" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T36" t="n">
         <v>1.55</v>
@@ -5416,28 +5416,28 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O37" t="n">
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>1.25</v>
+        <v>2.08</v>
       </c>
       <c r="Q37" t="n">
         <v>1.19</v>
       </c>
       <c r="R37" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="S37" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="T37" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U37" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V37" t="n">
         <v>1.34</v>
@@ -5551,7 +5551,7 @@
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O38" t="n">
         <v>1.12</v>
@@ -5569,10 +5569,10 @@
         <v>1.87</v>
       </c>
       <c r="T38" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="U38" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V38" t="n">
         <v>1.29</v>
@@ -5704,13 +5704,13 @@
         <v>2.22</v>
       </c>
       <c r="T39" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="U39" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="V39" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W39" t="n">
         <v>1.74</v>
@@ -5830,7 +5830,7 @@
         <v>3.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="R40" t="n">
         <v>1.89</v>
@@ -5839,10 +5839,10 @@
         <v>1.71</v>
       </c>
       <c r="T40" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U40" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V40" t="n">
         <v>1.79</v>
@@ -6082,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6112,7 +6112,7 @@
         <v>2.14</v>
       </c>
       <c r="U42" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="V42" t="n">
         <v>1.37</v>
@@ -6205,7 +6205,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H43" t="n">
         <v>3.2</v>
@@ -6223,10 +6223,10 @@
         <v>1.4</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N43" t="n">
-        <v>1.52</v>
+        <v>2.24</v>
       </c>
       <c r="O43" t="n">
         <v>1.01</v>
@@ -6241,19 +6241,19 @@
         <v>1.18</v>
       </c>
       <c r="S43" t="n">
-        <v>2.1</v>
+        <v>3.05</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V43" t="n">
         <v>1.24</v>
       </c>
       <c r="W43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6361,7 +6361,7 @@
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>1.84</v>
+        <v>2.6</v>
       </c>
       <c r="O44" t="n">
         <v>1.06</v>
@@ -6379,10 +6379,10 @@
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V44" t="n">
         <v>1.63</v>
@@ -6502,7 +6502,7 @@
         <v>1.28</v>
       </c>
       <c r="P45" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q45" t="n">
         <v>1.84</v>
@@ -6517,13 +6517,13 @@
         <v>1.73</v>
       </c>
       <c r="U45" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V45" t="n">
         <v>1.91</v>
       </c>
       <c r="W45" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X45" t="n">
         <v>15.5</v>
@@ -6571,7 +6571,7 @@
         <v>48</v>
       </c>
       <c r="AM45" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="n">
         <v>40</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="G46" t="n">
         <v>1.81</v>
@@ -6652,7 +6652,7 @@
         <v>1.97</v>
       </c>
       <c r="U46" t="n">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="V46" t="n">
         <v>1.19</v>
@@ -6757,7 +6757,7 @@
         <v>3.3</v>
       </c>
       <c r="K47" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.51</v>
@@ -6772,7 +6772,7 @@
         <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q47" t="n">
         <v>2.3</v>
@@ -6901,19 +6901,19 @@
         <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O48" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="P48" t="n">
         <v>1.53</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S48" t="n">
         <v>5.9</v>
@@ -6934,7 +6934,7 @@
         <v>7.8</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z48" t="n">
         <v>22</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="G49" t="n">
         <v>4.2</v>
@@ -7036,7 +7036,7 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O49" t="n">
         <v>1.07</v>
@@ -7054,10 +7054,10 @@
         <v>3.15</v>
       </c>
       <c r="T49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V49" t="n">
         <v>1.61</v>
@@ -7306,7 +7306,7 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>1.61</v>
+        <v>2.58</v>
       </c>
       <c r="O51" t="n">
         <v>1.08</v>
@@ -7324,10 +7324,10 @@
         <v>3.55</v>
       </c>
       <c r="T51" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U51" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V51" t="n">
         <v>1.23</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -700,7 +700,7 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
         <v>1.43</v>
@@ -721,7 +721,7 @@
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>9.6</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
@@ -955,7 +955,7 @@
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G5" t="n">
         <v>1.99</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.92</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.54</v>
+        <v>1.04</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
@@ -1228,7 +1228,7 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
         <v>1.3</v>
@@ -1240,7 +1240,7 @@
         <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="n">
         <v>1.16</v>
@@ -1255,10 +1255,10 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
         <v>1.85</v>
@@ -1783,7 +1783,7 @@
         <v>1.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S10" t="n">
         <v>2.04</v>
@@ -1798,7 +1798,7 @@
         <v>2.18</v>
       </c>
       <c r="W10" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
         <v>1.81</v>
@@ -1918,7 +1918,7 @@
         <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
         <v>2.18</v>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2026,7 +2026,7 @@
         <v>1.92</v>
       </c>
       <c r="I12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J12" t="n">
         <v>3.85</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O12" t="n">
         <v>1.19</v>
@@ -2050,22 +2050,22 @@
         <v>2.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
         <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T12" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="U12" t="n">
         <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="W12" t="n">
         <v>1.3</v>
@@ -2113,13 +2113,13 @@
         <v>44</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM12" t="n">
         <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AO12" t="n">
         <v>9.6</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G13" t="n">
         <v>2.18</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2179,16 +2179,16 @@
         <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
         <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
         <v>2.88</v>
@@ -2200,16 +2200,16 @@
         <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
         <v>1.84</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
@@ -2221,7 +2221,7 @@
         <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>16.5</v>
@@ -2230,16 +2230,16 @@
         <v>44</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
         <v>26</v>
@@ -2254,10 +2254,10 @@
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2446,7 +2446,7 @@
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>2.56</v>
+        <v>2.34</v>
       </c>
       <c r="O15" t="n">
         <v>1.07</v>
@@ -2455,7 +2455,7 @@
         <v>1.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
@@ -2503,7 +2503,7 @@
         <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH15" t="n">
         <v>26</v>
@@ -2590,7 +2590,7 @@
         <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
         <v>1.29</v>
@@ -2599,7 +2599,7 @@
         <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>1.83</v>
@@ -2716,16 +2716,16 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="O17" t="n">
         <v>1.06</v>
       </c>
       <c r="P17" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
         <v>1.5</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="H20" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>2.92</v>
@@ -3145,10 +3145,10 @@
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3265,7 +3265,7 @@
         <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
@@ -3517,7 +3517,7 @@
         <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>110</v>
+        <v>500</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H24" t="n">
         <v>3.85</v>
@@ -3652,7 +3652,7 @@
         <v>3.15</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3661,10 +3661,10 @@
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P24" t="n">
         <v>1.69</v>
@@ -3673,7 +3673,7 @@
         <v>2.16</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
         <v>3.6</v>
@@ -3688,7 +3688,7 @@
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3820,10 +3820,10 @@
         <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W25" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
@@ -4063,13 +4063,13 @@
         <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
         <v>2.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="P27" t="n">
         <v>1.76</v>
@@ -4210,7 +4210,7 @@
         <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
@@ -4219,7 +4219,7 @@
         <v>4.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="U28" t="n">
         <v>1.85</v>
@@ -4321,13 +4321,13 @@
         <v>2.76</v>
       </c>
       <c r="I29" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4357,13 +4357,13 @@
         <v>1.6</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X29" t="n">
         <v>22</v>
@@ -4459,10 +4459,10 @@
         <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4498,7 +4498,7 @@
         <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X30" t="n">
         <v>14</v>
@@ -4603,7 +4603,7 @@
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
         <v>4.4</v>
@@ -4624,7 +4624,7 @@
         <v>2.48</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="n">
         <v>1.04</v>
@@ -4720,16 +4720,16 @@
         <v>1.82</v>
       </c>
       <c r="G32" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
         <v>5.7</v>
       </c>
       <c r="J32" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="K32" t="n">
         <v>5</v>
@@ -4747,7 +4747,7 @@
         <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q32" t="n">
         <v>1.41</v>
@@ -4765,10 +4765,10 @@
         <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="W32" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H33" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="J33" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,88 +4876,88 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R33" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="T33" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="U33" t="n">
-        <v>2.54</v>
+        <v>2.16</v>
       </c>
       <c r="V33" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="W33" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="X33" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD33" t="n">
         <v>21</v>
       </c>
-      <c r="Z33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE33" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL33" t="n">
         <v>38</v>
       </c>
-      <c r="AF33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>29</v>
-      </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN33" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I34" t="n">
         <v>2.54</v>
@@ -5011,10 +5011,10 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>2.44</v>
+        <v>5.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P34" t="n">
         <v>2.46</v>
@@ -5023,22 +5023,22 @@
         <v>1.48</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="S34" t="n">
-        <v>2.16</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="U34" t="n">
-        <v>2.12</v>
+        <v>2.58</v>
       </c>
       <c r="V34" t="n">
         <v>1.66</v>
       </c>
       <c r="W34" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X34" t="n">
         <v>1000</v>
@@ -5056,7 +5056,7 @@
         <v>1000</v>
       </c>
       <c r="AC34" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
         <v>1000</v>
@@ -5140,7 +5140,7 @@
         <v>4.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="G36" t="n">
         <v>14.5</v>
@@ -5266,13 +5266,13 @@
         <v>1.35</v>
       </c>
       <c r="I36" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="J36" t="n">
         <v>5.3</v>
       </c>
       <c r="K36" t="n">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5302,10 +5302,10 @@
         <v>1.55</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="W36" t="n">
         <v>1.07</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="G37" t="n">
         <v>2.26</v>
@@ -5653,31 +5653,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G39" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="H39" t="n">
-        <v>2.98</v>
+        <v>3.45</v>
       </c>
       <c r="I39" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
-        <v>5.2</v>
+        <v>4.1</v>
       </c>
       <c r="L39" t="n">
         <v>1.01</v>
@@ -5686,88 +5686,88 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.66</v>
+        <v>2.38</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R39" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="S39" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="U39" t="n">
-        <v>2.16</v>
+        <v>2.54</v>
       </c>
       <c r="V39" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="W39" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y39" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Z39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI39" t="n">
         <v>40</v>
       </c>
-      <c r="AA39" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD39" t="n">
+      <c r="AJ39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK39" t="n">
         <v>21</v>
       </c>
-      <c r="AE39" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>30</v>
-      </c>
       <c r="AL39" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM39" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN39" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AO39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
@@ -6112,7 +6112,7 @@
         <v>2.14</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="V42" t="n">
         <v>1.37</v>
@@ -6208,10 +6208,10 @@
         <v>2.68</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>2.8</v>
@@ -6220,7 +6220,7 @@
         <v>5.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.06</v>
@@ -6229,19 +6229,19 @@
         <v>2.24</v>
       </c>
       <c r="O43" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P43" t="n">
         <v>1.52</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R43" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S43" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T43" t="n">
         <v>1.04</v>
@@ -6250,7 +6250,7 @@
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W43" t="n">
         <v>1.6</v>
@@ -6313,7 +6313,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="H44" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="I44" t="n">
-        <v>2.58</v>
+        <v>2.1</v>
       </c>
       <c r="J44" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.06</v>
+        <v>1.28</v>
       </c>
       <c r="P44" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q44" t="n">
         <v>1.84</v>
       </c>
-      <c r="Q44" t="n">
-        <v>1.86</v>
-      </c>
       <c r="R44" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T44" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U44" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="V44" t="n">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="W44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X44" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA44" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB44" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF44" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL44" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="G45" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="I45" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L45" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="P45" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R45" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="S45" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U45" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="V45" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="W45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X45" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Y45" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z45" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC45" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD45" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF45" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH45" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI45" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ45" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK45" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL45" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM45" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN45" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G46" t="n">
         <v>1.81</v>
@@ -6643,7 +6643,7 @@
         <v>2.04</v>
       </c>
       <c r="R46" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S46" t="n">
         <v>3.7</v>
@@ -6769,7 +6769,7 @@
         <v>3.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P47" t="n">
         <v>1.71</v>
@@ -6913,7 +6913,7 @@
         <v>2.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S48" t="n">
         <v>5.9</v>
@@ -6934,7 +6934,7 @@
         <v>7.8</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z48" t="n">
         <v>22</v>
@@ -7036,7 +7036,7 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O49" t="n">
         <v>1.07</v>
@@ -7186,7 +7186,7 @@
         <v>1.39</v>
       </c>
       <c r="S50" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T50" t="n">
         <v>1.87</v>
@@ -7306,7 +7306,7 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="O51" t="n">
         <v>1.08</v>
@@ -7315,7 +7315,7 @@
         <v>1.61</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.08</v>
+        <v>1.82</v>
       </c>
       <c r="R51" t="n">
         <v>1.22</v>
@@ -7387,6 +7387,141 @@
         <v>1000</v>
       </c>
       <c r="AO51" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO52" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -694,7 +694,7 @@
         <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>2.1</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
@@ -961,13 +961,13 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q4" t="n">
         <v>1.68</v>
@@ -979,10 +979,10 @@
         <v>2.68</v>
       </c>
       <c r="T4" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V4" t="n">
         <v>1.29</v>
@@ -1024,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1033,7 +1033,7 @@
         <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
         <v>90</v>
@@ -1042,7 +1042,7 @@
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1090,16 +1090,16 @@
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
         <v>1.74</v>
@@ -1117,7 +1117,7 @@
         <v>1.88</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V5" t="n">
         <v>1.27</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
         <v>9.6</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.32</v>
@@ -1510,25 +1510,25 @@
         <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
         <v>1.3</v>
       </c>
       <c r="S8" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="U8" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
         <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.6</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>2.82</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
@@ -1651,34 +1651,34 @@
         <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z9" t="n">
         <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>11.5</v>
@@ -1687,7 +1687,7 @@
         <v>22</v>
       </c>
       <c r="AE9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF9" t="n">
         <v>20</v>
@@ -1705,7 +1705,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
         <v>60</v>
@@ -1714,7 +1714,7 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1750,13 +1750,13 @@
         <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1774,19 +1774,19 @@
         <v>2.36</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
         <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
         <v>1.43</v>
       </c>
       <c r="S10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1888,10 +1888,10 @@
         <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="I11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
@@ -1906,7 +1906,7 @@
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
         <v>1.27</v>
@@ -1915,7 +1915,7 @@
         <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
         <v>1.29</v>
@@ -1930,7 +1930,7 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W11" t="n">
         <v>1.25</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H12" t="n">
         <v>1.92</v>
       </c>
       <c r="I12" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
@@ -2041,43 +2041,43 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
         <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U12" t="n">
         <v>2.46</v>
       </c>
       <c r="V12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>1.3</v>
       </c>
       <c r="X12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y12" t="n">
         <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
         <v>24</v>
@@ -2086,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
@@ -2098,10 +2098,10 @@
         <v>36</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
@@ -2110,16 +2110,16 @@
         <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="n">
         <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
         <v>9.6</v>
@@ -2170,13 +2170,13 @@
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
@@ -2257,7 +2257,7 @@
         <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2476,10 +2476,10 @@
         <v>1.65</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
         <v>38</v>
@@ -2500,7 +2500,7 @@
         <v>70</v>
       </c>
       <c r="AF15" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
@@ -2566,7 +2566,7 @@
         <v>1.85</v>
       </c>
       <c r="I16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J16" t="n">
         <v>3.4</v>
@@ -2584,7 +2584,7 @@
         <v>3.3</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
         <v>1.79</v>
@@ -2593,7 +2593,7 @@
         <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
         <v>3.7</v>
@@ -2833,7 +2833,7 @@
         <v>4.7</v>
       </c>
       <c r="H18" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="I18" t="n">
         <v>2.26</v>
@@ -2842,7 +2842,7 @@
         <v>3.35</v>
       </c>
       <c r="K18" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2965,7 +2965,7 @@
         <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H19" t="n">
         <v>10.5</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G20" t="n">
         <v>3.55</v>
@@ -3106,7 +3106,7 @@
         <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="J20" t="n">
         <v>2.92</v>
@@ -3145,7 +3145,7 @@
         <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="W20" t="n">
         <v>1.39</v>
@@ -3517,7 +3517,7 @@
         <v>2.92</v>
       </c>
       <c r="K23" t="n">
-        <v>500</v>
+        <v>970</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
@@ -3820,10 +3820,10 @@
         <v>1.78</v>
       </c>
       <c r="V25" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="X25" t="n">
         <v>13</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="I26" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
         <v>3.5</v>
@@ -3928,19 +3928,19 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R26" t="n">
         <v>1.25</v>
@@ -3949,70 +3949,70 @@
         <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AD26" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE26" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
         <v>27</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="n">
         <v>55</v>
       </c>
       <c r="AL26" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM26" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AO26" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
@@ -4069,7 +4069,7 @@
         <v>2.7</v>
       </c>
       <c r="O27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P27" t="n">
         <v>1.76</v>
@@ -4219,10 +4219,10 @@
         <v>4.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V28" t="n">
         <v>1.46</v>
@@ -4279,7 +4279,7 @@
         <v>190</v>
       </c>
       <c r="AN28" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AO28" t="n">
         <v>55</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I29" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
@@ -4342,7 +4342,7 @@
         <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Q29" t="n">
         <v>1.75</v>
@@ -4351,7 +4351,7 @@
         <v>1.32</v>
       </c>
       <c r="S29" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T29" t="n">
         <v>1.6</v>
@@ -4360,22 +4360,22 @@
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="W29" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y29" t="n">
         <v>18</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -4384,7 +4384,7 @@
         <v>11.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
         <v>48</v>
@@ -4396,7 +4396,7 @@
         <v>17.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
         <v>60</v>
@@ -4405,7 +4405,7 @@
         <v>55</v>
       </c>
       <c r="AK29" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL29" t="n">
         <v>55</v>
@@ -4471,13 +4471,13 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O30" t="n">
         <v>1.37</v>
       </c>
       <c r="P30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q30" t="n">
         <v>1.98</v>
@@ -4501,7 +4501,7 @@
         <v>1.92</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="Y30" t="n">
         <v>16.5</v>
@@ -4510,31 +4510,31 @@
         <v>32</v>
       </c>
       <c r="AA30" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
         <v>60</v>
       </c>
       <c r="AF30" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ30" t="n">
         <v>25</v>
@@ -4549,10 +4549,10 @@
         <v>160</v>
       </c>
       <c r="AN30" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AO30" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="G31" t="n">
-        <v>1.59</v>
+        <v>1.52</v>
       </c>
       <c r="H31" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I31" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,34 +4606,34 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="R31" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
         <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="X31" t="n">
         <v>1000</v>
@@ -4720,13 +4720,13 @@
         <v>1.82</v>
       </c>
       <c r="G32" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="I32" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J32" t="n">
         <v>3.45</v>
@@ -4759,16 +4759,16 @@
         <v>2.38</v>
       </c>
       <c r="T32" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U32" t="n">
         <v>1.04</v>
       </c>
       <c r="V32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4861,7 +4861,7 @@
         <v>2.98</v>
       </c>
       <c r="I33" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -4891,7 +4891,7 @@
         <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
         <v>1.33</v>
@@ -4900,7 +4900,7 @@
         <v>2.16</v>
       </c>
       <c r="V33" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W33" t="n">
         <v>1.74</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G34" t="n">
         <v>3.1</v>
@@ -5131,10 +5131,10 @@
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K35" t="n">
         <v>4.6</v>
@@ -5146,22 +5146,22 @@
         <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P35" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="S35" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T35" t="n">
         <v>1.5</v>
@@ -5170,7 +5170,7 @@
         <v>2.66</v>
       </c>
       <c r="V35" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W35" t="n">
         <v>1.76</v>
@@ -5188,7 +5188,7 @@
         <v>55</v>
       </c>
       <c r="AB35" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
@@ -5227,7 +5227,7 @@
         <v>10.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -5260,16 +5260,16 @@
         <v>6.2</v>
       </c>
       <c r="G36" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="H36" t="n">
         <v>1.35</v>
       </c>
       <c r="I36" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="J36" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="K36" t="n">
         <v>10</v>
@@ -5299,16 +5299,16 @@
         <v>1.92</v>
       </c>
       <c r="T36" t="n">
-        <v>1.55</v>
+        <v>1.04</v>
       </c>
       <c r="U36" t="n">
         <v>1.04</v>
       </c>
       <c r="V36" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="W36" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="X36" t="n">
         <v>1000</v>
@@ -5530,13 +5530,13 @@
         <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="J38" t="n">
         <v>3.95</v>
@@ -5557,28 +5557,28 @@
         <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="Q38" t="n">
         <v>1.12</v>
       </c>
       <c r="R38" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S38" t="n">
         <v>1.87</v>
       </c>
       <c r="T38" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U38" t="n">
         <v>1.04</v>
       </c>
       <c r="V38" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W38" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5662,13 +5662,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
         <v>3.9</v>
@@ -5692,7 +5692,7 @@
         <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q39" t="n">
         <v>1.51</v>
@@ -5713,7 +5713,7 @@
         <v>1.34</v>
       </c>
       <c r="W39" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="X39" t="n">
         <v>25</v>
@@ -5728,25 +5728,25 @@
         <v>65</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC39" t="n">
         <v>9.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AE39" t="n">
         <v>38</v>
       </c>
       <c r="AF39" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AI39" t="n">
         <v>40</v>
@@ -5764,7 +5764,7 @@
         <v>60</v>
       </c>
       <c r="AN39" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AO39" t="n">
         <v>25</v>
@@ -5833,10 +5833,10 @@
         <v>1.29</v>
       </c>
       <c r="R40" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S40" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="T40" t="n">
         <v>1.04</v>
@@ -5941,7 +5941,7 @@
         <v>5.9</v>
       </c>
       <c r="I41" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J41" t="n">
         <v>4.2</v>
@@ -5965,13 +5965,13 @@
         <v>2.2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R41" t="n">
         <v>1.48</v>
       </c>
       <c r="S41" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T41" t="n">
         <v>1.77</v>
@@ -6037,7 +6037,7 @@
         <v>7.6</v>
       </c>
       <c r="AO41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="G43" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H43" t="n">
         <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="L43" t="n">
         <v>1.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="O43" t="n">
-        <v>1.06</v>
+        <v>1.45</v>
       </c>
       <c r="P43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q43" t="n">
         <v>1.93</v>
@@ -6250,61 +6250,61 @@
         <v>1.04</v>
       </c>
       <c r="V43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA43" t="n">
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC43" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG43" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH43" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6382,7 +6382,7 @@
         <v>1.73</v>
       </c>
       <c r="U44" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V44" t="n">
         <v>1.91</v>
@@ -6664,7 +6664,7 @@
         <v>13</v>
       </c>
       <c r="Y46" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
         <v>44</v>
@@ -6697,7 +6697,7 @@
         <v>110</v>
       </c>
       <c r="AJ46" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AK46" t="n">
         <v>20</v>
@@ -6769,10 +6769,10 @@
         <v>3.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q47" t="n">
         <v>2.3</v>
@@ -6841,7 +6841,7 @@
         <v>50</v>
       </c>
       <c r="AM47" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
         <v>27</v>
@@ -6913,7 +6913,7 @@
         <v>2.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S48" t="n">
         <v>5.9</v>
@@ -6973,7 +6973,7 @@
         <v>36</v>
       </c>
       <c r="AL48" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM48" t="n">
         <v>200</v>
@@ -7018,16 +7018,16 @@
         <v>4.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I49" t="n">
         <v>2.62</v>
       </c>
       <c r="J49" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L49" t="n">
         <v>1.33</v>
@@ -7042,7 +7042,7 @@
         <v>1.07</v>
       </c>
       <c r="P49" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q49" t="n">
         <v>2</v>
@@ -7306,7 +7306,7 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="O51" t="n">
         <v>1.08</v>
@@ -7315,7 +7315,7 @@
         <v>1.61</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.82</v>
+        <v>1.53</v>
       </c>
       <c r="R51" t="n">
         <v>1.22</v>
@@ -7432,7 +7432,7 @@
         <v>3.3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
@@ -7447,7 +7447,7 @@
         <v>1.41</v>
       </c>
       <c r="P52" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q52" t="n">
         <v>2.2</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -673,7 +673,7 @@
         <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
         <v>1.79</v>
@@ -688,10 +688,10 @@
         <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -709,10 +709,10 @@
         <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
         <v>2.26</v>
@@ -721,7 +721,7 @@
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.6</v>
@@ -742,7 +742,7 @@
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AF2" t="n">
         <v>50</v>
@@ -766,7 +766,7 @@
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G4" t="n">
         <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>4.3</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
@@ -973,7 +973,7 @@
         <v>1.68</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
         <v>2.68</v>
@@ -985,10 +985,10 @@
         <v>2.28</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X4" t="n">
         <v>24</v>
@@ -1039,7 +1039,7 @@
         <v>90</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>44</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="G5" t="n">
         <v>1.99</v>
@@ -1081,16 +1081,16 @@
         <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1099,13 +1099,13 @@
         <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
         <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
         <v>1.27</v>
@@ -1120,10 +1120,10 @@
         <v>1.88</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X5" t="n">
         <v>15</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>9.6</v>
@@ -1231,22 +1231,22 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="n">
         <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>2.16</v>
+        <v>1.35</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1342,58 +1342,58 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="I7" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="J7" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>500</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.94</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1480,100 +1480,100 @@
         <v>2.96</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I8" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.32</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.06</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="W8" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB8" t="n">
         <v>15</v>
       </c>
-      <c r="Z8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AC8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="n">
         <v>50</v>
       </c>
-      <c r="AB8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>55</v>
-      </c>
       <c r="AL8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H9" t="n">
         <v>3.55</v>
@@ -1633,88 +1633,88 @@
         <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
         <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.35</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
         <v>65</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="n">
         <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="G10" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
@@ -1765,16 +1765,16 @@
         <v>5.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>2.36</v>
+        <v>4.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
         <v>2.36</v>
@@ -1783,22 +1783,22 @@
         <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>2.06</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="I11" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
@@ -1900,82 +1900,82 @@
         <v>4.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>2.98</v>
+        <v>3.85</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="S11" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,10 +1984,10 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="12">
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G12" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
@@ -2041,34 +2041,34 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.59</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.56</v>
-      </c>
       <c r="S12" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="U12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X12" t="n">
         <v>24</v>
@@ -2086,7 +2086,7 @@
         <v>22</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>11.5</v>
@@ -2098,10 +2098,10 @@
         <v>36</v>
       </c>
       <c r="AG12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
@@ -2110,7 +2110,7 @@
         <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL12" t="n">
         <v>46</v>
@@ -2119,7 +2119,7 @@
         <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
         <v>9.6</v>
@@ -2155,25 +2155,25 @@
         <v>2.1</v>
       </c>
       <c r="G13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
         <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>4.4</v>
@@ -2182,10 +2182,10 @@
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
@@ -2197,19 +2197,19 @@
         <v>1.64</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X13" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>29</v>
@@ -2221,22 +2221,22 @@
         <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
         <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>48</v>
@@ -2257,7 +2257,7 @@
         <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2422,58 +2422,58 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.33</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>2.34</v>
+        <v>3.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.63</v>
+        <v>1.79</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.66</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="X15" t="n">
         <v>970</v>
@@ -2482,43 +2482,43 @@
         <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
         <v>970</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK15" t="n">
         <v>26</v>
       </c>
-      <c r="AI15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>32</v>
-      </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="n">
         <v>5.2</v>
       </c>
       <c r="H16" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I16" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="J16" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
         <v>3.9</v>
@@ -2581,16 +2581,16 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O16" t="n">
         <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
@@ -2599,16 +2599,16 @@
         <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V16" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="W16" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X16" t="n">
         <v>15.5</v>
@@ -2659,7 +2659,7 @@
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO16" t="n">
         <v>16.5</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H17" t="n">
         <v>2.74</v>
@@ -2716,16 +2716,16 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O17" t="n">
         <v>1.06</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
         <v>1.22</v>
@@ -2734,7 +2734,7 @@
         <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="U17" t="n">
         <v>1.04</v>
@@ -2743,7 +2743,7 @@
         <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G18" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2857,10 +2857,10 @@
         <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>2.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.38</v>
+        <v>1.64</v>
       </c>
       <c r="R18" t="n">
         <v>1.39</v>
@@ -2875,10 +2875,10 @@
         <v>1.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="W18" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="G19" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="H19" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="J19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="K19" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>2.32</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,13 +3100,13 @@
         <v>2.78</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="H20" t="n">
         <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
         <v>2.92</v>
@@ -3115,10 +3115,10 @@
         <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>3.15</v>
@@ -3130,79 +3130,79 @@
         <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S20" t="n">
         <v>3.5</v>
       </c>
       <c r="T20" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="V20" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="G21" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H21" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
         <v>2.96</v>
@@ -3250,22 +3250,22 @@
         <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M21" t="n">
         <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="O21" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
@@ -3280,10 +3280,10 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G22" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="I22" t="n">
-        <v>2.16</v>
+        <v>2.04</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L22" t="n">
         <v>1.35</v>
@@ -3391,22 +3391,22 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="O22" t="n">
         <v>1.06</v>
       </c>
       <c r="P22" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T22" t="n">
         <v>1.04</v>
@@ -3415,10 +3415,10 @@
         <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="W22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,112 +3502,112 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="J23" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>970</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="O23" t="n">
-        <v>1.06</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="G24" t="n">
         <v>2.26</v>
       </c>
       <c r="H24" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I24" t="n">
         <v>4.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
         <v>4.2</v>
@@ -3676,13 +3676,13 @@
         <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
@@ -3691,58 +3691,58 @@
         <v>1.79</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
         <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G25" t="n">
         <v>3.05</v>
@@ -3781,10 +3781,10 @@
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="K25" t="n">
         <v>3.9</v>
@@ -3808,10 +3808,10 @@
         <v>2.24</v>
       </c>
       <c r="R25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
         <v>1.77</v>
@@ -3826,10 +3826,10 @@
         <v>1.49</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
         <v>24</v>
@@ -3913,7 +3913,7 @@
         <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="I26" t="n">
         <v>2.42</v>
@@ -3928,10 +3928,10 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
@@ -3940,7 +3940,7 @@
         <v>1.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
         <v>1.25</v>
@@ -3949,7 +3949,7 @@
         <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
         <v>1.89</v>
@@ -3958,10 +3958,10 @@
         <v>1.7</v>
       </c>
       <c r="W26" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="Y26" t="n">
         <v>970</v>
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AK26" t="n">
         <v>55</v>
@@ -4006,10 +4006,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -4048,13 +4048,13 @@
         <v>1.71</v>
       </c>
       <c r="H27" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="I27" t="n">
         <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>4.4</v>
@@ -4063,13 +4063,13 @@
         <v>1.34</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="O27" t="n">
-        <v>1.06</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
         <v>1.76</v>
@@ -4078,16 +4078,16 @@
         <v>2.04</v>
       </c>
       <c r="R27" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="T27" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="V27" t="n">
         <v>1.14</v>
@@ -4096,55 +4096,55 @@
         <v>2.4</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4180,16 +4180,16 @@
         <v>2.66</v>
       </c>
       <c r="G28" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H28" t="n">
         <v>2.94</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.92</v>
-      </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
         <v>3.3</v>
@@ -4201,16 +4201,16 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O28" t="n">
         <v>1.48</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
@@ -4222,10 +4222,10 @@
         <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V28" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W28" t="n">
         <v>1.53</v>
@@ -4276,7 +4276,7 @@
         <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN28" t="n">
         <v>44</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H29" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="I29" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
@@ -4333,85 +4333,85 @@
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="O29" t="n">
         <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T29" t="n">
         <v>1.6</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
         <v>1.49</v>
       </c>
       <c r="W29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="X29" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC29" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF29" t="n">
         <v>970</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>48</v>
       </c>
-      <c r="AF29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>55</v>
-      </c>
       <c r="AK29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL29" t="n">
         <v>42</v>
       </c>
-      <c r="AL29" t="n">
-        <v>55</v>
-      </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
@@ -4456,10 +4456,10 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
         <v>4.1</v>
@@ -4486,7 +4486,7 @@
         <v>1.3</v>
       </c>
       <c r="S30" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="T30" t="n">
         <v>1.89</v>
@@ -4495,7 +4495,7 @@
         <v>1.94</v>
       </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W30" t="n">
         <v>1.92</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G31" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
         <v>7.2</v>
       </c>
       <c r="I31" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K31" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4612,31 +4612,31 @@
         <v>1.21</v>
       </c>
       <c r="P31" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q31" t="n">
         <v>1.6</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="S31" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V31" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W31" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4645,25 +4645,25 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4672,19 +4672,19 @@
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G32" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="H32" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4741,34 +4741,34 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>2.42</v>
+        <v>4.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="S32" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="T32" t="n">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="U32" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="V32" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4780,7 +4780,7 @@
         <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="n">
         <v>1000</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G33" t="n">
         <v>2.34</v>
       </c>
       <c r="H33" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
@@ -4876,22 +4876,22 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O33" t="n">
         <v>1.16</v>
       </c>
       <c r="P33" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q33" t="n">
         <v>1.49</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S33" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="T33" t="n">
         <v>1.33</v>
@@ -4900,7 +4900,7 @@
         <v>2.16</v>
       </c>
       <c r="V33" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W33" t="n">
         <v>1.74</v>
@@ -4927,7 +4927,7 @@
         <v>21</v>
       </c>
       <c r="AE33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF33" t="n">
         <v>28</v>
@@ -4951,7 +4951,7 @@
         <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN33" t="n">
         <v>14.5</v>
@@ -4990,16 +4990,16 @@
         <v>2.72</v>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
         <v>2.34</v>
       </c>
       <c r="I34" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
         <v>4.4</v>
@@ -5011,22 +5011,22 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.19</v>
       </c>
       <c r="P34" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q34" t="n">
         <v>1.48</v>
       </c>
       <c r="R34" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T34" t="n">
         <v>1.52</v>
@@ -5035,7 +5035,7 @@
         <v>2.58</v>
       </c>
       <c r="V34" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="W34" t="n">
         <v>1.48</v>
@@ -5131,16 +5131,16 @@
         <v>3.1</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J35" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5164,7 +5164,7 @@
         <v>2.3</v>
       </c>
       <c r="T35" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U35" t="n">
         <v>2.66</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="G36" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="H36" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="I36" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="J36" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="K36" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="L36" t="n">
         <v>1.01</v>
@@ -5281,88 +5281,88 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="O36" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="W36" t="n">
         <v>1.13</v>
       </c>
-      <c r="P36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.01</v>
-      </c>
       <c r="X36" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Y36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AG36" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="37">
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="G37" t="n">
         <v>2.26</v>
       </c>
       <c r="H37" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="J37" t="n">
-        <v>1.09</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.01</v>
@@ -5416,40 +5416,40 @@
         <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="O37" t="n">
         <v>1.19</v>
       </c>
       <c r="P37" t="n">
-        <v>2.08</v>
+        <v>2.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="R37" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>2.02</v>
+        <v>2.44</v>
       </c>
       <c r="T37" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="U37" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="V37" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="W37" t="n">
         <v>1.79</v>
       </c>
       <c r="X37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y37" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z37" t="n">
         <v>1000</v>
@@ -5458,46 +5458,46 @@
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG37" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH37" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="G38" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
@@ -5557,16 +5557,16 @@
         <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="R38" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="S38" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T38" t="n">
         <v>1.35</v>
@@ -5578,7 +5578,7 @@
         <v>1.32</v>
       </c>
       <c r="W38" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
         <v>1000</v>
@@ -5665,16 +5665,16 @@
         <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
         <v>4.1</v>
@@ -5695,7 +5695,7 @@
         <v>2.42</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
         <v>1.59</v>
@@ -5713,10 +5713,10 @@
         <v>1.34</v>
       </c>
       <c r="W39" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="X39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y39" t="n">
         <v>21</v>
@@ -5800,7 +5800,7 @@
         <v>2.92</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H40" t="n">
         <v>2.08</v>
@@ -5821,28 +5821,28 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P40" t="n">
         <v>3.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R40" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="T40" t="n">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="U40" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="V40" t="n">
         <v>1.79</v>
@@ -5851,58 +5851,58 @@
         <v>1.44</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA40" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="41">
@@ -5947,7 +5947,7 @@
         <v>4.2</v>
       </c>
       <c r="K41" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="L41" t="n">
         <v>1.01</v>
@@ -5956,19 +5956,19 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q41" t="n">
         <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S41" t="n">
         <v>2.64</v>
@@ -5995,7 +5995,7 @@
         <v>55</v>
       </c>
       <c r="AA41" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB41" t="n">
         <v>10.5</v>
@@ -6007,7 +6007,7 @@
         <v>25</v>
       </c>
       <c r="AE41" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF41" t="n">
         <v>11</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G42" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H42" t="n">
         <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L42" t="n">
         <v>1.01</v>
@@ -6091,28 +6091,28 @@
         <v>1.13</v>
       </c>
       <c r="N42" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O42" t="n">
         <v>1.57</v>
       </c>
       <c r="P42" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="R42" t="n">
         <v>1.17</v>
       </c>
       <c r="S42" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="T42" t="n">
         <v>2.14</v>
       </c>
       <c r="U42" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="V42" t="n">
         <v>1.37</v>
@@ -6121,58 +6121,58 @@
         <v>1.61</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y42" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AA42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI42" t="n">
         <v>100</v>
       </c>
-      <c r="AB42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ42" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AK42" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL42" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>2.12</v>
       </c>
       <c r="G43" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="H43" t="n">
         <v>3.25</v>
@@ -6214,28 +6214,28 @@
         <v>4.4</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="K43" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="O43" t="n">
         <v>1.45</v>
       </c>
       <c r="P43" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="R43" t="n">
         <v>1.22</v>
@@ -6244,16 +6244,16 @@
         <v>3.45</v>
       </c>
       <c r="T43" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
-        <v>1.04</v>
+        <v>1.71</v>
       </c>
       <c r="V43" t="n">
         <v>1.29</v>
       </c>
       <c r="W43" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="X43" t="n">
         <v>12</v>
@@ -6373,7 +6373,7 @@
         <v>1.84</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S44" t="n">
         <v>3.1</v>
@@ -6472,16 +6472,16 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G45" t="n">
         <v>4.3</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I45" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="J45" t="n">
         <v>3.2</v>
@@ -6493,58 +6493,58 @@
         <v>1.32</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>2.6</v>
+        <v>3.45</v>
       </c>
       <c r="O45" t="n">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="P45" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q45" t="n">
         <v>1.86</v>
       </c>
       <c r="R45" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="U45" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="V45" t="n">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="W45" t="n">
         <v>1.3</v>
       </c>
       <c r="X45" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y45" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
       </c>
       <c r="AB45" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC45" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
         <v>1000</v>
@@ -6553,7 +6553,7 @@
         <v>1000</v>
       </c>
       <c r="AG45" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH45" t="n">
         <v>1000</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G46" t="n">
         <v>1.81</v>
@@ -6619,10 +6619,10 @@
         <v>6.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K46" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
         <v>1.01</v>
@@ -6631,22 +6631,22 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P46" t="n">
         <v>1.81</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R46" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T46" t="n">
         <v>1.97</v>
@@ -6655,7 +6655,7 @@
         <v>1.89</v>
       </c>
       <c r="V46" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W46" t="n">
         <v>2.22</v>
@@ -6676,7 +6676,7 @@
         <v>7.8</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD46" t="n">
         <v>22</v>
@@ -6697,10 +6697,10 @@
         <v>110</v>
       </c>
       <c r="AJ46" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
         <v>42</v>
@@ -6709,7 +6709,7 @@
         <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO46" t="n">
         <v>150</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G47" t="n">
         <v>2.34</v>
@@ -6772,22 +6772,22 @@
         <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R47" t="n">
         <v>1.26</v>
       </c>
       <c r="S47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="U47" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V47" t="n">
         <v>1.37</v>
@@ -6802,7 +6802,7 @@
         <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA47" t="n">
         <v>75</v>
@@ -6814,7 +6814,7 @@
         <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE47" t="n">
         <v>50</v>
@@ -6835,16 +6835,16 @@
         <v>32</v>
       </c>
       <c r="AK47" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL47" t="n">
         <v>50</v>
       </c>
       <c r="AM47" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN47" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO47" t="n">
         <v>60</v>
@@ -6901,7 +6901,7 @@
         <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O48" t="n">
         <v>1.61</v>
@@ -6934,7 +6934,7 @@
         <v>7.8</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z48" t="n">
         <v>22</v>
@@ -7015,13 +7015,13 @@
         <v>3.2</v>
       </c>
       <c r="G49" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H49" t="n">
         <v>2.2</v>
       </c>
       <c r="I49" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J49" t="n">
         <v>3.2</v>
@@ -7036,55 +7036,55 @@
         <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>2.84</v>
+        <v>3.25</v>
       </c>
       <c r="O49" t="n">
-        <v>1.07</v>
+        <v>1.34</v>
       </c>
       <c r="P49" t="n">
         <v>1.78</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R49" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="S49" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T49" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="U49" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="V49" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="W49" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD49" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
@@ -7093,7 +7093,7 @@
         <v>1000</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH49" t="n">
         <v>1000</v>
@@ -7153,10 +7153,10 @@
         <v>1.81</v>
       </c>
       <c r="H50" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I50" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J50" t="n">
         <v>3.95</v>
@@ -7186,7 +7186,7 @@
         <v>1.39</v>
       </c>
       <c r="S50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T50" t="n">
         <v>1.87</v>
@@ -7282,22 +7282,22 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="G51" t="n">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="H51" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J51" t="n">
         <v>3.05</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L51" t="n">
         <v>1.37</v>
@@ -7306,19 +7306,19 @@
         <v>1.08</v>
       </c>
       <c r="N51" t="n">
-        <v>2.1</v>
+        <v>2.48</v>
       </c>
       <c r="O51" t="n">
         <v>1.08</v>
       </c>
       <c r="P51" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R51" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="S51" t="n">
         <v>3.55</v>
@@ -7330,10 +7330,10 @@
         <v>1.04</v>
       </c>
       <c r="V51" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="W51" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="X51" t="n">
         <v>1000</v>
@@ -7417,112 +7417,112 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G52" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I52" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J52" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="K52" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L52" t="n">
         <v>1.01</v>
       </c>
       <c r="M52" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N52" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="O52" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P52" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="R52" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S52" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U52" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V52" t="n">
         <v>1.25</v>
       </c>
       <c r="W52" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="X52" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA52" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB52" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD52" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AE52" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF52" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH52" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK52" t="n">
         <v>30</v>
       </c>
-      <c r="AI52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>32</v>
-      </c>
       <c r="AL52" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN52" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO52" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K2" t="n">
         <v>4.2</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -712,19 +712,19 @@
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z2" t="n">
         <v>11.5</v>
@@ -733,28 +733,28 @@
         <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="n">
         <v>150</v>
@@ -811,7 +811,7 @@
         <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>1.24</v>
       </c>
       <c r="J3" t="n">
         <v>1.03</v>
@@ -829,13 +829,13 @@
         <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -844,7 +844,7 @@
         <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
@@ -937,109 +937,109 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G4" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.32</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.68</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.63</v>
-      </c>
       <c r="U4" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y4" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG4" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>13</v>
-      </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
         <v>44</v>
@@ -1072,76 +1072,76 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="G5" t="n">
-        <v>1.99</v>
+        <v>2.24</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.27</v>
       </c>
-      <c r="S5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,19 +1150,19 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1171,13 +1171,13 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -1207,109 +1207,109 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.32</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.32</v>
+        <v>1.77</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.34</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>1.35</v>
+        <v>3.15</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
         <v>5.3</v>
       </c>
       <c r="H7" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="I7" t="n">
         <v>2.06</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
         <v>1.94</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1483,16 +1483,16 @@
         <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
         <v>1.35</v>
@@ -1501,52 +1501,52 @@
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R8" t="n">
         <v>1.32</v>
       </c>
-      <c r="P8" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
         <v>1.39</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
         <v>14.5</v>
@@ -1561,7 +1561,7 @@
         <v>17</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>55</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
         <v>2.28</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,28 +1636,28 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
         <v>2.02</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T9" t="n">
         <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.35</v>
@@ -1669,55 +1669,55 @@
         <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM9" t="n">
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
         <v>1.25</v>
@@ -1771,28 +1771,28 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
         <v>2.36</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.26</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U10" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
         <v>2.2</v>
@@ -1816,10 +1816,10 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -1882,82 +1882,82 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="I11" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O11" t="n">
         <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="V11" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z11" t="n">
         <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC11" t="n">
         <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF11" t="n">
         <v>44</v>
@@ -1969,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>70</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -2023,7 +2023,7 @@
         <v>4.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I12" t="n">
         <v>2.02</v>
@@ -2035,34 +2035,34 @@
         <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="T12" t="n">
         <v>1.59</v>
       </c>
       <c r="U12" t="n">
-        <v>2.48</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.98</v>
@@ -2071,58 +2071,58 @@
         <v>1.31</v>
       </c>
       <c r="X12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
         <v>80</v>
       </c>
       <c r="AK12" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.35</v>
@@ -2176,61 +2176,61 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
         <v>1.77</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="U13" t="n">
         <v>2.32</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="X13" t="n">
         <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2239,22 +2239,22 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL13" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM13" t="n">
         <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>36</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.6</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>6</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
         <v>2.3</v>
@@ -2431,16 +2431,16 @@
         <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="M15" t="n">
         <v>1.08</v>
@@ -2452,7 +2452,7 @@
         <v>1.34</v>
       </c>
       <c r="P15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q15" t="n">
         <v>2.02</v>
@@ -2461,70 +2461,70 @@
         <v>1.31</v>
       </c>
       <c r="S15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T15" t="n">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2572,10 +2572,10 @@
         <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2587,10 +2587,10 @@
         <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
         <v>1.3</v>
@@ -2611,46 +2611,46 @@
         <v>1.25</v>
       </c>
       <c r="X16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG16" t="n">
         <v>23</v>
       </c>
-      <c r="AB16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>20</v>
-      </c>
       <c r="AH16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>140</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="n">
         <v>80</v>
@@ -2659,10 +2659,10 @@
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,91 +2692,91 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="J17" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.68</v>
+        <v>3.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q17" t="n">
         <v>2.12</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2827,52 +2827,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I18" t="n">
         <v>2.14</v>
       </c>
       <c r="J18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>2.44</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
         <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>1.39</v>
+        <v>1.51</v>
       </c>
       <c r="S18" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
         <v>1.87</v>
@@ -2881,58 +2881,58 @@
         <v>1.34</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2962,22 +2962,22 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="I19" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="K19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3100,22 +3100,22 @@
         <v>2.78</v>
       </c>
       <c r="G20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H20" t="n">
         <v>2.54</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
@@ -3127,28 +3127,28 @@
         <v>1.37</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
         <v>1.28</v>
       </c>
       <c r="S20" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T20" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="U20" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -3232,52 +3232,52 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H21" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K21" t="n">
         <v>3.85</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N21" t="n">
-        <v>2.52</v>
+        <v>2.78</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="V21" t="n">
         <v>1.43</v>
@@ -3286,37 +3286,37 @@
         <v>1.48</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA21" t="n">
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3367,91 +3367,91 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="G22" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="I22" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="J22" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
         <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="V22" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="W22" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF22" t="n">
         <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G23" t="n">
         <v>2.42</v>
@@ -3511,49 +3511,49 @@
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K23" t="n">
         <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>1.09</v>
       </c>
       <c r="N23" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="U23" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
         <v>14</v>
@@ -3637,58 +3637,58 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
         <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P24" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
         <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.89</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X24" t="n">
         <v>14</v>
@@ -3775,37 +3775,37 @@
         <v>2.6</v>
       </c>
       <c r="G25" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="H25" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>2.78</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L25" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R25" t="n">
         <v>1.24</v>
@@ -3814,16 +3814,16 @@
         <v>4.3</v>
       </c>
       <c r="T25" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.77</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.78</v>
       </c>
       <c r="V25" t="n">
         <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X25" t="n">
         <v>12.5</v>
@@ -3841,7 +3841,7 @@
         <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>16.5</v>
@@ -3868,13 +3868,13 @@
         <v>44</v>
       </c>
       <c r="AL25" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM25" t="n">
         <v>160</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO25" t="n">
         <v>55</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G26" t="n">
         <v>4.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I26" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
@@ -3925,7 +3925,7 @@
         <v>3.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
         <v>1.08</v>
@@ -3937,7 +3937,7 @@
         <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q26" t="n">
         <v>2.2</v>
@@ -3949,58 +3949,58 @@
         <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.91</v>
+        <v>1.76</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.77</v>
       </c>
       <c r="V26" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="W26" t="n">
         <v>1.33</v>
       </c>
       <c r="X26" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Z26" t="n">
         <v>970</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AK26" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
         <v>80</v>
@@ -4009,10 +4009,10 @@
         <v>160</v>
       </c>
       <c r="AN26" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AO26" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -4042,10 +4042,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="G27" t="n">
-        <v>1.71</v>
+        <v>1.76</v>
       </c>
       <c r="H27" t="n">
         <v>5.6</v>
@@ -4054,64 +4054,64 @@
         <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O27" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W27" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="X27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z27" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
         <v>34</v>
@@ -4120,31 +4120,31 @@
         <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO27" t="n">
         <v>1000</v>
@@ -4180,22 +4180,22 @@
         <v>2.66</v>
       </c>
       <c r="G28" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="H28" t="n">
         <v>2.94</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
         <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
@@ -4204,13 +4204,13 @@
         <v>2.74</v>
       </c>
       <c r="O28" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P28" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
         <v>1.21</v>
@@ -4219,58 +4219,58 @@
         <v>4.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U28" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="W28" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="X28" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
         <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA28" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AF28" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AL28" t="n">
         <v>65</v>
@@ -4279,10 +4279,10 @@
         <v>180</v>
       </c>
       <c r="AN28" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -4312,79 +4312,79 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="G29" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="H29" t="n">
         <v>2.76</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J29" t="n">
         <v>3.4</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="R29" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="T29" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
         <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W29" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X29" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y29" t="n">
         <v>970</v>
       </c>
-      <c r="Y29" t="n">
-        <v>15</v>
-      </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD29" t="n">
         <v>970</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>34</v>
@@ -4396,28 +4396,28 @@
         <v>970</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL29" t="n">
         <v>42</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>2.08</v>
@@ -4459,13 +4459,13 @@
         <v>4.4</v>
       </c>
       <c r="J30" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -4480,7 +4480,7 @@
         <v>1.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R30" t="n">
         <v>1.3</v>
@@ -4489,70 +4489,70 @@
         <v>3.75</v>
       </c>
       <c r="T30" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U30" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W30" t="n">
         <v>1.92</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="Y30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z30" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA30" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AE30" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF30" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL30" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AM30" t="n">
         <v>160</v>
       </c>
       <c r="AN30" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31">
@@ -4582,61 +4582,61 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="H31" t="n">
-        <v>7.2</v>
+        <v>6.2</v>
       </c>
       <c r="I31" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="R31" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.52</v>
+        <v>2.68</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U31" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V31" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>3</v>
+        <v>2.68</v>
       </c>
       <c r="X31" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4645,37 +4645,37 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="G32" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I32" t="n">
         <v>4.6</v>
@@ -4732,43 +4732,43 @@
         <v>3.8</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="S32" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U32" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="V32" t="n">
         <v>1.27</v>
       </c>
       <c r="W32" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="X32" t="n">
         <v>1000</v>
@@ -4777,40 +4777,40 @@
         <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA32" t="n">
         <v>100</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL32" t="n">
         <v>1000</v>
@@ -4819,7 +4819,7 @@
         <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H33" t="n">
         <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
         <v>4</v>
       </c>
       <c r="K33" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M33" t="n">
         <v>1.03</v>
@@ -4882,82 +4882,82 @@
         <v>1.16</v>
       </c>
       <c r="P33" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q33" t="n">
         <v>1.49</v>
       </c>
       <c r="R33" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="S33" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="U33" t="n">
-        <v>2.16</v>
+        <v>2.72</v>
       </c>
       <c r="V33" t="n">
         <v>1.41</v>
       </c>
       <c r="W33" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Y33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI33" t="n">
         <v>40</v>
       </c>
-      <c r="AA33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>48</v>
-      </c>
       <c r="AJ33" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AK33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AM33" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN33" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO33" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
@@ -5002,16 +5002,16 @@
         <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.19</v>
@@ -5020,19 +5020,19 @@
         <v>2.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="R34" t="n">
         <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="T34" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U34" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="V34" t="n">
         <v>1.63</v>
@@ -5041,58 +5041,58 @@
         <v>1.48</v>
       </c>
       <c r="X34" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y34" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK34" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
         <v>2.3</v>
@@ -5137,10 +5137,10 @@
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="n">
         <v>1.03</v>
@@ -5155,19 +5155,19 @@
         <v>2.56</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="T35" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="U35" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="V35" t="n">
         <v>1.42</v>
@@ -5176,58 +5176,58 @@
         <v>1.76</v>
       </c>
       <c r="X35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y35" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z35" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH35" t="n">
         <v>18.5</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AI35" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN35" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AO35" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -5260,13 +5260,13 @@
         <v>7.2</v>
       </c>
       <c r="G36" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="I36" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="J36" t="n">
         <v>5.4</v>
@@ -5275,13 +5275,13 @@
         <v>6.4</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O36" t="n">
         <v>1.14</v>
@@ -5290,40 +5290,40 @@
         <v>2.92</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="R36" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.04</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.2</v>
       </c>
       <c r="V36" t="n">
         <v>3.05</v>
       </c>
       <c r="W36" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="X36" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Y36" t="n">
         <v>16.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA36" t="n">
         <v>16.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AC36" t="n">
         <v>17</v>
@@ -5335,10 +5335,10 @@
         <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG36" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH36" t="n">
         <v>26</v>
@@ -5347,22 +5347,22 @@
         <v>32</v>
       </c>
       <c r="AJ36" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AK36" t="n">
         <v>110</v>
       </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN36" t="n">
         <v>95</v>
       </c>
-      <c r="AN36" t="n">
-        <v>90</v>
-      </c>
       <c r="AO36" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="37">
@@ -5392,25 +5392,25 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I37" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J37" t="n">
         <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M37" t="n">
         <v>1.03</v>
@@ -5431,19 +5431,19 @@
         <v>1.57</v>
       </c>
       <c r="S37" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="T37" t="n">
         <v>1.47</v>
       </c>
       <c r="U37" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="V37" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W37" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X37" t="n">
         <v>29</v>
@@ -5452,31 +5452,31 @@
         <v>23</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF37" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5485,7 +5485,7 @@
         <v>32</v>
       </c>
       <c r="AK37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL37" t="n">
         <v>34</v>
@@ -5494,10 +5494,10 @@
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO37" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -5533,49 +5533,49 @@
         <v>2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K38" t="n">
         <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="O38" t="n">
         <v>1.12</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="R38" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="S38" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="T38" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U38" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="V38" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W38" t="n">
         <v>2</v>
@@ -5593,25 +5593,25 @@
         <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC38" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE38" t="n">
         <v>1000</v>
       </c>
       <c r="AF38" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI38" t="n">
         <v>1000</v>
@@ -5620,7 +5620,7 @@
         <v>1000</v>
       </c>
       <c r="AK38" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL38" t="n">
         <v>1000</v>
@@ -5629,10 +5629,10 @@
         <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -5662,88 +5662,88 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G39" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I39" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
         <v>4.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R39" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="S39" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="T39" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="U39" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="V39" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W39" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X39" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Y39" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Z39" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA39" t="n">
         <v>65</v>
       </c>
       <c r="AB39" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF39" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
         <v>970</v>
@@ -5752,19 +5752,19 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN39" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AO39" t="n">
         <v>25</v>
@@ -5797,19 +5797,19 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="G40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I40" t="n">
         <v>2.28</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K40" t="n">
         <v>4.9</v>
@@ -5830,13 +5830,13 @@
         <v>3.45</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T40" t="n">
         <v>1.31</v>
@@ -5851,58 +5851,58 @@
         <v>1.44</v>
       </c>
       <c r="X40" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Y40" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE40" t="n">
         <v>24</v>
       </c>
-      <c r="Z40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>20</v>
-      </c>
       <c r="AF40" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AG40" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AJ40" t="n">
         <v>55</v>
       </c>
       <c r="AK40" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM40" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AN40" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="41">
@@ -5938,7 +5938,7 @@
         <v>1.65</v>
       </c>
       <c r="H41" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I41" t="n">
         <v>7.4</v>
@@ -5947,94 +5947,94 @@
         <v>4.2</v>
       </c>
       <c r="K41" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R41" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S41" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="T41" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="U41" t="n">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="V41" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W41" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="X41" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH41" t="n">
         <v>25</v>
       </c>
-      <c r="Y41" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>190</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>22</v>
-      </c>
       <c r="AI41" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ41" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
         <v>120</v>
       </c>
       <c r="AN41" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO41" t="n">
         <v>100</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G42" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J42" t="n">
         <v>3</v>
@@ -6085,46 +6085,46 @@
         <v>3.2</v>
       </c>
       <c r="L42" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="M42" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N42" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O42" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P42" t="n">
         <v>1.51</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="R42" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="S42" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="T42" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="V42" t="n">
         <v>1.37</v>
       </c>
       <c r="W42" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X42" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z42" t="n">
         <v>24</v>
@@ -6133,13 +6133,13 @@
         <v>80</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC42" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE42" t="n">
         <v>65</v>
@@ -6154,7 +6154,7 @@
         <v>26</v>
       </c>
       <c r="AI42" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ42" t="n">
         <v>44</v>
@@ -6166,7 +6166,7 @@
         <v>70</v>
       </c>
       <c r="AM42" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN42" t="n">
         <v>46</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="G43" t="n">
         <v>2.42</v>
@@ -6211,31 +6211,31 @@
         <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="K43" t="n">
         <v>3.95</v>
       </c>
       <c r="L43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="O43" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P43" t="n">
         <v>1.58</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R43" t="n">
         <v>1.22</v>
@@ -6244,22 +6244,22 @@
         <v>3.45</v>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="U43" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="V43" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W43" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Z43" t="n">
         <v>34</v>
@@ -6268,7 +6268,7 @@
         <v>1000</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>8.800000000000001</v>
@@ -6280,16 +6280,16 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG43" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH43" t="n">
         <v>26</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="n">
         <v>38</v>
@@ -6307,7 +6307,7 @@
         <v>34</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
@@ -6355,7 +6355,7 @@
         <v>3.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -6370,10 +6370,10 @@
         <v>2.14</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R44" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
         <v>3.1</v>
@@ -6382,7 +6382,7 @@
         <v>1.73</v>
       </c>
       <c r="U44" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V44" t="n">
         <v>1.91</v>
@@ -6391,7 +6391,7 @@
         <v>1.33</v>
       </c>
       <c r="X44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y44" t="n">
         <v>11</v>
@@ -6406,7 +6406,7 @@
         <v>16.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD44" t="n">
         <v>10.5</v>
@@ -6472,25 +6472,25 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="H45" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="I45" t="n">
         <v>2.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K45" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L45" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
@@ -6502,37 +6502,37 @@
         <v>1.32</v>
       </c>
       <c r="P45" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R45" t="n">
         <v>1.32</v>
       </c>
       <c r="S45" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T45" t="n">
         <v>1.65</v>
       </c>
       <c r="U45" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V45" t="n">
         <v>1.76</v>
       </c>
       <c r="W45" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="X45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y45" t="n">
         <v>12</v>
       </c>
       <c r="Z45" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA45" t="n">
         <v>1000</v>
@@ -6547,16 +6547,16 @@
         <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF45" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG45" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI45" t="n">
         <v>1000</v>
@@ -6577,7 +6577,7 @@
         <v>1000</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46">
@@ -6607,31 +6607,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G46" t="n">
         <v>1.81</v>
       </c>
       <c r="H46" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I46" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O46" t="n">
         <v>1.37</v>
@@ -6640,19 +6640,19 @@
         <v>1.81</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
         <v>1.3</v>
       </c>
       <c r="S46" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="U46" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V46" t="n">
         <v>1.2</v>
@@ -6661,55 +6661,55 @@
         <v>2.22</v>
       </c>
       <c r="X46" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Z46" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AA46" t="n">
         <v>190</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE46" t="n">
         <v>110</v>
       </c>
       <c r="AF46" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI46" t="n">
         <v>110</v>
       </c>
       <c r="AJ46" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AK46" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL46" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM46" t="n">
         <v>170</v>
       </c>
       <c r="AN46" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AO46" t="n">
         <v>150</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G47" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H47" t="n">
         <v>3.6</v>
@@ -6769,10 +6769,10 @@
         <v>3.1</v>
       </c>
       <c r="O47" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P47" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q47" t="n">
         <v>2.32</v>
@@ -6784,7 +6784,7 @@
         <v>4.5</v>
       </c>
       <c r="T47" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U47" t="n">
         <v>1.94</v>
@@ -6799,7 +6799,7 @@
         <v>11</v>
       </c>
       <c r="Y47" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z47" t="n">
         <v>23</v>
@@ -6808,7 +6808,7 @@
         <v>75</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC47" t="n">
         <v>7.4</v>
@@ -6844,7 +6844,7 @@
         <v>140</v>
       </c>
       <c r="AN47" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO47" t="n">
         <v>60</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G48" t="n">
         <v>2.56</v>
@@ -6895,13 +6895,13 @@
         <v>3.05</v>
       </c>
       <c r="L48" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="M48" t="n">
         <v>1.14</v>
       </c>
       <c r="N48" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="O48" t="n">
         <v>1.61</v>
@@ -6916,10 +6916,10 @@
         <v>1.18</v>
       </c>
       <c r="S48" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="T48" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U48" t="n">
         <v>1.77</v>
@@ -6943,7 +6943,7 @@
         <v>80</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC48" t="n">
         <v>7</v>
@@ -6973,7 +6973,7 @@
         <v>36</v>
       </c>
       <c r="AL48" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM48" t="n">
         <v>200</v>
@@ -7015,58 +7015,58 @@
         <v>3.2</v>
       </c>
       <c r="G49" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H49" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I49" t="n">
-        <v>2.66</v>
+        <v>2.58</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L49" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="M49" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
         <v>3.25</v>
       </c>
       <c r="O49" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P49" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="R49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S49" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U49" t="n">
         <v>1.88</v>
       </c>
       <c r="V49" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="W49" t="n">
         <v>1.35</v>
       </c>
       <c r="X49" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y49" t="n">
         <v>11.5</v>
@@ -7096,7 +7096,7 @@
         <v>18</v>
       </c>
       <c r="AH49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
         <v>1000</v>
@@ -7117,7 +7117,7 @@
         <v>1000</v>
       </c>
       <c r="AO49" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
@@ -7165,7 +7165,7 @@
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M50" t="n">
         <v>1.07</v>
@@ -7174,25 +7174,25 @@
         <v>4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P50" t="n">
         <v>2.04</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R50" t="n">
         <v>1.39</v>
       </c>
       <c r="S50" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T50" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U50" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
         <v>1.23</v>
@@ -7210,10 +7210,10 @@
         <v>40</v>
       </c>
       <c r="AA50" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB50" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC50" t="n">
         <v>8.6</v>
@@ -7246,7 +7246,7 @@
         <v>34</v>
       </c>
       <c r="AM50" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN50" t="n">
         <v>11</v>
@@ -7282,109 +7282,109 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="G51" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="I51" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J51" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N51" t="n">
         <v>3.05</v>
       </c>
-      <c r="K51" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L51" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N51" t="n">
-        <v>2.48</v>
-      </c>
       <c r="O51" t="n">
-        <v>1.08</v>
+        <v>1.4</v>
       </c>
       <c r="P51" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.54</v>
+        <v>2.16</v>
       </c>
       <c r="R51" t="n">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="S51" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="T51" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="V51" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="W51" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y51" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA51" t="n">
         <v>1000</v>
       </c>
       <c r="AB51" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC51" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD51" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE51" t="n">
         <v>1000</v>
       </c>
       <c r="AF51" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI51" t="n">
         <v>1000</v>
       </c>
       <c r="AJ51" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK51" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL51" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM51" t="n">
         <v>1000</v>
       </c>
       <c r="AN51" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO51" t="n">
         <v>1000</v>
@@ -7417,79 +7417,79 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="H52" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="I52" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J52" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K52" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L52" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M52" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="O52" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P52" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="R52" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S52" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T52" t="n">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="U52" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="V52" t="n">
         <v>1.25</v>
       </c>
       <c r="W52" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X52" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y52" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AA52" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB52" t="n">
         <v>7.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD52" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AE52" t="n">
         <v>95</v>
@@ -7501,16 +7501,16 @@
         <v>13</v>
       </c>
       <c r="AH52" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI52" t="n">
         <v>110</v>
       </c>
       <c r="AJ52" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AK52" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL52" t="n">
         <v>60</v>
@@ -7519,7 +7519,7 @@
         <v>190</v>
       </c>
       <c r="AN52" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO52" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -736,7 +736,7 @@
         <v>24</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -748,7 +748,7 @@
         <v>44</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,33 +788,33 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Arnavutkoy Belediyesi GVS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Mus Spor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>1.24</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
         <v>1000</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kanchanaburi</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.94</v>
+        <v>1.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.16</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>1.02</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>3.55</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>1.24</v>
       </c>
       <c r="O4" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,72 +1058,72 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FK Kudrivka</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.95</v>
+        <v>1.09</v>
       </c>
       <c r="G5" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.03</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>1.04</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1132,16 +1132,16 @@
         <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,19 +1150,19 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1171,19 +1171,19 @@
         <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Kanchanaburi</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="G6" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="H6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.6</v>
       </c>
-      <c r="I6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
       <c r="K6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
         <v>4</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>1.77</v>
+        <v>2.06</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.29</v>
       </c>
-      <c r="S6" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.22</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="X6" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
         <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="n">
         <v>14.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,75 +1328,75 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>Fethiyespor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Metalist 1925</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>1.02</v>
       </c>
       <c r="G7" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>1.92</v>
+        <v>1.02</v>
       </c>
       <c r="I7" t="n">
-        <v>2.06</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>3.65</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>FK Kudrivka</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.96</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="H8" t="n">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P8" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="Q8" t="n">
         <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S8" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AK8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Menemen Belediyespor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Aliaga Futbol AS</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>1.24</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S9" t="n">
-        <v>3.65</v>
+        <v>1.02</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bregenz</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>2.36</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>2.26</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="V10" t="n">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="W10" t="n">
-        <v>1.22</v>
+        <v>1.84</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13</v>
       </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,114 +1868,114 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Metalist 1925</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>4.2</v>
       </c>
       <c r="G11" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S11" t="n">
         <v>5</v>
       </c>
-      <c r="H11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
       <c r="T11" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.62</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>1.94</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>1.27</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -1984,16 +1984,16 @@
         <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.02</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="S12" t="n">
-        <v>2.58</v>
+        <v>3.65</v>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="V12" t="n">
-        <v>1.98</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.31</v>
+        <v>1.78</v>
       </c>
       <c r="X12" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
         <v>17</v>
       </c>
-      <c r="AA12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>38</v>
-      </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK12" t="n">
         <v>30</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>55</v>
-      </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>2.96</v>
       </c>
       <c r="G13" t="n">
-        <v>2.24</v>
+        <v>3.45</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>2.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="K13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>1.83</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="S13" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>1.81</v>
+        <v>1.41</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>70</v>
       </c>
-      <c r="AB13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>27</v>
-      </c>
       <c r="AK13" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K14" t="n">
         <v>4.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.25</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.06</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.77</v>
+        <v>1.22</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="G16" t="n">
-        <v>5.2</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="I16" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="U16" t="n">
-        <v>1.79</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W16" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="X16" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC16" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AG16" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="AI16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK16" t="n">
         <v>50</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>85</v>
-      </c>
       <c r="AL16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM16" t="n">
         <v>80</v>
       </c>
-      <c r="AM16" t="n">
-        <v>150</v>
-      </c>
       <c r="AN16" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="G17" t="n">
-        <v>2.8</v>
+        <v>2.24</v>
       </c>
       <c r="H17" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="I17" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="P17" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="V17" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>3.3</v>
       </c>
       <c r="G18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>4.3</v>
       </c>
-      <c r="H18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4.7</v>
-      </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.3</v>
       </c>
-      <c r="G19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="H19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="S19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X19" t="n">
         <v>16</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.78</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.54</v>
+        <v>1.87</v>
       </c>
       <c r="I20" t="n">
-        <v>2.92</v>
+        <v>1.99</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="P20" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R20" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="T20" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V20" t="n">
         <v>2</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.52</v>
-      </c>
       <c r="W20" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD20" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>15</v>
-      </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ20" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="AK20" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AM20" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AO20" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.15</v>
+        <v>1.37</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>6.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>2.94</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3358,37 +3358,37 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>2.38</v>
       </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>2.82</v>
       </c>
       <c r="H22" t="n">
-        <v>1.82</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
         <v>3.1</v>
@@ -3397,61 +3397,61 @@
         <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="U22" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.98</v>
+        <v>1.39</v>
       </c>
       <c r="W22" t="n">
-        <v>1.24</v>
+        <v>1.55</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG22" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>2.8</v>
       </c>
       <c r="G23" t="n">
-        <v>2.42</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>2.56</v>
       </c>
       <c r="I23" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M23" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
         <v>3.55</v>
       </c>
       <c r="T23" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="U23" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.46</v>
       </c>
       <c r="X23" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD23" t="n">
         <v>15</v>
       </c>
-      <c r="Z23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AE23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>65</v>
       </c>
-      <c r="AF23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO23" t="n">
         <v>38</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="O24" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>2.26</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="X24" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AA24" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF24" t="n">
         <v>21</v>
       </c>
-      <c r="AE24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="n">
+      <c r="AG24" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG24" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AK24" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="AL24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO24" t="n">
         <v>55</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.96</v>
+        <v>3.85</v>
       </c>
       <c r="H25" t="n">
-        <v>2.86</v>
+        <v>2.02</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>2.14</v>
       </c>
       <c r="J25" t="n">
-        <v>2.98</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>2.88</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.21</v>
       </c>
       <c r="P25" t="n">
-        <v>1.64</v>
+        <v>2.28</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.26</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>2.36</v>
       </c>
       <c r="T25" t="n">
-        <v>1.76</v>
+        <v>1.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.77</v>
+        <v>2.18</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.87</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51</v>
+        <v>1.35</v>
       </c>
       <c r="X25" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AB25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC25" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AD25" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="n">
         <v>50</v>
       </c>
-      <c r="AF25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>70</v>
-      </c>
       <c r="AM25" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.4</v>
+        <v>2.16</v>
       </c>
       <c r="G26" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.24</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.46</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K26" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P26" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R26" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S26" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="T26" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="V26" t="n">
-        <v>1.68</v>
+        <v>1.31</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG26" t="n">
         <v>13.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO26" t="n">
         <v>75</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.61</v>
+        <v>2.04</v>
       </c>
       <c r="G27" t="n">
-        <v>1.76</v>
+        <v>2.22</v>
       </c>
       <c r="H27" t="n">
-        <v>5.6</v>
+        <v>3.85</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L27" t="n">
         <v>1.46</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="U27" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="W27" t="n">
-        <v>2.32</v>
+        <v>1.81</v>
       </c>
       <c r="X27" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG27" t="n">
         <v>13.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD27" t="n">
+      <c r="AH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>34</v>
       </c>
-      <c r="AE27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>21</v>
-      </c>
       <c r="AK27" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,84 +4163,84 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.66</v>
+        <v>2.54</v>
       </c>
       <c r="G28" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="H28" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K28" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O28" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="R28" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S28" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="V28" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W28" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="X28" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
         <v>11.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
         <v>11</v>
@@ -4249,46 +4249,46 @@
         <v>8.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG28" t="n">
         <v>16</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.58</v>
+        <v>4.6</v>
       </c>
       <c r="G29" t="n">
-        <v>2.86</v>
+        <v>5.4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.76</v>
+        <v>1.83</v>
       </c>
       <c r="I29" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K29" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="P29" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="V29" t="n">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="W29" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AB29" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="G30" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="I30" t="n">
-        <v>4.4</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S30" t="n">
         <v>3.9</v>
       </c>
-      <c r="L30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T30" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="U30" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="V30" t="n">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="W30" t="n">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="X30" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z30" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AA30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC30" t="n">
         <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AE30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM30" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.52</v>
+        <v>2.66</v>
       </c>
       <c r="G31" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P31" t="n">
         <v>1.59</v>
       </c>
-      <c r="H31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>8</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.24</v>
-      </c>
       <c r="Q31" t="n">
-        <v>1.69</v>
+        <v>2.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.21</v>
       </c>
       <c r="S31" t="n">
-        <v>2.68</v>
+        <v>4.7</v>
       </c>
       <c r="T31" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="U31" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="W31" t="n">
-        <v>2.68</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA31" t="n">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.6</v>
+        <v>55</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,118 +4708,118 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.86</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2.04</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.62</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U32" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="W32" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL32" t="n">
         <v>42</v>
       </c>
-      <c r="AA32" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4843,127 +4843,127 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="G33" t="n">
-        <v>2.32</v>
+        <v>1.59</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K33" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L33" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>6</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.16</v>
       </c>
-      <c r="P33" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.41</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.76</v>
+        <v>2.68</v>
       </c>
       <c r="X33" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Y33" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="Z33" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AA33" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AB33" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AE33" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AF33" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AL33" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AM33" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AO33" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4978,121 +4978,121 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.72</v>
+        <v>3.4</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="I34" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.19</v>
+        <v>1.41</v>
       </c>
       <c r="P34" t="n">
-        <v>2.48</v>
+        <v>1.67</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.56</v>
+        <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="S34" t="n">
-        <v>2.32</v>
+        <v>4.1</v>
       </c>
       <c r="T34" t="n">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="U34" t="n">
-        <v>2.32</v>
+        <v>1.79</v>
       </c>
       <c r="V34" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="W34" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="X34" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AA34" t="n">
         <v>40</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE34" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AF34" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG34" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AH34" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AI34" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AJ34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK34" t="n">
         <v>55</v>
       </c>
-      <c r="AK34" t="n">
-        <v>34</v>
-      </c>
       <c r="AL34" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN34" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AO34" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -5113,121 +5113,121 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U35" t="n">
         <v>2.16</v>
       </c>
-      <c r="G35" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2.6</v>
-      </c>
       <c r="V35" t="n">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="W35" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="Y35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AE35" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK35" t="n">
         <v>22</v>
       </c>
-      <c r="AG35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>25</v>
-      </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO35" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
         <v>7.2</v>
       </c>
-      <c r="G36" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
-        <v>6.8</v>
-      </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P36" t="n">
-        <v>2.92</v>
+        <v>3.45</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="R36" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="S36" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="T36" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="U36" t="n">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="V36" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="W36" t="n">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="X36" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="Y36" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH36" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB36" t="n">
+      <c r="AI36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM36" t="n">
         <v>46</v>
       </c>
-      <c r="AC36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>38</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>250</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>100</v>
-      </c>
       <c r="AN36" t="n">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="AO36" t="n">
-        <v>5.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5383,121 +5383,121 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F37" t="n">
         <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="H37" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="O37" t="n">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="P37" t="n">
-        <v>2.42</v>
+        <v>1.8</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="R37" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="S37" t="n">
-        <v>2.34</v>
+        <v>3.75</v>
       </c>
       <c r="T37" t="n">
-        <v>1.47</v>
+        <v>1.73</v>
       </c>
       <c r="U37" t="n">
-        <v>2.24</v>
+        <v>1.8</v>
       </c>
       <c r="V37" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="W37" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="X37" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>29</v>
       </c>
-      <c r="Y37" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>32</v>
-      </c>
       <c r="AK37" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL37" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AO37" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38">
@@ -5518,91 +5518,91 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="I38" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J38" t="n">
         <v>4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>4.4</v>
       </c>
-      <c r="K38" t="n">
-        <v>5</v>
-      </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="P38" t="n">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.32</v>
+        <v>1.52</v>
       </c>
       <c r="R38" t="n">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="S38" t="n">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="T38" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="U38" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="V38" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="W38" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="X38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y38" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB38" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF38" t="n">
         <v>22</v>
@@ -5611,28 +5611,28 @@
         <v>14.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK38" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL38" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN38" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G39" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S39" t="n">
         <v>2.06</v>
       </c>
-      <c r="G39" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P39" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2.32</v>
-      </c>
       <c r="T39" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="U39" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="V39" t="n">
-        <v>1.35</v>
+        <v>3.15</v>
       </c>
       <c r="W39" t="n">
-        <v>1.79</v>
+        <v>1.1</v>
       </c>
       <c r="X39" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Y39" t="n">
-        <v>25</v>
+        <v>16.5</v>
       </c>
       <c r="Z39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG39" t="n">
         <v>38</v>
       </c>
-      <c r="AA39" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>14</v>
-      </c>
       <c r="AH39" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI39" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ39" t="n">
-        <v>34</v>
+        <v>250</v>
       </c>
       <c r="AK39" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AL39" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AM39" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>12.5</v>
+        <v>95</v>
       </c>
       <c r="AO39" t="n">
-        <v>25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="40">
@@ -5788,127 +5788,127 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.94</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="H40" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.28</v>
+        <v>3.85</v>
       </c>
       <c r="J40" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K40" t="n">
         <v>4.4</v>
       </c>
-      <c r="K40" t="n">
-        <v>4.9</v>
-      </c>
       <c r="L40" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="P40" t="n">
-        <v>3.45</v>
+        <v>2.42</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.33</v>
+        <v>1.58</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="S40" t="n">
-        <v>1.81</v>
+        <v>2.22</v>
       </c>
       <c r="T40" t="n">
-        <v>1.31</v>
+        <v>1.57</v>
       </c>
       <c r="U40" t="n">
-        <v>3.2</v>
+        <v>2.48</v>
       </c>
       <c r="V40" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="W40" t="n">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="X40" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Y40" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Z40" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AA40" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL40" t="n">
         <v>34</v>
       </c>
-      <c r="AC40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL40" t="n">
+      <c r="AM40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO40" t="n">
         <v>32</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>46</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>8.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,132 +5918,132 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="G41" t="n">
-        <v>1.65</v>
+        <v>2.02</v>
       </c>
       <c r="H41" t="n">
-        <v>5.8</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K41" t="n">
         <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="P41" t="n">
-        <v>2.22</v>
+        <v>3.15</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="R41" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="S41" t="n">
-        <v>2.46</v>
+        <v>1.94</v>
       </c>
       <c r="T41" t="n">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="U41" t="n">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="V41" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD41" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AE41" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AG41" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI41" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AL41" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AO41" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6053,132 +6053,132 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="G42" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
+        <v>3</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.4</v>
       </c>
-      <c r="I42" t="n">
-        <v>3.65</v>
-      </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="L42" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>2.54</v>
+        <v>6.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.58</v>
+        <v>1.15</v>
       </c>
       <c r="P42" t="n">
-        <v>1.51</v>
+        <v>2.86</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.74</v>
+        <v>1.45</v>
       </c>
       <c r="R42" t="n">
-        <v>1.18</v>
+        <v>1.76</v>
       </c>
       <c r="S42" t="n">
-        <v>5.8</v>
+        <v>2.08</v>
       </c>
       <c r="T42" t="n">
-        <v>2.16</v>
+        <v>1.41</v>
       </c>
       <c r="U42" t="n">
-        <v>1.75</v>
+        <v>2.82</v>
       </c>
       <c r="V42" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="X42" t="n">
-        <v>8.4</v>
+        <v>36</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.4</v>
+        <v>25</v>
       </c>
       <c r="Z42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK42" t="n">
         <v>24</v>
       </c>
-      <c r="AA42" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>40</v>
-      </c>
       <c r="AL42" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AM42" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="AN42" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AO42" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6188,132 +6188,132 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="G43" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="J43" t="n">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="K43" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L43" t="n">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>2.54</v>
+        <v>5.5</v>
       </c>
       <c r="O43" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T43" t="n">
         <v>1.44</v>
       </c>
-      <c r="P43" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R43" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S43" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.97</v>
-      </c>
       <c r="U43" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="V43" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="W43" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="X43" t="n">
-        <v>10.5</v>
+        <v>29</v>
       </c>
       <c r="Y43" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN43" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>34</v>
-      </c>
       <c r="AO43" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6323,132 +6323,132 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="G44" t="n">
-        <v>3.95</v>
+        <v>3.05</v>
       </c>
       <c r="H44" t="n">
-        <v>2.08</v>
+        <v>2.34</v>
       </c>
       <c r="I44" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="J44" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K44" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="O44" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P44" t="n">
-        <v>2.14</v>
+        <v>2.48</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="S44" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="T44" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="U44" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V44" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="W44" t="n">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="X44" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="Y44" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z44" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AA44" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AB44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG44" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC44" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE44" t="n">
+      <c r="AH44" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN44" t="n">
         <v>21</v>
       </c>
-      <c r="AF44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG44" t="n">
+      <c r="AO44" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>13.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6458,132 +6458,132 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>3.3</v>
+        <v>1.54</v>
       </c>
       <c r="G45" t="n">
-        <v>3.95</v>
+        <v>1.65</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16</v>
+        <v>5.8</v>
       </c>
       <c r="I45" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="K45" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>3.45</v>
+        <v>4.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>1.84</v>
+        <v>2.22</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="R45" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="S45" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="T45" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="U45" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V45" t="n">
-        <v>1.76</v>
+        <v>1.14</v>
       </c>
       <c r="W45" t="n">
-        <v>1.34</v>
+        <v>2.5</v>
       </c>
       <c r="X45" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y45" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="Z45" t="n">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="AA45" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB45" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>13.5</v>
+        <v>29</v>
       </c>
       <c r="AE45" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AF45" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AG45" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ45" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH45" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK45" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL45" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM45" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO45" t="n">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,127 +6598,127 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="G46" t="n">
-        <v>1.81</v>
+        <v>2.64</v>
       </c>
       <c r="H46" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>6</v>
+        <v>3.65</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="L46" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N46" t="n">
-        <v>3.35</v>
+        <v>2.54</v>
       </c>
       <c r="O46" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V46" t="n">
         <v>1.37</v>
       </c>
-      <c r="P46" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.2</v>
-      </c>
       <c r="W46" t="n">
-        <v>2.22</v>
+        <v>1.6</v>
       </c>
       <c r="X46" t="n">
-        <v>16</v>
+        <v>8.4</v>
       </c>
       <c r="Y46" t="n">
-        <v>21</v>
+        <v>9.4</v>
       </c>
       <c r="Z46" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD46" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AE46" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AF46" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AG46" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
         <v>110</v>
       </c>
       <c r="AJ46" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="AK46" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="AL46" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AM46" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="AN46" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AO46" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -6728,132 +6728,132 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="G47" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L47" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="O47" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W47" t="n">
         <v>1.7</v>
       </c>
-      <c r="Q47" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T47" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W47" t="n">
-        <v>1.74</v>
-      </c>
       <c r="X47" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB47" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD47" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AE47" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AF47" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AK47" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AL47" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM47" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN47" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AO47" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -6863,132 +6863,132 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.54</v>
+        <v>3.9</v>
       </c>
       <c r="G48" t="n">
-        <v>2.56</v>
+        <v>3.95</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>2.06</v>
       </c>
       <c r="I48" t="n">
-        <v>3.7</v>
+        <v>2.08</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K48" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="L48" t="n">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>2.58</v>
+        <v>4.3</v>
       </c>
       <c r="O48" t="n">
-        <v>1.61</v>
+        <v>1.28</v>
       </c>
       <c r="P48" t="n">
-        <v>1.53</v>
+        <v>2.14</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.8</v>
+        <v>1.83</v>
       </c>
       <c r="R48" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="S48" t="n">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="T48" t="n">
-        <v>2.24</v>
+        <v>1.73</v>
       </c>
       <c r="U48" t="n">
-        <v>1.77</v>
+        <v>2.28</v>
       </c>
       <c r="V48" t="n">
-        <v>1.37</v>
+        <v>1.92</v>
       </c>
       <c r="W48" t="n">
-        <v>1.64</v>
+        <v>1.33</v>
       </c>
       <c r="X48" t="n">
-        <v>7.8</v>
+        <v>16</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z48" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AA48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM48" t="n">
         <v>80</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>200</v>
       </c>
       <c r="AN48" t="n">
         <v>40</v>
       </c>
       <c r="AO48" t="n">
-        <v>80</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -6998,132 +6998,132 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G49" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H49" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="I49" t="n">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K49" t="n">
         <v>3.75</v>
       </c>
       <c r="L49" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="O49" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P49" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="R49" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="S49" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="T49" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="U49" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V49" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="W49" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X49" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y49" t="n">
         <v>11.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD49" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE49" t="n">
         <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG49" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO49" t="n">
         <v>23</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -7133,132 +7133,132 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="G50" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="H50" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="I50" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="J50" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="P50" t="n">
-        <v>2.04</v>
+        <v>1.83</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="R50" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="S50" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="T50" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="U50" t="n">
-        <v>2.1</v>
+        <v>1.89</v>
       </c>
       <c r="V50" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="W50" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="X50" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y50" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Z50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA50" t="n">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="AB50" t="n">
         <v>9</v>
       </c>
       <c r="AC50" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD50" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE50" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AF50" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG50" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI50" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AJ50" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AK50" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="AL50" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="AM50" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN50" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -7268,260 +7268,800 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="H51" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="J51" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="K51" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M51" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
         <v>3.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="P51" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="R51" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="T51" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="U51" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="V51" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W51" t="n">
         <v>1.74</v>
       </c>
       <c r="X51" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="Y51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD51" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z51" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD51" t="n">
+      <c r="AE51" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH51" t="n">
         <v>21</v>
       </c>
-      <c r="AE51" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>24</v>
-      </c>
       <c r="AI51" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ51" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK51" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM51" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN51" t="n">
         <v>26</v>
       </c>
       <c r="AO51" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Pisa</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S52" t="n">
+        <v>6</v>
+      </c>
+      <c r="T52" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="X52" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Scottish Championship</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Ayr</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>St Johnstone</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X53" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Real Sociedad</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W54" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X54" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Portuguese Segunda Liga</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Torreense</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Feirense</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X55" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>22:00:00</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Junior FC Barranquilla</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Tolima</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F56" t="n">
         <v>1.92</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G56" t="n">
         <v>2.04</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H56" t="n">
         <v>4.6</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I56" t="n">
         <v>5.4</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J56" t="n">
         <v>3.3</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K56" t="n">
         <v>3.75</v>
       </c>
-      <c r="L52" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N52" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O52" t="n">
+      <c r="L56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O56" t="n">
         <v>1.42</v>
       </c>
-      <c r="P52" t="n">
+      <c r="P56" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q52" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R52" t="n">
+      <c r="Q56" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V56" t="n">
         <v>1.25</v>
       </c>
-      <c r="S52" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W52" t="n">
+      <c r="W56" t="n">
         <v>1.96</v>
       </c>
-      <c r="X52" t="n">
+      <c r="X56" t="n">
         <v>13</v>
       </c>
-      <c r="Y52" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z52" t="n">
+      <c r="Y56" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z56" t="n">
         <v>44</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AA56" t="n">
         <v>160</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AB56" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC52" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD52" t="n">
+      <c r="AC56" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD56" t="n">
         <v>25</v>
       </c>
-      <c r="AE52" t="n">
-        <v>95</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG52" t="n">
+      <c r="AE56" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF56" t="n">
         <v>13</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AG56" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH56" t="n">
         <v>27</v>
       </c>
-      <c r="AI52" t="n">
+      <c r="AI56" t="n">
         <v>110</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AJ56" t="n">
         <v>28</v>
       </c>
-      <c r="AK52" t="n">
+      <c r="AK56" t="n">
         <v>29</v>
       </c>
-      <c r="AL52" t="n">
+      <c r="AL56" t="n">
         <v>60</v>
       </c>
-      <c r="AM52" t="n">
+      <c r="AM56" t="n">
         <v>190</v>
       </c>
-      <c r="AN52" t="n">
+      <c r="AN56" t="n">
         <v>22</v>
       </c>
-      <c r="AO52" t="n">
+      <c r="AO56" t="n">
         <v>140</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,13 +811,13 @@
         <v>5.1</v>
       </c>
       <c r="I3" t="n">
-        <v>140</v>
+        <v>870</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
@@ -844,10 +844,10 @@
         <v>2.34</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="G4" t="n">
         <v>3.95</v>
@@ -967,7 +967,7 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="Q4" t="n">
         <v>1.77</v>
@@ -1096,13 +1096,13 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.01</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>7.8</v>
+        <v>4.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="I6" t="n">
-        <v>2.14</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
         <v>1.54</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1345,19 +1345,19 @@
         <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
         <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,31 +1366,31 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.02</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
         <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="W7" t="n">
         <v>3</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>FK Usce Novi Beograd</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kanchanaburi</t>
+          <t>SU Dinamo Jug</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>2.14</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>1.02</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>4.1</v>
+        <v>1.02</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>1.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>1.01</v>
       </c>
       <c r="T9" t="n">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fethiyespor</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>Kanchanaburi</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="n">
-        <v>600</v>
+        <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="I10" t="n">
-        <v>870</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.06</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
-        <v>500</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P10" t="n">
-        <v>1.3</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.02</v>
+        <v>1.78</v>
       </c>
       <c r="R10" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>1.3</v>
+        <v>2.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.02</v>
+        <v>1.87</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,60 +1868,60 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Fethiyespor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="G11" t="n">
-        <v>2.84</v>
+        <v>600</v>
       </c>
       <c r="H11" t="n">
-        <v>2.94</v>
+        <v>1.01</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>870</v>
       </c>
       <c r="J11" t="n">
-        <v>2.8</v>
+        <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.14</v>
+        <v>1.32</v>
       </c>
       <c r="O11" t="n">
         <v>1.01</v>
       </c>
       <c r="P11" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.96</v>
+        <v>1.02</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S11" t="n">
-        <v>2.74</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -1930,10 +1930,10 @@
         <v>1.04</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.02</v>
       </c>
       <c r="W11" t="n">
-        <v>1.54</v>
+        <v>1.02</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="K12" t="n">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.96</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="W12" t="n">
         <v>1.54</v>
       </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FK Kudrivka</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P13" t="n">
         <v>2</v>
       </c>
-      <c r="G13" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.72</v>
-      </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.56</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="W13" t="n">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AA13" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>170</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,75 +2273,75 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Menemen Belediyespor</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Aliaga Futbol AS</t>
+          <t>FK Kudrivka</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.1</v>
       </c>
-      <c r="G14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.96</v>
-      </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.29</v>
       </c>
-      <c r="S14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.71</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
         <v>1000</v>
@@ -2350,34 +2350,34 @@
         <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2386,13 +2386,13 @@
         <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN14" t="n">
         <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -2413,67 +2413,67 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bursaspor</t>
+          <t>Menemen Belediyespor</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ankara Demirspor</t>
+          <t>Aliaga Futbol AS</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.37</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>5.3</v>
+        <v>1.97</v>
       </c>
       <c r="I15" t="n">
-        <v>140</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>2.94</v>
       </c>
       <c r="K15" t="n">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>2.02</v>
+        <v>2.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.56</v>
+        <v>1.86</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="S15" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="W15" t="n">
-        <v>2.42</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,60 +2543,60 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Bursaspor</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Ankara Demirspor</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.88</v>
+        <v>1.37</v>
       </c>
       <c r="G16" t="n">
-        <v>4.6</v>
+        <v>1.69</v>
       </c>
       <c r="H16" t="n">
-        <v>2.08</v>
+        <v>5.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>870</v>
       </c>
       <c r="J16" t="n">
-        <v>2.78</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>5.8</v>
+        <v>500</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.36</v>
+        <v>2.96</v>
       </c>
       <c r="O16" t="n">
         <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.51</v>
+        <v>2.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>1.56</v>
       </c>
       <c r="R16" t="n">
-        <v>1.18</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
         <v>1.04</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.03</v>
       </c>
       <c r="W16" t="n">
-        <v>1.27</v>
+        <v>2.44</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="G17" t="n">
-        <v>2.18</v>
+        <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.35</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.84</v>
-      </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="n">
-        <v>9.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Metalist 1925</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.65</v>
+        <v>1.92</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
-        <v>2.06</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.46</v>
+        <v>1.35</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.47</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>1.83</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="T18" t="n">
-        <v>2.24</v>
+        <v>1.77</v>
       </c>
       <c r="U18" t="n">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AA18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AM18" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bregenz</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Metalist 1925</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.52</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.2</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S19" t="n">
-        <v>2.46</v>
+        <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.56</v>
+        <v>2.24</v>
       </c>
       <c r="U19" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,103 +3088,103 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.78</v>
+        <v>1.66</v>
       </c>
       <c r="I20" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="J20" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.39</v>
+        <v>1.54</v>
       </c>
       <c r="S20" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="U20" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD20" t="n">
         <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
@@ -3199,10 +3199,10 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.96</v>
+        <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>3.45</v>
+        <v>5.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.4</v>
+        <v>1.79</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="R21" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="S21" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.59</v>
+        <v>2.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="X21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AG21" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN21" t="n">
         <v>70</v>
       </c>
-      <c r="AK21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.22</v>
+        <v>2.96</v>
       </c>
       <c r="G22" t="n">
-        <v>2.32</v>
+        <v>3.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>3.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P22" t="n">
         <v>1.83</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="R22" t="n">
         <v>1.32</v>
       </c>
       <c r="S22" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="T22" t="n">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="V22" t="n">
-        <v>1.36</v>
+        <v>1.59</v>
       </c>
       <c r="W22" t="n">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="X22" t="n">
         <v>16</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE22" t="n">
         <v>36</v>
       </c>
-      <c r="AA22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>65</v>
-      </c>
       <c r="AF22" t="n">
-        <v>19.5</v>
+        <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,126 +3488,126 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.95</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>2.32</v>
       </c>
       <c r="H23" t="n">
-        <v>1.97</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.02</v>
+        <v>3.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>1.84</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.56</v>
+        <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.61</v>
+        <v>1.82</v>
       </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="W23" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="X23" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
       </c>
       <c r="Z23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD23" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN23" t="n">
         <v>24</v>
       </c>
-      <c r="AC23" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>36</v>
-      </c>
       <c r="AO23" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>3.95</v>
       </c>
       <c r="G24" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.65</v>
+        <v>1.97</v>
       </c>
       <c r="I24" t="n">
-        <v>3.85</v>
+        <v>2.02</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="P24" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="V24" t="n">
-        <v>1.35</v>
+        <v>1.98</v>
       </c>
       <c r="W24" t="n">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="Z24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA24" t="n">
         <v>28</v>
       </c>
-      <c r="AA24" t="n">
-        <v>70</v>
-      </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM24" t="n">
         <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>2.22</v>
       </c>
       <c r="H25" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P25" t="n">
         <v>2.08</v>
       </c>
-      <c r="I25" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="G26" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.65</v>
+        <v>2.08</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD26" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AE26" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI26" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK26" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN26" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="G27" t="n">
-        <v>5.2</v>
+        <v>2.22</v>
       </c>
       <c r="H27" t="n">
-        <v>1.87</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.99</v>
+        <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
         <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P27" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="X27" t="n">
         <v>16</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.800000000000001</v>
+        <v>16</v>
       </c>
       <c r="Z27" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AA27" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AF27" t="n">
-        <v>44</v>
+        <v>16.5</v>
       </c>
       <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
         <v>23</v>
       </c>
-      <c r="AH27" t="n">
-        <v>25</v>
-      </c>
       <c r="AI27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL27" t="n">
         <v>50</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>90</v>
-      </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="G28" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.26</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE28" t="n">
         <v>26</v>
       </c>
-      <c r="Y28" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH28" t="n">
         <v>25</v>
       </c>
-      <c r="AF28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG28" t="n">
+      <c r="AI28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO28" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Csikszereda</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="G29" t="n">
-        <v>1.36</v>
+        <v>3.85</v>
       </c>
       <c r="H29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X29" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC29" t="n">
         <v>11.5</v>
       </c>
-      <c r="I29" t="n">
-        <v>16</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,112 +4438,112 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Paris 13 Atletico</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Concarneau</t>
+          <t>Csikszereda</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>15</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
         <v>2.38</v>
       </c>
-      <c r="G30" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.1</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="P30" t="n">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.12</v>
+        <v>1.66</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="S30" t="n">
-        <v>3.95</v>
+        <v>2.44</v>
       </c>
       <c r="T30" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>1.39</v>
+        <v>1.07</v>
       </c>
       <c r="W30" t="n">
-        <v>1.55</v>
+        <v>3.7</v>
       </c>
       <c r="X30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.5</v>
+        <v>50</v>
       </c>
       <c r="Z30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF30" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>20</v>
-      </c>
       <c r="AG30" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>15</v>
       </c>
-      <c r="AH30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4573,121 +4573,121 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Paris 13 Atletico</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>Concarneau</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.2</v>
+        <v>2.76</v>
       </c>
       <c r="H31" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="L31" t="n">
         <v>1.45</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S31" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC31" t="n">
         <v>9</v>
       </c>
       <c r="AD31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG31" t="n">
         <v>15</v>
       </c>
-      <c r="AE31" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>16</v>
-      </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="G32" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U32" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="W32" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="X32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y32" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y32" t="n">
-        <v>12</v>
-      </c>
       <c r="Z32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF32" t="n">
         <v>24</v>
       </c>
-      <c r="AA32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>21</v>
-      </c>
       <c r="AG32" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH32" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AK32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN32" t="n">
         <v>44</v>
       </c>
-      <c r="AL32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>46</v>
-      </c>
       <c r="AO32" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chateauroux</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Dijon</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="G33" t="n">
-        <v>5.4</v>
+        <v>2.96</v>
       </c>
       <c r="H33" t="n">
-        <v>1.83</v>
+        <v>2.86</v>
       </c>
       <c r="I33" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="P33" t="n">
-        <v>1.72</v>
+        <v>1.64</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R33" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S33" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="U33" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="V33" t="n">
-        <v>1.98</v>
+        <v>1.43</v>
       </c>
       <c r="W33" t="n">
-        <v>1.24</v>
+        <v>1.51</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AA33" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AB33" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH33" t="n">
         <v>24</v>
       </c>
-      <c r="AH33" t="n">
-        <v>26</v>
-      </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO33" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -4978,37 +4978,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Orleans</t>
+          <t>Chateauroux</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Versailles 78 FC</t>
+          <t>Dijon</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.16</v>
+        <v>4.6</v>
       </c>
       <c r="G34" t="n">
-        <v>2.38</v>
+        <v>5.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="I34" t="n">
-        <v>4.1</v>
+        <v>2.02</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="L34" t="n">
         <v>1.45</v>
       </c>
       <c r="M34" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N34" t="n">
         <v>3.1</v>
@@ -5017,82 +5017,82 @@
         <v>1.38</v>
       </c>
       <c r="P34" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R34" t="n">
         <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T34" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="V34" t="n">
-        <v>1.32</v>
+        <v>1.98</v>
       </c>
       <c r="W34" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="X34" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z34" t="n">
-        <v>32</v>
+        <v>13.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="AB34" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AF34" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL34" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
         <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -5113,109 +5113,109 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Le Puy</t>
+          <t>Orleans</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Fleury Merogis</t>
+          <t>Versailles 78 FC</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G35" t="n">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R35" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="T35" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V35" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W35" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="X35" t="n">
         <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA35" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC35" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD35" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AE35" t="n">
         <v>65</v>
       </c>
       <c r="AF35" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AG35" t="n">
         <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI35" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK35" t="n">
         <v>34</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>32</v>
       </c>
       <c r="AL35" t="n">
         <v>55</v>
@@ -5224,10 +5224,10 @@
         <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO35" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
@@ -5248,121 +5248,121 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Villefranche Beaujolais</t>
+          <t>Le Puy</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bourg-en-Bresse</t>
+          <t>Fleury Merogis</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>3.15</v>
+        <v>2.22</v>
       </c>
       <c r="H36" t="n">
-        <v>2.72</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.32</v>
+        <v>2.14</v>
       </c>
       <c r="R36" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="S36" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="n">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="W36" t="n">
-        <v>1.48</v>
+        <v>1.81</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y36" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AH36" t="n">
         <v>25</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -5378,123 +5378,123 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Villefranche Beaujolais</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Bourg-en-Bresse</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.62</v>
+        <v>2.46</v>
       </c>
       <c r="G37" t="n">
-        <v>1.75</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>5.6</v>
+        <v>2.66</v>
       </c>
       <c r="I37" t="n">
-        <v>8.800000000000001</v>
+        <v>3.35</v>
       </c>
       <c r="J37" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="K37" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="L37" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M37" t="n">
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="O37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V37" t="n">
         <v>1.43</v>
       </c>
-      <c r="P37" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V37" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W37" t="n">
-        <v>2.34</v>
+        <v>1.48</v>
       </c>
       <c r="X37" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF37" t="n">
         <v>22</v>
       </c>
-      <c r="Z37" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK37" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
         <v>1000</v>
@@ -5503,7 +5503,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,121 +5518,121 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.7</v>
+        <v>1.62</v>
       </c>
       <c r="G38" t="n">
-        <v>2.92</v>
+        <v>1.75</v>
       </c>
       <c r="H38" t="n">
-        <v>2.94</v>
+        <v>6.4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K38" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="L38" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M38" t="n">
         <v>1.09</v>
       </c>
       <c r="N38" t="n">
-        <v>2.74</v>
+        <v>2.92</v>
       </c>
       <c r="O38" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="P38" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="R38" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="T38" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="U38" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="V38" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="X38" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Z38" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AA38" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF38" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>21</v>
       </c>
-      <c r="AG38" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH38" t="n">
+      <c r="AK38" t="n">
         <v>26</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>48</v>
       </c>
       <c r="AL38" t="n">
         <v>65</v>
       </c>
       <c r="AM38" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN38" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AO38" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
@@ -5653,121 +5653,121 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.42</v>
+        <v>2.66</v>
       </c>
       <c r="G39" t="n">
-        <v>2.68</v>
+        <v>2.92</v>
       </c>
       <c r="H39" t="n">
         <v>2.96</v>
       </c>
       <c r="I39" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3.55</v>
+        <v>2.74</v>
       </c>
       <c r="O39" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="P39" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="R39" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="S39" t="n">
-        <v>3.35</v>
+        <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="U39" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="V39" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W39" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="X39" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE39" t="n">
         <v>55</v>
       </c>
-      <c r="AB39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>38</v>
-      </c>
       <c r="AF39" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG39" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AH39" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI39" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK39" t="n">
         <v>48</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>30</v>
-      </c>
       <c r="AL39" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN39" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO39" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -5788,118 +5788,118 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.53</v>
+        <v>2.44</v>
       </c>
       <c r="G40" t="n">
-        <v>1.59</v>
+        <v>2.68</v>
       </c>
       <c r="H40" t="n">
-        <v>6.2</v>
+        <v>2.96</v>
       </c>
       <c r="I40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X40" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC40" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="J40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N40" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P40" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S40" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U40" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W40" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="X40" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>13</v>
-      </c>
       <c r="AD40" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AE40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM40" t="n">
         <v>110</v>
       </c>
-      <c r="AF40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>130</v>
-      </c>
       <c r="AN40" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5923,127 +5923,127 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3.5</v>
+        <v>1.52</v>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>1.59</v>
       </c>
       <c r="H41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N41" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P41" t="n">
         <v>2.24</v>
       </c>
-      <c r="I41" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Q41" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="R41" t="n">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="S41" t="n">
-        <v>4.1</v>
+        <v>2.74</v>
       </c>
       <c r="T41" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U41" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="V41" t="n">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="W41" t="n">
-        <v>1.33</v>
+        <v>2.68</v>
       </c>
       <c r="X41" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
       <c r="Z41" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AB41" t="n">
-        <v>14.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AE41" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AF41" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
-        <v>19</v>
+        <v>11.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI41" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>90</v>
+        <v>18.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AL41" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AM41" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN41" t="n">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="AO41" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.84</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="n">
-        <v>1.98</v>
+        <v>4</v>
       </c>
       <c r="H42" t="n">
-        <v>3.95</v>
+        <v>2.24</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5</v>
+        <v>2.42</v>
       </c>
       <c r="J42" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="M42" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="O42" t="n">
-        <v>1.21</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.62</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.51</v>
+        <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>2.56</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="U42" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="V42" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="W42" t="n">
-        <v>2.02</v>
+        <v>1.33</v>
       </c>
       <c r="X42" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y42" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA42" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AB42" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE42" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF42" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AG42" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI42" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ42" t="n">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="AK42" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AL42" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM42" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN42" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -6193,127 +6193,127 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.96</v>
+        <v>1.84</v>
       </c>
       <c r="G43" t="n">
-        <v>3.2</v>
+        <v>1.98</v>
       </c>
       <c r="H43" t="n">
-        <v>2.1</v>
+        <v>3.95</v>
       </c>
       <c r="I43" t="n">
-        <v>2.26</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="L43" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="M43" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>3.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W43" t="n">
         <v>2.02</v>
       </c>
-      <c r="S43" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="T43" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X43" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y43" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Z43" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA43" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AB43" t="n">
-        <v>34</v>
+        <v>14.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE43" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AG43" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>27</v>
       </c>
-      <c r="AJ43" t="n">
-        <v>55</v>
-      </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AL43" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM43" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO43" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>2.96</v>
       </c>
       <c r="G44" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="I44" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J44" t="n">
         <v>4.4</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K44" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="L44" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U44" t="n">
         <v>3.2</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T44" t="n">
+      <c r="V44" t="n">
         <v>1.79</v>
       </c>
-      <c r="U44" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.3</v>
-      </c>
       <c r="W44" t="n">
-        <v>1.92</v>
+        <v>1.45</v>
       </c>
       <c r="X44" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC44" t="n">
         <v>16</v>
       </c>
-      <c r="Y44" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>10</v>
-      </c>
       <c r="AD44" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE44" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AF44" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="AJ44" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AK44" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AL44" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM44" t="n">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="AN44" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AO44" t="n">
-        <v>85</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K45" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="O45" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="P45" t="n">
-        <v>2.56</v>
+        <v>1.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.64</v>
+        <v>1.28</v>
       </c>
       <c r="S45" t="n">
-        <v>2.3</v>
+        <v>3.95</v>
       </c>
       <c r="T45" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="U45" t="n">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="V45" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="W45" t="n">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="X45" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="Y45" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AB45" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AC45" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AE45" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AF45" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH45" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AI45" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK45" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AL45" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AM45" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AN45" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AO45" t="n">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7.2</v>
+        <v>2.14</v>
       </c>
       <c r="G46" t="n">
-        <v>9.800000000000001</v>
+        <v>2.26</v>
       </c>
       <c r="H46" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="I46" t="n">
-        <v>1.46</v>
+        <v>3.35</v>
       </c>
       <c r="J46" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M46" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="R46" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W46" t="n">
         <v>1.79</v>
       </c>
-      <c r="S46" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T46" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U46" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V46" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.11</v>
-      </c>
       <c r="X46" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Y46" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Z46" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AA46" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AF46" t="n">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="AG46" t="n">
-        <v>36</v>
+        <v>14.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ46" t="n">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="n">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="AL46" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AM46" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AN46" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>4.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -6733,121 +6733,121 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.99</v>
+        <v>7.2</v>
       </c>
       <c r="G47" t="n">
-        <v>2.16</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>1.38</v>
       </c>
       <c r="I47" t="n">
-        <v>3.85</v>
+        <v>1.46</v>
       </c>
       <c r="J47" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="K47" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="P47" t="n">
-        <v>2.42</v>
+        <v>2.88</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="R47" t="n">
-        <v>1.57</v>
+        <v>1.79</v>
       </c>
       <c r="S47" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="T47" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="U47" t="n">
-        <v>2.48</v>
+        <v>2.24</v>
       </c>
       <c r="V47" t="n">
-        <v>1.36</v>
+        <v>3.15</v>
       </c>
       <c r="W47" t="n">
-        <v>1.86</v>
+        <v>1.11</v>
       </c>
       <c r="X47" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="Y47" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Z47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>46</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG47" t="n">
         <v>36</v>
       </c>
-      <c r="AA47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AJ47" t="n">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="AK47" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AL47" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AM47" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN47" t="n">
-        <v>12.5</v>
+        <v>90</v>
       </c>
       <c r="AO47" t="n">
-        <v>32</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="48">
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="G48" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K48" t="n">
         <v>4.4</v>
       </c>
-      <c r="K48" t="n">
-        <v>5</v>
-      </c>
       <c r="L48" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="M48" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="P48" t="n">
-        <v>3.15</v>
+        <v>2.42</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.38</v>
+        <v>1.58</v>
       </c>
       <c r="R48" t="n">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="n">
-        <v>1.92</v>
+        <v>2.36</v>
       </c>
       <c r="T48" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="U48" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="V48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W48" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="X48" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y48" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z48" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA48" t="n">
         <v>1000</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE48" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF48" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG48" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI48" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK48" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL48" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="G49" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="I49" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K49" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L49" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O49" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P49" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="R49" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="S49" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="T49" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U49" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="V49" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="W49" t="n">
-        <v>1.76</v>
+        <v>2.04</v>
       </c>
       <c r="X49" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Y49" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z49" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA49" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD49" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE49" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG49" t="n">
         <v>14.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI49" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK49" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL49" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AO49" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -7138,121 +7138,121 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="G50" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="n">
         <v>3.35</v>
       </c>
-      <c r="I50" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P50" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="R50" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="S50" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="T50" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U50" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="V50" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="W50" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="X50" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Y50" t="n">
         <v>25</v>
       </c>
       <c r="Z50" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA50" t="n">
         <v>65</v>
       </c>
       <c r="AB50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD50" t="n">
         <v>18</v>
       </c>
-      <c r="AC50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE50" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AF50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI50" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ50" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK50" t="n">
         <v>24</v>
       </c>
       <c r="AL50" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM50" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO50" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -7273,127 +7273,127 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.72</v>
+        <v>2.02</v>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="H51" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="I51" t="n">
-        <v>2.58</v>
+        <v>3.8</v>
       </c>
       <c r="J51" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="P51" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="S51" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T51" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="V51" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="W51" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="X51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y51" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Z51" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AA51" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AB51" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF51" t="n">
         <v>21</v>
       </c>
-      <c r="AC51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE51" t="n">
+      <c r="AG51" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL51" t="n">
         <v>28</v>
       </c>
-      <c r="AF51" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ51" t="n">
+      <c r="AM51" t="n">
         <v>55</v>
       </c>
-      <c r="AK51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN51" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AO51" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -7403,132 +7403,132 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1.54</v>
+        <v>2.74</v>
       </c>
       <c r="G52" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
-        <v>5.8</v>
+        <v>2.44</v>
       </c>
       <c r="I52" t="n">
-        <v>7.8</v>
+        <v>2.58</v>
       </c>
       <c r="J52" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P52" t="n">
-        <v>2.22</v>
+        <v>2.48</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R52" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="T52" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="U52" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="V52" t="n">
-        <v>1.16</v>
+        <v>1.64</v>
       </c>
       <c r="W52" t="n">
-        <v>2.52</v>
+        <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Y52" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="Z52" t="n">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="AA52" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD52" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE52" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AF52" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH52" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI52" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AJ52" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AK52" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AL52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
-        <v>8.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AO52" t="n">
-        <v>100</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,123 +7538,123 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.48</v>
+        <v>1.54</v>
       </c>
       <c r="G53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S53" t="n">
         <v>2.64</v>
       </c>
-      <c r="H53" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N53" t="n">
+      <c r="T53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W53" t="n">
         <v>2.52</v>
       </c>
-      <c r="O53" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X53" t="n">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="Y53" t="n">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="Z53" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AA53" t="n">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AB53" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AC53" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="AD53" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE53" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AF53" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AG53" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI53" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ53" t="n">
-        <v>44</v>
+        <v>18.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="n">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="AN53" t="n">
-        <v>46</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO53" t="n">
         <v>100</v>
@@ -7663,7 +7663,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7678,127 +7678,127 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F54" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T54" t="n">
         <v>2.16</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U54" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="V54" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="W54" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="X54" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y54" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z54" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA54" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB54" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AD54" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE54" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG54" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH54" t="n">
         <v>26</v>
       </c>
       <c r="AI54" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK54" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL54" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM54" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN54" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AO54" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>3.85</v>
+        <v>2.16</v>
       </c>
       <c r="G55" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="H55" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="J55" t="n">
-        <v>3.75</v>
+        <v>2.78</v>
       </c>
       <c r="K55" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="P55" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="R55" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="S55" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="U55" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="V55" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="W55" t="n">
-        <v>1.34</v>
+        <v>1.7</v>
       </c>
       <c r="X55" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="n">
         <v>16</v>
       </c>
-      <c r="Y55" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA55" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB55" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>29</v>
-      </c>
       <c r="AG55" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AH55" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN55" t="n">
         <v>34</v>
       </c>
-      <c r="AJ55" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>40</v>
-      </c>
       <c r="AO55" t="n">
-        <v>13.5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,127 +7948,127 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="G56" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="I56" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="J56" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L56" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P56" t="n">
-        <v>1.85</v>
+        <v>2.14</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="R56" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="S56" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="U56" t="n">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="V56" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="W56" t="n">
         <v>1.34</v>
       </c>
       <c r="X56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH56" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD56" t="n">
+      <c r="AI56" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO56" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG56" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH56" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8083,127 +8083,127 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.73</v>
+        <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>1.77</v>
+        <v>3.9</v>
       </c>
       <c r="H57" t="n">
-        <v>5.6</v>
+        <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="J57" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K57" t="n">
         <v>3.75</v>
       </c>
-      <c r="K57" t="n">
-        <v>4</v>
-      </c>
       <c r="L57" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N57" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S57" t="n">
         <v>3.4</v>
       </c>
-      <c r="O57" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P57" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S57" t="n">
-        <v>3.75</v>
-      </c>
       <c r="T57" t="n">
-        <v>1.99</v>
+        <v>1.66</v>
       </c>
       <c r="U57" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="V57" t="n">
-        <v>1.19</v>
+        <v>1.76</v>
       </c>
       <c r="W57" t="n">
-        <v>2.28</v>
+        <v>1.34</v>
       </c>
       <c r="X57" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>20</v>
+        <v>11.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>50</v>
+        <v>17.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AG57" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI57" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8213,132 +8213,132 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.34</v>
+        <v>1.72</v>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>1.77</v>
       </c>
       <c r="H58" t="n">
-        <v>3.55</v>
+        <v>5.7</v>
       </c>
       <c r="I58" t="n">
-        <v>3.65</v>
+        <v>6.4</v>
       </c>
       <c r="J58" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K58" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N58" t="n">
         <v>3.4</v>
       </c>
-      <c r="L58" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O58" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="R58" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S58" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="T58" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U58" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V58" t="n">
-        <v>1.37</v>
+        <v>1.19</v>
       </c>
       <c r="W58" t="n">
-        <v>1.72</v>
+        <v>2.28</v>
       </c>
       <c r="X58" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Y58" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="Z58" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AA58" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC58" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD58" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AE58" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="AF58" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AG58" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AI58" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AK58" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AL58" t="n">
         <v>50</v>
       </c>
       <c r="AM58" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN58" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,127 +8353,127 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="G59" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="H59" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I59" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L59" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="M59" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
-        <v>2.58</v>
+        <v>3.1</v>
       </c>
       <c r="O59" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="P59" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
       <c r="R59" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="S59" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="T59" t="n">
-        <v>2.24</v>
+        <v>1.99</v>
       </c>
       <c r="U59" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="V59" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W59" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="X59" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="Z59" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA59" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC59" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD59" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF59" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN59" t="n">
         <v>24</v>
       </c>
-      <c r="AI59" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL59" t="n">
+      <c r="AO59" t="n">
         <v>70</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,127 +8488,127 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.25</v>
+        <v>2.52</v>
       </c>
       <c r="G60" t="n">
-        <v>3.8</v>
+        <v>2.56</v>
       </c>
       <c r="H60" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N60" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S60" t="n">
+        <v>6</v>
+      </c>
+      <c r="T60" t="n">
         <v>2.24</v>
       </c>
-      <c r="I60" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N60" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P60" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S60" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="T60" t="n">
-        <v>1.8</v>
-      </c>
       <c r="U60" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="V60" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="X60" t="n">
-        <v>15.5</v>
+        <v>7.8</v>
       </c>
       <c r="Y60" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Z60" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AA60" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB60" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD60" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF60" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG60" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL60" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO60" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8618,132 +8618,132 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.82</v>
+        <v>3.35</v>
       </c>
       <c r="G61" t="n">
-        <v>1.84</v>
+        <v>3.9</v>
       </c>
       <c r="H61" t="n">
-        <v>5</v>
+        <v>2.26</v>
       </c>
       <c r="I61" t="n">
-        <v>5.1</v>
+        <v>2.4</v>
       </c>
       <c r="J61" t="n">
-        <v>3.9</v>
+        <v>3.35</v>
       </c>
       <c r="K61" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L61" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="O61" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P61" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="R61" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="S61" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T61" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U61" t="n">
         <v>1.87</v>
       </c>
-      <c r="U61" t="n">
-        <v>2.08</v>
-      </c>
       <c r="V61" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="W61" t="n">
-        <v>2.18</v>
+        <v>1.37</v>
       </c>
       <c r="X61" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="Z61" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="AA61" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC61" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF61" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG61" t="n">
-        <v>9.6</v>
+        <v>18</v>
       </c>
       <c r="AH61" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI61" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ61" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AL61" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM61" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO61" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8753,132 +8753,132 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F62" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U62" t="n">
         <v>2.08</v>
       </c>
-      <c r="G62" t="n">
+      <c r="V62" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W62" t="n">
         <v>2.2</v>
       </c>
-      <c r="H62" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I62" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M62" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N62" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O62" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P62" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R62" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S62" t="n">
-        <v>4</v>
-      </c>
-      <c r="T62" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U62" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V62" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="W62" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X62" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y62" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z62" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA62" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB62" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC62" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE62" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF62" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG62" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH62" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL62" t="n">
         <v>34</v>
       </c>
-      <c r="AK62" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>55</v>
-      </c>
       <c r="AM62" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN62" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8888,125 +8888,260 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="G63" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="H63" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="J63" t="n">
         <v>3.25</v>
       </c>
       <c r="K63" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L63" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M63" t="n">
         <v>1.09</v>
       </c>
       <c r="N63" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="X63" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N64" t="n">
         <v>2.94</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O64" t="n">
         <v>1.42</v>
       </c>
-      <c r="P63" t="n">
+      <c r="P64" t="n">
         <v>1.66</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q64" t="n">
         <v>2.26</v>
       </c>
-      <c r="R63" t="n">
+      <c r="R64" t="n">
         <v>1.24</v>
       </c>
-      <c r="S63" t="n">
+      <c r="S64" t="n">
         <v>4.3</v>
       </c>
-      <c r="T63" t="n">
+      <c r="T64" t="n">
         <v>2</v>
       </c>
-      <c r="U63" t="n">
+      <c r="U64" t="n">
         <v>1.82</v>
       </c>
-      <c r="V63" t="n">
+      <c r="V64" t="n">
         <v>1.25</v>
       </c>
-      <c r="W63" t="n">
+      <c r="W64" t="n">
         <v>1.96</v>
       </c>
-      <c r="X63" t="n">
+      <c r="X64" t="n">
         <v>13</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="Y64" t="n">
         <v>17</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="Z64" t="n">
         <v>44</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AA64" t="n">
         <v>160</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AB64" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AC64" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="AD63" t="n">
+      <c r="AD64" t="n">
         <v>25</v>
       </c>
-      <c r="AE63" t="n">
+      <c r="AE64" t="n">
         <v>85</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AF64" t="n">
         <v>13</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AG64" t="n">
         <v>13</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AH64" t="n">
         <v>27</v>
       </c>
-      <c r="AI63" t="n">
+      <c r="AI64" t="n">
         <v>110</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AJ64" t="n">
         <v>28</v>
       </c>
-      <c r="AK63" t="n">
+      <c r="AK64" t="n">
         <v>29</v>
       </c>
-      <c r="AL63" t="n">
+      <c r="AL64" t="n">
         <v>60</v>
       </c>
-      <c r="AM63" t="n">
+      <c r="AM64" t="n">
         <v>190</v>
       </c>
-      <c r="AN63" t="n">
+      <c r="AN64" t="n">
         <v>22</v>
       </c>
-      <c r="AO63" t="n">
+      <c r="AO64" t="n">
         <v>140</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -685,7 +685,7 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,13 +700,13 @@
         <v>2.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
@@ -733,7 +733,7 @@
         <v>23</v>
       </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G3" t="n">
         <v>1.73</v>
@@ -817,7 +817,7 @@
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="G4" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="I4" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>3.15</v>
@@ -967,10 +967,10 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -979,70 +979,70 @@
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="n">
         <v>2.06</v>
       </c>
       <c r="V4" t="n">
-        <v>1.69</v>
+        <v>1.64</v>
       </c>
       <c r="W4" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
         <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG4" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="G6" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.94</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
@@ -1486,10 +1486,10 @@
         <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>1.2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
         <v>1000</v>
@@ -1525,7 +1525,7 @@
         <v>1.04</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="W8" t="n">
         <v>1.01</v>
@@ -1615,19 +1615,19 @@
         <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H9" t="n">
         <v>1.01</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
@@ -1636,34 +1636,34 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1753,7 +1753,7 @@
         <v>2.14</v>
       </c>
       <c r="H10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
         <v>4.4</v>
@@ -1765,7 +1765,7 @@
         <v>4.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1807,7 +1807,7 @@
         <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA10" t="n">
         <v>80</v>
@@ -1822,7 +1822,7 @@
         <v>17</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF10" t="n">
         <v>14.5</v>
@@ -1834,16 +1834,16 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>100</v>
@@ -2017,34 +2017,34 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
         <v>2.8</v>
       </c>
       <c r="K12" t="n">
-        <v>5.9</v>
+        <v>4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P12" t="n">
         <v>1.57</v>
@@ -2065,10 +2065,10 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2161,16 +2161,16 @@
         <v>2.68</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>4.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2194,13 +2194,13 @@
         <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="V13" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W13" t="n">
         <v>1.54</v>
@@ -2290,7 +2290,7 @@
         <v>2.02</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="H14" t="n">
         <v>3.75</v>
@@ -2338,7 +2338,7 @@
         <v>1.29</v>
       </c>
       <c r="W14" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X14" t="n">
         <v>12.5</v>
@@ -2359,16 +2359,16 @@
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE14" t="n">
         <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>1000</v>
@@ -2377,7 +2377,7 @@
         <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AK14" t="n">
         <v>1000</v>
@@ -2389,7 +2389,7 @@
         <v>250</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO14" t="n">
         <v>170</v>
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="I15" t="n">
         <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -2584,7 +2584,7 @@
         <v>2.96</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
         <v>2.02</v>
@@ -2698,7 +2698,7 @@
         <v>3.85</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I17" t="n">
         <v>2.6</v>
@@ -2707,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.38</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
         <v>2.2</v>
@@ -2977,7 +2977,7 @@
         <v>3.4</v>
       </c>
       <c r="K19" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
         <v>1.52</v>
@@ -2992,7 +2992,7 @@
         <v>1.47</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q19" t="n">
         <v>2.3</v>
@@ -3025,7 +3025,7 @@
         <v>12.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB19" t="n">
         <v>16</v>
@@ -3052,22 +3052,22 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
         <v>120</v>
       </c>
       <c r="AM19" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN19" t="n">
         <v>130</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="H20" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I20" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J20" t="n">
         <v>4.1</v>
       </c>
       <c r="K20" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="L20" t="n">
         <v>1.25</v>
@@ -3121,7 +3121,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>1.2</v>
@@ -3145,7 +3145,7 @@
         <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W20" t="n">
         <v>1.22</v>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD20" t="n">
         <v>12.5</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="21">
@@ -3235,7 +3235,7 @@
         <v>4.3</v>
       </c>
       <c r="G21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H21" t="n">
         <v>1.79</v>
@@ -3244,7 +3244,7 @@
         <v>1.93</v>
       </c>
       <c r="J21" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
         <v>4.2</v>
@@ -3256,7 +3256,7 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O21" t="n">
         <v>1.28</v>
@@ -3274,16 +3274,16 @@
         <v>3.05</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
         <v>2.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -3370,76 +3370,76 @@
         <v>2.96</v>
       </c>
       <c r="G22" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H22" t="n">
         <v>2.38</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.15</v>
       </c>
       <c r="T22" t="n">
         <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W22" t="n">
         <v>1.41</v>
       </c>
       <c r="X22" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
         <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE22" t="n">
         <v>36</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3526,37 +3526,37 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
         <v>1.32</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T23" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U23" t="n">
         <v>2.06</v>
       </c>
       <c r="V23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="X23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
         <v>13.5</v>
@@ -3571,7 +3571,7 @@
         <v>9.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
         <v>15.5</v>
@@ -3649,7 +3649,7 @@
         <v>2.02</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
         <v>4.1</v>
@@ -3658,31 +3658,31 @@
         <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
         <v>5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P24" t="n">
         <v>2.38</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="S24" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T24" t="n">
         <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V24" t="n">
         <v>1.98</v>
@@ -3691,19 +3691,19 @@
         <v>1.32</v>
       </c>
       <c r="X24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AB24" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
         <v>9.800000000000001</v>
@@ -3712,13 +3712,13 @@
         <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH24" t="n">
         <v>16.5</v>
@@ -3730,13 +3730,13 @@
         <v>80</v>
       </c>
       <c r="AK24" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN24" t="n">
         <v>36</v>
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
         <v>2.22</v>
       </c>
       <c r="H25" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I25" t="n">
         <v>3.75</v>
@@ -3787,7 +3787,7 @@
         <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.37</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.27</v>
@@ -3805,22 +3805,22 @@
         <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
         <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="U25" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W25" t="n">
         <v>1.82</v>
@@ -3871,13 +3871,13 @@
         <v>34</v>
       </c>
       <c r="AM25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="n">
         <v>15.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
@@ -3916,13 +3916,13 @@
         <v>2.08</v>
       </c>
       <c r="I26" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J26" t="n">
         <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G27" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
         <v>4.1</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L27" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -4090,10 +4090,10 @@
         <v>1.87</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W27" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X27" t="n">
         <v>16</v>
@@ -4180,10 +4180,10 @@
         <v>4.5</v>
       </c>
       <c r="G28" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="I28" t="n">
         <v>1.99</v>
@@ -4192,7 +4192,7 @@
         <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L28" t="n">
         <v>1.43</v>
@@ -4201,34 +4201,34 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
         <v>1.35</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
         <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T28" t="n">
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X28" t="n">
         <v>15.5</v>
@@ -4243,10 +4243,10 @@
         <v>27</v>
       </c>
       <c r="AB28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD28" t="n">
         <v>12.5</v>
@@ -4255,7 +4255,7 @@
         <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG28" t="n">
         <v>23</v>
@@ -4270,7 +4270,7 @@
         <v>140</v>
       </c>
       <c r="AK28" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="n">
         <v>80</v>
@@ -4279,7 +4279,7 @@
         <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO28" t="n">
         <v>18.5</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G29" t="n">
         <v>3.85</v>
@@ -4345,7 +4345,7 @@
         <v>2.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R29" t="n">
         <v>1.51</v>
@@ -4354,10 +4354,10 @@
         <v>2.56</v>
       </c>
       <c r="T29" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U29" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="V29" t="n">
         <v>1.87</v>
@@ -4390,13 +4390,13 @@
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG29" t="n">
         <v>18.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI29" t="n">
         <v>36</v>
@@ -4450,13 +4450,13 @@
         <v>1.31</v>
       </c>
       <c r="G30" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="H30" t="n">
         <v>10.5</v>
       </c>
       <c r="I30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
         <v>5.5</v>
@@ -4465,94 +4465,94 @@
         <v>6.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>2.38</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q30" t="n">
         <v>1.66</v>
       </c>
       <c r="R30" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="T30" t="n">
-        <v>1.04</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="V30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W30" t="n">
         <v>3.7</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AC30" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AD30" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AF30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG30" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG30" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AH30" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31">
@@ -4582,13 +4582,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.3</v>
+        <v>2.46</v>
       </c>
       <c r="G31" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H31" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I31" t="n">
         <v>3.45</v>
@@ -4597,31 +4597,31 @@
         <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="O31" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="P31" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="R31" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="T31" t="n">
         <v>1.72</v>
@@ -4630,7 +4630,7 @@
         <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="W31" t="n">
         <v>1.56</v>
@@ -4756,7 +4756,7 @@
         <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
         <v>1.8</v>
@@ -4765,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W32" t="n">
         <v>1.46</v>
@@ -4819,7 +4819,7 @@
         <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO32" t="n">
         <v>38</v>
@@ -4855,19 +4855,19 @@
         <v>2.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H33" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
         <v>3.3</v>
       </c>
       <c r="J33" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L33" t="n">
         <v>1.49</v>
@@ -4876,10 +4876,10 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P33" t="n">
         <v>1.64</v>
@@ -4891,7 +4891,7 @@
         <v>1.24</v>
       </c>
       <c r="S33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.77</v>
@@ -4993,7 +4993,7 @@
         <v>5.4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="I34" t="n">
         <v>2.02</v>
@@ -5002,7 +5002,7 @@
         <v>3.35</v>
       </c>
       <c r="K34" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L34" t="n">
         <v>1.45</v>
@@ -5026,7 +5026,7 @@
         <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="T34" t="n">
         <v>1.9</v>
@@ -5134,13 +5134,13 @@
         <v>4.1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
@@ -5152,16 +5152,16 @@
         <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
         <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T35" t="n">
         <v>1.86</v>
@@ -5287,10 +5287,10 @@
         <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
@@ -5299,10 +5299,10 @@
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="U36" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V36" t="n">
         <v>1.29</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="I37" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
         <v>2.96</v>
       </c>
       <c r="K37" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -5416,37 +5416,37 @@
         <v>1.09</v>
       </c>
       <c r="N37" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q37" t="n">
         <v>2.3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V37" t="n">
         <v>1.43</v>
       </c>
       <c r="W37" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y37" t="n">
         <v>12</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G38" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
         <v>6.4</v>
       </c>
       <c r="I38" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
         <v>4.1</v>
@@ -5560,16 +5560,16 @@
         <v>1.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R38" t="n">
         <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T38" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="U38" t="n">
         <v>1.7</v>
@@ -5578,7 +5578,7 @@
         <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X38" t="n">
         <v>13.5</v>
@@ -5617,7 +5617,7 @@
         <v>1000</v>
       </c>
       <c r="AJ38" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK38" t="n">
         <v>26</v>
@@ -5662,22 +5662,22 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G39" t="n">
         <v>2.92</v>
       </c>
       <c r="H39" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I39" t="n">
         <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L39" t="n">
         <v>1.44</v>
@@ -5686,7 +5686,7 @@
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O39" t="n">
         <v>1.48</v>
@@ -5704,7 +5704,7 @@
         <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="U39" t="n">
         <v>1.87</v>
@@ -5716,16 +5716,16 @@
         <v>1.52</v>
       </c>
       <c r="X39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
         <v>24</v>
       </c>
       <c r="AA39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB39" t="n">
         <v>11</v>
@@ -5734,19 +5734,19 @@
         <v>8.6</v>
       </c>
       <c r="AD39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE39" t="n">
         <v>55</v>
       </c>
       <c r="AF39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG39" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI39" t="n">
         <v>70</v>
@@ -5755,19 +5755,19 @@
         <v>60</v>
       </c>
       <c r="AK39" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="n">
         <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN39" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO39" t="n">
         <v>55</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G40" t="n">
         <v>2.68</v>
       </c>
       <c r="H40" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J40" t="n">
         <v>3.25</v>
@@ -5824,10 +5824,10 @@
         <v>3.35</v>
       </c>
       <c r="O40" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q40" t="n">
         <v>2.08</v>
@@ -5836,10 +5836,10 @@
         <v>1.31</v>
       </c>
       <c r="S40" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T40" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U40" t="n">
         <v>2.02</v>
@@ -5848,7 +5848,7 @@
         <v>1.45</v>
       </c>
       <c r="W40" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X40" t="n">
         <v>14</v>
@@ -5863,10 +5863,10 @@
         <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD40" t="n">
         <v>970</v>
@@ -5893,7 +5893,7 @@
         <v>30</v>
       </c>
       <c r="AL40" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>110</v>
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G41" t="n">
         <v>1.59</v>
@@ -5941,7 +5941,7 @@
         <v>6.2</v>
       </c>
       <c r="I41" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
         <v>4.4</v>
@@ -5956,7 +5956,7 @@
         <v>1.04</v>
       </c>
       <c r="N41" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O41" t="n">
         <v>1.24</v>
@@ -5977,10 +5977,10 @@
         <v>1.8</v>
       </c>
       <c r="U41" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V41" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W41" t="n">
         <v>2.68</v>
@@ -5989,13 +5989,13 @@
         <v>25</v>
       </c>
       <c r="Y41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z41" t="n">
         <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB41" t="n">
         <v>9.4</v>
@@ -6004,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE41" t="n">
         <v>110</v>
@@ -6028,10 +6028,10 @@
         <v>20</v>
       </c>
       <c r="AL41" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM41" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN41" t="n">
         <v>9</v>
@@ -6070,16 +6070,16 @@
         <v>3.5</v>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H42" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I42" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
         <v>3.35</v>
@@ -6088,7 +6088,7 @@
         <v>1.48</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
         <v>3</v>
@@ -6100,7 +6100,7 @@
         <v>1.67</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="R42" t="n">
         <v>1.25</v>
@@ -6109,28 +6109,28 @@
         <v>4.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="U42" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="W42" t="n">
         <v>1.33</v>
       </c>
       <c r="X42" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z42" t="n">
         <v>970</v>
       </c>
       <c r="AA42" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB42" t="n">
         <v>970</v>
@@ -6139,25 +6139,25 @@
         <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE42" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AG42" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH42" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI42" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ42" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK42" t="n">
         <v>55</v>
@@ -6169,10 +6169,10 @@
         <v>160</v>
       </c>
       <c r="AN42" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO42" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G43" t="n">
         <v>1.98</v>
       </c>
       <c r="H43" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>4.5</v>
@@ -6217,7 +6217,7 @@
         <v>3.9</v>
       </c>
       <c r="K43" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L43" t="n">
         <v>1.31</v>
@@ -6235,19 +6235,19 @@
         <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R43" t="n">
         <v>1.51</v>
       </c>
       <c r="S43" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T43" t="n">
         <v>1.53</v>
       </c>
       <c r="U43" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="V43" t="n">
         <v>1.28</v>
@@ -6280,7 +6280,7 @@
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
@@ -6304,7 +6304,7 @@
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6340,7 +6340,7 @@
         <v>2.96</v>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
         <v>2.1</v>
@@ -6382,10 +6382,10 @@
         <v>1.32</v>
       </c>
       <c r="U44" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="V44" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W44" t="n">
         <v>1.45</v>
@@ -6427,13 +6427,13 @@
         <v>27</v>
       </c>
       <c r="AJ44" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK44" t="n">
         <v>34</v>
       </c>
       <c r="AL44" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM44" t="n">
         <v>46</v>
@@ -6472,46 +6472,46 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G45" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H45" t="n">
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L45" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M45" t="n">
         <v>1.08</v>
       </c>
       <c r="N45" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P45" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R45" t="n">
         <v>1.28</v>
       </c>
       <c r="S45" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T45" t="n">
         <v>1.8</v>
@@ -6523,25 +6523,25 @@
         <v>1.3</v>
       </c>
       <c r="W45" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X45" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AA45" t="n">
         <v>110</v>
       </c>
       <c r="AB45" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD45" t="n">
         <v>20</v>
@@ -6553,13 +6553,13 @@
         <v>14.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH45" t="n">
         <v>25</v>
       </c>
       <c r="AI45" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ45" t="n">
         <v>29</v>
@@ -6625,22 +6625,22 @@
         <v>4.4</v>
       </c>
       <c r="L46" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O46" t="n">
         <v>1.17</v>
       </c>
       <c r="P46" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R46" t="n">
         <v>1.64</v>
@@ -6652,7 +6652,7 @@
         <v>1.52</v>
       </c>
       <c r="U46" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="V46" t="n">
         <v>1.42</v>
@@ -6673,10 +6673,10 @@
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
         <v>17.5</v>
@@ -6685,13 +6685,13 @@
         <v>38</v>
       </c>
       <c r="AF46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI46" t="n">
         <v>40</v>
@@ -6709,7 +6709,7 @@
         <v>65</v>
       </c>
       <c r="AN46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO46" t="n">
         <v>24</v>
@@ -6748,7 +6748,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I47" t="n">
         <v>1.46</v>
@@ -6760,13 +6760,13 @@
         <v>6.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="O47" t="n">
         <v>1.14</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
         <v>2.16</v>
@@ -6886,7 +6886,7 @@
         <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J48" t="n">
         <v>3.9</v>
@@ -6904,25 +6904,25 @@
         <v>5.2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P48" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q48" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R48" t="n">
         <v>1.58</v>
       </c>
-      <c r="R48" t="n">
+      <c r="S48" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T48" t="n">
         <v>1.57</v>
       </c>
-      <c r="S48" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T48" t="n">
-        <v>1.49</v>
-      </c>
       <c r="U48" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V48" t="n">
         <v>1.36</v>
@@ -6964,7 +6964,7 @@
         <v>19</v>
       </c>
       <c r="AI48" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ48" t="n">
         <v>32</v>
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G49" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H49" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J49" t="n">
         <v>4.4</v>
@@ -7063,7 +7063,7 @@
         <v>1.32</v>
       </c>
       <c r="W49" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="X49" t="n">
         <v>1000</v>
@@ -7192,7 +7192,7 @@
         <v>1.41</v>
       </c>
       <c r="U50" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="V50" t="n">
         <v>1.42</v>
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="G51" t="n">
         <v>2.22</v>
@@ -7300,7 +7300,7 @@
         <v>4.1</v>
       </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7327,7 +7327,7 @@
         <v>1.44</v>
       </c>
       <c r="U51" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="V51" t="n">
         <v>1.35</v>
@@ -7354,7 +7354,7 @@
         <v>11.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE51" t="n">
         <v>36</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -7426,13 +7426,13 @@
         <v>2.44</v>
       </c>
       <c r="I52" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J52" t="n">
         <v>3.85</v>
       </c>
       <c r="K52" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L52" t="n">
         <v>1.28</v>
@@ -7441,25 +7441,25 @@
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O52" t="n">
         <v>1.19</v>
       </c>
       <c r="P52" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R52" t="n">
         <v>1.6</v>
       </c>
       <c r="S52" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T52" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U52" t="n">
         <v>2.32</v>
@@ -7468,7 +7468,7 @@
         <v>1.64</v>
       </c>
       <c r="W52" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X52" t="n">
         <v>30</v>
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G53" t="n">
         <v>1.65</v>
@@ -7564,7 +7564,7 @@
         <v>7.8</v>
       </c>
       <c r="J53" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K53" t="n">
         <v>5</v>
@@ -7576,7 +7576,7 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O53" t="n">
         <v>1.22</v>
@@ -7585,16 +7585,16 @@
         <v>2.22</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R53" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S53" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T53" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U53" t="n">
         <v>2.08</v>
@@ -7687,7 +7687,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G54" t="n">
         <v>2.64</v>
@@ -7702,10 +7702,10 @@
         <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L54" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="M54" t="n">
         <v>1.14</v>
@@ -7726,7 +7726,7 @@
         <v>1.18</v>
       </c>
       <c r="S54" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="T54" t="n">
         <v>2.16</v>
@@ -7825,19 +7825,19 @@
         <v>2.16</v>
       </c>
       <c r="G55" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J55" t="n">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L55" t="n">
         <v>1.5</v>
@@ -7864,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="U55" t="n">
         <v>1.85</v>
@@ -7873,13 +7873,13 @@
         <v>1.3</v>
       </c>
       <c r="W55" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X55" t="n">
         <v>12</v>
       </c>
       <c r="Y55" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z55" t="n">
         <v>34</v>
@@ -7897,7 +7897,7 @@
         <v>21</v>
       </c>
       <c r="AE55" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF55" t="n">
         <v>16</v>
@@ -7915,7 +7915,7 @@
         <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL55" t="n">
         <v>65</v>
@@ -7927,7 +7927,7 @@
         <v>34</v>
       </c>
       <c r="AO55" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G56" t="n">
         <v>3.85</v>
       </c>
-      <c r="G56" t="n">
-        <v>3.9</v>
-      </c>
       <c r="H56" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I56" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -7990,7 +7990,7 @@
         <v>2.14</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R56" t="n">
         <v>1.44</v>
@@ -7999,16 +7999,16 @@
         <v>3.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U56" t="n">
         <v>2.28</v>
       </c>
       <c r="V56" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W56" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X56" t="n">
         <v>15.5</v>
@@ -8047,7 +8047,7 @@
         <v>34</v>
       </c>
       <c r="AJ56" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK56" t="n">
         <v>44</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G58" t="n">
         <v>1.77</v>
@@ -8242,7 +8242,7 @@
         <v>3.7</v>
       </c>
       <c r="K58" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L58" t="n">
         <v>1.36</v>
@@ -8260,10 +8260,10 @@
         <v>1.83</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R58" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S58" t="n">
         <v>3.75</v>
@@ -8287,25 +8287,25 @@
         <v>21</v>
       </c>
       <c r="Z58" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA58" t="n">
         <v>190</v>
       </c>
       <c r="AB58" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD58" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE58" t="n">
         <v>110</v>
       </c>
       <c r="AF58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
@@ -8323,7 +8323,7 @@
         <v>24</v>
       </c>
       <c r="AL58" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM58" t="n">
         <v>170</v>
@@ -8362,22 +8362,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G59" t="n">
         <v>2.26</v>
       </c>
       <c r="H59" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J59" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K59" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L59" t="n">
         <v>1.51</v>
@@ -8404,7 +8404,7 @@
         <v>4.6</v>
       </c>
       <c r="T59" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U59" t="n">
         <v>1.92</v>
@@ -8413,7 +8413,7 @@
         <v>1.34</v>
       </c>
       <c r="W59" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="X59" t="n">
         <v>10</v>
@@ -8428,13 +8428,13 @@
         <v>85</v>
       </c>
       <c r="AB59" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC59" t="n">
         <v>7.4</v>
       </c>
       <c r="AD59" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE59" t="n">
         <v>55</v>
@@ -8443,7 +8443,7 @@
         <v>12.5</v>
       </c>
       <c r="AG59" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH59" t="n">
         <v>21</v>
@@ -8455,10 +8455,10 @@
         <v>29</v>
       </c>
       <c r="AK59" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL59" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM59" t="n">
         <v>140</v>
@@ -8530,7 +8530,7 @@
         <v>1.52</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="R60" t="n">
         <v>1.18</v>
@@ -8539,7 +8539,7 @@
         <v>6</v>
       </c>
       <c r="T60" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U60" t="n">
         <v>1.76</v>
@@ -8638,16 +8638,16 @@
         <v>3.9</v>
       </c>
       <c r="H61" t="n">
-        <v>2.26</v>
+        <v>2.14</v>
       </c>
       <c r="I61" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J61" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K61" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L61" t="n">
         <v>1.43</v>
@@ -8683,7 +8683,7 @@
         <v>1.72</v>
       </c>
       <c r="W61" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X61" t="n">
         <v>15.5</v>
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="F62" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G62" t="n">
         <v>1.82</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.83</v>
       </c>
       <c r="H62" t="n">
         <v>5</v>
@@ -8800,7 +8800,7 @@
         <v>2.02</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R62" t="n">
         <v>1.4</v>
@@ -8809,13 +8809,13 @@
         <v>3.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U62" t="n">
         <v>2.08</v>
       </c>
       <c r="V62" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W62" t="n">
         <v>2.2</v>
@@ -8833,7 +8833,7 @@
         <v>120</v>
       </c>
       <c r="AB62" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC62" t="n">
         <v>8.6</v>
@@ -8842,7 +8842,7 @@
         <v>19</v>
       </c>
       <c r="AE62" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF62" t="n">
         <v>11</v>
@@ -8911,10 +8911,10 @@
         <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K63" t="n">
         <v>3.6</v>
@@ -8947,7 +8947,7 @@
         <v>1.91</v>
       </c>
       <c r="U63" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="V63" t="n">
         <v>1.32</v>
@@ -8977,7 +8977,7 @@
         <v>21</v>
       </c>
       <c r="AE63" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF63" t="n">
         <v>16</v>
@@ -9049,13 +9049,13 @@
         <v>5.4</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
@@ -9088,7 +9088,7 @@
         <v>1.25</v>
       </c>
       <c r="W64" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="X64" t="n">
         <v>13</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -685,7 +685,7 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -706,13 +706,13 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V2" t="n">
         <v>2.28</v>
@@ -730,10 +730,10 @@
         <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -742,7 +742,7 @@
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="n">
         <v>44</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
-        <v>2.54</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -967,10 +967,10 @@
         <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
         <v>1.33</v>
@@ -979,70 +979,70 @@
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U4" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC4" t="n">
         <v>9.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AG4" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
         <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1087,7 +1087,7 @@
         <v>1.06</v>
       </c>
       <c r="K5" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1111,10 +1111,10 @@
         <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
         <v>1.04</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.26</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q6" t="n">
         <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
         <v>1.91</v>
@@ -1255,64 +1255,64 @@
         <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="W6" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF6" t="n">
         <v>40</v>
       </c>
-      <c r="AF6" t="n">
-        <v>28</v>
-      </c>
       <c r="AG6" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
         <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>180</v>
       </c>
       <c r="AN6" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
@@ -1492,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,28 +1501,28 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="O8" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="T8" t="n">
         <v>1.44</v>
       </c>
       <c r="U8" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
         <v>6</v>
@@ -1624,7 +1624,7 @@
         <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
         <v>44</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="n">
         <v>2.14</v>
@@ -1795,7 +1795,7 @@
         <v>2.18</v>
       </c>
       <c r="V10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
         <v>1.87</v>
@@ -1840,7 +1840,7 @@
         <v>25</v>
       </c>
       <c r="AK10" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AL10" t="n">
         <v>34</v>
@@ -1897,7 +1897,7 @@
         <v>1.06</v>
       </c>
       <c r="K11" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1915,13 +1915,13 @@
         <v>1.32</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R11" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.05</v>
       </c>
       <c r="T11" t="n">
         <v>1.04</v>
@@ -2020,7 +2020,7 @@
         <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
@@ -2029,100 +2029,100 @@
         <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.8</v>
+        <v>2.98</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
         <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>2.14</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.07</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>2.76</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
         <v>1.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -2164,10 +2164,10 @@
         <v>3.05</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.5</v>
+        <v>3.95</v>
       </c>
       <c r="L13" t="n">
         <v>1.32</v>
@@ -2197,7 +2197,7 @@
         <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V13" t="n">
         <v>1.5</v>
@@ -2287,40 +2287,40 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R14" t="n">
         <v>1.27</v>
@@ -2329,58 +2329,58 @@
         <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="X14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>12</v>
       </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
         <v>1000</v>
@@ -2389,10 +2389,10 @@
         <v>250</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="I15" t="n">
         <v>2.4</v>
       </c>
       <c r="J15" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>2.96</v>
+        <v>2.54</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.04</v>
       </c>
       <c r="P15" t="n">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>2.72</v>
       </c>
       <c r="T15" t="n">
         <v>1.78</v>
@@ -2470,10 +2470,10 @@
         <v>1.98</v>
       </c>
       <c r="V15" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W15" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>1.37</v>
       </c>
       <c r="G16" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
         <v>5.3</v>
@@ -2569,10 +2569,10 @@
         <v>870</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H17" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J17" t="n">
         <v>3</v>
@@ -2740,7 +2740,7 @@
         <v>1.89</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W17" t="n">
         <v>1.35</v>
@@ -2773,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH17" t="n">
         <v>25</v>
@@ -2842,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L18" t="n">
         <v>1.35</v>
@@ -2902,7 +2902,7 @@
         <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
         <v>15</v>
@@ -2962,40 +2962,40 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.45</v>
       </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R19" t="n">
         <v>1.2</v>
@@ -3004,43 +3004,43 @@
         <v>4.7</v>
       </c>
       <c r="T19" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="U19" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
         <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>22</v>
@@ -3052,10 +3052,10 @@
         <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL19" t="n">
         <v>120</v>
@@ -3064,10 +3064,10 @@
         <v>200</v>
       </c>
       <c r="AN19" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AO19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G20" t="n">
-        <v>6.2</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
         <v>1.67</v>
       </c>
       <c r="I20" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="J20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.25</v>
@@ -3127,28 +3127,28 @@
         <v>1.2</v>
       </c>
       <c r="P20" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
         <v>1.6</v>
       </c>
       <c r="R20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="T20" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U20" t="n">
         <v>2.06</v>
       </c>
       <c r="V20" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="W20" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G21" t="n">
         <v>5.1</v>
@@ -3283,7 +3283,7 @@
         <v>2.06</v>
       </c>
       <c r="W21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="G22" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="I22" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K22" t="n">
         <v>3.7</v>
@@ -3391,22 +3391,22 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P22" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="Q22" t="n">
         <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T22" t="n">
         <v>1.65</v>
@@ -3415,10 +3415,10 @@
         <v>2.12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="W22" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="X22" t="n">
         <v>16.5</v>
@@ -3433,7 +3433,7 @@
         <v>48</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC22" t="n">
         <v>9.6</v>
@@ -3442,16 +3442,16 @@
         <v>14</v>
       </c>
       <c r="AE22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>55</v>
@@ -3460,7 +3460,7 @@
         <v>70</v>
       </c>
       <c r="AK22" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL22" t="n">
         <v>65</v>
@@ -3511,13 +3511,13 @@
         <v>3.45</v>
       </c>
       <c r="I23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.44</v>
@@ -3562,7 +3562,7 @@
         <v>13.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>70</v>
@@ -3577,28 +3577,28 @@
         <v>15.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AF23" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG23" t="n">
         <v>11.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI23" t="n">
         <v>55</v>
       </c>
       <c r="AJ23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
         <v>42</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>130</v>
@@ -3667,22 +3667,22 @@
         <v>1.22</v>
       </c>
       <c r="P24" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q24" t="n">
         <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S24" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T24" t="n">
         <v>1.61</v>
       </c>
       <c r="U24" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="V24" t="n">
         <v>1.98</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G25" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H25" t="n">
         <v>3.65</v>
       </c>
       <c r="I25" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.65</v>
-      </c>
-      <c r="K25" t="n">
-        <v>3.7</v>
       </c>
       <c r="L25" t="n">
         <v>1.37</v>
@@ -3796,7 +3796,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O25" t="n">
         <v>1.27</v>
@@ -3820,16 +3820,16 @@
         <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="W25" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X25" t="n">
         <v>16.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Z25" t="n">
         <v>28</v>
@@ -3874,7 +3874,7 @@
         <v>80</v>
       </c>
       <c r="AN25" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO25" t="n">
         <v>36</v>
@@ -3922,7 +3922,7 @@
         <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -4051,16 +4051,16 @@
         <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K27" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
@@ -4084,13 +4084,13 @@
         <v>3.55</v>
       </c>
       <c r="T27" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U27" t="n">
         <v>1.87</v>
       </c>
       <c r="V27" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W27" t="n">
         <v>1.8</v>
@@ -4099,10 +4099,10 @@
         <v>16</v>
       </c>
       <c r="Y27" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
@@ -4114,10 +4114,10 @@
         <v>9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF27" t="n">
         <v>16.5</v>
@@ -4129,10 +4129,10 @@
         <v>23</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK27" t="n">
         <v>30</v>
@@ -4186,7 +4186,7 @@
         <v>1.9</v>
       </c>
       <c r="I28" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
@@ -4195,7 +4195,7 @@
         <v>3.85</v>
       </c>
       <c r="L28" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4327,7 +4327,7 @@
         <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.26</v>
@@ -4351,13 +4351,13 @@
         <v>1.51</v>
       </c>
       <c r="S29" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T29" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U29" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="V29" t="n">
         <v>1.87</v>
@@ -4372,7 +4372,7 @@
         <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA29" t="n">
         <v>32</v>
@@ -4402,7 +4402,7 @@
         <v>36</v>
       </c>
       <c r="AJ29" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="n">
         <v>46</v>
@@ -4456,10 +4456,10 @@
         <v>10.5</v>
       </c>
       <c r="I30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K30" t="n">
         <v>6.4</v>
@@ -4471,7 +4471,7 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
@@ -4480,16 +4480,16 @@
         <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S30" t="n">
         <v>2.66</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="U30" t="n">
         <v>1.76</v>
@@ -4528,7 +4528,7 @@
         <v>8.4</v>
       </c>
       <c r="AG30" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
         <v>34</v>
@@ -4597,10 +4597,10 @@
         <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.04</v>
@@ -4615,7 +4615,7 @@
         <v>1.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R31" t="n">
         <v>1.23</v>
@@ -4630,7 +4630,7 @@
         <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W31" t="n">
         <v>1.56</v>
@@ -4747,7 +4747,7 @@
         <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q32" t="n">
         <v>2.1</v>
@@ -4756,13 +4756,13 @@
         <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V32" t="n">
         <v>1.53</v>
@@ -4894,10 +4894,10 @@
         <v>4.4</v>
       </c>
       <c r="T33" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.77</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.78</v>
       </c>
       <c r="V33" t="n">
         <v>1.43</v>
@@ -4996,7 +4996,7 @@
         <v>1.84</v>
       </c>
       <c r="I34" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>3.35</v>
@@ -5017,25 +5017,25 @@
         <v>1.38</v>
       </c>
       <c r="P34" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R34" t="n">
         <v>1.27</v>
       </c>
       <c r="S34" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U34" t="n">
         <v>1.74</v>
       </c>
       <c r="V34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
         <v>1.24</v>
@@ -5272,7 +5272,7 @@
         <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L36" t="n">
         <v>1.46</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H37" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K37" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -5431,28 +5431,28 @@
         <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="T37" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U37" t="n">
         <v>1.75</v>
       </c>
       <c r="V37" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W37" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X37" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>1000</v>
@@ -5476,7 +5476,7 @@
         <v>16</v>
       </c>
       <c r="AH37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="G38" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H38" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="I38" t="n">
         <v>8</v>
@@ -5542,7 +5542,7 @@
         <v>3.6</v>
       </c>
       <c r="K38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>1.47</v>
@@ -5578,7 +5578,7 @@
         <v>1.14</v>
       </c>
       <c r="W38" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="X38" t="n">
         <v>13.5</v>
@@ -5674,7 +5674,7 @@
         <v>3.25</v>
       </c>
       <c r="J39" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
         <v>3.15</v>
@@ -5704,7 +5704,7 @@
         <v>4.7</v>
       </c>
       <c r="T39" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U39" t="n">
         <v>1.87</v>
@@ -5800,19 +5800,19 @@
         <v>2.46</v>
       </c>
       <c r="G40" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H40" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J40" t="n">
         <v>3.25</v>
       </c>
       <c r="K40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L40" t="n">
         <v>1.36</v>
@@ -5830,7 +5830,7 @@
         <v>1.84</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R40" t="n">
         <v>1.31</v>
@@ -5839,7 +5839,7 @@
         <v>3.65</v>
       </c>
       <c r="T40" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="U40" t="n">
         <v>2.02</v>
@@ -5848,19 +5848,19 @@
         <v>1.45</v>
       </c>
       <c r="W40" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X40" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y40" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="Z40" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA40" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB40" t="n">
         <v>10.5</v>
@@ -5872,7 +5872,7 @@
         <v>970</v>
       </c>
       <c r="AE40" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AF40" t="n">
         <v>970</v>
@@ -5884,16 +5884,16 @@
         <v>970</v>
       </c>
       <c r="AI40" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AJ40" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK40" t="n">
         <v>38</v>
       </c>
-      <c r="AK40" t="n">
-        <v>30</v>
-      </c>
       <c r="AL40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM40" t="n">
         <v>110</v>
@@ -5941,7 +5941,7 @@
         <v>6.2</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="J41" t="n">
         <v>4.4</v>
@@ -5980,7 +5980,7 @@
         <v>2.08</v>
       </c>
       <c r="V41" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W41" t="n">
         <v>2.68</v>
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="G42" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="J42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K42" t="n">
         <v>3.35</v>
@@ -6100,13 +6100,13 @@
         <v>1.67</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="R42" t="n">
         <v>1.25</v>
       </c>
       <c r="S42" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
         <v>1.91</v>
@@ -6115,10 +6115,10 @@
         <v>1.92</v>
       </c>
       <c r="V42" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="W42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X42" t="n">
         <v>970</v>
@@ -6130,19 +6130,19 @@
         <v>970</v>
       </c>
       <c r="AA42" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AB42" t="n">
         <v>970</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD42" t="n">
         <v>12</v>
       </c>
       <c r="AE42" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AF42" t="n">
         <v>27</v>
@@ -6172,7 +6172,7 @@
         <v>70</v>
       </c>
       <c r="AO42" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G43" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H43" t="n">
         <v>4</v>
@@ -6217,10 +6217,10 @@
         <v>3.9</v>
       </c>
       <c r="K43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L43" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M43" t="n">
         <v>1.04</v>
@@ -6229,13 +6229,13 @@
         <v>4.8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
         <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R43" t="n">
         <v>1.51</v>
@@ -6253,7 +6253,7 @@
         <v>1.28</v>
       </c>
       <c r="W43" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="X43" t="n">
         <v>1000</v>
@@ -6268,7 +6268,7 @@
         <v>100</v>
       </c>
       <c r="AB43" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC43" t="n">
         <v>10.5</v>
@@ -6292,7 +6292,7 @@
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK43" t="n">
         <v>22</v>
@@ -6343,7 +6343,7 @@
         <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I44" t="n">
         <v>2.26</v>
@@ -6361,28 +6361,28 @@
         <v>1.01</v>
       </c>
       <c r="N44" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P44" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="R44" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="T44" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="U44" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="V44" t="n">
         <v>1.8</v>
@@ -6424,7 +6424,7 @@
         <v>17.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ44" t="n">
         <v>55</v>
@@ -6436,13 +6436,13 @@
         <v>32</v>
       </c>
       <c r="AM44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AN44" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO44" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="G45" t="n">
         <v>2.12</v>
@@ -6481,19 +6481,19 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K45" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L45" t="n">
         <v>1.46</v>
       </c>
       <c r="M45" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N45" t="n">
         <v>3.15</v>
@@ -6523,22 +6523,22 @@
         <v>1.3</v>
       </c>
       <c r="W45" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X45" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y45" t="n">
         <v>15.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AA45" t="n">
         <v>110</v>
       </c>
       <c r="AB45" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC45" t="n">
         <v>9.6</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G46" t="n">
         <v>2.26</v>
@@ -6637,22 +6637,22 @@
         <v>1.17</v>
       </c>
       <c r="P46" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R46" t="n">
         <v>1.64</v>
       </c>
       <c r="S46" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="T46" t="n">
         <v>1.52</v>
       </c>
       <c r="U46" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V46" t="n">
         <v>1.42</v>
@@ -6673,10 +6673,10 @@
         <v>55</v>
       </c>
       <c r="AB46" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD46" t="n">
         <v>17.5</v>
@@ -6685,34 +6685,34 @@
         <v>38</v>
       </c>
       <c r="AF46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH46" t="n">
         <v>18</v>
       </c>
       <c r="AI46" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ46" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK46" t="n">
         <v>25</v>
       </c>
       <c r="AL46" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM46" t="n">
         <v>65</v>
       </c>
       <c r="AN46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47">
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="G47" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>1.39</v>
       </c>
       <c r="I47" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="J47" t="n">
         <v>5.4</v>
@@ -6760,7 +6760,7 @@
         <v>6.2</v>
       </c>
       <c r="L47" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -6772,7 +6772,7 @@
         <v>1.14</v>
       </c>
       <c r="P47" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="Q47" t="n">
         <v>1.44</v>
@@ -6790,10 +6790,10 @@
         <v>2.24</v>
       </c>
       <c r="V47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="W47" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="X47" t="n">
         <v>42</v>
@@ -6898,7 +6898,7 @@
         <v>1.24</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
         <v>5.2</v>
@@ -6910,7 +6910,7 @@
         <v>2.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R48" t="n">
         <v>1.58</v>
@@ -6919,7 +6919,7 @@
         <v>2.46</v>
       </c>
       <c r="T48" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U48" t="n">
         <v>2.5</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G49" t="n">
         <v>1.94</v>
@@ -7024,7 +7024,7 @@
         <v>4.1</v>
       </c>
       <c r="J49" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K49" t="n">
         <v>5</v>
@@ -7048,7 +7048,7 @@
         <v>1.32</v>
       </c>
       <c r="R49" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S49" t="n">
         <v>1.93</v>
@@ -7159,13 +7159,13 @@
         <v>3.35</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K50" t="n">
         <v>4.6</v>
       </c>
       <c r="L50" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M50" t="n">
         <v>1.03</v>
@@ -7189,7 +7189,7 @@
         <v>2.08</v>
       </c>
       <c r="T50" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="U50" t="n">
         <v>2.84</v>
@@ -7210,7 +7210,7 @@
         <v>34</v>
       </c>
       <c r="AA50" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AB50" t="n">
         <v>20</v>
@@ -7234,7 +7234,7 @@
         <v>17</v>
       </c>
       <c r="AI50" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ50" t="n">
         <v>36</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G51" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I51" t="n">
         <v>3.8</v>
@@ -7297,10 +7297,10 @@
         <v>3.6</v>
       </c>
       <c r="K51" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L51" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7312,13 +7312,13 @@
         <v>1.16</v>
       </c>
       <c r="P51" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="Q51" t="n">
         <v>1.49</v>
       </c>
       <c r="R51" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S51" t="n">
         <v>2.2</v>
@@ -7420,7 +7420,7 @@
         <v>2.76</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H52" t="n">
         <v>2.44</v>
@@ -7483,7 +7483,7 @@
         <v>40</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC52" t="n">
         <v>12</v>
@@ -7498,7 +7498,7 @@
         <v>28</v>
       </c>
       <c r="AG52" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH52" t="n">
         <v>18</v>
@@ -7516,13 +7516,13 @@
         <v>40</v>
       </c>
       <c r="AM52" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN52" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -7567,7 +7567,7 @@
         <v>4.3</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L53" t="n">
         <v>1.27</v>
@@ -7594,7 +7594,7 @@
         <v>2.66</v>
       </c>
       <c r="T53" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="U53" t="n">
         <v>2.08</v>
@@ -7687,22 +7687,22 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G54" t="n">
         <v>2.64</v>
       </c>
       <c r="H54" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I54" t="n">
         <v>3.65</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K54" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L54" t="n">
         <v>1.01</v>
@@ -7717,7 +7717,7 @@
         <v>1.6</v>
       </c>
       <c r="P54" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q54" t="n">
         <v>2.76</v>
@@ -7732,7 +7732,7 @@
         <v>2.16</v>
       </c>
       <c r="U54" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V54" t="n">
         <v>1.37</v>
@@ -7756,7 +7756,7 @@
         <v>7.6</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD54" t="n">
         <v>17</v>
@@ -7765,16 +7765,16 @@
         <v>65</v>
       </c>
       <c r="AF54" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG54" t="n">
         <v>13.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ54" t="n">
         <v>44</v>
@@ -7792,7 +7792,7 @@
         <v>46</v>
       </c>
       <c r="AO54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -7822,16 +7822,16 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G55" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H55" t="n">
         <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
@@ -7846,16 +7846,16 @@
         <v>1.09</v>
       </c>
       <c r="N55" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O55" t="n">
         <v>1.45</v>
       </c>
       <c r="P55" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="R55" t="n">
         <v>1.22</v>
@@ -7894,7 +7894,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE55" t="n">
         <v>1000</v>
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G56" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H56" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I56" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I56" t="n">
-        <v>2.14</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -7999,16 +7999,16 @@
         <v>3.1</v>
       </c>
       <c r="T56" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U56" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V56" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="W56" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X56" t="n">
         <v>15.5</v>
@@ -8023,7 +8023,7 @@
         <v>25</v>
       </c>
       <c r="AB56" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC56" t="n">
         <v>8.4</v>
@@ -8035,7 +8035,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG56" t="n">
         <v>15.5</v>
@@ -8047,7 +8047,7 @@
         <v>34</v>
       </c>
       <c r="AJ56" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK56" t="n">
         <v>44</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G57" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I57" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J57" t="n">
         <v>3.45</v>
@@ -8119,13 +8119,13 @@
         <v>3.45</v>
       </c>
       <c r="O57" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P57" t="n">
         <v>1.85</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R57" t="n">
         <v>1.32</v>
@@ -8140,13 +8140,13 @@
         <v>1.92</v>
       </c>
       <c r="V57" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="W57" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X57" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="Y57" t="n">
         <v>11.5</v>
@@ -8158,7 +8158,7 @@
         <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC57" t="n">
         <v>9.6</v>
@@ -8170,10 +8170,10 @@
         <v>1000</v>
       </c>
       <c r="AF57" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH57" t="n">
         <v>22</v>
@@ -8227,22 +8227,22 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G58" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="I58" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K58" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L58" t="n">
         <v>1.36</v>
@@ -8254,7 +8254,7 @@
         <v>3.4</v>
       </c>
       <c r="O58" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P58" t="n">
         <v>1.83</v>
@@ -8266,7 +8266,7 @@
         <v>1.31</v>
       </c>
       <c r="S58" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T58" t="n">
         <v>1.99</v>
@@ -8278,10 +8278,10 @@
         <v>1.19</v>
       </c>
       <c r="W58" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X58" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="Y58" t="n">
         <v>21</v>
@@ -8296,7 +8296,7 @@
         <v>8.6</v>
       </c>
       <c r="AC58" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD58" t="n">
         <v>26</v>
@@ -8305,13 +8305,13 @@
         <v>110</v>
       </c>
       <c r="AF58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG58" t="n">
         <v>12</v>
       </c>
       <c r="AH58" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI58" t="n">
         <v>110</v>
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G59" t="n">
         <v>2.26</v>
       </c>
       <c r="H59" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I59" t="n">
         <v>3.9</v>
       </c>
       <c r="J59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K59" t="n">
         <v>3.45</v>
@@ -8410,13 +8410,13 @@
         <v>1.92</v>
       </c>
       <c r="V59" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W59" t="n">
         <v>1.8</v>
       </c>
       <c r="X59" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y59" t="n">
         <v>12</v>
@@ -8434,7 +8434,7 @@
         <v>7.4</v>
       </c>
       <c r="AD59" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE59" t="n">
         <v>55</v>
@@ -8449,7 +8449,7 @@
         <v>21</v>
       </c>
       <c r="AI59" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ59" t="n">
         <v>29</v>
@@ -8497,10 +8497,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="G60" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H60" t="n">
         <v>3.65</v>
@@ -8509,10 +8509,10 @@
         <v>3.7</v>
       </c>
       <c r="J60" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K60" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="L60" t="n">
         <v>1.61</v>
@@ -8521,16 +8521,16 @@
         <v>1.15</v>
       </c>
       <c r="N60" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="O60" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="P60" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="R60" t="n">
         <v>1.18</v>
@@ -8542,13 +8542,13 @@
         <v>2.22</v>
       </c>
       <c r="U60" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V60" t="n">
         <v>1.37</v>
       </c>
       <c r="W60" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="X60" t="n">
         <v>7.8</v>
@@ -8569,7 +8569,7 @@
         <v>6.8</v>
       </c>
       <c r="AD60" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE60" t="n">
         <v>60</v>
@@ -8632,31 +8632,31 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G61" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H61" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="I61" t="n">
         <v>2.38</v>
       </c>
       <c r="J61" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L61" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O61" t="n">
         <v>1.35</v>
@@ -8683,25 +8683,25 @@
         <v>1.72</v>
       </c>
       <c r="W61" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X61" t="n">
         <v>15.5</v>
       </c>
       <c r="Y61" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AA61" t="n">
         <v>1000</v>
       </c>
       <c r="AB61" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD61" t="n">
         <v>13.5</v>
@@ -8719,13 +8719,13 @@
         <v>23</v>
       </c>
       <c r="AI61" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ61" t="n">
         <v>1000</v>
       </c>
       <c r="AK61" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL61" t="n">
         <v>1000</v>
@@ -8734,7 +8734,7 @@
         <v>1000</v>
       </c>
       <c r="AN61" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO61" t="n">
         <v>26</v>
@@ -8767,19 +8767,19 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G62" t="n">
         <v>1.82</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I62" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="J62" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K62" t="n">
         <v>4</v>
@@ -8800,7 +8800,7 @@
         <v>2.02</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R62" t="n">
         <v>1.4</v>
@@ -8809,7 +8809,7 @@
         <v>3.4</v>
       </c>
       <c r="T62" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U62" t="n">
         <v>2.08</v>
@@ -8818,7 +8818,7 @@
         <v>1.23</v>
       </c>
       <c r="W62" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X62" t="n">
         <v>15</v>
@@ -8830,7 +8830,7 @@
         <v>38</v>
       </c>
       <c r="AA62" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB62" t="n">
         <v>8.800000000000001</v>
@@ -8839,7 +8839,7 @@
         <v>8.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE62" t="n">
         <v>65</v>
@@ -8848,7 +8848,7 @@
         <v>11</v>
       </c>
       <c r="AG62" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH62" t="n">
         <v>19.5</v>
@@ -8863,7 +8863,7 @@
         <v>18.5</v>
       </c>
       <c r="AL62" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM62" t="n">
         <v>110</v>
@@ -8872,7 +8872,7 @@
         <v>11.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
@@ -8902,25 +8902,25 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="G63" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
         <v>3.2</v>
       </c>
       <c r="K63" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L63" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M63" t="n">
         <v>1.09</v>
@@ -8929,13 +8929,13 @@
         <v>3.05</v>
       </c>
       <c r="O63" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P63" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R63" t="n">
         <v>1.27</v>
@@ -8950,37 +8950,37 @@
         <v>1.94</v>
       </c>
       <c r="V63" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W63" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="X63" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y63" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF63" t="n">
         <v>15.5</v>
-      </c>
-      <c r="Z63" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB63" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE63" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>16</v>
       </c>
       <c r="AG63" t="n">
         <v>13.5</v>
@@ -9055,7 +9055,7 @@
         <v>3.7</v>
       </c>
       <c r="L64" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
@@ -9091,13 +9091,13 @@
         <v>1.97</v>
       </c>
       <c r="X64" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y64" t="n">
         <v>17</v>
       </c>
       <c r="Z64" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AA64" t="n">
         <v>160</v>
@@ -9109,13 +9109,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD64" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE64" t="n">
         <v>85</v>
       </c>
       <c r="AF64" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG64" t="n">
         <v>13</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
         <v>5.3</v>
@@ -676,7 +676,7 @@
         <v>1.76</v>
       </c>
       <c r="I2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,13 +691,13 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
         <v>1.84</v>
@@ -706,13 +706,13 @@
         <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V2" t="n">
         <v>2.28</v>
@@ -721,58 +721,58 @@
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>9.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH2" t="n">
         <v>19</v>
       </c>
-      <c r="AC2" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21</v>
-      </c>
       <c r="AI2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -793,31 +793,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>68 Aksaray Belediyespor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Erbaaspor</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="H3" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>870</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>1.26</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
-        <v>1.98</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.04</v>
       </c>
-      <c r="U3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W3" t="n">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Arnavutkoy Belediyesi GVS</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mus Spor</t>
+          <t>Erbaaspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>2.52</v>
+        <v>6.2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="R4" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>2.48</v>
       </c>
       <c r="T4" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>2.8</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>280</v>
       </c>
       <c r="AA4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.6</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>510</v>
       </c>
       <c r="AF4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>400</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AL4" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>430</v>
       </c>
       <c r="AN4" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="AO4" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -1063,121 +1063,121 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>Arnavutkoy Belediyesi GVS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kastamonuspor</t>
+          <t>Mus Spor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.05</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.01</v>
+        <v>2.52</v>
       </c>
       <c r="I5" t="n">
-        <v>870</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>1.06</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O5" t="n">
         <v>1.3</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P5" t="n">
-        <v>1.3</v>
+        <v>1.81</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>1.34</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Muglaspor</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1.99</v>
       </c>
       <c r="G6" t="n">
-        <v>5.4</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>1.92</v>
+        <v>1.67</v>
       </c>
       <c r="I6" t="n">
-        <v>2.26</v>
+        <v>44</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.66</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>1.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.65</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.79</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.2</v>
+        <v>3.95</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>2.18</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>75</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.55</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>2.36</v>
+        <v>3.65</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.08</v>
+        <v>1.84</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,123 +1463,123 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="X8" t="n">
         <v>48</v>
       </c>
-      <c r="G8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>130</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,72 +1598,72 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FK Usce Novi Beograd</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SU Dinamo Jug</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.01</v>
+        <v>48</v>
       </c>
       <c r="G9" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
       <c r="H9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>1.08</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="K9" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.1</v>
+        <v>2.36</v>
       </c>
       <c r="O9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.01</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.02</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,31 +1738,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>FK Usce Novi Beograd</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kanchanaburi</t>
+          <t>SU Dinamo Jug</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.98</v>
+        <v>1.63</v>
       </c>
       <c r="G10" t="n">
-        <v>2.14</v>
+        <v>44</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>1.78</v>
       </c>
       <c r="I10" t="n">
-        <v>4.4</v>
+        <v>44</v>
       </c>
       <c r="J10" t="n">
-        <v>3.6</v>
+        <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>44</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,94 +1771,94 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.05</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>1.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.42</v>
+        <v>1.1</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.69</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>2.18</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.3</v>
+        <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>1.87</v>
+        <v>1.02</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Fethiyespor</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>Kanchanaburi</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="G11" t="n">
-        <v>600</v>
+        <v>2.14</v>
       </c>
       <c r="H11" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>870</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.32</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P11" t="n">
-        <v>1.32</v>
+        <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="R11" t="n">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>1.05</v>
+        <v>2.96</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>1.69</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>1.02</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.02</v>
+        <v>1.87</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Fethiyespor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>44</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>1.79</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>44</v>
       </c>
       <c r="J12" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>1.34</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>1.36</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.35</v>
+        <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>1.67</v>
+        <v>1.02</v>
       </c>
       <c r="X12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.86</v>
+        <v>2.48</v>
       </c>
       <c r="H13" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
         <v>3.1</v>
       </c>
       <c r="K13" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>2.12</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>2.24</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO13" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Oleksandria</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FK Kudrivka</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>3.85</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
-        <v>4.4</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.39</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.27</v>
-      </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="V14" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM14" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,123 +2408,123 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Menemen Belediyespor</t>
+          <t>Oleksandria</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aliaga Futbol AS</t>
+          <t>FK Kudrivka</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.15</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.94</v>
       </c>
-      <c r="I15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V15" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO15" t="n">
         <v>1000</v>
@@ -2557,31 +2557,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I16" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
@@ -2605,10 +2605,10 @@
         <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2623,10 +2623,10 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2635,10 +2635,10 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
@@ -2647,19 +2647,19 @@
         <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,114 +2678,114 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Menemen Belediyespor</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Taee</t>
+          <t>Aliaga Futbol AS</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="G17" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="I17" t="n">
-        <v>2.58</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="O17" t="n">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="P17" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.26</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S17" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="W17" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2797,13 +2797,13 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Romanian Liga II</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ACS Sepsi OSK</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Concordia Chiajna</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>2.34</v>
       </c>
       <c r="I18" t="n">
-        <v>5.5</v>
+        <v>2.58</v>
       </c>
       <c r="J18" t="n">
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>1.93</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>350</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AL18" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ukrainian Premier League</t>
+          <t>Romanian Liga II</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Obolon-Brovar Kiev</t>
+          <t>ACS Sepsi OSK</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Metalist 1925</t>
+          <t>Concordia Chiajna</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>3.85</v>
+        <v>2.18</v>
       </c>
       <c r="H19" t="n">
-        <v>2.16</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>2.28</v>
+        <v>5.1</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34</v>
+        <v>1.84</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="S19" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>1.77</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="W19" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK19" t="n">
         <v>25</v>
       </c>
-      <c r="AG19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>60</v>
-      </c>
       <c r="AL19" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Ukrainian Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bregenz</t>
+          <t>Obolon-Brovar Kiev</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>St Polten</t>
+          <t>Metalist 1925</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S20" t="n">
         <v>4.7</v>
       </c>
-      <c r="G20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.48</v>
-      </c>
       <c r="T20" t="n">
-        <v>1.55</v>
+        <v>2.08</v>
       </c>
       <c r="U20" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="V20" t="n">
-        <v>2.3</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC20" t="n">
-        <v>12.5</v>
+        <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.199999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3223,103 +3223,103 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>KSV 1919</t>
+          <t>Bregenz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>St Polten</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="G21" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="H21" t="n">
-        <v>1.79</v>
+        <v>1.65</v>
       </c>
       <c r="I21" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="S21" t="n">
-        <v>3.05</v>
+        <v>2.28</v>
       </c>
       <c r="T21" t="n">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="V21" t="n">
-        <v>2.06</v>
+        <v>2.34</v>
       </c>
       <c r="W21" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
         <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
         <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
         <v>1000</v>
@@ -3334,10 +3334,10 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Austria Wien (A)</t>
+          <t>KSV 1919</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Austria Klagenfurt</t>
+          <t>Floridsdorfer AC</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.78</v>
+        <v>4.4</v>
       </c>
       <c r="G22" t="n">
-        <v>3.1</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>1.93</v>
       </c>
       <c r="J22" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="O22" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="W22" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="X22" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB22" t="n">
         <v>21</v>
       </c>
-      <c r="AA22" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AG22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AO22" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Austria Wien (A)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Austria Klagenfurt</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.45</v>
+        <v>2.54</v>
       </c>
       <c r="I23" t="n">
-        <v>3.75</v>
+        <v>2.82</v>
       </c>
       <c r="J23" t="n">
         <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S23" t="n">
         <v>3.35</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3.8</v>
-      </c>
       <c r="T23" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="U23" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="V23" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="W23" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="X23" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG23" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AH23" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK23" t="n">
         <v>46</v>
       </c>
-      <c r="AF23" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>26</v>
-      </c>
       <c r="AL23" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AM23" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,126 +3623,126 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Greuther Furth</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.95</v>
+        <v>2.24</v>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="H24" t="n">
-        <v>1.97</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>2.02</v>
+        <v>3.75</v>
       </c>
       <c r="J24" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>2.36</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>2.64</v>
+        <v>3.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="U24" t="n">
-        <v>2.42</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="W24" t="n">
-        <v>1.32</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="AA24" t="n">
+        <v>470</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>220</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN24" t="n">
         <v>24</v>
       </c>
-      <c r="AB24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>36</v>
-      </c>
       <c r="AO24" t="n">
-        <v>10.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dynamo Dresden</t>
+          <t>Greuther Furth</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.18</v>
+        <v>3.85</v>
       </c>
       <c r="G25" t="n">
-        <v>2.24</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.65</v>
+        <v>1.98</v>
       </c>
       <c r="I25" t="n">
-        <v>3.85</v>
+        <v>2.04</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="T25" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.35</v>
+        <v>1.96</v>
       </c>
       <c r="W25" t="n">
-        <v>1.8</v>
+        <v>1.32</v>
       </c>
       <c r="X25" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH25" t="n">
         <v>16</v>
       </c>
-      <c r="Z25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AI25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="n">
         <v>70</v>
       </c>
-      <c r="AB25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>80</v>
-      </c>
       <c r="AN25" t="n">
-        <v>17.5</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>36</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SSV Ulm</t>
+          <t>Dynamo Dresden</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.35</v>
+        <v>2.24</v>
       </c>
       <c r="G26" t="n">
-        <v>4.2</v>
+        <v>2.26</v>
       </c>
       <c r="H26" t="n">
-        <v>2.08</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.26</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="K26" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,25 +4033,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Porto B</t>
+          <t>SSV Ulm</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>VfL Osnabruck</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="G27" t="n">
-        <v>2.24</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>2.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
@@ -4060,94 +4060,94 @@
         <v>3.9</v>
       </c>
       <c r="L27" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4168,34 +4168,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Porto B</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>2.14</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>2.24</v>
       </c>
       <c r="H28" t="n">
-        <v>1.9</v>
+        <v>3.55</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K28" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
@@ -4204,91 +4204,91 @@
         <v>3.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X28" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK28" t="n">
         <v>27</v>
       </c>
-      <c r="AB28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="n">
+      <c r="AL28" t="n">
         <v>50</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>80</v>
-      </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,126 +4298,126 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Rapperswil-Jona</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.35</v>
+        <v>4.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.85</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="I29" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.75</v>
       </c>
-      <c r="K29" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.26</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE29" t="n">
         <v>26</v>
       </c>
-      <c r="Y29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z29" t="n">
+      <c r="AF29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO29" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G30" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="H30" t="n">
         <v>10.5</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K30" t="n">
         <v>6.4</v>
@@ -4471,13 +4471,13 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q30" t="n">
         <v>1.65</v>
@@ -4486,10 +4486,10 @@
         <v>1.5</v>
       </c>
       <c r="S30" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U30" t="n">
         <v>1.76</v>
@@ -4498,19 +4498,19 @@
         <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="X30" t="n">
         <v>27</v>
       </c>
       <c r="Y30" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="Z30" t="n">
         <v>130</v>
       </c>
       <c r="AA30" t="n">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="AB30" t="n">
         <v>9</v>
@@ -4519,31 +4519,31 @@
         <v>14</v>
       </c>
       <c r="AD30" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AE30" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="n">
         <v>180</v>
       </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="AK30" t="n">
         <v>18</v>
       </c>
       <c r="AL30" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AM30" t="n">
         <v>220</v>
@@ -4552,7 +4552,7 @@
         <v>5.4</v>
       </c>
       <c r="AO30" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.46</v>
+        <v>2.62</v>
       </c>
       <c r="G31" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="H31" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="I31" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.45</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.6</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4606,43 +4606,43 @@
         <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>2.62</v>
+        <v>2.36</v>
       </c>
       <c r="O31" t="n">
         <v>1.04</v>
       </c>
       <c r="P31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="S31" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="V31" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
@@ -4651,22 +4651,22 @@
         <v>11.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>French National</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Stade Briochin</t>
+          <t>Rapperswil-Jona</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Aubagne FC</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="I32" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>3.15</v>
+        <v>4.4</v>
       </c>
       <c r="O32" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1</v>
+        <v>1.59</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.56</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>2.48</v>
       </c>
       <c r="T32" t="n">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>1.53</v>
+        <v>1.92</v>
       </c>
       <c r="W32" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Z32" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AB32" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AK32" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -4843,121 +4843,121 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Valenciennes</t>
+          <t>Stade Briochin</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sochaux</t>
+          <t>Aubagne FC</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G33" t="n">
         <v>2.94</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="K33" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="T33" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="V33" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W33" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y33" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>12</v>
-      </c>
       <c r="Z33" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA33" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AE33" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AF33" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG33" t="n">
         <v>15.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AJ33" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK33" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="AM33" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -5020,7 +5020,7 @@
         <v>1.73</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R34" t="n">
         <v>1.27</v>
@@ -5029,10 +5029,10 @@
         <v>3.9</v>
       </c>
       <c r="T34" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U34" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
         <v>2</v>
@@ -5059,19 +5059,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD34" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AI34" t="n">
         <v>1000</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -5122,22 +5122,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
         <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
         <v>1.46</v>
@@ -5152,7 +5152,7 @@
         <v>1.38</v>
       </c>
       <c r="P35" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
         <v>2.14</v>
@@ -5167,37 +5167,37 @@
         <v>1.86</v>
       </c>
       <c r="U35" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA35" t="n">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="AB35" t="n">
         <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD35" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AF35" t="n">
         <v>16.5</v>
@@ -5206,10 +5206,10 @@
         <v>13.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="n">
         <v>38</v>
@@ -5227,7 +5227,7 @@
         <v>28</v>
       </c>
       <c r="AO35" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36">
@@ -5263,7 +5263,7 @@
         <v>2.22</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
         <v>4.5</v>
@@ -5290,7 +5290,7 @@
         <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R36" t="n">
         <v>1.26</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G37" t="n">
         <v>3.1</v>
@@ -5401,13 +5401,13 @@
         <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -5425,7 +5425,7 @@
         <v>1.62</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5437,7 +5437,7 @@
         <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V37" t="n">
         <v>1.46</v>
@@ -5464,7 +5464,7 @@
         <v>8.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
@@ -5513,126 +5513,126 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rouen</t>
+          <t>Valenciennes</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Quevilly Rouen</t>
+          <t>Sochaux</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.62</v>
+        <v>2.62</v>
       </c>
       <c r="G38" t="n">
-        <v>1.68</v>
+        <v>2.94</v>
       </c>
       <c r="H38" t="n">
-        <v>7.2</v>
+        <v>2.88</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="L38" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M38" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N38" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.43</v>
       </c>
       <c r="P38" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R38" t="n">
         <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T38" t="n">
-        <v>2.18</v>
+        <v>1.76</v>
       </c>
       <c r="U38" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="V38" t="n">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="W38" t="n">
-        <v>2.46</v>
+        <v>1.51</v>
       </c>
       <c r="X38" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Z38" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA38" t="n">
         <v>70</v>
       </c>
-      <c r="AA38" t="n">
-        <v>1000</v>
-      </c>
       <c r="AB38" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AD38" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF38" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ38" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="AK38" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AL38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM38" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN38" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39">
@@ -5653,127 +5653,127 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Annecy</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Le Mans</t>
+          <t>Clermont</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.7</v>
+        <v>2.02</v>
       </c>
       <c r="G39" t="n">
-        <v>2.92</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
-        <v>2.98</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3.25</v>
+        <v>4.3</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M39" t="n">
         <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.44</v>
+        <v>2.14</v>
       </c>
       <c r="R39" t="n">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="S39" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="U39" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="V39" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="W39" t="n">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>15.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AA39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE39" t="n">
         <v>60</v>
       </c>
-      <c r="AB39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>55</v>
-      </c>
       <c r="AF39" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AG39" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
         <v>70</v>
       </c>
       <c r="AJ39" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AK39" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM39" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AN39" t="n">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="AO39" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>French National</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5788,118 +5788,118 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rodez</t>
+          <t>Rouen</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Guingamp</t>
+          <t>Quevilly Rouen</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.46</v>
+        <v>1.65</v>
       </c>
       <c r="G40" t="n">
-        <v>2.66</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="M40" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="P40" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R40" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.81</v>
+        <v>2.16</v>
       </c>
       <c r="U40" t="n">
-        <v>2.02</v>
+        <v>1.71</v>
       </c>
       <c r="V40" t="n">
-        <v>1.45</v>
+        <v>1.14</v>
       </c>
       <c r="W40" t="n">
-        <v>1.61</v>
+        <v>2.34</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="Z40" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AA40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL40" t="n">
         <v>65</v>
       </c>
-      <c r="AB40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>50</v>
-      </c>
       <c r="AM40" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5923,121 +5923,121 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Annecy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Le Mans</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.54</v>
+        <v>2.82</v>
       </c>
       <c r="G41" t="n">
-        <v>1.59</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>6.2</v>
+        <v>2.88</v>
       </c>
       <c r="I41" t="n">
-        <v>7.4</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S41" t="n">
         <v>5</v>
       </c>
-      <c r="L41" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R41" t="n">
+      <c r="T41" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W41" t="n">
         <v>1.48</v>
       </c>
-      <c r="S41" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U41" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W41" t="n">
-        <v>2.68</v>
-      </c>
       <c r="X41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>500</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH41" t="n">
         <v>25</v>
       </c>
-      <c r="Y41" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE41" t="n">
+      <c r="AI41" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>400</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO41" t="n">
         <v>110</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6058,121 +6058,121 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Laval</t>
+          <t>Rodez</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dunkerque</t>
+          <t>Guingamp</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="H42" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.46</v>
+        <v>3.35</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S42" t="n">
         <v>3.35</v>
       </c>
-      <c r="L42" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N42" t="n">
-        <v>3</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4.2</v>
-      </c>
       <c r="T42" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="U42" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V42" t="n">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="X42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF42" t="n">
         <v>970</v>
       </c>
-      <c r="Y42" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>970</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>27</v>
-      </c>
       <c r="AG42" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AI42" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AJ42" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AK42" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AL42" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AM42" t="n">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="AN42" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO42" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43">
@@ -6211,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J43" t="n">
         <v>3.9</v>
@@ -6235,7 +6235,7 @@
         <v>2.3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="R43" t="n">
         <v>1.51</v>
@@ -6256,7 +6256,7 @@
         <v>2.04</v>
       </c>
       <c r="X43" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Y43" t="n">
         <v>1000</v>
@@ -6268,43 +6268,43 @@
         <v>100</v>
       </c>
       <c r="AB43" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE43" t="n">
         <v>1000</v>
       </c>
       <c r="AF43" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AI43" t="n">
         <v>1000</v>
       </c>
       <c r="AJ43" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK43" t="n">
         <v>22</v>
       </c>
       <c r="AL43" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM43" t="n">
         <v>1000</v>
       </c>
       <c r="AN43" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO43" t="n">
         <v>1000</v>
@@ -6343,16 +6343,16 @@
         <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J44" t="n">
         <v>4.4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
         <v>1.18</v>
@@ -6376,7 +6376,7 @@
         <v>2.1</v>
       </c>
       <c r="S44" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="T44" t="n">
         <v>1.4</v>
@@ -6385,7 +6385,7 @@
         <v>3.35</v>
       </c>
       <c r="V44" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W44" t="n">
         <v>1.45</v>
@@ -6463,121 +6463,121 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Clermont</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="G45" t="n">
-        <v>2.12</v>
+        <v>1.61</v>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="I45" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J45" t="n">
         <v>4.4</v>
       </c>
-      <c r="J45" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K45" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="M45" t="n">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="P45" t="n">
-        <v>1.74</v>
+        <v>2.24</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="R45" t="n">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>2.74</v>
       </c>
       <c r="T45" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U45" t="n">
-        <v>1.81</v>
+        <v>2.08</v>
       </c>
       <c r="V45" t="n">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="W45" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="X45" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="Y45" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="Z45" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA45" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE45" t="n">
         <v>110</v>
       </c>
-      <c r="AB45" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD45" t="n">
+      <c r="AF45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK45" t="n">
         <v>20</v>
       </c>
-      <c r="AE45" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>28</v>
-      </c>
       <c r="AL45" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AM45" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AN45" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="AO45" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46">
@@ -6640,16 +6640,16 @@
         <v>2.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R46" t="n">
         <v>1.64</v>
       </c>
       <c r="S46" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T46" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="U46" t="n">
         <v>2.66</v>
@@ -6664,7 +6664,7 @@
         <v>34</v>
       </c>
       <c r="Y46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Z46" t="n">
         <v>34</v>
@@ -6685,7 +6685,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG46" t="n">
         <v>14</v>
@@ -6742,16 +6742,16 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="G47" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H47" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="I47" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J47" t="n">
         <v>5.4</v>
@@ -6769,7 +6769,7 @@
         <v>6.6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P47" t="n">
         <v>2.92</v>
@@ -6778,76 +6778,76 @@
         <v>1.44</v>
       </c>
       <c r="R47" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="S47" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="T47" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="U47" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="V47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W47" t="n">
         <v>1.12</v>
       </c>
       <c r="X47" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="Y47" t="n">
         <v>16</v>
       </c>
       <c r="Z47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA47" t="n">
         <v>16</v>
       </c>
       <c r="AB47" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AC47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AD47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE47" t="n">
         <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AG47" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH47" t="n">
         <v>26</v>
       </c>
       <c r="AI47" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ47" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AK47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL47" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM47" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN47" t="n">
         <v>95</v>
       </c>
-      <c r="AN47" t="n">
-        <v>90</v>
-      </c>
       <c r="AO47" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="48">
@@ -6892,7 +6892,7 @@
         <v>3.9</v>
       </c>
       <c r="K48" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L48" t="n">
         <v>1.24</v>
@@ -6925,7 +6925,7 @@
         <v>2.5</v>
       </c>
       <c r="V48" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W48" t="n">
         <v>1.86</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G49" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I49" t="n">
         <v>4.1</v>
@@ -7036,10 +7036,10 @@
         <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="O49" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P49" t="n">
         <v>3.25</v>
@@ -7048,13 +7048,13 @@
         <v>1.32</v>
       </c>
       <c r="R49" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S49" t="n">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="T49" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U49" t="n">
         <v>2.96</v>
@@ -7171,28 +7171,28 @@
         <v>1.03</v>
       </c>
       <c r="N50" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O50" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P50" t="n">
         <v>2.86</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R50" t="n">
         <v>1.76</v>
       </c>
       <c r="S50" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="T50" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="U50" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="V50" t="n">
         <v>1.42</v>
@@ -7246,7 +7246,7 @@
         <v>30</v>
       </c>
       <c r="AM50" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AN50" t="n">
         <v>11</v>
@@ -7282,25 +7282,25 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7324,25 +7324,25 @@
         <v>2.2</v>
       </c>
       <c r="T51" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U51" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V51" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W51" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="X51" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Y51" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="Z51" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AA51" t="n">
         <v>65</v>
@@ -7357,19 +7357,19 @@
         <v>970</v>
       </c>
       <c r="AE51" t="n">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="AF51" t="n">
         <v>21</v>
       </c>
       <c r="AG51" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI51" t="n">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="AJ51" t="n">
         <v>34</v>
@@ -7378,16 +7378,16 @@
         <v>23</v>
       </c>
       <c r="AL51" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM51" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AN51" t="n">
         <v>11</v>
       </c>
       <c r="AO51" t="n">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52">
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G52" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H52" t="n">
         <v>2.44</v>
       </c>
       <c r="I52" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J52" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K52" t="n">
         <v>4.2</v>
@@ -7441,52 +7441,52 @@
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="O52" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U52" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q52" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V52" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W52" t="n">
         <v>1.51</v>
       </c>
       <c r="X52" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="Y52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z52" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA52" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB52" t="n">
         <v>20</v>
       </c>
       <c r="AC52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD52" t="n">
         <v>15</v>
@@ -7495,16 +7495,16 @@
         <v>28</v>
       </c>
       <c r="AF52" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG52" t="n">
         <v>16</v>
       </c>
       <c r="AH52" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ52" t="n">
         <v>55</v>
@@ -7516,13 +7516,13 @@
         <v>40</v>
       </c>
       <c r="AM52" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN52" t="n">
         <v>19.5</v>
       </c>
       <c r="AO52" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="53">
@@ -7576,22 +7576,22 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P53" t="n">
         <v>2.22</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
         <v>1.49</v>
       </c>
       <c r="S53" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T53" t="n">
         <v>1.9</v>
@@ -7612,7 +7612,7 @@
         <v>29</v>
       </c>
       <c r="Z53" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AA53" t="n">
         <v>190</v>
@@ -7627,7 +7627,7 @@
         <v>29</v>
       </c>
       <c r="AE53" t="n">
-        <v>95</v>
+        <v>420</v>
       </c>
       <c r="AF53" t="n">
         <v>13</v>
@@ -7639,7 +7639,7 @@
         <v>25</v>
       </c>
       <c r="AI53" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AJ53" t="n">
         <v>18.5</v>
@@ -7651,13 +7651,13 @@
         <v>38</v>
       </c>
       <c r="AM53" t="n">
-        <v>120</v>
+        <v>430</v>
       </c>
       <c r="AN53" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AO53" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54">
@@ -7699,7 +7699,7 @@
         <v>3.65</v>
       </c>
       <c r="J54" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K54" t="n">
         <v>3.05</v>
@@ -7711,28 +7711,28 @@
         <v>1.14</v>
       </c>
       <c r="N54" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="O54" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="P54" t="n">
         <v>1.51</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="R54" t="n">
         <v>1.18</v>
       </c>
       <c r="S54" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T54" t="n">
         <v>2.16</v>
       </c>
       <c r="U54" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V54" t="n">
         <v>1.37</v>
@@ -7750,7 +7750,7 @@
         <v>24</v>
       </c>
       <c r="AA54" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AB54" t="n">
         <v>7.6</v>
@@ -7783,7 +7783,7 @@
         <v>40</v>
       </c>
       <c r="AL54" t="n">
-        <v>70</v>
+        <v>480</v>
       </c>
       <c r="AM54" t="n">
         <v>240</v>
@@ -7852,7 +7852,7 @@
         <v>1.45</v>
       </c>
       <c r="P55" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q55" t="n">
         <v>2.32</v>
@@ -7864,10 +7864,10 @@
         <v>4</v>
       </c>
       <c r="T55" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U55" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="V55" t="n">
         <v>1.3</v>
@@ -7891,7 +7891,7 @@
         <v>9.4</v>
       </c>
       <c r="AC55" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AD55" t="n">
         <v>20</v>
@@ -7933,7 +7933,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,127 +7948,127 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="G56" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H56" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I56" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="J56" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K56" t="n">
         <v>3.8</v>
       </c>
       <c r="L56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W56" t="n">
         <v>1.36</v>
       </c>
-      <c r="M56" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N56" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S56" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W56" t="n">
-        <v>1.34</v>
-      </c>
       <c r="X56" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="Y56" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA56" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB56" t="n">
         <v>15.5</v>
       </c>
       <c r="AC56" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AF56" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG56" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI56" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8083,121 +8083,121 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="G57" t="n">
         <v>3.8</v>
       </c>
       <c r="H57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I57" t="n">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="J57" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K57" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L57" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="O57" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P57" t="n">
-        <v>1.85</v>
+        <v>2.16</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="R57" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="S57" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="T57" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U57" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="V57" t="n">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="W57" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X57" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="Y57" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z57" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB57" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD57" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO57" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="58">
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H58" t="n">
         <v>5.5</v>
@@ -8266,7 +8266,7 @@
         <v>1.31</v>
       </c>
       <c r="S58" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T58" t="n">
         <v>1.99</v>
@@ -8281,64 +8281,64 @@
         <v>2.26</v>
       </c>
       <c r="X58" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z58" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AA58" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB58" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC58" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD58" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE58" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH58" t="n">
         <v>25</v>
       </c>
       <c r="AI58" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK58" t="n">
         <v>22</v>
       </c>
-      <c r="AK58" t="n">
-        <v>24</v>
-      </c>
       <c r="AL58" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AM58" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN58" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO58" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8353,127 +8353,127 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G59" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H59" t="n">
         <v>2.24</v>
       </c>
-      <c r="G59" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3.85</v>
-      </c>
       <c r="I59" t="n">
-        <v>3.9</v>
+        <v>2.36</v>
       </c>
       <c r="J59" t="n">
         <v>3.4</v>
       </c>
       <c r="K59" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L59" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N59" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O59" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="P59" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.34</v>
+        <v>1.99</v>
       </c>
       <c r="R59" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S59" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="T59" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="U59" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.35</v>
+        <v>1.73</v>
       </c>
       <c r="W59" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="X59" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y59" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y59" t="n">
-        <v>12</v>
-      </c>
       <c r="Z59" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AA59" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AB59" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD59" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AE59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK59" t="n">
         <v>55</v>
       </c>
-      <c r="AF59" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>27</v>
-      </c>
       <c r="AL59" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM59" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="AO59" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,127 +8488,127 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="G60" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="H60" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I60" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J60" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="K60" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="L60" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="M60" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N60" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O60" t="n">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="P60" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.82</v>
+        <v>2.34</v>
       </c>
       <c r="R60" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S60" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="T60" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="V60" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W60" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="X60" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="Z60" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA60" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB60" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AC60" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD60" t="n">
         <v>16</v>
       </c>
       <c r="AE60" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF60" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG60" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH60" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI60" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ60" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AK60" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AL60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO60" t="n">
         <v>70</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>85</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,121 +8623,121 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3.4</v>
+        <v>2.56</v>
       </c>
       <c r="G61" t="n">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="H61" t="n">
-        <v>2.28</v>
+        <v>3.65</v>
       </c>
       <c r="I61" t="n">
-        <v>2.38</v>
+        <v>3.7</v>
       </c>
       <c r="J61" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="K61" t="n">
-        <v>3.7</v>
+        <v>2.96</v>
       </c>
       <c r="L61" t="n">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="M61" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="N61" t="n">
-        <v>3.3</v>
+        <v>2.52</v>
       </c>
       <c r="O61" t="n">
-        <v>1.35</v>
+        <v>1.64</v>
       </c>
       <c r="P61" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.04</v>
+        <v>2.92</v>
       </c>
       <c r="R61" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S61" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="T61" t="n">
-        <v>1.81</v>
+        <v>2.26</v>
       </c>
       <c r="U61" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="V61" t="n">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="W61" t="n">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="X61" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y61" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z61" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA61" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB61" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC61" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AD61" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF61" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG61" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AH61" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI61" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AL61" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM61" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN61" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AO61" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62">
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G62" t="n">
         <v>1.82</v>
       </c>
       <c r="H62" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J62" t="n">
         <v>3.95</v>
@@ -8794,16 +8794,16 @@
         <v>3.95</v>
       </c>
       <c r="O62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P62" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R62" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S62" t="n">
         <v>3.4</v>
@@ -8815,7 +8815,7 @@
         <v>2.08</v>
       </c>
       <c r="V62" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W62" t="n">
         <v>2.22</v>
@@ -8839,16 +8839,16 @@
         <v>8.6</v>
       </c>
       <c r="AD62" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE62" t="n">
         <v>65</v>
       </c>
       <c r="AF62" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH62" t="n">
         <v>19.5</v>
@@ -8902,16 +8902,16 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G63" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J63" t="n">
         <v>3.2</v>
@@ -8932,7 +8932,7 @@
         <v>1.41</v>
       </c>
       <c r="P63" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q63" t="n">
         <v>2.2</v>
@@ -8941,7 +8941,7 @@
         <v>1.27</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T63" t="n">
         <v>1.91</v>
@@ -8950,16 +8950,16 @@
         <v>1.94</v>
       </c>
       <c r="V63" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W63" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X63" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z63" t="n">
         <v>32</v>
@@ -8971,7 +8971,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC63" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD63" t="n">
         <v>19.5</v>
@@ -8980,10 +8980,10 @@
         <v>1000</v>
       </c>
       <c r="AF63" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG63" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH63" t="n">
         <v>24</v>
@@ -9082,7 +9082,7 @@
         <v>2</v>
       </c>
       <c r="U64" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="V64" t="n">
         <v>1.25</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H2" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="I2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -691,55 +691,55 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T2" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="W2" t="n">
         <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>18.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -757,7 +757,7 @@
         <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AK2" t="n">
         <v>65</v>
@@ -769,7 +769,7 @@
         <v>95</v>
       </c>
       <c r="AN2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
         <v>10</v>
@@ -805,7 +805,7 @@
         <v>1.19</v>
       </c>
       <c r="G3" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="H3" t="n">
         <v>4.5</v>
@@ -817,19 +817,19 @@
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.26</v>
+        <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -838,10 +838,10 @@
         <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -853,7 +853,7 @@
         <v>1.04</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,7 +868,7 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>42</v>
@@ -892,7 +892,7 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -943,7 +943,7 @@
         <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
         <v>10.5</v>
@@ -961,7 +961,7 @@
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
         <v>1.22</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AD4" t="n">
         <v>85</v>
@@ -1075,13 +1075,13 @@
         <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="J5" t="n">
         <v>3.2</v>
@@ -1096,34 +1096,34 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.7</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>15.5</v>
@@ -1156,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
         <v>46</v>
@@ -1171,10 +1171,10 @@
         <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
         <v>28</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="O6" t="n">
         <v>1.06</v>
@@ -1240,7 +1240,7 @@
         <v>1.32</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H7" t="n">
         <v>1.9</v>
       </c>
       <c r="I7" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.41</v>
@@ -1390,7 +1390,7 @@
         <v>1.85</v>
       </c>
       <c r="V7" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="W7" t="n">
         <v>1.25</v>
@@ -1399,13 +1399,13 @@
         <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
         <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>970</v>
@@ -1414,7 +1414,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
         <v>110</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1483,13 +1483,13 @@
         <v>1.33</v>
       </c>
       <c r="H8" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
         <v>18.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
         <v>7.4</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
         <v>970</v>
@@ -1555,7 +1555,7 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AG8" t="n">
         <v>970</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AK8" t="n">
         <v>970</v>
@@ -1621,13 +1621,13 @@
         <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L9" t="n">
         <v>1.08</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="O9" t="n">
         <v>1.05</v>
@@ -1645,7 +1645,7 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="R9" t="n">
         <v>2.16</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="G10" t="n">
         <v>44</v>
       </c>
       <c r="H10" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="I10" t="n">
         <v>44</v>
@@ -1762,7 +1762,7 @@
         <v>2.82</v>
       </c>
       <c r="K10" t="n">
-        <v>44</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1795,64 +1795,64 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.02</v>
+        <v>1.29</v>
       </c>
       <c r="W10" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
         <v>90</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="n">
         <v>42</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>1.98</v>
       </c>
       <c r="G11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
@@ -1915,13 +1915,13 @@
         <v>2.06</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S11" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T11" t="n">
         <v>1.69</v>
@@ -1933,7 +1933,7 @@
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
@@ -2023,7 +2023,7 @@
         <v>44</v>
       </c>
       <c r="H12" t="n">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="I12" t="n">
         <v>44</v>
@@ -2044,19 +2044,19 @@
         <v>1.34</v>
       </c>
       <c r="O12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="P12" t="n">
         <v>1.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="R12" t="n">
         <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2068,7 +2068,7 @@
         <v>1.03</v>
       </c>
       <c r="W12" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2086,7 +2086,7 @@
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2185,7 +2185,7 @@
         <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R13" t="n">
         <v>1.26</v>
@@ -2197,67 +2197,67 @@
         <v>1.86</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
         <v>14.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF13" t="n">
         <v>17.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL13" t="n">
         <v>60</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -2287,43 +2287,43 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="G14" t="n">
         <v>2.82</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O14" t="n">
         <v>1.27</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q14" t="n">
         <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
@@ -2332,7 +2332,7 @@
         <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V14" t="n">
         <v>1.5</v>
@@ -2341,7 +2341,7 @@
         <v>1.55</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>15.5</v>
@@ -2350,13 +2350,13 @@
         <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB14" t="n">
         <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>15.5</v>
@@ -2365,7 +2365,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
         <v>15</v>
@@ -2377,13 +2377,13 @@
         <v>48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AK14" t="n">
         <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
         <v>95</v>
@@ -2425,7 +2425,7 @@
         <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H15" t="n">
         <v>3.75</v>
@@ -2452,7 +2452,7 @@
         <v>1.38</v>
       </c>
       <c r="P15" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q15" t="n">
         <v>2.16</v>
@@ -2464,7 +2464,7 @@
         <v>3.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
         <v>1.94</v>
@@ -2473,7 +2473,7 @@
         <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
         <v>11.5</v>
@@ -2482,13 +2482,13 @@
         <v>14</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
         <v>7.6</v>
@@ -2497,7 +2497,7 @@
         <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -2512,7 +2512,7 @@
         <v>140</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK15" t="n">
         <v>28</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="H16" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="I16" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>5.7</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB16" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>42</v>
+        <v>12.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>13.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AM16" t="n">
         <v>160</v>
       </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN16" t="n">
-        <v>55</v>
+        <v>6.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
@@ -2692,49 +2692,49 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="I17" t="n">
         <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>2.54</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U17" t="n">
         <v>1.98</v>
@@ -2743,10 +2743,10 @@
         <v>1.72</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
         <v>1000</v>
@@ -2761,7 +2761,7 @@
         <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
@@ -2833,7 +2833,7 @@
         <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I18" t="n">
         <v>2.58</v>
@@ -2857,7 +2857,7 @@
         <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q18" t="n">
         <v>2.26</v>
@@ -2872,7 +2872,7 @@
         <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="V18" t="n">
         <v>1.63</v>
@@ -2890,10 +2890,10 @@
         <v>18</v>
       </c>
       <c r="AA18" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.800000000000001</v>
@@ -2902,7 +2902,7 @@
         <v>14.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AF18" t="n">
         <v>27</v>
@@ -2917,7 +2917,7 @@
         <v>65</v>
       </c>
       <c r="AJ18" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="AK18" t="n">
         <v>60</v>
@@ -2980,28 +2980,28 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="O19" t="n">
-        <v>1.31</v>
+        <v>1.05</v>
       </c>
       <c r="P19" t="n">
-        <v>1.77</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.84</v>
+        <v>1.34</v>
       </c>
       <c r="R19" t="n">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="S19" t="n">
-        <v>3.15</v>
+        <v>1.05</v>
       </c>
       <c r="T19" t="n">
         <v>1.77</v>
@@ -3010,19 +3010,19 @@
         <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W19" t="n">
         <v>1.84</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>16.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
@@ -3034,16 +3034,16 @@
         <v>9</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
         <v>22</v>
@@ -3058,13 +3058,13 @@
         <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3115,10 +3115,10 @@
         <v>3.7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
         <v>2.62</v>
@@ -3130,19 +3130,19 @@
         <v>1.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R20" t="n">
         <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V20" t="n">
         <v>1.78</v>
@@ -3151,13 +3151,13 @@
         <v>1.35</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
       </c>
       <c r="Z20" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA20" t="n">
         <v>32</v>
@@ -3172,7 +3172,7 @@
         <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
         <v>25</v>
@@ -3187,7 +3187,7 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AK20" t="n">
         <v>65</v>
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I21" t="n">
         <v>1.73</v>
@@ -3247,46 +3247,46 @@
         <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="T21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W21" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3301,13 +3301,13 @@
         <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AD21" t="n">
         <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3397,7 +3397,7 @@
         <v>1.28</v>
       </c>
       <c r="P22" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q22" t="n">
         <v>1.81</v>
@@ -3415,7 +3415,7 @@
         <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="W22" t="n">
         <v>1.25</v>
@@ -3424,7 +3424,7 @@
         <v>18.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
         <v>14.5</v>
@@ -3466,7 +3466,7 @@
         <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN22" t="n">
         <v>70</v>
@@ -3502,46 +3502,46 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="G23" t="n">
         <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I23" t="n">
         <v>2.82</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.31</v>
       </c>
       <c r="P23" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T23" t="n">
         <v>1.65</v>
@@ -3565,7 +3565,7 @@
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AB23" t="n">
         <v>14.5</v>
@@ -3574,10 +3574,10 @@
         <v>9.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
@@ -3586,19 +3586,19 @@
         <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI23" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AK23" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.75</v>
       </c>
       <c r="J24" t="n">
         <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
         <v>1.44</v>
@@ -3661,13 +3661,13 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O24" t="n">
         <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q24" t="n">
         <v>2.12</v>
@@ -3685,10 +3685,10 @@
         <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="X24" t="n">
         <v>15</v>
@@ -3727,7 +3727,7 @@
         <v>260</v>
       </c>
       <c r="AJ24" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="n">
         <v>48</v>
@@ -3778,7 +3778,7 @@
         <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I25" t="n">
         <v>2.04</v>
@@ -3802,7 +3802,7 @@
         <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
         <v>1.66</v>
@@ -3862,13 +3862,13 @@
         <v>30</v>
       </c>
       <c r="AJ25" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AK25" t="n">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="AL25" t="n">
-        <v>46</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="n">
         <v>70</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G26" t="n">
-        <v>2.26</v>
+        <v>2.38</v>
       </c>
       <c r="H26" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K26" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.39</v>
@@ -3934,85 +3934,85 @@
         <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
         <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="U26" t="n">
         <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="X26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AB26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF26" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL26" t="n">
         <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
         <v>4.2</v>
@@ -4051,7 +4051,7 @@
         <v>2.1</v>
       </c>
       <c r="I27" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="J27" t="n">
         <v>3.35</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G28" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J28" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4207,7 +4207,7 @@
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q28" t="n">
         <v>2.06</v>
@@ -4219,7 +4219,7 @@
         <v>3.7</v>
       </c>
       <c r="T28" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U28" t="n">
         <v>1.87</v>
@@ -4228,16 +4228,16 @@
         <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
@@ -4249,37 +4249,37 @@
         <v>9.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AE28" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AG28" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH28" t="n">
         <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="AJ28" t="n">
-        <v>30</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H29" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="L29" t="n">
         <v>1.44</v>
@@ -4336,10 +4336,10 @@
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O29" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
         <v>1.8</v>
@@ -4351,73 +4351,73 @@
         <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
         <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W29" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X29" t="n">
         <v>13.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC29" t="n">
         <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ29" t="n">
         <v>140</v>
       </c>
       <c r="AK29" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="AL29" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>470</v>
       </c>
       <c r="AN29" t="n">
-        <v>100</v>
+        <v>260</v>
       </c>
       <c r="AO29" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -4477,10 +4477,10 @@
         <v>1.22</v>
       </c>
       <c r="P30" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R30" t="n">
         <v>1.5</v>
@@ -4519,7 +4519,7 @@
         <v>14</v>
       </c>
       <c r="AD30" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AE30" t="n">
         <v>230</v>
@@ -4531,13 +4531,13 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="n">
         <v>180</v>
       </c>
       <c r="AJ30" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AK30" t="n">
         <v>18</v>
@@ -4597,7 +4597,7 @@
         <v>3.05</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4645,7 +4645,7 @@
         <v>24</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB31" t="n">
         <v>11.5</v>
@@ -4672,7 +4672,7 @@
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
@@ -4720,10 +4720,10 @@
         <v>3.5</v>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
         <v>2.08</v>
@@ -4756,10 +4756,10 @@
         <v>1.56</v>
       </c>
       <c r="S32" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T32" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U32" t="n">
         <v>2.4</v>
@@ -4855,7 +4855,7 @@
         <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H33" t="n">
         <v>2.72</v>
@@ -4870,7 +4870,7 @@
         <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
@@ -4882,10 +4882,10 @@
         <v>1.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R33" t="n">
         <v>1.31</v>
@@ -4894,13 +4894,13 @@
         <v>3.65</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="U33" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V33" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="W33" t="n">
         <v>1.52</v>
@@ -4918,7 +4918,7 @@
         <v>55</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
@@ -4933,7 +4933,7 @@
         <v>22</v>
       </c>
       <c r="AG33" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH33" t="n">
         <v>18.5</v>
@@ -4951,7 +4951,7 @@
         <v>48</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN33" t="n">
         <v>32</v>
@@ -4993,19 +4993,19 @@
         <v>5.4</v>
       </c>
       <c r="H34" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
         <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
@@ -5035,22 +5035,22 @@
         <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X34" t="n">
         <v>14.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AB34" t="n">
         <v>18</v>
@@ -5062,19 +5062,19 @@
         <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF34" t="n">
         <v>1000</v>
       </c>
       <c r="AG34" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH34" t="n">
         <v>60</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ34" t="n">
         <v>1000</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
@@ -5140,7 +5140,7 @@
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
@@ -5182,10 +5182,10 @@
         <v>14.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA35" t="n">
-        <v>530</v>
+        <v>75</v>
       </c>
       <c r="AB35" t="n">
         <v>10.5</v>
@@ -5221,7 +5221,7 @@
         <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
         <v>28</v>
@@ -5269,7 +5269,7 @@
         <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
         <v>3.65</v>
@@ -5299,13 +5299,13 @@
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U36" t="n">
         <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
         <v>1.81</v>
@@ -5317,7 +5317,7 @@
         <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
         <v>120</v>
@@ -5332,7 +5332,7 @@
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
         <v>15.5</v>
@@ -5344,7 +5344,7 @@
         <v>25</v>
       </c>
       <c r="AI36" t="n">
-        <v>85</v>
+        <v>210</v>
       </c>
       <c r="AJ36" t="n">
         <v>34</v>
@@ -5392,22 +5392,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H37" t="n">
         <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L37" t="n">
         <v>1.5</v>
@@ -5422,10 +5422,10 @@
         <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5440,22 +5440,22 @@
         <v>1.76</v>
       </c>
       <c r="V37" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W37" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
         <v>23</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB37" t="n">
         <v>11</v>
@@ -5482,13 +5482,13 @@
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
@@ -5584,13 +5584,13 @@
         <v>11</v>
       </c>
       <c r="Y38" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AA38" t="n">
-        <v>70</v>
+        <v>900</v>
       </c>
       <c r="AB38" t="n">
         <v>11.5</v>
@@ -5602,37 +5602,37 @@
         <v>16.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="AF38" t="n">
         <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AH38" t="n">
         <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ38" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AK38" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AL38" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AM38" t="n">
         <v>160</v>
       </c>
       <c r="AN38" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AO38" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -5716,13 +5716,13 @@
         <v>1.9</v>
       </c>
       <c r="X39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
         <v>15.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="AA39" t="n">
         <v>110</v>
@@ -5737,19 +5737,19 @@
         <v>20</v>
       </c>
       <c r="AE39" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AF39" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AG39" t="n">
         <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AI39" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AJ39" t="n">
         <v>29</v>
@@ -5758,10 +5758,10 @@
         <v>28</v>
       </c>
       <c r="AL39" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AM39" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
         <v>21</v>
@@ -5848,7 +5848,7 @@
         <v>1.14</v>
       </c>
       <c r="W40" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X40" t="n">
         <v>13.5</v>
@@ -5857,13 +5857,13 @@
         <v>22</v>
       </c>
       <c r="Z40" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC40" t="n">
         <v>10.5</v>
@@ -5878,7 +5878,7 @@
         <v>10.5</v>
       </c>
       <c r="AG40" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
         <v>34</v>
@@ -5938,10 +5938,10 @@
         <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="I41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J41" t="n">
         <v>3</v>
@@ -5950,7 +5950,7 @@
         <v>3.15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="M41" t="n">
         <v>1.12</v>
@@ -5959,7 +5959,7 @@
         <v>2.64</v>
       </c>
       <c r="O41" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
         <v>1.53</v>
@@ -5971,7 +5971,7 @@
         <v>1.19</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T41" t="n">
         <v>2.04</v>
@@ -5980,7 +5980,7 @@
         <v>1.79</v>
       </c>
       <c r="V41" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
         <v>1.48</v>
@@ -5989,7 +5989,7 @@
         <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z41" t="n">
         <v>19.5</v>
@@ -6001,7 +6001,7 @@
         <v>11</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD41" t="n">
         <v>14.5</v>
@@ -6028,7 +6028,7 @@
         <v>120</v>
       </c>
       <c r="AL41" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="AM41" t="n">
         <v>180</v>
@@ -6067,64 +6067,64 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G42" t="n">
-        <v>2.66</v>
+        <v>2.48</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J42" t="n">
         <v>3.35</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K42" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O42" t="n">
         <v>1.35</v>
       </c>
       <c r="P42" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="Q42" t="n">
         <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="S42" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="T42" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="V42" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="X42" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y42" t="n">
         <v>12</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>60</v>
@@ -6133,7 +6133,7 @@
         <v>300</v>
       </c>
       <c r="AB42" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC42" t="n">
         <v>8</v>
@@ -6145,13 +6145,13 @@
         <v>95</v>
       </c>
       <c r="AF42" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AG42" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
         <v>170</v>
@@ -6166,7 +6166,7 @@
         <v>170</v>
       </c>
       <c r="AM42" t="n">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="AN42" t="n">
         <v>1000</v>
@@ -6178,7 +6178,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -6193,121 +6193,121 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Laval</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Dunkerque</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.86</v>
+        <v>3.4</v>
       </c>
       <c r="G43" t="n">
-        <v>1.95</v>
+        <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="I43" t="n">
-        <v>4.6</v>
+        <v>2.44</v>
       </c>
       <c r="J43" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L43" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="P43" t="n">
-        <v>2.3</v>
+        <v>1.76</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.61</v>
+        <v>2.1</v>
       </c>
       <c r="R43" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="S43" t="n">
-        <v>2.6</v>
+        <v>3.85</v>
       </c>
       <c r="T43" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="V43" t="n">
-        <v>1.28</v>
+        <v>1.69</v>
       </c>
       <c r="W43" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="X43" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z43" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA43" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AB43" t="n">
         <v>12.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD43" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE43" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF43" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH43" t="n">
         <v>60</v>
       </c>
       <c r="AI43" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AJ43" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AK43" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="AL43" t="n">
-        <v>70</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN43" t="n">
-        <v>10.5</v>
+        <v>160</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -6328,127 +6328,127 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.96</v>
+        <v>1.85</v>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.22</v>
+        <v>4.6</v>
       </c>
       <c r="J44" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="M44" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>7.6</v>
+        <v>4.8</v>
       </c>
       <c r="O44" t="n">
-        <v>1.1</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>3.65</v>
+        <v>2.3</v>
       </c>
       <c r="Q44" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V44" t="n">
         <v>1.28</v>
       </c>
-      <c r="R44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U44" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.81</v>
-      </c>
       <c r="W44" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="X44" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Y44" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Z44" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AB44" t="n">
-        <v>34</v>
+        <v>12.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AD44" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="AG44" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AH44" t="n">
-        <v>17.5</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AJ44" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AK44" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AL44" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AM44" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>French Ligue 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -6463,127 +6463,127 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Pau</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Amiens</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.55</v>
+        <v>2.98</v>
       </c>
       <c r="G45" t="n">
-        <v>1.61</v>
+        <v>3.25</v>
       </c>
       <c r="H45" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="I45" t="n">
-        <v>7.6</v>
+        <v>2.22</v>
       </c>
       <c r="J45" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K45" t="n">
         <v>5</v>
       </c>
       <c r="L45" t="n">
-        <v>1.31</v>
+        <v>1.18</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="O45" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="P45" t="n">
-        <v>2.24</v>
+        <v>3.65</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="R45" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>2.74</v>
+        <v>1.78</v>
       </c>
       <c r="T45" t="n">
-        <v>1.79</v>
+        <v>1.4</v>
       </c>
       <c r="U45" t="n">
-        <v>2.08</v>
+        <v>3.35</v>
       </c>
       <c r="V45" t="n">
-        <v>1.16</v>
+        <v>1.81</v>
       </c>
       <c r="W45" t="n">
-        <v>2.62</v>
+        <v>1.45</v>
       </c>
       <c r="X45" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>38</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE45" t="n">
         <v>24</v>
       </c>
-      <c r="Y45" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>110</v>
-      </c>
       <c r="AF45" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AG45" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH45" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI45" t="n">
         <v>26</v>
       </c>
-      <c r="AI45" t="n">
-        <v>1000</v>
-      </c>
       <c r="AJ45" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AK45" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AL45" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM45" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AN45" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AO45" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>French Ligue 2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -6598,121 +6598,121 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Pau</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Amiens</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="G46" t="n">
-        <v>2.26</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.35</v>
+        <v>7.6</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="L46" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="P46" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="R46" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="S46" t="n">
-        <v>2.28</v>
+        <v>2.92</v>
       </c>
       <c r="T46" t="n">
-        <v>1.57</v>
+        <v>1.86</v>
       </c>
       <c r="U46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W46" t="n">
         <v>2.66</v>
       </c>
-      <c r="V46" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W46" t="n">
-        <v>1.79</v>
-      </c>
       <c r="X46" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>8.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK46" t="n">
         <v>38</v>
       </c>
-      <c r="AF46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>25</v>
-      </c>
       <c r="AL46" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AM46" t="n">
-        <v>65</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO46" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47">
@@ -6733,121 +6733,121 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>FC Oss</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>7.4</v>
+        <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>9.199999999999999</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>1.37</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
-        <v>1.44</v>
+        <v>3.35</v>
       </c>
       <c r="J47" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>6.2</v>
+        <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M47" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="O47" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>2.92</v>
+        <v>2.58</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="S47" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="T47" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="U47" t="n">
-        <v>2.18</v>
+        <v>2.66</v>
       </c>
       <c r="V47" t="n">
-        <v>3.25</v>
+        <v>1.42</v>
       </c>
       <c r="W47" t="n">
-        <v>1.12</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y47" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Z47" t="n">
-        <v>13.5</v>
+        <v>34</v>
       </c>
       <c r="AA47" t="n">
-        <v>16</v>
+        <v>470</v>
       </c>
       <c r="AB47" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AC47" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AF47" t="n">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="AG47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI47" t="n">
         <v>38</v>
       </c>
-      <c r="AH47" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ47" t="n">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="AK47" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AL47" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="AM47" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>95</v>
+        <v>12.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>4.6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48">
@@ -6868,121 +6868,121 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Emmen</t>
+          <t>FC Oss</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Helmond Sport</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="G48" t="n">
-        <v>2.16</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>1.37</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>1.43</v>
       </c>
       <c r="J48" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="K48" t="n">
-        <v>4.3</v>
+        <v>6.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>5.2</v>
+        <v>6.6</v>
       </c>
       <c r="O48" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P48" t="n">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="R48" t="n">
-        <v>1.58</v>
+        <v>1.78</v>
       </c>
       <c r="S48" t="n">
-        <v>2.46</v>
+        <v>2.06</v>
       </c>
       <c r="T48" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="U48" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.35</v>
+        <v>3.3</v>
       </c>
       <c r="W48" t="n">
-        <v>1.86</v>
+        <v>1.12</v>
       </c>
       <c r="X48" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="Y48" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH48" t="n">
         <v>23</v>
       </c>
-      <c r="Z48" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>19</v>
-      </c>
       <c r="AI48" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AJ48" t="n">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="AK48" t="n">
-        <v>24</v>
+        <v>290</v>
       </c>
       <c r="AL48" t="n">
-        <v>34</v>
+        <v>230</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
       </c>
       <c r="AN48" t="n">
-        <v>12.5</v>
+        <v>95</v>
       </c>
       <c r="AO48" t="n">
-        <v>32</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="49">
@@ -7003,121 +7003,121 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Emmen</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Helmond Sport</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="G49" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="H49" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J49" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L49" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="M49" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="O49" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>3.25</v>
+        <v>2.44</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="R49" t="n">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="S49" t="n">
-        <v>1.76</v>
+        <v>2.46</v>
       </c>
       <c r="T49" t="n">
-        <v>1.43</v>
+        <v>1.62</v>
       </c>
       <c r="U49" t="n">
-        <v>2.96</v>
+        <v>2.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W49" t="n">
-        <v>2.06</v>
+        <v>1.86</v>
       </c>
       <c r="X49" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y49" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z49" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA49" t="n">
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE49" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF49" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG49" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ49" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK49" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL49" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN49" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="AO49" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50">
@@ -7138,121 +7138,121 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="G50" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I50" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="J50" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="K50" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="O50" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="P50" t="n">
-        <v>2.86</v>
+        <v>3.25</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="R50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S50" t="n">
         <v>1.76</v>
       </c>
-      <c r="S50" t="n">
-        <v>2.14</v>
-      </c>
       <c r="T50" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="U50" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="V50" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="W50" t="n">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="X50" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="Y50" t="n">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="Z50" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AA50" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD50" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE50" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG50" t="n">
         <v>14.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI50" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AK50" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AM50" t="n">
         <v>200</v>
       </c>
       <c r="AN50" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AO50" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -7273,121 +7273,121 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="L51" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O51" t="n">
         <v>1.16</v>
       </c>
       <c r="P51" t="n">
-        <v>2.66</v>
+        <v>2.86</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R51" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="S51" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T51" t="n">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="U51" t="n">
-        <v>2.48</v>
+        <v>2.76</v>
       </c>
       <c r="V51" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="W51" t="n">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="X51" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="Y51" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="Z51" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="AA51" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AB51" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD51" t="n">
         <v>18</v>
       </c>
-      <c r="AC51" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>970</v>
-      </c>
       <c r="AE51" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AF51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG51" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI51" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AK51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL51" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AM51" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="AN51" t="n">
         <v>11</v>
       </c>
       <c r="AO51" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -7408,127 +7408,127 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.8</v>
+        <v>2.04</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>2.14</v>
       </c>
       <c r="H52" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="I52" t="n">
-        <v>2.58</v>
+        <v>3.75</v>
       </c>
       <c r="J52" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K52" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P52" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="R52" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="S52" t="n">
-        <v>2.46</v>
+        <v>2.2</v>
       </c>
       <c r="T52" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="U52" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V52" t="n">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="W52" t="n">
-        <v>1.51</v>
+        <v>1.87</v>
       </c>
       <c r="X52" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE52" t="n">
         <v>90</v>
       </c>
-      <c r="Y52" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC52" t="n">
+      <c r="AF52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN52" t="n">
         <v>11</v>
       </c>
-      <c r="AD52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AO52" t="n">
-        <v>15.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -7538,132 +7538,132 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.55</v>
+        <v>2.8</v>
       </c>
       <c r="G53" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>5.8</v>
+        <v>2.44</v>
       </c>
       <c r="I53" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
-        <v>4.3</v>
+        <v>3.65</v>
       </c>
       <c r="K53" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="O53" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="R53" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="S53" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="T53" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="U53" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.16</v>
+        <v>1.62</v>
       </c>
       <c r="W53" t="n">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="X53" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="Y53" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="Z53" t="n">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="AA53" t="n">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="AB53" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC53" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD53" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>420</v>
+        <v>28</v>
       </c>
       <c r="AF53" t="n">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH53" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>330</v>
+        <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>18.5</v>
+        <v>55</v>
       </c>
       <c r="AK53" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AL53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM53" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN53" t="n">
-        <v>8.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AO53" t="n">
-        <v>260</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -7673,132 +7673,132 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Leonesa</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="F54" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I54" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N54" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W54" t="n">
         <v>2.52</v>
       </c>
-      <c r="G54" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T54" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W54" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X54" t="n">
-        <v>8.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="Y54" t="n">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="Z54" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="AA54" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AD54" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AE54" t="n">
-        <v>65</v>
+        <v>420</v>
       </c>
       <c r="AF54" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG54" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH54" t="n">
         <v>25</v>
       </c>
       <c r="AI54" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AJ54" t="n">
-        <v>44</v>
+        <v>18.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>40</v>
+        <v>19.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>480</v>
+        <v>38</v>
       </c>
       <c r="AM54" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="n">
-        <v>46</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO54" t="n">
-        <v>90</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -7813,127 +7813,127 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Juventus B</t>
+          <t>Leonesa</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>US Pianese</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="G55" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="H55" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I55" t="n">
         <v>3.65</v>
       </c>
-      <c r="I55" t="n">
-        <v>4.3</v>
-      </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K55" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="L55" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M55" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="N55" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q55" t="n">
         <v>2.78</v>
       </c>
-      <c r="O55" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P55" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R55" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5.9</v>
       </c>
       <c r="T55" t="n">
-        <v>1.96</v>
+        <v>2.16</v>
       </c>
       <c r="U55" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="V55" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="W55" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y55" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z55" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AA55" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD55" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE55" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF55" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI55" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ55" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK55" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL55" t="n">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="AM55" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN55" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="AO55" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Austrian Erste Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -7948,127 +7948,127 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SKU Amstetten</t>
+          <t>Juventus B</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Admira Wacker</t>
+          <t>US Pianese</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="G56" t="n">
-        <v>3.8</v>
+        <v>2.46</v>
       </c>
       <c r="H56" t="n">
-        <v>2.16</v>
+        <v>3.65</v>
       </c>
       <c r="I56" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.5</v>
       </c>
-      <c r="K56" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L56" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M56" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N56" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="P56" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="Q56" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T56" t="n">
         <v>1.96</v>
       </c>
-      <c r="R56" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T56" t="n">
-        <v>1.66</v>
-      </c>
       <c r="U56" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="V56" t="n">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="W56" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="X56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z56" t="n">
         <v>28</v>
       </c>
-      <c r="Y56" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>15.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD56" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AE56" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM56" t="n">
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO56" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Austrian Erste Liga</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -8083,127 +8083,127 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Union Berlin</t>
+          <t>SKU Amstetten</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Admira Wacker</t>
         </is>
       </c>
       <c r="F57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G57" t="n">
         <v>3.75</v>
       </c>
-      <c r="G57" t="n">
-        <v>3.8</v>
-      </c>
       <c r="H57" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="I57" t="n">
-        <v>2.12</v>
+        <v>2.4</v>
       </c>
       <c r="J57" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K57" t="n">
         <v>3.8</v>
       </c>
       <c r="L57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="W57" t="n">
         <v>1.36</v>
       </c>
-      <c r="M57" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N57" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O57" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P57" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R57" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S57" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T57" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V57" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W57" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X57" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Y57" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD57" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AF57" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="AG57" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI57" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="AJ57" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>44</v>
+        <v>190</v>
       </c>
       <c r="AL57" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM57" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -8218,127 +8218,127 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Union Berlin</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="G58" t="n">
-        <v>1.79</v>
+        <v>3.85</v>
       </c>
       <c r="H58" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="I58" t="n">
-        <v>6.2</v>
+        <v>2.12</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
       </c>
       <c r="K58" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L58" t="n">
         <v>1.36</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N58" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="O58" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="P58" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q58" t="n">
         <v>1.83</v>
       </c>
-      <c r="Q58" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R58" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="S58" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="T58" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="U58" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V58" t="n">
         <v>1.89</v>
       </c>
-      <c r="V58" t="n">
-        <v>1.19</v>
-      </c>
       <c r="W58" t="n">
-        <v>2.26</v>
+        <v>1.35</v>
       </c>
       <c r="X58" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y58" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Z58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL58" t="n">
         <v>46</v>
       </c>
-      <c r="AA58" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>44</v>
-      </c>
       <c r="AM58" t="n">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AN58" t="n">
-        <v>14.5</v>
+        <v>36</v>
       </c>
       <c r="AO58" t="n">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Scottish Championship</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -8348,132 +8348,132 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ayr</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>St Johnstone</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="G59" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
         <v>3.9</v>
       </c>
-      <c r="H59" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K59" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L59" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="M59" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="n">
         <v>1.34</v>
       </c>
       <c r="P59" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S59" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T59" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="V59" t="n">
-        <v>1.73</v>
+        <v>1.17</v>
       </c>
       <c r="W59" t="n">
-        <v>1.38</v>
+        <v>2.42</v>
       </c>
       <c r="X59" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y59" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG59" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>32</v>
       </c>
       <c r="AH59" t="n">
         <v>23</v>
       </c>
       <c r="AI59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK59" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="AL59" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN59" t="n">
-        <v>90</v>
+        <v>11.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>French Ligue 1</t>
+          <t>Scottish Championship</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -8488,127 +8488,127 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Ayr</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>St Johnstone</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="G60" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H60" t="n">
         <v>2.24</v>
       </c>
-      <c r="H60" t="n">
-        <v>3.85</v>
-      </c>
       <c r="I60" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="J60" t="n">
         <v>3.4</v>
       </c>
       <c r="K60" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L60" t="n">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="M60" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="O60" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="P60" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T60" t="n">
         <v>1.69</v>
       </c>
-      <c r="Q60" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S60" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T60" t="n">
+      <c r="U60" t="n">
         <v>2</v>
       </c>
-      <c r="U60" t="n">
-        <v>1.92</v>
-      </c>
       <c r="V60" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="W60" t="n">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="X60" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y60" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y60" t="n">
-        <v>12</v>
-      </c>
       <c r="Z60" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA60" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB60" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD60" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AE60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK60" t="n">
         <v>55</v>
       </c>
-      <c r="AF60" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>27</v>
-      </c>
       <c r="AL60" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM60" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="AO60" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>French Ligue 1</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -8623,127 +8623,127 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Pisa</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="G61" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="H61" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I61" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J61" t="n">
-        <v>2.94</v>
+        <v>3.4</v>
       </c>
       <c r="K61" t="n">
-        <v>2.96</v>
+        <v>3.45</v>
       </c>
       <c r="L61" t="n">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="M61" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
       <c r="O61" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="P61" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.92</v>
+        <v>2.34</v>
       </c>
       <c r="R61" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="T61" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="U61" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="V61" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W61" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="X61" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC61" t="n">
         <v>7.4</v>
       </c>
-      <c r="Y61" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AD61" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE61" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF61" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN61" t="n">
         <v>25</v>
       </c>
-      <c r="AI61" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>44</v>
-      </c>
       <c r="AO61" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -8753,132 +8753,132 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Pisa</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.81</v>
+        <v>2.56</v>
       </c>
       <c r="G62" t="n">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="I62" t="n">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="J62" t="n">
-        <v>3.95</v>
+        <v>2.94</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>2.96</v>
       </c>
       <c r="L62" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="M62" t="n">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="N62" t="n">
-        <v>3.95</v>
+        <v>2.48</v>
       </c>
       <c r="O62" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="P62" t="n">
-        <v>2</v>
+        <v>1.49</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="R62" t="n">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="S62" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="T62" t="n">
-        <v>1.87</v>
+        <v>2.3</v>
       </c>
       <c r="U62" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="V62" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="W62" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="X62" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="Y62" t="n">
-        <v>17.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z62" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AA62" t="n">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AB62" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD62" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AE62" t="n">
         <v>65</v>
       </c>
       <c r="AF62" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AG62" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AH62" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI62" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AK62" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AL62" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM62" t="n">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="AN62" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="AO62" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -8888,132 +8888,132 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Torreense</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Feirense</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.12</v>
+        <v>1.81</v>
       </c>
       <c r="G63" t="n">
-        <v>2.24</v>
+        <v>1.83</v>
       </c>
       <c r="H63" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="J63" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K63" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M63" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="O63" t="n">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="P63" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="Q63" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="W63" t="n">
         <v>2.2</v>
       </c>
-      <c r="R63" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S63" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T63" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V63" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W63" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X63" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Y63" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA63" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB63" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC63" t="n">
         <v>8.6</v>
       </c>
       <c r="AD63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH63" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE63" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG63" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH63" t="n">
-        <v>24</v>
-      </c>
       <c r="AI63" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ63" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AK63" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM63" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN63" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -9023,125 +9023,260 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Torreense</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Feirense</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="G64" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="H64" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="I64" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K64" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L64" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O64" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P64" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S64" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T64" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U64" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="V64" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="W64" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Z64" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA64" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>7.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC64" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD64" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="AG64" t="n">
         <v>13</v>
       </c>
       <c r="AH64" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>200</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P65" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>2</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="X65" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH65" t="n">
         <v>27</v>
       </c>
-      <c r="AI64" t="n">
+      <c r="AI65" t="n">
         <v>110</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AJ65" t="n">
         <v>28</v>
       </c>
-      <c r="AK64" t="n">
+      <c r="AK65" t="n">
         <v>29</v>
       </c>
-      <c r="AL64" t="n">
+      <c r="AL65" t="n">
         <v>60</v>
       </c>
-      <c r="AM64" t="n">
+      <c r="AM65" t="n">
         <v>190</v>
       </c>
-      <c r="AN64" t="n">
+      <c r="AN65" t="n">
         <v>22</v>
       </c>
-      <c r="AO64" t="n">
+      <c r="AO65" t="n">
         <v>140</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -667,79 +667,79 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="n">
-        <v>5.2</v>
-      </c>
       <c r="H2" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I2" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
         <v>1.37</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC2" t="n">
         <v>9</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AE2" t="n">
         <v>17</v>
@@ -748,28 +748,28 @@
         <v>40</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI2" t="n">
         <v>32</v>
       </c>
       <c r="AJ2" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM2" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>10</v>
@@ -817,19 +817,19 @@
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>29</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
         <v>1.02</v>
       </c>
       <c r="O3" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="P3" t="n">
         <v>1.25</v>
@@ -838,7 +838,7 @@
         <v>1.3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
         <v>1.31</v>
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="R4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W4" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="X4" t="n">
-        <v>90</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>85</v>
@@ -1003,10 +1003,10 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AD4" t="n">
         <v>85</v>
@@ -1015,34 +1015,34 @@
         <v>510</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="n">
         <v>400</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AK4" t="n">
-        <v>70</v>
+        <v>970</v>
       </c>
       <c r="AL4" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO4" t="n">
         <v>130</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -1078,43 +1078,43 @@
         <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R5" t="n">
         <v>1.33</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U5" t="n">
         <v>2.1</v>
@@ -1126,10 +1126,10 @@
         <v>1.48</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>20</v>
@@ -1138,7 +1138,7 @@
         <v>44</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1153,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>18</v>
@@ -1162,7 +1162,7 @@
         <v>46</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
         <v>34</v>
@@ -1171,13 +1171,13 @@
         <v>46</v>
       </c>
       <c r="AM5" t="n">
-        <v>430</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.99</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>1.67</v>
+        <v>2.28</v>
       </c>
       <c r="I6" t="n">
-        <v>44</v>
+        <v>2.68</v>
       </c>
       <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.1</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="P6" t="n">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.06</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1360,13 +1360,13 @@
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.74</v>
+        <v>2.96</v>
       </c>
       <c r="O7" t="n">
         <v>1.38</v>
@@ -1423,7 +1423,7 @@
         <v>70</v>
       </c>
       <c r="AG7" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AH7" t="n">
         <v>70</v>
@@ -1432,7 +1432,7 @@
         <v>300</v>
       </c>
       <c r="AJ7" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="AK7" t="n">
         <v>250</v>
@@ -1477,37 +1477,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="n">
         <v>18.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1516,7 +1516,7 @@
         <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>2.48</v>
+        <v>2.66</v>
       </c>
       <c r="T8" t="n">
         <v>2.24</v>
@@ -1528,7 +1528,7 @@
         <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="X8" t="n">
         <v>48</v>
@@ -1579,7 +1579,7 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1624,13 +1624,13 @@
         <v>1.15</v>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="K9" t="n">
         <v>50</v>
       </c>
       <c r="L9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.71</v>
+        <v>2.48</v>
       </c>
       <c r="G10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
         <v>44</v>
       </c>
-      <c r="H10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I10" t="n">
-        <v>44</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X10" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>90</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>300</v>
-      </c>
       <c r="AF10" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="AH10" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="n">
-        <v>900</v>
+        <v>48</v>
       </c>
       <c r="AK10" t="n">
-        <v>250</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>600</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G11" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.65</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S11" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T11" t="n">
         <v>1.69</v>
@@ -1933,7 +1933,7 @@
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="X11" t="n">
         <v>18</v>
@@ -1945,7 +1945,7 @@
         <v>32</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
         <v>11</v>
@@ -1960,10 +1960,10 @@
         <v>48</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -1975,7 +1975,7 @@
         <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>85</v>
@@ -1984,10 +1984,10 @@
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>44</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12">
@@ -2035,28 +2035,28 @@
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>1.34</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2158,7 +2158,7 @@
         <v>2.46</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
         <v>3.95</v>
@@ -2170,31 +2170,31 @@
         <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.39</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2236,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
@@ -2248,13 +2248,13 @@
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>60</v>
@@ -2299,13 +2299,13 @@
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2314,22 +2314,22 @@
         <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P14" t="n">
         <v>2.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R14" t="n">
         <v>1.4</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
         <v>2.24</v>
@@ -2344,7 +2344,7 @@
         <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>25</v>
@@ -2353,7 +2353,7 @@
         <v>46</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
         <v>9.800000000000001</v>
@@ -2425,64 +2425,64 @@
         <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M15" t="n">
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U15" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X15" t="n">
         <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
         <v>1000</v>
@@ -2491,13 +2491,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -2506,28 +2506,28 @@
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
-        <v>900</v>
+        <v>120</v>
       </c>
       <c r="AK15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="AN15" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2557,100 +2557,100 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.4</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="H16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.46</v>
-      </c>
       <c r="S16" t="n">
-        <v>2.46</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U16" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V16" t="n">
         <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="X16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD16" t="n">
         <v>32</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>330</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>95</v>
       </c>
       <c r="AE16" t="n">
         <v>150</v>
       </c>
       <c r="AF16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
         <v>130</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL16" t="n">
         <v>95</v>
@@ -2659,7 +2659,7 @@
         <v>160</v>
       </c>
       <c r="AN16" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO16" t="n">
         <v>190</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
         <v>4.3</v>
@@ -2701,7 +2701,7 @@
         <v>2.08</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
@@ -2710,7 +2710,7 @@
         <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2722,25 +2722,25 @@
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T17" t="n">
         <v>1.77</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
         <v>1.31</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2842,16 +2842,16 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="O18" t="n">
         <v>1.43</v>
@@ -2860,19 +2860,19 @@
         <v>1.63</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
         <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
         <v>1.92</v>
       </c>
       <c r="U18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V18" t="n">
         <v>1.63</v>
@@ -2884,19 +2884,19 @@
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
         <v>11.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD18" t="n">
         <v>14.5</v>
@@ -2905,13 +2905,13 @@
         <v>85</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI18" t="n">
         <v>65</v>
@@ -2923,16 +2923,16 @@
         <v>60</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="AO18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2962,88 +2962,88 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="G19" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="n">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.25</v>
+        <v>1.83</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.34</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="S19" t="n">
-        <v>1.05</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
         <v>1.93</v>
       </c>
       <c r="V19" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
         <v>22</v>
@@ -3052,19 +3052,19 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,112 +3097,112 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L20" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="M20" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="O20" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.38</v>
+        <v>2.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W20" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA20" t="n">
         <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
         <v>7.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AH20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21">
@@ -3232,46 +3232,46 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="I21" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T21" t="n">
         <v>1.57</v>
@@ -3280,7 +3280,7 @@
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
         <v>1.22</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3367,31 +3367,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G22" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I22" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="J22" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
         <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O22" t="n">
         <v>1.28</v>
@@ -3400,31 +3400,31 @@
         <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="R22" t="n">
         <v>1.4</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="W22" t="n">
         <v>1.25</v>
       </c>
       <c r="X22" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z22" t="n">
         <v>14.5</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.72</v>
+        <v>2.82</v>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I23" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O23" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
         <v>2.16</v>
       </c>
       <c r="V23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W23" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="Y23" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA23" t="n">
         <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
@@ -3580,19 +3580,19 @@
         <v>85</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="AG23" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AK23" t="n">
         <v>110</v>
@@ -3604,10 +3604,10 @@
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
         <v>2.3</v>
@@ -3655,55 +3655,55 @@
         <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
         <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
         <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
         <v>1.84</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V24" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W24" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
         <v>13</v>
       </c>
       <c r="Z24" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AA24" t="n">
         <v>470</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>7.8</v>
@@ -3712,7 +3712,7 @@
         <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AF24" t="n">
         <v>14.5</v>
@@ -3724,7 +3724,7 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
         <v>80</v>
@@ -3742,7 +3742,7 @@
         <v>24</v>
       </c>
       <c r="AO24" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G25" t="n">
         <v>4.1</v>
@@ -3790,34 +3790,34 @@
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P25" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.44</v>
       </c>
       <c r="V25" t="n">
         <v>1.96</v>
@@ -3826,22 +3826,22 @@
         <v>1.32</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB25" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD25" t="n">
         <v>11.5</v>
@@ -3853,31 +3853,31 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ25" t="n">
         <v>190</v>
       </c>
       <c r="AK25" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AL25" t="n">
         <v>170</v>
       </c>
       <c r="AM25" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN25" t="n">
         <v>70</v>
       </c>
-      <c r="AN25" t="n">
-        <v>36</v>
-      </c>
       <c r="AO25" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H26" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -3928,52 +3928,52 @@
         <v>1.39</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q26" t="n">
         <v>1.91</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
         <v>1.7</v>
       </c>
       <c r="U26" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W26" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X26" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC26" t="n">
         <v>7.8</v>
@@ -3985,7 +3985,7 @@
         <v>38</v>
       </c>
       <c r="AF26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
@@ -3994,25 +3994,25 @@
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AO26" t="n">
         <v>36</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H27" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I27" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J27" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
         <v>3.9</v>
@@ -4069,7 +4069,7 @@
         <v>4.3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -4177,46 +4177,46 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="K28" t="n">
         <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T28" t="n">
         <v>1.7</v>
@@ -4228,7 +4228,7 @@
         <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
@@ -4243,7 +4243,7 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
         <v>9.4</v>
@@ -4261,13 +4261,13 @@
         <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="n">
         <v>260</v>
       </c>
       <c r="AJ28" t="n">
-        <v>900</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
         <v>70</v>
@@ -4315,13 +4315,13 @@
         <v>4.6</v>
       </c>
       <c r="G29" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I29" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4330,28 +4330,28 @@
         <v>3.85</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
         <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T29" t="n">
         <v>1.9</v>
@@ -4378,7 +4378,7 @@
         <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
         <v>8.6</v>
@@ -4393,7 +4393,7 @@
         <v>36</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="n">
         <v>22</v>
@@ -4447,16 +4447,16 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G30" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H30" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J30" t="n">
         <v>5.7</v>
@@ -4465,31 +4465,31 @@
         <v>6.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
         <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="R30" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="T30" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U30" t="n">
         <v>1.76</v>
@@ -4498,7 +4498,7 @@
         <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X30" t="n">
         <v>27</v>
@@ -4510,22 +4510,22 @@
         <v>130</v>
       </c>
       <c r="AA30" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="AD30" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AE30" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
         <v>11</v>
@@ -4534,7 +4534,7 @@
         <v>85</v>
       </c>
       <c r="AI30" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AJ30" t="n">
         <v>19.5</v>
@@ -4546,13 +4546,13 @@
         <v>150</v>
       </c>
       <c r="AM30" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO30" t="n">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
@@ -4582,46 +4582,46 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G31" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="H31" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="I31" t="n">
         <v>3.2</v>
       </c>
       <c r="J31" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N31" t="n">
         <v>3.05</v>
       </c>
-      <c r="K31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.36</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="P31" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.58</v>
+        <v>2.26</v>
       </c>
       <c r="R31" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S31" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T31" t="n">
         <v>1.89</v>
@@ -4630,49 +4630,49 @@
         <v>1.94</v>
       </c>
       <c r="V31" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W31" t="n">
         <v>1.51</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>16.5</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -4735,43 +4735,43 @@
         <v>4.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="O32" t="n">
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S32" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U32" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V32" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
         <v>14</v>
@@ -4780,25 +4780,25 @@
         <v>18.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB32" t="n">
         <v>24</v>
       </c>
       <c r="AC32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD32" t="n">
         <v>12</v>
       </c>
-      <c r="AD32" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AE32" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AG32" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH32" t="n">
         <v>19.5</v>
@@ -4807,19 +4807,19 @@
         <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>85</v>
+        <v>470</v>
       </c>
       <c r="AK32" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
         <v>80</v>
       </c>
       <c r="AN32" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AO32" t="n">
         <v>12</v>
@@ -4855,7 +4855,7 @@
         <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H33" t="n">
         <v>2.72</v>
@@ -4870,13 +4870,13 @@
         <v>3.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M33" t="n">
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.35</v>
@@ -4885,52 +4885,52 @@
         <v>1.8</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="R33" t="n">
         <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U33" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AE33" t="n">
         <v>36</v>
       </c>
       <c r="AF33" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG33" t="n">
         <v>13.5</v>
@@ -4948,7 +4948,7 @@
         <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4987,76 +4987,76 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G34" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H34" t="n">
         <v>1.86</v>
       </c>
       <c r="I34" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K34" t="n">
         <v>3.85</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M34" t="n">
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R34" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S34" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U34" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X34" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AA34" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB34" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD34" t="n">
         <v>11</v>
@@ -5074,7 +5074,7 @@
         <v>60</v>
       </c>
       <c r="AI34" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
         <v>1000</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G35" t="n">
         <v>2.48</v>
@@ -5131,37 +5131,37 @@
         <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
         <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P35" t="n">
         <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
         <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T35" t="n">
         <v>1.86</v>
@@ -5173,37 +5173,37 @@
         <v>1.37</v>
       </c>
       <c r="W35" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA35" t="n">
-        <v>75</v>
+        <v>530</v>
       </c>
       <c r="AB35" t="n">
         <v>10.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD35" t="n">
         <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF35" t="n">
         <v>16.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
         <v>23</v>
@@ -5215,19 +5215,19 @@
         <v>38</v>
       </c>
       <c r="AK35" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM35" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
         <v>28</v>
       </c>
       <c r="AO35" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
@@ -5260,46 +5260,46 @@
         <v>2.04</v>
       </c>
       <c r="G36" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I36" t="n">
         <v>4.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K36" t="n">
         <v>3.65</v>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M36" t="n">
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
         <v>1.39</v>
       </c>
       <c r="P36" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R36" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
         <v>4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U36" t="n">
         <v>1.92</v>
@@ -5308,7 +5308,7 @@
         <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="X36" t="n">
         <v>14</v>
@@ -5359,7 +5359,7 @@
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO36" t="n">
         <v>90</v>
@@ -5395,7 +5395,7 @@
         <v>2.72</v>
       </c>
       <c r="G37" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>2.8</v>
@@ -5410,13 +5410,13 @@
         <v>3.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M37" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="O37" t="n">
         <v>1.44</v>
@@ -5425,7 +5425,7 @@
         <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5437,16 +5437,16 @@
         <v>1.79</v>
       </c>
       <c r="U37" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="V37" t="n">
         <v>1.47</v>
       </c>
       <c r="W37" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y37" t="n">
         <v>10</v>
@@ -5461,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="AC37" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD37" t="n">
         <v>16</v>
@@ -5473,10 +5473,10 @@
         <v>22</v>
       </c>
       <c r="AG37" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH37" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI37" t="n">
         <v>1000</v>
@@ -5485,7 +5485,7 @@
         <v>220</v>
       </c>
       <c r="AK37" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL37" t="n">
         <v>460</v>
@@ -5527,58 +5527,58 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G38" t="n">
         <v>2.94</v>
       </c>
       <c r="H38" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J38" t="n">
         <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L38" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="M38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
         <v>1.43</v>
       </c>
       <c r="P38" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R38" t="n">
         <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T38" t="n">
         <v>1.76</v>
       </c>
       <c r="U38" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V38" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W38" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X38" t="n">
         <v>11</v>
@@ -5608,7 +5608,7 @@
         <v>21</v>
       </c>
       <c r="AG38" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AH38" t="n">
         <v>24</v>
@@ -5626,7 +5626,7 @@
         <v>380</v>
       </c>
       <c r="AM38" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN38" t="n">
         <v>70</v>
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
         <v>2.12</v>
@@ -5671,7 +5671,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
         <v>3.5</v>
@@ -5680,28 +5680,28 @@
         <v>3.7</v>
       </c>
       <c r="L39" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M39" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O39" t="n">
         <v>1.39</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T39" t="n">
         <v>1.8</v>
@@ -5710,16 +5710,16 @@
         <v>1.81</v>
       </c>
       <c r="V39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W39" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X39" t="n">
         <v>23</v>
       </c>
       <c r="Y39" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
         <v>100</v>
@@ -5740,13 +5740,13 @@
         <v>380</v>
       </c>
       <c r="AF39" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AG39" t="n">
         <v>12.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI39" t="n">
         <v>380</v>
@@ -5755,10 +5755,10 @@
         <v>29</v>
       </c>
       <c r="AK39" t="n">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM39" t="n">
         <v>580</v>
@@ -5800,28 +5800,28 @@
         <v>1.65</v>
       </c>
       <c r="G40" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="H40" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="M40" t="n">
         <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
         <v>1.43</v>
@@ -5830,76 +5830,76 @@
         <v>1.65</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T40" t="n">
         <v>2.16</v>
       </c>
       <c r="U40" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V40" t="n">
         <v>1.14</v>
       </c>
       <c r="W40" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="X40" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y40" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z40" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC40" t="n">
-        <v>10.5</v>
+        <v>42</v>
       </c>
       <c r="AD40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH40" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AK40" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL40" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,43 +5932,43 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="I41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K41" t="n">
         <v>3.15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M41" t="n">
         <v>1.12</v>
       </c>
       <c r="N41" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S41" t="n">
         <v>5.2</v>
@@ -5977,28 +5977,28 @@
         <v>2.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V41" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W41" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X41" t="n">
         <v>11</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Z41" t="n">
         <v>19.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="AB41" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC41" t="n">
         <v>7.4</v>
@@ -6010,13 +6010,13 @@
         <v>240</v>
       </c>
       <c r="AF41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG41" t="n">
         <v>14</v>
       </c>
       <c r="AH41" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI41" t="n">
         <v>400</v>
@@ -6025,10 +6025,10 @@
         <v>60</v>
       </c>
       <c r="AK41" t="n">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="AL41" t="n">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="AM41" t="n">
         <v>180</v>
@@ -6037,7 +6037,7 @@
         <v>55</v>
       </c>
       <c r="AO41" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -6079,52 +6079,52 @@
         <v>3.4</v>
       </c>
       <c r="J42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K42" t="n">
         <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.35</v>
       </c>
-      <c r="P42" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.31</v>
-      </c>
       <c r="S42" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T42" t="n">
         <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
         <v>1.67</v>
       </c>
       <c r="X42" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>60</v>
@@ -6136,7 +6136,7 @@
         <v>10.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD42" t="n">
         <v>24</v>
@@ -6169,7 +6169,7 @@
         <v>580</v>
       </c>
       <c r="AN42" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO42" t="n">
         <v>1000</v>
@@ -6217,37 +6217,37 @@
         <v>3.25</v>
       </c>
       <c r="K43" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L43" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N43" t="n">
         <v>3.25</v>
       </c>
       <c r="O43" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="R43" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="S43" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="U43" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="V43" t="n">
         <v>1.69</v>
@@ -6256,10 +6256,10 @@
         <v>1.38</v>
       </c>
       <c r="X43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z43" t="n">
         <v>27</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G44" t="n">
         <v>1.95</v>
@@ -6346,46 +6346,46 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K44" t="n">
         <v>4.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P44" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R44" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="S44" t="n">
         <v>2.6</v>
       </c>
       <c r="T44" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="V44" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W44" t="n">
         <v>2.04</v>
@@ -6400,7 +6400,7 @@
         <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB44" t="n">
         <v>12.5</v>
@@ -6418,28 +6418,28 @@
         <v>27</v>
       </c>
       <c r="AG44" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
         <v>29</v>
       </c>
       <c r="AI44" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ44" t="n">
         <v>75</v>
       </c>
       <c r="AK44" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AL44" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM44" t="n">
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6487,31 +6487,31 @@
         <v>4.5</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L45" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M45" t="n">
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
         <v>1.1</v>
       </c>
       <c r="P45" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="R45" t="n">
         <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="T45" t="n">
         <v>1.4</v>
@@ -6613,55 +6613,55 @@
         <v>1.6</v>
       </c>
       <c r="H46" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I46" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J46" t="n">
         <v>4.3</v>
       </c>
       <c r="K46" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P46" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S46" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U46" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V46" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W46" t="n">
         <v>2.66</v>
       </c>
       <c r="X46" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="Y46" t="n">
         <v>1000</v>
@@ -6673,7 +6673,7 @@
         <v>230</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC46" t="n">
         <v>10.5</v>
@@ -6685,7 +6685,7 @@
         <v>260</v>
       </c>
       <c r="AF46" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG46" t="n">
         <v>9.6</v>
@@ -6703,13 +6703,13 @@
         <v>38</v>
       </c>
       <c r="AL46" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6748,10 +6748,10 @@
         <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I47" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -6760,37 +6760,37 @@
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="S47" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U47" t="n">
         <v>2.66</v>
       </c>
       <c r="V47" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W47" t="n">
         <v>1.79</v>
@@ -6808,13 +6808,13 @@
         <v>470</v>
       </c>
       <c r="AB47" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC47" t="n">
         <v>12.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE47" t="n">
         <v>38</v>
@@ -6877,46 +6877,46 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="I48" t="n">
         <v>1.43</v>
       </c>
       <c r="J48" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K48" t="n">
         <v>6.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P48" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R48" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="T48" t="n">
         <v>1.78</v>
@@ -6934,19 +6934,19 @@
         <v>36</v>
       </c>
       <c r="Y48" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z48" t="n">
         <v>12</v>
       </c>
       <c r="AA48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB48" t="n">
         <v>42</v>
       </c>
       <c r="AC48" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AD48" t="n">
         <v>11.5</v>
@@ -6973,7 +6973,7 @@
         <v>290</v>
       </c>
       <c r="AL48" t="n">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="AM48" t="n">
         <v>1000</v>
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G49" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
         <v>3.8</v>
@@ -7030,40 +7030,40 @@
         <v>4.3</v>
       </c>
       <c r="L49" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="M49" t="n">
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O49" t="n">
         <v>1.2</v>
       </c>
       <c r="P49" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R49" t="n">
         <v>1.58</v>
       </c>
       <c r="S49" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="T49" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="U49" t="n">
         <v>2.5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W49" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X49" t="n">
         <v>29</v>
@@ -7111,7 +7111,7 @@
         <v>34</v>
       </c>
       <c r="AM49" t="n">
-        <v>260</v>
+        <v>580</v>
       </c>
       <c r="AN49" t="n">
         <v>12.5</v>
@@ -7147,16 +7147,16 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G50" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>3.75</v>
       </c>
       <c r="I50" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J50" t="n">
         <v>4.5</v>
@@ -7165,46 +7165,46 @@
         <v>5</v>
       </c>
       <c r="L50" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M50" t="n">
         <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="O50" t="n">
         <v>1.11</v>
       </c>
       <c r="P50" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="R50" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="S50" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="T50" t="n">
         <v>1.43</v>
       </c>
       <c r="U50" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>1.32</v>
       </c>
       <c r="W50" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X50" t="n">
         <v>170</v>
       </c>
       <c r="Y50" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="Z50" t="n">
         <v>190</v>
@@ -7234,16 +7234,16 @@
         <v>18</v>
       </c>
       <c r="AI50" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AK50" t="n">
         <v>21</v>
       </c>
       <c r="AL50" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM50" t="n">
         <v>200</v>
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I51" t="n">
         <v>3.35</v>
@@ -7300,7 +7300,7 @@
         <v>4.6</v>
       </c>
       <c r="L51" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7312,7 +7312,7 @@
         <v>1.16</v>
       </c>
       <c r="P51" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q51" t="n">
         <v>1.48</v>
@@ -7321,7 +7321,7 @@
         <v>1.76</v>
       </c>
       <c r="S51" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="T51" t="n">
         <v>1.53</v>
@@ -7330,13 +7330,13 @@
         <v>2.76</v>
       </c>
       <c r="V51" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W51" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X51" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="Y51" t="n">
         <v>25</v>
@@ -7417,7 +7417,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G52" t="n">
         <v>2.14</v>
@@ -7435,34 +7435,34 @@
         <v>4.3</v>
       </c>
       <c r="L52" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O52" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P52" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U52" t="n">
         <v>2.66</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S52" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T52" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.52</v>
       </c>
       <c r="V52" t="n">
         <v>1.37</v>
@@ -7483,7 +7483,7 @@
         <v>160</v>
       </c>
       <c r="AB52" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AC52" t="n">
         <v>11.5</v>
@@ -7507,7 +7507,7 @@
         <v>130</v>
       </c>
       <c r="AJ52" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AK52" t="n">
         <v>23</v>
@@ -7552,46 +7552,46 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
       </c>
       <c r="H53" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I53" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J53" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K53" t="n">
         <v>4.1</v>
       </c>
       <c r="L53" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="O53" t="n">
         <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="Q53" t="n">
         <v>1.61</v>
       </c>
       <c r="R53" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S53" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T53" t="n">
         <v>1.57</v>
@@ -7600,10 +7600,10 @@
         <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W53" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X53" t="n">
         <v>42</v>
@@ -7612,22 +7612,22 @@
         <v>18</v>
       </c>
       <c r="Z53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA53" t="n">
         <v>140</v>
       </c>
       <c r="AB53" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD53" t="n">
         <v>15</v>
       </c>
       <c r="AE53" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF53" t="n">
         <v>42</v>
@@ -7642,22 +7642,22 @@
         <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK53" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AL53" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM53" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="AN53" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
@@ -7687,25 +7687,25 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="G54" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H54" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K54" t="n">
         <v>4.9</v>
       </c>
       <c r="L54" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
@@ -7714,82 +7714,82 @@
         <v>4.7</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S54" t="n">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="T54" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U54" t="n">
         <v>2.1</v>
       </c>
       <c r="V54" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W54" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="X54" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="Y54" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="Z54" t="n">
         <v>240</v>
       </c>
       <c r="AA54" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB54" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AE54" t="n">
         <v>420</v>
       </c>
       <c r="AF54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG54" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AI54" t="n">
         <v>330</v>
       </c>
       <c r="AJ54" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AK54" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="AM54" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN54" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AO54" t="n">
         <v>260</v>
@@ -7822,82 +7822,82 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G55" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H55" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J55" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
         <v>3.05</v>
       </c>
       <c r="L55" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="M55" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N55" t="n">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="O55" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="P55" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="R55" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S55" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="T55" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="U55" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="V55" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W55" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="X55" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y55" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="Z55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA55" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AB55" t="n">
         <v>7.6</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD55" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE55" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF55" t="n">
         <v>15.5</v>
@@ -7906,28 +7906,28 @@
         <v>13.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI55" t="n">
-        <v>90</v>
+        <v>480</v>
       </c>
       <c r="AJ55" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK55" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL55" t="n">
-        <v>480</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="AN55" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AO55" t="n">
-        <v>230</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
@@ -7957,31 +7957,31 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G56" t="n">
         <v>2.46</v>
       </c>
       <c r="H56" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I56" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K56" t="n">
         <v>3.5</v>
       </c>
       <c r="L56" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M56" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="O56" t="n">
         <v>1.45</v>
@@ -7990,7 +7990,7 @@
         <v>1.62</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R56" t="n">
         <v>1.22</v>
@@ -8002,22 +8002,22 @@
         <v>1.96</v>
       </c>
       <c r="U56" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V56" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="W56" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X56" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y56" t="n">
         <v>12</v>
       </c>
       <c r="Z56" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
@@ -8026,10 +8026,10 @@
         <v>9.4</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AE56" t="n">
         <v>1000</v>
@@ -8038,16 +8038,16 @@
         <v>14.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI56" t="n">
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK56" t="n">
         <v>32</v>
@@ -8092,58 +8092,58 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G57" t="n">
         <v>3.75</v>
       </c>
       <c r="H57" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I57" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="J57" t="n">
         <v>3.5</v>
       </c>
       <c r="K57" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L57" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M57" t="n">
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O57" t="n">
         <v>1.33</v>
       </c>
       <c r="P57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R57" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S57" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T57" t="n">
         <v>1.66</v>
       </c>
       <c r="U57" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="V57" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="W57" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="X57" t="n">
         <v>28</v>
@@ -8170,7 +8170,7 @@
         <v>30</v>
       </c>
       <c r="AF57" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AG57" t="n">
         <v>17.5</v>
@@ -8227,7 +8227,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="G58" t="n">
         <v>3.85</v>
@@ -8236,7 +8236,7 @@
         <v>2.1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
@@ -8245,7 +8245,7 @@
         <v>3.8</v>
       </c>
       <c r="L58" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M58" t="n">
         <v>1.06</v>
@@ -8254,34 +8254,34 @@
         <v>4.4</v>
       </c>
       <c r="O58" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P58" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R58" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S58" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T58" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U58" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V58" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="W58" t="n">
         <v>1.35</v>
       </c>
       <c r="X58" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y58" t="n">
         <v>11</v>
@@ -8293,7 +8293,7 @@
         <v>25</v>
       </c>
       <c r="AB58" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC58" t="n">
         <v>8.4</v>
@@ -8302,7 +8302,7 @@
         <v>10.5</v>
       </c>
       <c r="AE58" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF58" t="n">
         <v>28</v>
@@ -8320,16 +8320,16 @@
         <v>70</v>
       </c>
       <c r="AK58" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL58" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM58" t="n">
         <v>80</v>
       </c>
       <c r="AN58" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO58" t="n">
         <v>13</v>
@@ -8362,109 +8362,109 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G59" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J59" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K59" t="n">
         <v>4.1</v>
       </c>
       <c r="L59" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M59" t="n">
         <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P59" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S59" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T59" t="n">
         <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V59" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W59" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="X59" t="n">
         <v>14</v>
       </c>
       <c r="Y59" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="AA59" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB59" t="n">
         <v>7.8</v>
       </c>
       <c r="AC59" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD59" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE59" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF59" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG59" t="n">
         <v>10.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI59" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ59" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK59" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL59" t="n">
         <v>42</v>
       </c>
       <c r="AM59" t="n">
-        <v>580</v>
+        <v>150</v>
       </c>
       <c r="AN59" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO59" t="n">
         <v>140</v>
@@ -8500,7 +8500,7 @@
         <v>3.4</v>
       </c>
       <c r="G60" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>2.24</v>
@@ -8521,52 +8521,52 @@
         <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P60" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R60" t="n">
         <v>1.31</v>
       </c>
       <c r="S60" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T60" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V60" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="W60" t="n">
         <v>1.38</v>
       </c>
       <c r="X60" t="n">
-        <v>15.5</v>
+        <v>25</v>
       </c>
       <c r="Y60" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z60" t="n">
         <v>28</v>
       </c>
       <c r="AA60" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB60" t="n">
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="AC60" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD60" t="n">
         <v>11.5</v>
@@ -8575,22 +8575,22 @@
         <v>1000</v>
       </c>
       <c r="AF60" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG60" t="n">
         <v>1000</v>
       </c>
       <c r="AH60" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AI60" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ60" t="n">
         <v>1000</v>
       </c>
       <c r="AK60" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL60" t="n">
         <v>1000</v>
@@ -8599,7 +8599,7 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO60" t="n">
         <v>55</v>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G61" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="H61" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="I61" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
@@ -8656,34 +8656,34 @@
         <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O61" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P61" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R61" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S61" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T61" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="U61" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V61" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W61" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X61" t="n">
         <v>10.5</v>
@@ -8695,16 +8695,16 @@
         <v>25</v>
       </c>
       <c r="AA61" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB61" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC61" t="n">
         <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE61" t="n">
         <v>55</v>
@@ -8713,7 +8713,7 @@
         <v>12.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH61" t="n">
         <v>21</v>
@@ -8725,16 +8725,16 @@
         <v>29</v>
       </c>
       <c r="AK61" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL61" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM61" t="n">
         <v>140</v>
       </c>
       <c r="AN61" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO61" t="n">
         <v>70</v>
@@ -8767,16 +8767,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G62" t="n">
         <v>2.6</v>
       </c>
       <c r="H62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I62" t="n">
         <v>3.65</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.7</v>
       </c>
       <c r="J62" t="n">
         <v>2.94</v>
@@ -8785,28 +8785,28 @@
         <v>2.96</v>
       </c>
       <c r="L62" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="M62" t="n">
         <v>1.15</v>
       </c>
       <c r="N62" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="O62" t="n">
         <v>1.65</v>
       </c>
       <c r="P62" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
         <v>1.17</v>
       </c>
       <c r="S62" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T62" t="n">
         <v>2.3</v>
@@ -8824,7 +8824,7 @@
         <v>7.2</v>
       </c>
       <c r="Y62" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z62" t="n">
         <v>22</v>
@@ -8860,7 +8860,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL62" t="n">
         <v>75</v>
@@ -8869,7 +8869,7 @@
         <v>210</v>
       </c>
       <c r="AN62" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO62" t="n">
         <v>90</v>
@@ -8902,64 +8902,64 @@
         </is>
       </c>
       <c r="F63" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G63" t="n">
         <v>1.81</v>
       </c>
-      <c r="G63" t="n">
-        <v>1.83</v>
-      </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="I63" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J63" t="n">
         <v>3.95</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L63" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="O63" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q63" t="n">
         <v>2</v>
       </c>
-      <c r="Q63" t="n">
-        <v>1.97</v>
-      </c>
       <c r="R63" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S63" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U63" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="V63" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W63" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X63" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z63" t="n">
         <v>38</v>
@@ -8968,16 +8968,16 @@
         <v>130</v>
       </c>
       <c r="AB63" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC63" t="n">
         <v>8.6</v>
       </c>
       <c r="AD63" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -8986,10 +8986,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH63" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI63" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ63" t="n">
         <v>19</v>
@@ -9001,13 +9001,13 @@
         <v>36</v>
       </c>
       <c r="AM63" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN63" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO63" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64">
@@ -9040,28 +9040,28 @@
         <v>2.12</v>
       </c>
       <c r="G64" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H64" t="n">
         <v>3.85</v>
       </c>
       <c r="I64" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
         <v>3.55</v>
       </c>
       <c r="L64" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M64" t="n">
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O64" t="n">
         <v>1.41</v>
@@ -9070,31 +9070,31 @@
         <v>1.72</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R64" t="n">
         <v>1.27</v>
       </c>
       <c r="S64" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T64" t="n">
         <v>1.92</v>
       </c>
       <c r="U64" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V64" t="n">
         <v>1.32</v>
       </c>
       <c r="W64" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X64" t="n">
         <v>13.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z64" t="n">
         <v>32</v>
@@ -9106,7 +9106,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC64" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD64" t="n">
         <v>19.5</v>
@@ -9115,10 +9115,10 @@
         <v>1000</v>
       </c>
       <c r="AF64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH64" t="n">
         <v>24</v>
@@ -9142,7 +9142,7 @@
         <v>26</v>
       </c>
       <c r="AO64" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="65">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="G65" t="n">
         <v>2.04</v>
@@ -9187,25 +9187,25 @@
         <v>3.3</v>
       </c>
       <c r="K65" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L65" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M65" t="n">
         <v>1.09</v>
       </c>
       <c r="N65" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O65" t="n">
         <v>1.43</v>
       </c>
       <c r="P65" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="R65" t="n">
         <v>1.24</v>
@@ -9241,10 +9241,10 @@
         <v>7.6</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE65" t="n">
         <v>85</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.79</v>
+        <v>1.87</v>
       </c>
       <c r="I2" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
         <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="V2" t="n">
         <v>2.12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
         <v>18.5</v>
@@ -727,52 +727,52 @@
         <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG2" t="n">
         <v>17</v>
       </c>
-      <c r="AF2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AO2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="G3" t="n">
         <v>1.45</v>
@@ -811,37 +811,37 @@
         <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
         <v>29</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T3" t="n">
         <v>1.01</v>
@@ -856,10 +856,10 @@
         <v>2.52</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,37 +868,37 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>900</v>
+        <v>970</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I4" t="n">
-        <v>7.8</v>
+        <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O4" t="n">
         <v>1.23</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.56</v>
+        <v>3.15</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1015,10 +1015,10 @@
         <v>510</v>
       </c>
       <c r="AF4" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AH4" t="n">
         <v>42</v>
@@ -1027,7 +1027,7 @@
         <v>400</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="AK4" t="n">
         <v>970</v>
@@ -1042,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="H5" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.54</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>1.41</v>
@@ -1096,88 +1096,88 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK5" t="n">
         <v>44</v>
       </c>
-      <c r="AB5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AL5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO5" t="n">
         <v>21</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
         <v>2.28</v>
@@ -1222,31 +1222,31 @@
         <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
         <v>1.75</v>
@@ -1255,16 +1255,16 @@
         <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="G7" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="W7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="n">
         <v>900</v>
@@ -1411,25 +1411,25 @@
         <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="n">
         <v>970</v>
       </c>
       <c r="AH7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI7" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="n">
         <v>900</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>60</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="G8" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1507,13 +1507,13 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>2.66</v>
@@ -1522,13 +1522,13 @@
         <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="X8" t="n">
         <v>48</v>
@@ -1537,7 +1537,7 @@
         <v>120</v>
       </c>
       <c r="Z8" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
@@ -1558,16 +1558,16 @@
         <v>14.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
         <v>120</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AK8" t="n">
         <v>970</v>
@@ -1621,7 +1621,7 @@
         <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="J9" t="n">
         <v>5.3</v>
@@ -1630,34 +1630,34 @@
         <v>50</v>
       </c>
       <c r="L9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="R9" t="n">
-        <v>2.16</v>
+        <v>3.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
         <v>1.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="V9" t="n">
         <v>7.6</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="10">
@@ -1747,109 +1747,109 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="G10" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="H10" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J10" t="n">
-        <v>2.94</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
         <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="X10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AH10" t="n">
         <v>22</v>
       </c>
-      <c r="AA10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ10" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
         <v>580</v>
       </c>
       <c r="AN10" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AO10" t="n">
         <v>600</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
@@ -1903,7 +1903,7 @@
         <v>1.38</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
         <v>4.2</v>
@@ -1933,13 +1933,13 @@
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="X11" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
         <v>32</v>
@@ -2035,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
@@ -2050,13 +2050,13 @@
         <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>1.41</v>
+        <v>1.05</v>
       </c>
       <c r="T12" t="n">
         <v>1.04</v>
@@ -2065,10 +2065,10 @@
         <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.03</v>
+        <v>1.46</v>
       </c>
       <c r="W12" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K13" t="n">
         <v>3.6</v>
@@ -2194,19 +2194,19 @@
         <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W13" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y13" t="n">
         <v>14.5</v>
@@ -2221,7 +2221,7 @@
         <v>10</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
         <v>18</v>
@@ -2236,7 +2236,7 @@
         <v>13</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>65</v>
@@ -2248,13 +2248,13 @@
         <v>32</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>60</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
@@ -2302,97 +2302,97 @@
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
         <v>3.85</v>
       </c>
       <c r="O14" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="V14" t="n">
         <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AB14" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF14" t="n">
         <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
         <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -2425,19 +2425,19 @@
         <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H15" t="n">
         <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.48</v>
@@ -2446,58 +2446,58 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U15" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V15" t="n">
         <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z15" t="n">
         <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="AF15" t="n">
         <v>13</v>
@@ -2506,28 +2506,28 @@
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>75</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>120</v>
       </c>
       <c r="AK15" t="n">
         <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="H16" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="I16" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="P16" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="U16" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="V16" t="n">
         <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="X16" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="n">
         <v>200</v>
       </c>
       <c r="AA16" t="n">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="AB16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF16" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>9.199999999999999</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI16" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>95</v>
       </c>
       <c r="AM16" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17">
@@ -2695,13 +2695,13 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
@@ -2710,7 +2710,7 @@
         <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.07</v>
@@ -2734,16 +2734,16 @@
         <v>3.35</v>
       </c>
       <c r="T17" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I18" t="n">
         <v>2.58</v>
@@ -2842,7 +2842,7 @@
         <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.51</v>
@@ -2851,16 +2851,16 @@
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
         <v>1.23</v>
@@ -2878,7 +2878,7 @@
         <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2932,7 +2932,7 @@
         <v>70</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2968,13 +2968,13 @@
         <v>2.04</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I19" t="n">
         <v>5.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -2986,16 +2986,16 @@
         <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
       </c>
       <c r="P19" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
         <v>1.31</v>
@@ -3004,10 +3004,10 @@
         <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="U19" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
         <v>1.23</v>
@@ -3028,13 +3028,13 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3058,7 +3058,7 @@
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3100,19 +3100,19 @@
         <v>3.65</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.57</v>
@@ -3121,13 +3121,13 @@
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O20" t="n">
         <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q20" t="n">
         <v>2.56</v>
@@ -3142,16 +3142,16 @@
         <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V20" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y20" t="n">
         <v>7.6</v>
@@ -3166,7 +3166,7 @@
         <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
         <v>12</v>
@@ -3178,7 +3178,7 @@
         <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>17.5</v>
       </c>
       <c r="AH20" t="n">
         <v>26</v>
@@ -3193,16 +3193,16 @@
         <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>600</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
         <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I21" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K21" t="n">
         <v>4.9</v>
@@ -3262,31 +3262,31 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="T21" t="n">
         <v>1.6</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.57</v>
       </c>
       <c r="U21" t="n">
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="W21" t="n">
         <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
@@ -3295,7 +3295,7 @@
         <v>14.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3370,10 +3370,10 @@
         <v>4.6</v>
       </c>
       <c r="G22" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="I22" t="n">
         <v>1.85</v>
@@ -3391,7 +3391,7 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.28</v>
@@ -3403,13 +3403,13 @@
         <v>1.86</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S22" t="n">
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
         <v>2.08</v>
@@ -3418,22 +3418,22 @@
         <v>2.16</v>
       </c>
       <c r="W22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="X22" t="n">
         <v>17</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA22" t="n">
         <v>25</v>
       </c>
       <c r="AB22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC22" t="n">
         <v>11</v>
@@ -3448,7 +3448,7 @@
         <v>44</v>
       </c>
       <c r="AG22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH22" t="n">
         <v>22</v>
@@ -3463,7 +3463,7 @@
         <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM22" t="n">
         <v>580</v>
@@ -3472,7 +3472,7 @@
         <v>70</v>
       </c>
       <c r="AO22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3505,73 +3505,73 @@
         <v>2.82</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="P23" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U23" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W23" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="X23" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="n">
         <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
@@ -3586,7 +3586,7 @@
         <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AI23" t="n">
         <v>120</v>
@@ -3637,40 +3637,40 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="G24" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>2.98</v>
       </c>
       <c r="I24" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.5</v>
       </c>
-      <c r="K24" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R24" t="n">
         <v>1.32</v>
@@ -3679,70 +3679,70 @@
         <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U24" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="W24" t="n">
-        <v>1.77</v>
+        <v>1.59</v>
       </c>
       <c r="X24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
         <v>13</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>470</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
         <v>120</v>
       </c>
       <c r="AF24" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG24" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>130</v>
       </c>
       <c r="AJ24" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AM24" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="I25" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3799,85 +3799,85 @@
         <v>4.9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R25" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U25" t="n">
         <v>2.4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>1.32</v>
       </c>
       <c r="X25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB25" t="n">
         <v>19.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
         <v>9.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG25" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
         <v>32</v>
       </c>
       <c r="AJ25" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="n">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="AL25" t="n">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="AM25" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AN25" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -3907,52 +3907,52 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G26" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H26" t="n">
         <v>3.45</v>
       </c>
       <c r="I26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.55</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.5</v>
-      </c>
       <c r="K26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
         <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O26" t="n">
         <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U26" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
         <v>1.39</v>
@@ -3961,22 +3961,22 @@
         <v>1.74</v>
       </c>
       <c r="X26" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
         <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB26" t="n">
         <v>11.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
         <v>14.5</v>
@@ -3994,7 +3994,7 @@
         <v>16</v>
       </c>
       <c r="AI26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ26" t="n">
         <v>30</v>
@@ -4006,13 +4006,13 @@
         <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="G27" t="n">
         <v>3.85</v>
       </c>
       <c r="H27" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="I27" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
         <v>3.9</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
@@ -4186,10 +4186,10 @@
         <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K28" t="n">
         <v>3.75</v>
@@ -4201,25 +4201,25 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U28" t="n">
         <v>1.87</v>
@@ -4246,7 +4246,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
         <v>30</v>
@@ -4267,7 +4267,7 @@
         <v>260</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>900</v>
       </c>
       <c r="AK28" t="n">
         <v>70</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G29" t="n">
         <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I29" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
         <v>1.45</v>
@@ -4342,31 +4342,31 @@
         <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
         <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U29" t="n">
         <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W29" t="n">
         <v>1.25</v>
       </c>
       <c r="X29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>8.4</v>
@@ -4408,10 +4408,10 @@
         <v>200</v>
       </c>
       <c r="AL29" t="n">
-        <v>330</v>
+        <v>90</v>
       </c>
       <c r="AM29" t="n">
-        <v>470</v>
+        <v>580</v>
       </c>
       <c r="AN29" t="n">
         <v>260</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="G30" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H30" t="n">
         <v>11.5</v>
       </c>
       <c r="I30" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J30" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="K30" t="n">
         <v>6.4</v>
@@ -4471,7 +4471,7 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.24</v>
@@ -4480,19 +4480,19 @@
         <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
         <v>2.84</v>
       </c>
       <c r="T30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U30" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
         <v>1.08</v>
@@ -4501,58 +4501,58 @@
         <v>3.85</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA30" t="n">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.5</v>
+        <v>8.4</v>
       </c>
       <c r="AC30" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AE30" t="n">
         <v>220</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="AI30" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19.5</v>
+        <v>10.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
         <v>240</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AO30" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G31" t="n">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="H31" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I31" t="n">
         <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
         <v>1.5</v>
@@ -4609,31 +4609,31 @@
         <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U31" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V31" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X31" t="n">
         <v>21</v>
@@ -4648,10 +4648,10 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD31" t="n">
         <v>30</v>
@@ -4663,7 +4663,7 @@
         <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G32" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="I32" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.31</v>
@@ -4747,7 +4747,7 @@
         <v>1.2</v>
       </c>
       <c r="P32" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q32" t="n">
         <v>1.62</v>
@@ -4759,70 +4759,70 @@
         <v>2.56</v>
       </c>
       <c r="T32" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U32" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V32" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W32" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AC32" t="n">
         <v>10.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF32" t="n">
         <v>32</v>
       </c>
       <c r="AG32" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH32" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AJ32" t="n">
-        <v>470</v>
+        <v>70</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL32" t="n">
         <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -4855,19 +4855,19 @@
         <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L33" t="n">
         <v>1.45</v>
@@ -4876,46 +4876,46 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q33" t="n">
         <v>2.08</v>
       </c>
       <c r="R33" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S33" t="n">
         <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V33" t="n">
         <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
         <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB33" t="n">
         <v>11</v>
@@ -4939,7 +4939,7 @@
         <v>18.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AJ33" t="n">
         <v>46</v>
@@ -4948,7 +4948,7 @@
         <v>34</v>
       </c>
       <c r="AL33" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="AM33" t="n">
         <v>580</v>
@@ -4987,16 +4987,16 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="G34" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>3.35</v>
@@ -5011,13 +5011,13 @@
         <v>1.08</v>
       </c>
       <c r="N34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="n">
         <v>1.39</v>
       </c>
       <c r="P34" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q34" t="n">
         <v>2.16</v>
@@ -5038,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X34" t="n">
         <v>12.5</v>
@@ -5122,46 +5122,46 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G35" t="n">
         <v>2.48</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I35" t="n">
         <v>3.75</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="L35" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M35" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R35" t="n">
         <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
         <v>1.86</v>
@@ -5197,10 +5197,10 @@
         <v>18.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AF35" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
@@ -5215,7 +5215,7 @@
         <v>38</v>
       </c>
       <c r="AK35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL35" t="n">
         <v>48</v>
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K36" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.48</v>
@@ -5281,25 +5281,25 @@
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O36" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R36" t="n">
         <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U36" t="n">
         <v>1.92</v>
@@ -5308,7 +5308,7 @@
         <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X36" t="n">
         <v>14</v>
@@ -5317,37 +5317,37 @@
         <v>16</v>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA36" t="n">
         <v>120</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="n">
         <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK36" t="n">
         <v>32</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -5401,25 +5401,25 @@
         <v>2.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>3.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M37" t="n">
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O37" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P37" t="n">
         <v>1.63</v>
@@ -5431,13 +5431,13 @@
         <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="T37" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="U37" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V37" t="n">
         <v>1.47</v>
@@ -5446,31 +5446,31 @@
         <v>1.5</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="n">
         <v>900</v>
       </c>
       <c r="AB37" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC37" t="n">
         <v>7.6</v>
       </c>
       <c r="AD37" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE37" t="n">
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AG37" t="n">
         <v>14</v>
@@ -5488,7 +5488,7 @@
         <v>1000</v>
       </c>
       <c r="AL37" t="n">
-        <v>460</v>
+        <v>1000</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G38" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I38" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J38" t="n">
         <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.51</v>
@@ -5551,28 +5551,28 @@
         <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="O38" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P38" t="n">
         <v>1.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R38" t="n">
         <v>1.24</v>
       </c>
       <c r="S38" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T38" t="n">
         <v>1.76</v>
       </c>
       <c r="U38" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="V38" t="n">
         <v>1.46</v>
@@ -5581,10 +5581,10 @@
         <v>1.53</v>
       </c>
       <c r="X38" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.5</v>
+        <v>21</v>
       </c>
       <c r="Z38" t="n">
         <v>48</v>
@@ -5593,10 +5593,10 @@
         <v>900</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD38" t="n">
         <v>16.5</v>
@@ -5605,13 +5605,13 @@
         <v>230</v>
       </c>
       <c r="AF38" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AG38" t="n">
         <v>29</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="AI38" t="n">
         <v>380</v>
@@ -5629,10 +5629,10 @@
         <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>70</v>
+        <v>600</v>
       </c>
       <c r="AO38" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39">
@@ -5662,46 +5662,46 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H39" t="n">
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K39" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L39" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M39" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N39" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O39" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="R39" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T39" t="n">
         <v>1.8</v>
@@ -5710,64 +5710,64 @@
         <v>1.81</v>
       </c>
       <c r="V39" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>1.92</v>
+        <v>1.88</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA39" t="n">
         <v>100</v>
       </c>
-      <c r="AA39" t="n">
-        <v>110</v>
-      </c>
       <c r="AB39" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="AF39" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AG39" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK39" t="n">
         <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>200</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN39" t="n">
         <v>21</v>
       </c>
       <c r="AO39" t="n">
-        <v>240</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
@@ -5797,109 +5797,109 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G40" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="H40" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="I40" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
         <v>1.65</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R40" t="n">
         <v>1.24</v>
       </c>
       <c r="S40" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T40" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="V40" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W40" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="X40" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>42</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG40" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL40" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,112 +5932,112 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="G41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J41" t="n">
         <v>3</v>
       </c>
-      <c r="H41" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L41" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M41" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N41" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="O41" t="n">
-        <v>1.52</v>
+        <v>1.62</v>
       </c>
       <c r="P41" t="n">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.62</v>
+        <v>2.96</v>
       </c>
       <c r="R41" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="S41" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="T41" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="V41" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W41" t="n">
         <v>1.48</v>
       </c>
-      <c r="W41" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X41" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="AB41" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AC41" t="n">
         <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>240</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH41" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI41" t="n">
         <v>400</v>
       </c>
       <c r="AJ41" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
       <c r="AK41" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AL41" t="n">
         <v>400</v>
       </c>
       <c r="AM41" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c r="AN41" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AO41" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -6070,61 +6070,61 @@
         <v>2.4</v>
       </c>
       <c r="G42" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K42" t="n">
         <v>3.5</v>
       </c>
       <c r="L42" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="P42" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="R42" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S42" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="U42" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V42" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X42" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Z42" t="n">
         <v>60</v>
@@ -6133,13 +6133,13 @@
         <v>300</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC42" t="n">
         <v>8.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="n">
         <v>95</v>
@@ -6151,13 +6151,13 @@
         <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI42" t="n">
         <v>170</v>
       </c>
       <c r="AJ42" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AK42" t="n">
         <v>75</v>
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="G43" t="n">
         <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I43" t="n">
         <v>2.44</v>
       </c>
       <c r="J43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K43" t="n">
         <v>3.35</v>
       </c>
       <c r="L43" t="n">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="M43" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N43" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="P43" t="n">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="R43" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S43" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.87</v>
+        <v>1.97</v>
       </c>
       <c r="U43" t="n">
-        <v>1.97</v>
+        <v>1.86</v>
       </c>
       <c r="V43" t="n">
         <v>1.69</v>
@@ -6256,10 +6256,10 @@
         <v>1.38</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y43" t="n">
-        <v>9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z43" t="n">
         <v>27</v>
@@ -6268,10 +6268,10 @@
         <v>150</v>
       </c>
       <c r="AB43" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD43" t="n">
         <v>12</v>
@@ -6283,7 +6283,7 @@
         <v>70</v>
       </c>
       <c r="AG43" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AH43" t="n">
         <v>60</v>
@@ -6340,13 +6340,13 @@
         <v>1.87</v>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="J44" t="n">
         <v>3.95</v>
@@ -6361,28 +6361,28 @@
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O44" t="n">
         <v>1.21</v>
       </c>
       <c r="P44" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R44" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S44" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T44" t="n">
         <v>1.6</v>
       </c>
       <c r="U44" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V44" t="n">
         <v>1.29</v>
@@ -6400,19 +6400,19 @@
         <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="AB44" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD44" t="n">
         <v>1000</v>
       </c>
       <c r="AE44" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF44" t="n">
         <v>27</v>
@@ -6475,13 +6475,13 @@
         <v>2.98</v>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I45" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J45" t="n">
         <v>4.5</v>
@@ -6511,61 +6511,61 @@
         <v>2.1</v>
       </c>
       <c r="S45" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="T45" t="n">
         <v>1.4</v>
       </c>
       <c r="U45" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="V45" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W45" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X45" t="n">
         <v>55</v>
       </c>
       <c r="Y45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z45" t="n">
         <v>28</v>
       </c>
       <c r="AA45" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB45" t="n">
         <v>34</v>
       </c>
       <c r="AC45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
         <v>40</v>
       </c>
       <c r="AG45" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ45" t="n">
         <v>55</v>
       </c>
       <c r="AK45" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AL45" t="n">
         <v>32</v>
@@ -6574,10 +6574,10 @@
         <v>44</v>
       </c>
       <c r="AN45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.199999999999999</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="46">
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H46" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J46" t="n">
         <v>4.3</v>
@@ -6625,43 +6625,43 @@
         <v>4.7</v>
       </c>
       <c r="L46" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
         <v>4.1</v>
       </c>
       <c r="O46" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R46" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S46" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="U46" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="V46" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W46" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X46" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="Y46" t="n">
         <v>1000</v>
@@ -6670,34 +6670,34 @@
         <v>1000</v>
       </c>
       <c r="AA46" t="n">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="AB46" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD46" t="n">
         <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG46" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH46" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI46" t="n">
         <v>1000</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK46" t="n">
         <v>38</v>
@@ -6709,7 +6709,7 @@
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO46" t="n">
         <v>1000</v>
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H47" t="n">
         <v>3.15</v>
@@ -6760,40 +6760,40 @@
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="O47" t="n">
         <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R47" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S47" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T47" t="n">
         <v>1.53</v>
       </c>
       <c r="U47" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="V47" t="n">
         <v>1.43</v>
       </c>
       <c r="W47" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X47" t="n">
         <v>34</v>
@@ -6841,13 +6841,13 @@
         <v>30</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>260</v>
       </c>
       <c r="AN47" t="n">
         <v>12.5</v>
       </c>
       <c r="AO47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -6877,22 +6877,22 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="G48" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>1.4</v>
       </c>
       <c r="I48" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="J48" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K48" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
         <v>1.25</v>
@@ -6904,7 +6904,7 @@
         <v>6.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="P48" t="n">
         <v>2.96</v>
@@ -6913,19 +6913,19 @@
         <v>1.46</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="S48" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="T48" t="n">
         <v>1.78</v>
       </c>
       <c r="U48" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V48" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="W48" t="n">
         <v>1.12</v>
@@ -6943,7 +6943,7 @@
         <v>13.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC48" t="n">
         <v>14.5</v>
@@ -6952,34 +6952,34 @@
         <v>11.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AH48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI48" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ48" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AK48" t="n">
         <v>290</v>
       </c>
       <c r="AL48" t="n">
-        <v>400</v>
+        <v>230</v>
       </c>
       <c r="AM48" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN48" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO48" t="n">
         <v>4.6</v>
@@ -7018,58 +7018,58 @@
         <v>2.14</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I49" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J49" t="n">
         <v>3.8</v>
       </c>
-      <c r="J49" t="n">
-        <v>3.9</v>
-      </c>
       <c r="K49" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P49" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="R49" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="S49" t="n">
-        <v>2.54</v>
+        <v>2.9</v>
       </c>
       <c r="T49" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U49" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="V49" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="W49" t="n">
         <v>1.87</v>
       </c>
       <c r="X49" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Y49" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Z49" t="n">
         <v>36</v>
@@ -7078,46 +7078,46 @@
         <v>1000</v>
       </c>
       <c r="AB49" t="n">
-        <v>16.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC49" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
         <v>19</v>
       </c>
       <c r="AE49" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF49" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG49" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH49" t="n">
         <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ49" t="n">
         <v>32</v>
       </c>
       <c r="AK49" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="AL49" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO49" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G50" t="n">
         <v>1.9</v>
@@ -7156,7 +7156,7 @@
         <v>3.75</v>
       </c>
       <c r="I50" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J50" t="n">
         <v>4.5</v>
@@ -7171,16 +7171,16 @@
         <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="O50" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P50" t="n">
         <v>3.35</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R50" t="n">
         <v>1.97</v>
@@ -7201,13 +7201,13 @@
         <v>2.1</v>
       </c>
       <c r="X50" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="Y50" t="n">
         <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
@@ -7228,7 +7228,7 @@
         <v>22</v>
       </c>
       <c r="AG50" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH50" t="n">
         <v>18</v>
@@ -7237,7 +7237,7 @@
         <v>1000</v>
       </c>
       <c r="AJ50" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="AK50" t="n">
         <v>21</v>
@@ -7246,10 +7246,10 @@
         <v>1000</v>
       </c>
       <c r="AM50" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN50" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO50" t="n">
         <v>23</v>
@@ -7282,10 +7282,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G51" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
         <v>3.05</v>
@@ -7294,13 +7294,13 @@
         <v>3.35</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L51" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -7309,22 +7309,22 @@
         <v>6.2</v>
       </c>
       <c r="O51" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P51" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="Q51" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="T51" t="n">
         <v>1.48</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S51" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.53</v>
       </c>
       <c r="U51" t="n">
         <v>2.76</v>
@@ -7333,58 +7333,58 @@
         <v>1.43</v>
       </c>
       <c r="W51" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="X51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>46</v>
+      </c>
+      <c r="Z51" t="n">
         <v>85</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>34</v>
       </c>
       <c r="AA51" t="n">
         <v>130</v>
       </c>
       <c r="AB51" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AC51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="n">
         <v>13</v>
       </c>
-      <c r="AD51" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH51" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AI51" t="n">
         <v>80</v>
       </c>
       <c r="AJ51" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AK51" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AM51" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO51" t="n">
         <v>20</v>
@@ -7417,61 +7417,61 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G52" t="n">
         <v>2.14</v>
       </c>
       <c r="H52" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J52" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K52" t="n">
         <v>3.9</v>
       </c>
-      <c r="K52" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L52" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O52" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P52" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="S52" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="T52" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="U52" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="V52" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W52" t="n">
         <v>1.87</v>
       </c>
       <c r="X52" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="Y52" t="n">
         <v>48</v>
@@ -7486,7 +7486,7 @@
         <v>970</v>
       </c>
       <c r="AC52" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD52" t="n">
         <v>970</v>
@@ -7498,7 +7498,7 @@
         <v>21</v>
       </c>
       <c r="AG52" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AH52" t="n">
         <v>23</v>
@@ -7510,7 +7510,7 @@
         <v>34</v>
       </c>
       <c r="AK52" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AL52" t="n">
         <v>65</v>
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="G53" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="H53" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="I53" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J53" t="n">
         <v>3.7</v>
       </c>
       <c r="K53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L53" t="n">
         <v>1.3</v>
@@ -7594,16 +7594,16 @@
         <v>2.48</v>
       </c>
       <c r="T53" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U53" t="n">
         <v>2.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="W53" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X53" t="n">
         <v>42</v>
@@ -7612,10 +7612,10 @@
         <v>18</v>
       </c>
       <c r="Z53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA53" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB53" t="n">
         <v>19.5</v>
@@ -7624,13 +7624,13 @@
         <v>10.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE53" t="n">
         <v>27</v>
       </c>
       <c r="AF53" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AG53" t="n">
         <v>16</v>
@@ -7642,13 +7642,13 @@
         <v>34</v>
       </c>
       <c r="AJ53" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK53" t="n">
         <v>32</v>
       </c>
       <c r="AL53" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AM53" t="n">
         <v>260</v>
@@ -7657,7 +7657,7 @@
         <v>19.5</v>
       </c>
       <c r="AO53" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="54">
@@ -7687,10 +7687,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="G54" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="H54" t="n">
         <v>6</v>
@@ -7702,7 +7702,7 @@
         <v>4.5</v>
       </c>
       <c r="K54" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L54" t="n">
         <v>1.33</v>
@@ -7717,7 +7717,7 @@
         <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q54" t="n">
         <v>1.7</v>
@@ -7729,34 +7729,34 @@
         <v>2.8</v>
       </c>
       <c r="T54" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="U54" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V54" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W54" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="X54" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="Y54" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Z54" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AA54" t="n">
         <v>200</v>
       </c>
       <c r="AB54" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC54" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD54" t="n">
         <v>48</v>
@@ -7771,19 +7771,19 @@
         <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI54" t="n">
         <v>330</v>
       </c>
       <c r="AJ54" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AK54" t="n">
         <v>15.5</v>
       </c>
       <c r="AL54" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="AM54" t="n">
         <v>580</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="G55" t="n">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J55" t="n">
         <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L55" t="n">
         <v>1.6</v>
@@ -7846,10 +7846,10 @@
         <v>1.13</v>
       </c>
       <c r="N55" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O55" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="P55" t="n">
         <v>1.56</v>
@@ -7864,70 +7864,70 @@
         <v>5.5</v>
       </c>
       <c r="T55" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U55" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="V55" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W55" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="X55" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Y55" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AA55" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB55" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC55" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD55" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE55" t="n">
         <v>60</v>
       </c>
       <c r="AF55" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG55" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH55" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI55" t="n">
         <v>480</v>
       </c>
       <c r="AJ55" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK55" t="n">
         <v>38</v>
       </c>
       <c r="AL55" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AM55" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN55" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO55" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -7957,16 +7957,16 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G56" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I56" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J56" t="n">
         <v>3.05</v>
@@ -7993,10 +7993,10 @@
         <v>2.36</v>
       </c>
       <c r="R56" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S56" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T56" t="n">
         <v>1.96</v>
@@ -8005,37 +8005,37 @@
         <v>1.85</v>
       </c>
       <c r="V56" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W56" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="X56" t="n">
         <v>12.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z56" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA56" t="n">
         <v>1000</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC56" t="n">
         <v>7.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE56" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF56" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG56" t="n">
         <v>12.5</v>
@@ -8047,19 +8047,19 @@
         <v>1000</v>
       </c>
       <c r="AJ56" t="n">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AK56" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL56" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM56" t="n">
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AO56" t="n">
         <v>1000</v>
@@ -8092,16 +8092,16 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G57" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H57" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="I57" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="J57" t="n">
         <v>3.5</v>
@@ -8125,49 +8125,49 @@
         <v>1.9</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
         <v>1.34</v>
       </c>
       <c r="S57" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T57" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U57" t="n">
         <v>2.1</v>
       </c>
       <c r="V57" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="W57" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X57" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y57" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z57" t="n">
         <v>17.5</v>
       </c>
       <c r="AA57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB57" t="n">
         <v>15.5</v>
       </c>
       <c r="AC57" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD57" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AF57" t="n">
         <v>1000</v>
@@ -8185,7 +8185,7 @@
         <v>1000</v>
       </c>
       <c r="AK57" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AL57" t="n">
         <v>1000</v>
@@ -8194,7 +8194,7 @@
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="n">
         <v>23</v>
@@ -8227,112 +8227,112 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="G58" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="H58" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="I58" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K58" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L58" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M58" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="O58" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P58" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="R58" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="S58" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="T58" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="U58" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V58" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="W58" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X58" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD58" t="n">
         <v>11</v>
       </c>
-      <c r="Z58" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA58" t="n">
+      <c r="AE58" t="n">
         <v>25</v>
       </c>
-      <c r="AB58" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>21</v>
-      </c>
       <c r="AF58" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AG58" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ58" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL58" t="n">
         <v>48</v>
       </c>
       <c r="AM58" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN58" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO58" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="59">
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="G59" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="H59" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="I59" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K59" t="n">
         <v>4.1</v>
@@ -8395,7 +8395,7 @@
         <v>1.87</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
         <v>1.32</v>
@@ -8404,52 +8404,52 @@
         <v>3.85</v>
       </c>
       <c r="T59" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U59" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V59" t="n">
         <v>1.19</v>
       </c>
       <c r="W59" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X59" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z59" t="n">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="AA59" t="n">
         <v>170</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC59" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD59" t="n">
         <v>23</v>
       </c>
       <c r="AE59" t="n">
-        <v>420</v>
+        <v>90</v>
       </c>
       <c r="AF59" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG59" t="n">
         <v>10.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI59" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="n">
         <v>17</v>
@@ -8464,10 +8464,10 @@
         <v>150</v>
       </c>
       <c r="AN59" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO59" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -8497,19 +8497,19 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="H60" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I60" t="n">
         <v>2.24</v>
       </c>
-      <c r="I60" t="n">
-        <v>2.38</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K60" t="n">
         <v>3.65</v>
@@ -8530,49 +8530,49 @@
         <v>1.81</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R60" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S60" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T60" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U60" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V60" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="W60" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="X60" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z60" t="n">
         <v>28</v>
       </c>
       <c r="AA60" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB60" t="n">
         <v>26</v>
       </c>
       <c r="AC60" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE60" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF60" t="n">
         <v>1000</v>
@@ -8599,10 +8599,10 @@
         <v>1000</v>
       </c>
       <c r="AN60" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AO60" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61">
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="G61" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I61" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J61" t="n">
         <v>3.4</v>
@@ -8650,40 +8650,40 @@
         <v>3.45</v>
       </c>
       <c r="L61" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M61" t="n">
         <v>1.1</v>
       </c>
       <c r="N61" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O61" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="P61" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R61" t="n">
         <v>1.26</v>
       </c>
       <c r="S61" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T61" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U61" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V61" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W61" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X61" t="n">
         <v>10.5</v>
@@ -8692,52 +8692,52 @@
         <v>12</v>
       </c>
       <c r="Z61" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AA61" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AC61" t="n">
         <v>7.4</v>
       </c>
       <c r="AD61" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF61" t="n">
         <v>12.5</v>
       </c>
       <c r="AG61" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH61" t="n">
         <v>21</v>
       </c>
       <c r="AI61" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ61" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK61" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL61" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM61" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN61" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO61" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H62" t="n">
         <v>3.6</v>
@@ -8785,16 +8785,16 @@
         <v>2.96</v>
       </c>
       <c r="L62" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="M62" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N62" t="n">
         <v>2.52</v>
       </c>
       <c r="O62" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P62" t="n">
         <v>1.48</v>
@@ -8815,13 +8815,13 @@
         <v>1.74</v>
       </c>
       <c r="V62" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W62" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X62" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y62" t="n">
         <v>9</v>
@@ -8848,7 +8848,7 @@
         <v>14</v>
       </c>
       <c r="AG62" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH62" t="n">
         <v>25</v>
@@ -8866,7 +8866,7 @@
         <v>75</v>
       </c>
       <c r="AM62" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="AN62" t="n">
         <v>46</v>
@@ -8911,7 +8911,7 @@
         <v>5.1</v>
       </c>
       <c r="I63" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J63" t="n">
         <v>3.95</v>
@@ -8926,28 +8926,28 @@
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="P63" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R63" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S63" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T63" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V63" t="n">
         <v>1.23</v>
@@ -8956,7 +8956,7 @@
         <v>2.24</v>
       </c>
       <c r="X63" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y63" t="n">
         <v>17</v>
@@ -8968,7 +8968,7 @@
         <v>130</v>
       </c>
       <c r="AB63" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC63" t="n">
         <v>8.6</v>
@@ -8977,7 +8977,7 @@
         <v>19.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -8989,10 +8989,10 @@
         <v>20</v>
       </c>
       <c r="AI63" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK63" t="n">
         <v>18.5</v>
@@ -9001,13 +9001,13 @@
         <v>36</v>
       </c>
       <c r="AM63" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN63" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
@@ -9040,7 +9040,7 @@
         <v>2.12</v>
       </c>
       <c r="G64" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H64" t="n">
         <v>3.85</v>
@@ -9049,7 +9049,7 @@
         <v>4.3</v>
       </c>
       <c r="J64" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K64" t="n">
         <v>3.55</v>
@@ -9061,13 +9061,13 @@
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O64" t="n">
         <v>1.41</v>
       </c>
       <c r="P64" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q64" t="n">
         <v>2.24</v>
@@ -9085,16 +9085,16 @@
         <v>1.95</v>
       </c>
       <c r="V64" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W64" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
         <v>13.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z64" t="n">
         <v>32</v>
@@ -9103,10 +9103,10 @@
         <v>1000</v>
       </c>
       <c r="AB64" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC64" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD64" t="n">
         <v>19.5</v>
@@ -9118,13 +9118,13 @@
         <v>15.5</v>
       </c>
       <c r="AG64" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH64" t="n">
         <v>24</v>
       </c>
       <c r="AI64" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ64" t="n">
         <v>34</v>
@@ -9139,10 +9139,10 @@
         <v>1000</v>
       </c>
       <c r="AN64" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO64" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G65" t="n">
         <v>2.04</v>
@@ -9181,16 +9181,16 @@
         <v>4.6</v>
       </c>
       <c r="I65" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J65" t="n">
         <v>3.3</v>
       </c>
       <c r="K65" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L65" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.09</v>
@@ -9199,10 +9199,10 @@
         <v>3.05</v>
       </c>
       <c r="O65" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P65" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q65" t="n">
         <v>2.34</v>
@@ -9211,10 +9211,10 @@
         <v>1.24</v>
       </c>
       <c r="S65" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T65" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U65" t="n">
         <v>1.81</v>
@@ -9223,22 +9223,22 @@
         <v>1.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="X65" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y65" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA65" t="n">
         <v>160</v>
       </c>
       <c r="AB65" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC65" t="n">
         <v>8</v>
@@ -9247,7 +9247,7 @@
         <v>21</v>
       </c>
       <c r="AE65" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF65" t="n">
         <v>11.5</v>
@@ -9256,16 +9256,16 @@
         <v>13</v>
       </c>
       <c r="AH65" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI65" t="n">
         <v>110</v>
       </c>
       <c r="AJ65" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK65" t="n">
         <v>28</v>
-      </c>
-      <c r="AK65" t="n">
-        <v>29</v>
       </c>
       <c r="AL65" t="n">
         <v>60</v>
@@ -9274,10 +9274,10 @@
         <v>190</v>
       </c>
       <c r="AN65" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO65" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H2" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.26</v>
+        <v>5.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>1.96</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AH2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="n">
         <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="G3" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K3" t="n">
-        <v>29</v>
+        <v>6.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
         <v>1.35</v>
       </c>
       <c r="S3" t="n">
-        <v>1.32</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>2.18</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="V3" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>7.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AJ3" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN3" t="n">
-        <v>29</v>
+        <v>7.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>10.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="P4" t="n">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
         <v>1.11</v>
       </c>
       <c r="W4" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
         <v>280</v>
@@ -1003,46 +1003,46 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="n">
         <v>510</v>
       </c>
       <c r="AF4" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
         <v>400</v>
       </c>
       <c r="AJ4" t="n">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
         <v>580</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>5.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5">
@@ -1075,109 +1075,109 @@
         <v>3.1</v>
       </c>
       <c r="G5" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>2.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="W5" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X5" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
         <v>25</v>
       </c>
-      <c r="AG5" t="n">
-        <v>15</v>
-      </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>130</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.44</v>
@@ -1237,73 +1237,73 @@
         <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.55</v>
       </c>
-      <c r="G7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
         <v>1.09</v>
       </c>
       <c r="N7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="Q7" t="n">
         <v>2.16</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="T7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.84</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="Z7" t="n">
         <v>40</v>
@@ -1408,7 +1408,7 @@
         <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AC7" t="n">
         <v>14</v>
@@ -1435,10 +1435,10 @@
         <v>900</v>
       </c>
       <c r="AK7" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AL7" t="n">
-        <v>380</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
         <v>580</v>
@@ -1447,7 +1447,7 @@
         <v>600</v>
       </c>
       <c r="AO7" t="n">
-        <v>600</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1480,73 +1480,73 @@
         <v>1.29</v>
       </c>
       <c r="G8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="I8" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K8" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="U8" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="W8" t="n">
         <v>3.85</v>
       </c>
       <c r="X8" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="Z8" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AD8" t="n">
         <v>160</v>
@@ -1555,31 +1555,31 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
         <v>120</v>
       </c>
       <c r="AI8" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
         <v>150</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>160</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I9" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>21</v>
       </c>
       <c r="K9" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="L9" t="n">
         <v>1.11</v>
@@ -1636,31 +1636,31 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P9" t="n">
-        <v>5.8</v>
+        <v>6.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="R9" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="T9" t="n">
-        <v>1.44</v>
+        <v>2.16</v>
       </c>
       <c r="U9" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="V9" t="n">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="W9" t="n">
         <v>1.01</v>
@@ -1672,10 +1672,10 @@
         <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
         <v>1000</v>
@@ -1684,10 +1684,10 @@
         <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.2</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="10">
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G10" t="n">
         <v>2.1</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="I10" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="K10" t="n">
         <v>3.95</v>
@@ -1771,88 +1771,88 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V10" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="X10" t="n">
         <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA10" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF10" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="AJ10" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1882,112 +1882,112 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="AB11" t="n">
         <v>11</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL11" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AM11" t="n">
         <v>580</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO11" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12">
@@ -2020,52 +2020,52 @@
         <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>44</v>
+        <v>7.2</v>
       </c>
       <c r="H12" t="n">
         <v>1.89</v>
       </c>
       <c r="I12" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="J12" t="n">
         <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P12" t="n">
         <v>1.68</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="V12" t="n">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="W12" t="n">
         <v>1.48</v>
@@ -2152,25 +2152,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.85</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
         <v>1.09</v>
@@ -2179,85 +2179,85 @@
         <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T13" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z13" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL13" t="n">
         <v>55</v>
       </c>
-      <c r="AF13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2296,28 +2296,28 @@
         <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q14" t="n">
         <v>1.9</v>
@@ -2326,13 +2326,13 @@
         <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="U14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V14" t="n">
         <v>1.5</v>
@@ -2341,7 +2341,7 @@
         <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y14" t="n">
         <v>12.5</v>
@@ -2374,7 +2374,7 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
         <v>42</v>
@@ -2386,7 +2386,7 @@
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN14" t="n">
         <v>26</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>2.32</v>
       </c>
       <c r="G15" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L15" t="n">
         <v>1.48</v>
@@ -2446,13 +2446,13 @@
         <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q15" t="n">
         <v>2.18</v>
@@ -2461,70 +2461,70 @@
         <v>1.27</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
         <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
         <v>27</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
         <v>130</v>
       </c>
       <c r="AN15" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
         <v>60</v>
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.46</v>
+        <v>1.31</v>
       </c>
       <c r="G16" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="T16" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="U16" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="W16" t="n">
-        <v>2.74</v>
+        <v>3.8</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="Z16" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AA16" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>11</v>
       </c>
-      <c r="AD16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
         <v>95</v>
       </c>
       <c r="AM16" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.4</v>
+        <v>5.3</v>
       </c>
       <c r="AO16" t="n">
-        <v>260</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17">
@@ -2695,19 +2695,19 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J17" t="n">
         <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2731,7 +2731,7 @@
         <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="T17" t="n">
         <v>1.76</v>
@@ -2740,10 +2740,10 @@
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
         <v>2.38</v>
@@ -2839,100 +2839,100 @@
         <v>2.58</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="O18" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="R18" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
         <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="n">
         <v>11</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AO18" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="G19" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="H19" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="I19" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -2989,73 +2989,73 @@
         <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="T19" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="W19" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC19" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG19" t="n">
         <v>11</v>
       </c>
       <c r="AH19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>21</v>
       </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>24</v>
-      </c>
       <c r="AK19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
         <v>120</v>
@@ -3064,10 +3064,10 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
@@ -3112,7 +3112,7 @@
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L20" t="n">
         <v>1.57</v>
@@ -3130,7 +3130,7 @@
         <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
         <v>1.19</v>
@@ -3142,7 +3142,7 @@
         <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="V20" t="n">
         <v>1.78</v>
@@ -3163,13 +3163,13 @@
         <v>32</v>
       </c>
       <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD20" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>32</v>
@@ -3184,22 +3184,22 @@
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>480</v>
       </c>
       <c r="AJ20" t="n">
         <v>95</v>
       </c>
       <c r="AK20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL20" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="AM20" t="n">
         <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO20" t="n">
         <v>32</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G21" t="n">
         <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="I21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="J21" t="n">
         <v>4.5</v>
       </c>
       <c r="K21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -3256,43 +3256,43 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
         <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
         <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U21" t="n">
         <v>2.08</v>
       </c>
       <c r="V21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W21" t="n">
         <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="Y21" t="n">
         <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
         <v>40</v>
@@ -3307,7 +3307,7 @@
         <v>12.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>19.5</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
         <v>1000</v>
@@ -3328,7 +3328,7 @@
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G22" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H22" t="n">
         <v>1.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
         <v>4.2</v>
@@ -3394,13 +3394,13 @@
         <v>4.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
         <v>2.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
         <v>1.41</v>
@@ -3409,22 +3409,22 @@
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="U22" t="n">
         <v>2.08</v>
       </c>
       <c r="V22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W22" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z22" t="n">
         <v>13.5</v>
@@ -3460,16 +3460,16 @@
         <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL22" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AM22" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN22" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
         <v>13</v>
@@ -3502,76 +3502,76 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.82</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.84</v>
       </c>
       <c r="J23" t="n">
         <v>3.3</v>
       </c>
       <c r="K23" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P23" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R23" t="n">
         <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="U23" t="n">
         <v>2.08</v>
       </c>
       <c r="V23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W23" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AA23" t="n">
         <v>110</v>
       </c>
       <c r="AB23" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD23" t="n">
         <v>13</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G24" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H24" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="I24" t="n">
         <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L24" t="n">
         <v>1.46</v>
@@ -3661,37 +3661,37 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O24" t="n">
         <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R24" t="n">
         <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T24" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U24" t="n">
         <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y24" t="n">
         <v>11.5</v>
@@ -3700,7 +3700,7 @@
         <v>20</v>
       </c>
       <c r="AA24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
         <v>10.5</v>
@@ -3712,7 +3712,7 @@
         <v>13</v>
       </c>
       <c r="AE24" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AF24" t="n">
         <v>17</v>
@@ -3724,7 +3724,7 @@
         <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
         <v>40</v>
@@ -3736,10 +3736,10 @@
         <v>110</v>
       </c>
       <c r="AM24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN24" t="n">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="AO24" t="n">
         <v>36</v>
@@ -3772,52 +3772,52 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O25" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R25" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="T25" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U25" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="V25" t="n">
         <v>2</v>
@@ -3826,34 +3826,34 @@
         <v>1.32</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>18.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
         <v>16</v>
@@ -3862,22 +3862,22 @@
         <v>32</v>
       </c>
       <c r="AJ25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="n">
         <v>42</v>
       </c>
       <c r="AL25" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,64 +3907,64 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G26" t="n">
         <v>2.34</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>3.55</v>
       </c>
-      <c r="K26" t="n">
-        <v>3.6</v>
-      </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
         <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V26" t="n">
         <v>1.39</v>
       </c>
       <c r="W26" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X26" t="n">
         <v>15.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z26" t="n">
         <v>25</v>
@@ -3973,10 +3973,10 @@
         <v>60</v>
       </c>
       <c r="AB26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD26" t="n">
         <v>14.5</v>
@@ -3985,22 +3985,22 @@
         <v>38</v>
       </c>
       <c r="AF26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG26" t="n">
         <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ26" t="n">
         <v>30</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL26" t="n">
         <v>34</v>
@@ -4009,10 +4009,10 @@
         <v>80</v>
       </c>
       <c r="AN26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO26" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
         <v>3.85</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.9</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4069,7 +4069,7 @@
         <v>4.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>2.12</v>
       </c>
       <c r="G28" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H28" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
         <v>3.45</v>
@@ -4195,40 +4195,40 @@
         <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S28" t="n">
         <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="U28" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
         <v>1.33</v>
       </c>
       <c r="W28" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X28" t="n">
         <v>24</v>
@@ -4246,7 +4246,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>30</v>
@@ -4261,7 +4261,7 @@
         <v>18</v>
       </c>
       <c r="AH28" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>260</v>
@@ -4312,55 +4312,55 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G29" t="n">
         <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="I29" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K29" t="n">
         <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
         <v>1.3</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T29" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U29" t="n">
         <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="W29" t="n">
         <v>1.25</v>
@@ -4378,10 +4378,10 @@
         <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
         <v>11</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G30" t="n">
         <v>1.34</v>
       </c>
       <c r="H30" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
         <v>13.5</v>
       </c>
       <c r="J30" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="L30" t="n">
         <v>1.33</v>
@@ -4471,22 +4471,22 @@
         <v>1.04</v>
       </c>
       <c r="N30" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P30" t="n">
         <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R30" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S30" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T30" t="n">
         <v>2.18</v>
@@ -4498,19 +4498,19 @@
         <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="Z30" t="n">
         <v>120</v>
       </c>
       <c r="AA30" t="n">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="AB30" t="n">
         <v>8.4</v>
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="AD30" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AE30" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF30" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG30" t="n">
         <v>10.5</v>
@@ -4537,22 +4537,22 @@
         <v>190</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK30" t="n">
         <v>14.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AM30" t="n">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31">
@@ -4582,64 +4582,64 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H31" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="I31" t="n">
         <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M31" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U31" t="n">
-        <v>1.97</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
         <v>1.45</v>
       </c>
       <c r="W31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X31" t="n">
         <v>21</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,7 +4648,7 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>7.4</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="G32" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H32" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="J32" t="n">
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.31</v>
@@ -4741,37 +4741,37 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
         <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R32" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S32" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T32" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U32" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="V32" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="W32" t="n">
         <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y32" t="n">
         <v>13.5</v>
@@ -4783,7 +4783,7 @@
         <v>25</v>
       </c>
       <c r="AB32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC32" t="n">
         <v>10.5</v>
@@ -4855,10 +4855,10 @@
         <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="I33" t="n">
         <v>2.98</v>
@@ -4882,7 +4882,7 @@
         <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q33" t="n">
         <v>2.08</v>
@@ -4894,16 +4894,16 @@
         <v>3.75</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="U33" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="V33" t="n">
         <v>1.5</v>
       </c>
       <c r="W33" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X33" t="n">
         <v>13</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G34" t="n">
         <v>5.3</v>
       </c>
       <c r="H34" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="J34" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L34" t="n">
         <v>1.47</v>
@@ -5020,7 +5020,7 @@
         <v>1.74</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R34" t="n">
         <v>1.28</v>
@@ -5029,13 +5029,13 @@
         <v>4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U34" t="n">
         <v>1.87</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W34" t="n">
         <v>1.23</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G35" t="n">
         <v>2.48</v>
@@ -5131,10 +5131,10 @@
         <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
         <v>3.35</v>
@@ -5146,22 +5146,22 @@
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
         <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T35" t="n">
         <v>1.86</v>
@@ -5260,16 +5260,16 @@
         <v>2.08</v>
       </c>
       <c r="G36" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
         <v>4.4</v>
       </c>
       <c r="J36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
         <v>3.6</v>
@@ -5281,13 +5281,13 @@
         <v>1.09</v>
       </c>
       <c r="N36" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q36" t="n">
         <v>2.2</v>
@@ -5299,16 +5299,16 @@
         <v>4.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U36" t="n">
         <v>1.92</v>
       </c>
       <c r="V36" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W36" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="X36" t="n">
         <v>14</v>
@@ -5392,13 +5392,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I37" t="n">
         <v>3.15</v>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L37" t="n">
         <v>1.53</v>
@@ -5416,7 +5416,7 @@
         <v>1.1</v>
       </c>
       <c r="N37" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="O37" t="n">
         <v>1.45</v>
@@ -5425,7 +5425,7 @@
         <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
@@ -5458,7 +5458,7 @@
         <v>900</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC37" t="n">
         <v>7.6</v>
@@ -5482,7 +5482,7 @@
         <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>220</v>
+        <v>900</v>
       </c>
       <c r="AK37" t="n">
         <v>1000</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G38" t="n">
         <v>2.9</v>
       </c>
       <c r="H38" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>3.25</v>
@@ -5542,16 +5542,16 @@
         <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M38" t="n">
         <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5611,13 +5611,13 @@
         <v>29</v>
       </c>
       <c r="AH38" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AI38" t="n">
         <v>380</v>
       </c>
       <c r="AJ38" t="n">
-        <v>150</v>
+        <v>900</v>
       </c>
       <c r="AK38" t="n">
         <v>120</v>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="G39" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H39" t="n">
         <v>4</v>
@@ -5674,70 +5674,70 @@
         <v>4.2</v>
       </c>
       <c r="J39" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N39" t="n">
         <v>3.45</v>
       </c>
-      <c r="K39" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N39" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P39" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="R39" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S39" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="T39" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U39" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="V39" t="n">
         <v>1.31</v>
       </c>
       <c r="W39" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="X39" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z39" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA39" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AB39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC39" t="n">
         <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>60</v>
+        <v>380</v>
       </c>
       <c r="AF39" t="n">
         <v>12</v>
@@ -5746,28 +5746,28 @@
         <v>11.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI39" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK39" t="n">
         <v>70</v>
       </c>
       <c r="AL39" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AM39" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN39" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40">
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G40" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
         <v>6.4</v>
@@ -5809,7 +5809,7 @@
         <v>7.6</v>
       </c>
       <c r="J40" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
@@ -5821,13 +5821,13 @@
         <v>1.1</v>
       </c>
       <c r="N40" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P40" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q40" t="n">
         <v>2.32</v>
@@ -5842,19 +5842,19 @@
         <v>2.2</v>
       </c>
       <c r="U40" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V40" t="n">
         <v>1.15</v>
       </c>
       <c r="W40" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X40" t="n">
         <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z40" t="n">
         <v>60</v>
@@ -5878,7 +5878,7 @@
         <v>9</v>
       </c>
       <c r="AG40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH40" t="n">
         <v>28</v>
@@ -5932,31 +5932,31 @@
         </is>
       </c>
       <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J41" t="n">
         <v>2.9</v>
       </c>
-      <c r="G41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
       <c r="K41" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L41" t="n">
         <v>1.65</v>
       </c>
       <c r="M41" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N41" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="O41" t="n">
         <v>1.62</v>
@@ -5971,49 +5971,49 @@
         <v>1.17</v>
       </c>
       <c r="S41" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U41" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="V41" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="W41" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="X41" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Y41" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AA41" t="n">
         <v>500</v>
       </c>
       <c r="AB41" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC41" t="n">
         <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF41" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AG41" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH41" t="n">
         <v>25</v>
@@ -6022,7 +6022,7 @@
         <v>400</v>
       </c>
       <c r="AJ41" t="n">
-        <v>340</v>
+        <v>200</v>
       </c>
       <c r="AK41" t="n">
         <v>120</v>
@@ -6034,10 +6034,10 @@
         <v>260</v>
       </c>
       <c r="AN41" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AO41" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="G42" t="n">
         <v>2.42</v>
@@ -6079,100 +6079,100 @@
         <v>3.45</v>
       </c>
       <c r="J42" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L42" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O42" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P42" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q42" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q42" t="n">
-        <v>1.97</v>
-      </c>
       <c r="R42" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T42" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="V42" t="n">
         <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X42" t="n">
         <v>14</v>
       </c>
       <c r="Y42" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="Z42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA42" t="n">
         <v>60</v>
       </c>
-      <c r="AA42" t="n">
-        <v>300</v>
-      </c>
       <c r="AB42" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE42" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM42" t="n">
         <v>95</v>
       </c>
-      <c r="AF42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>580</v>
-      </c>
       <c r="AN42" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AO42" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G43" t="n">
         <v>3.6</v>
       </c>
       <c r="H43" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="I43" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="L43" t="n">
         <v>1.55</v>
@@ -6229,85 +6229,85 @@
         <v>2.9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P43" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="n">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="U43" t="n">
         <v>1.86</v>
       </c>
       <c r="V43" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W43" t="n">
         <v>1.38</v>
       </c>
       <c r="X43" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Y43" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z43" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AB43" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
         <v>12</v>
       </c>
       <c r="AE43" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AF43" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN43" t="n">
         <v>70</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AO43" t="n">
         <v>32</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>530</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>380</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>160</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="44">
@@ -6337,58 +6337,58 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="G44" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J44" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K44" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L44" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="R44" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S44" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T44" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U44" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="V44" t="n">
         <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X44" t="n">
         <v>48</v>
@@ -6439,7 +6439,7 @@
         <v>1000</v>
       </c>
       <c r="AN44" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AO44" t="n">
         <v>1000</v>
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="G45" t="n">
         <v>3.1</v>
@@ -6481,13 +6481,13 @@
         <v>2.16</v>
       </c>
       <c r="I45" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J45" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K45" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L45" t="n">
         <v>1.2</v>
@@ -6496,31 +6496,31 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O45" t="n">
         <v>1.1</v>
       </c>
       <c r="P45" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q45" t="n">
         <v>1.33</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="S45" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="T45" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U45" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W45" t="n">
         <v>1.47</v>
@@ -6532,7 +6532,7 @@
         <v>27</v>
       </c>
       <c r="Z45" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA45" t="n">
         <v>36</v>
@@ -6577,7 +6577,7 @@
         <v>13</v>
       </c>
       <c r="AO45" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -6610,16 +6610,16 @@
         <v>1.53</v>
       </c>
       <c r="G46" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="H46" t="n">
         <v>7</v>
       </c>
       <c r="I46" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K46" t="n">
         <v>4.7</v>
@@ -6637,82 +6637,82 @@
         <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R46" t="n">
         <v>1.4</v>
       </c>
       <c r="S46" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="T46" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U46" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V46" t="n">
         <v>1.14</v>
       </c>
       <c r="W46" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="X46" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Z46" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA46" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC46" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE46" t="n">
         <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG46" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL46" t="n">
         <v>38</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>1000</v>
       </c>
       <c r="AM46" t="n">
         <v>580</v>
       </c>
       <c r="AN46" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47">
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
         <v>3.15</v>
@@ -6760,49 +6760,49 @@
         <v>4.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O47" t="n">
         <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="S47" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="T47" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U47" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V47" t="n">
         <v>1.43</v>
       </c>
       <c r="W47" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y47" t="n">
         <v>22</v>
       </c>
       <c r="Z47" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AA47" t="n">
         <v>470</v>
@@ -6811,7 +6811,7 @@
         <v>18</v>
       </c>
       <c r="AC47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD47" t="n">
         <v>16.5</v>
@@ -6820,16 +6820,16 @@
         <v>38</v>
       </c>
       <c r="AF47" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH47" t="n">
         <v>18</v>
       </c>
       <c r="AI47" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="n">
         <v>34</v>
@@ -6844,7 +6844,7 @@
         <v>260</v>
       </c>
       <c r="AN47" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO47" t="n">
         <v>23</v>
@@ -6877,28 +6877,28 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="G48" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="H48" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="I48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J48" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M48" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
         <v>6.8</v>
@@ -6907,34 +6907,34 @@
         <v>1.15</v>
       </c>
       <c r="P48" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R48" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
         <v>2.16</v>
       </c>
       <c r="T48" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U48" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W48" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X48" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z48" t="n">
         <v>12</v>
@@ -6943,7 +6943,7 @@
         <v>13.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC48" t="n">
         <v>14.5</v>
@@ -6952,10 +6952,10 @@
         <v>11.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AG48" t="n">
         <v>32</v>
@@ -6964,7 +6964,7 @@
         <v>22</v>
       </c>
       <c r="AI48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ48" t="n">
         <v>240</v>
@@ -6973,16 +6973,16 @@
         <v>290</v>
       </c>
       <c r="AL48" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AM48" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN48" t="n">
         <v>1000</v>
       </c>
       <c r="AO48" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="49">
@@ -7012,13 +7012,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G49" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H49" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
         <v>3.95</v>
@@ -7030,67 +7030,67 @@
         <v>4.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O49" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P49" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="R49" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S49" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="T49" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U49" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V49" t="n">
         <v>1.34</v>
       </c>
       <c r="W49" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X49" t="n">
         <v>75</v>
       </c>
       <c r="Y49" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Z49" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF49" t="n">
         <v>36</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>15</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
@@ -7099,22 +7099,22 @@
         <v>19</v>
       </c>
       <c r="AI49" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ49" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AK49" t="n">
         <v>55</v>
       </c>
       <c r="AL49" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AM49" t="n">
         <v>1000</v>
       </c>
       <c r="AN49" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO49" t="n">
         <v>1000</v>
@@ -7147,22 +7147,22 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="H50" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J50" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L50" t="n">
         <v>1.22</v>
@@ -7183,76 +7183,76 @@
         <v>1.38</v>
       </c>
       <c r="R50" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="S50" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="T50" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="U50" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="V50" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="W50" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="X50" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="Y50" t="n">
         <v>1000</v>
       </c>
       <c r="Z50" t="n">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="AA50" t="n">
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AC50" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AD50" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="AE50" t="n">
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG50" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AH50" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AI50" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL50" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM50" t="n">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="AN50" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO50" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51">
@@ -7282,13 +7282,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G51" t="n">
         <v>2.3</v>
       </c>
       <c r="H51" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
         <v>3.35</v>
@@ -7306,13 +7306,13 @@
         <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O51" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P51" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Q51" t="n">
         <v>1.54</v>
@@ -7321,22 +7321,22 @@
         <v>1.72</v>
       </c>
       <c r="S51" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T51" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="U51" t="n">
         <v>2.76</v>
       </c>
       <c r="V51" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W51" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="X51" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="Y51" t="n">
         <v>46</v>
@@ -7348,13 +7348,13 @@
         <v>130</v>
       </c>
       <c r="AB51" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AC51" t="n">
         <v>11</v>
       </c>
       <c r="AD51" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AE51" t="n">
         <v>85</v>
@@ -7363,7 +7363,7 @@
         <v>42</v>
       </c>
       <c r="AG51" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH51" t="n">
         <v>14</v>
@@ -7375,7 +7375,7 @@
         <v>85</v>
       </c>
       <c r="AK51" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AL51" t="n">
         <v>75</v>
@@ -7384,7 +7384,7 @@
         <v>580</v>
       </c>
       <c r="AN51" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO51" t="n">
         <v>20</v>
@@ -7417,61 +7417,61 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="G52" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I52" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J52" t="n">
         <v>3.8</v>
       </c>
       <c r="K52" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L52" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="M52" t="n">
         <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P52" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="R52" t="n">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="S52" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="T52" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="U52" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="V52" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W52" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="X52" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Y52" t="n">
         <v>48</v>
@@ -7486,28 +7486,28 @@
         <v>970</v>
       </c>
       <c r="AC52" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AE52" t="n">
         <v>90</v>
       </c>
       <c r="AF52" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG52" t="n">
         <v>18</v>
       </c>
       <c r="AH52" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI52" t="n">
         <v>130</v>
       </c>
       <c r="AJ52" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AK52" t="n">
         <v>970</v>
@@ -7519,10 +7519,10 @@
         <v>580</v>
       </c>
       <c r="AN52" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO52" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -7552,22 +7552,22 @@
         </is>
       </c>
       <c r="F53" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G53" t="n">
         <v>2.66</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I53" t="n">
         <v>2.82</v>
       </c>
-      <c r="H53" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.72</v>
-      </c>
       <c r="J53" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L53" t="n">
         <v>1.3</v>
@@ -7576,67 +7576,67 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="O53" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P53" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="R53" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W53" t="n">
         <v>1.6</v>
       </c>
-      <c r="S53" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T53" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W53" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X53" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y53" t="n">
         <v>18</v>
       </c>
       <c r="Z53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA53" t="n">
         <v>1000</v>
       </c>
       <c r="AB53" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC53" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD53" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE53" t="n">
         <v>27</v>
       </c>
       <c r="AF53" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AG53" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH53" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AI53" t="n">
         <v>34</v>
@@ -7645,16 +7645,16 @@
         <v>1000</v>
       </c>
       <c r="AK53" t="n">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="AL53" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM53" t="n">
         <v>260</v>
       </c>
       <c r="AN53" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AO53" t="n">
         <v>15.5</v>
@@ -7687,61 +7687,61 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="G54" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="J54" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K54" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L54" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M54" t="n">
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O54" t="n">
         <v>1.23</v>
       </c>
       <c r="P54" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q54" t="n">
         <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S54" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T54" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="U54" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V54" t="n">
         <v>1.17</v>
       </c>
       <c r="W54" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="X54" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="Y54" t="n">
         <v>46</v>
@@ -7750,13 +7750,13 @@
         <v>130</v>
       </c>
       <c r="AA54" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB54" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC54" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD54" t="n">
         <v>48</v>
@@ -7771,16 +7771,16 @@
         <v>10.5</v>
       </c>
       <c r="AH54" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AI54" t="n">
         <v>330</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AK54" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AL54" t="n">
         <v>32</v>
@@ -7822,22 +7822,22 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="G55" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I55" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K55" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L55" t="n">
         <v>1.6</v>
@@ -7852,7 +7852,7 @@
         <v>1.54</v>
       </c>
       <c r="P55" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q55" t="n">
         <v>2.66</v>
@@ -7864,25 +7864,25 @@
         <v>5.5</v>
       </c>
       <c r="T55" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U55" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V55" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="W55" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X55" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y55" t="n">
         <v>10.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA55" t="n">
         <v>85</v>
@@ -7915,19 +7915,19 @@
         <v>38</v>
       </c>
       <c r="AK55" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL55" t="n">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="AM55" t="n">
         <v>190</v>
       </c>
       <c r="AN55" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO55" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56">
@@ -7957,22 +7957,22 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2.26</v>
+        <v>2.46</v>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>2.74</v>
       </c>
       <c r="H56" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J56" t="n">
+        <v>3</v>
+      </c>
+      <c r="K56" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3.5</v>
       </c>
       <c r="L56" t="n">
         <v>1.52</v>
@@ -7981,13 +7981,13 @@
         <v>1.1</v>
       </c>
       <c r="N56" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O56" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P56" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q56" t="n">
         <v>2.36</v>
@@ -7999,70 +7999,70 @@
         <v>4.4</v>
       </c>
       <c r="T56" t="n">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="U56" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="V56" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="W56" t="n">
-        <v>1.66</v>
+        <v>1.57</v>
       </c>
       <c r="X56" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA56" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="n">
         <v>7.6</v>
       </c>
       <c r="AD56" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE56" t="n">
         <v>160</v>
       </c>
       <c r="AF56" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG56" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH56" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI56" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ56" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="AK56" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AL56" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM56" t="n">
         <v>1000</v>
       </c>
       <c r="AN56" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO56" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="57">
@@ -8092,13 +8092,13 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G57" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H57" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="I57" t="n">
         <v>2.28</v>
@@ -8116,7 +8116,7 @@
         <v>1.07</v>
       </c>
       <c r="N57" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O57" t="n">
         <v>1.33</v>
@@ -8128,10 +8128,10 @@
         <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S57" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T57" t="n">
         <v>1.68</v>
@@ -8143,22 +8143,22 @@
         <v>1.78</v>
       </c>
       <c r="W57" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X57" t="n">
         <v>24</v>
       </c>
       <c r="Y57" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="Z57" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AA57" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB57" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC57" t="n">
         <v>9.199999999999999</v>
@@ -8167,22 +8167,22 @@
         <v>11.5</v>
       </c>
       <c r="AE57" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF57" t="n">
         <v>1000</v>
       </c>
       <c r="AG57" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AK57" t="n">
         <v>55</v>
@@ -8194,7 +8194,7 @@
         <v>1000</v>
       </c>
       <c r="AN57" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO57" t="n">
         <v>23</v>
@@ -8227,61 +8227,61 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G58" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I58" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="J58" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K58" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L58" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M58" t="n">
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P58" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S58" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T58" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U58" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V58" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="W58" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X58" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y58" t="n">
         <v>10.5</v>
@@ -8290,10 +8290,10 @@
         <v>14.5</v>
       </c>
       <c r="AA58" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB58" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC58" t="n">
         <v>7.8</v>
@@ -8311,7 +8311,7 @@
         <v>13.5</v>
       </c>
       <c r="AH58" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI58" t="n">
         <v>38</v>
@@ -8332,7 +8332,7 @@
         <v>36</v>
       </c>
       <c r="AO58" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -8362,19 +8362,19 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="G59" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H59" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="I59" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J59" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K59" t="n">
         <v>4.1</v>
@@ -8386,16 +8386,16 @@
         <v>1.07</v>
       </c>
       <c r="N59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O59" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R59" t="n">
         <v>1.32</v>
@@ -8404,28 +8404,28 @@
         <v>3.85</v>
       </c>
       <c r="T59" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U59" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V59" t="n">
         <v>1.19</v>
       </c>
       <c r="W59" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X59" t="n">
         <v>14.5</v>
       </c>
       <c r="Y59" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z59" t="n">
         <v>46</v>
       </c>
       <c r="AA59" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB59" t="n">
         <v>7.6</v>
@@ -8437,25 +8437,25 @@
         <v>23</v>
       </c>
       <c r="AE59" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AF59" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AG59" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH59" t="n">
         <v>23</v>
       </c>
       <c r="AI59" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="n">
         <v>17</v>
       </c>
       <c r="AK59" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL59" t="n">
         <v>42</v>
@@ -8464,10 +8464,10 @@
         <v>150</v>
       </c>
       <c r="AN59" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO59" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60">
@@ -8497,13 +8497,13 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G60" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H60" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I60" t="n">
         <v>2.24</v>
@@ -8512,37 +8512,37 @@
         <v>3.45</v>
       </c>
       <c r="K60" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="O60" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P60" t="n">
-        <v>1.81</v>
+        <v>2.04</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R60" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="S60" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="T60" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="U60" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="V60" t="n">
         <v>1.81</v>
@@ -8551,58 +8551,58 @@
         <v>1.34</v>
       </c>
       <c r="X60" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="Y60" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z60" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE60" t="n">
         <v>28</v>
       </c>
-      <c r="AA60" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>70</v>
-      </c>
       <c r="AF60" t="n">
         <v>1000</v>
       </c>
       <c r="AG60" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AK60" t="n">
         <v>1000</v>
       </c>
       <c r="AL60" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM60" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN60" t="n">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AO60" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="61">
@@ -8632,70 +8632,70 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="H61" t="n">
         <v>3.95</v>
       </c>
       <c r="I61" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K61" t="n">
         <v>3.4</v>
       </c>
-      <c r="K61" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L61" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M61" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N61" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O61" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P61" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="R61" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S61" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T61" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U61" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V61" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W61" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X61" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y61" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA61" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB61" t="n">
         <v>7.8</v>
@@ -8710,31 +8710,31 @@
         <v>60</v>
       </c>
       <c r="AF61" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG61" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI61" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ61" t="n">
         <v>28</v>
       </c>
       <c r="AK61" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL61" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM61" t="n">
         <v>150</v>
       </c>
       <c r="AN61" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO61" t="n">
         <v>75</v>
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G62" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H62" t="n">
         <v>3.6</v>
@@ -8779,19 +8779,19 @@
         <v>3.65</v>
       </c>
       <c r="J62" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K62" t="n">
         <v>2.94</v>
       </c>
-      <c r="K62" t="n">
-        <v>2.96</v>
-      </c>
       <c r="L62" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="M62" t="n">
         <v>1.16</v>
       </c>
       <c r="N62" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="O62" t="n">
         <v>1.64</v>
@@ -8809,10 +8809,10 @@
         <v>6.4</v>
       </c>
       <c r="T62" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U62" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V62" t="n">
         <v>1.38</v>
@@ -8857,7 +8857,7 @@
         <v>95</v>
       </c>
       <c r="AJ62" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK62" t="n">
         <v>40</v>
@@ -8866,7 +8866,7 @@
         <v>75</v>
       </c>
       <c r="AM62" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AN62" t="n">
         <v>46</v>
@@ -8902,64 +8902,64 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G63" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H63" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
         <v>5.2</v>
       </c>
       <c r="J63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K63" t="n">
         <v>3.95</v>
       </c>
-      <c r="K63" t="n">
-        <v>4.1</v>
-      </c>
       <c r="L63" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="O63" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P63" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S63" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W63" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="X63" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y63" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z63" t="n">
         <v>38</v>
@@ -8968,16 +8968,16 @@
         <v>130</v>
       </c>
       <c r="AB63" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD63" t="n">
         <v>19.5</v>
       </c>
       <c r="AE63" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF63" t="n">
         <v>10.5</v>
@@ -8986,28 +8986,28 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI63" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ63" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK63" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AL63" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM63" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN63" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO63" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
@@ -9037,19 +9037,19 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G64" t="n">
         <v>2.24</v>
       </c>
       <c r="H64" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="I64" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="J64" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K64" t="n">
         <v>3.55</v>
@@ -9061,16 +9061,16 @@
         <v>1.09</v>
       </c>
       <c r="N64" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O64" t="n">
         <v>1.41</v>
       </c>
       <c r="P64" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R64" t="n">
         <v>1.27</v>
@@ -9079,10 +9079,10 @@
         <v>4.2</v>
       </c>
       <c r="T64" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U64" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V64" t="n">
         <v>1.33</v>
@@ -9175,7 +9175,7 @@
         <v>1.92</v>
       </c>
       <c r="G65" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H65" t="n">
         <v>4.6</v>
@@ -9187,10 +9187,10 @@
         <v>3.3</v>
       </c>
       <c r="K65" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L65" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M65" t="n">
         <v>1.09</v>
@@ -9214,7 +9214,7 @@
         <v>4.4</v>
       </c>
       <c r="T65" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
         <v>1.81</v>
@@ -9223,7 +9223,7 @@
         <v>1.25</v>
       </c>
       <c r="W65" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X65" t="n">
         <v>11.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-12.xlsx
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:35:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>68 Aksaray Belediyespor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>Somaspor Spor Kulubu</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>1.46</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>5.4</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,28 +697,28 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
-        <v>1.96</v>
+        <v>1.19</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -727,52 +727,52 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.1</v>
+        <v>590</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.6</v>
+        <v>990</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.8</v>
+        <v>870</v>
       </c>
       <c r="AI2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
     </row>
     <row r="3">
@@ -793,121 +793,121 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>68 Aksaray Belediyespor</t>
+          <t>Adana 1954 FK</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Somaspor Spor Kulubu</t>
+          <t>Erbaaspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="G3" t="n">
-        <v>1.41</v>
+        <v>1.21</v>
       </c>
       <c r="H3" t="n">
+        <v>26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>110</v>
+      </c>
+      <c r="J3" t="n">
         <v>7.2</v>
       </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.4</v>
-      </c>
       <c r="K3" t="n">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="R3" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="W3" t="n">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>50</v>
       </c>
-      <c r="AE3" t="n">
-        <v>310</v>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
+        <v>330</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>8</v>
       </c>
-      <c r="AG3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -928,121 +928,121 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Adana 1954 FK</t>
+          <t>Arnavutkoy Belediyesi GVS</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Erbaaspor</t>
+          <t>Mus Spor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.42</v>
+        <v>11.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>900</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>1.02</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>5.5</v>
+        <v>120</v>
       </c>
       <c r="L4" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>1.18</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="V4" t="n">
-        <v>1.11</v>
+        <v>50</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI4" t="n">
         <v>40</v>
       </c>
-      <c r="Z4" t="n">
-        <v>280</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>510</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>400</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>220</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="5">
@@ -1063,73 +1063,73 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arnavutkoy Belediyesi GVS</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mus Spor</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="n">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>2.86</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.81</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.42</v>
-      </c>
       <c r="S5" t="n">
-        <v>2.86</v>
+        <v>2.16</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="W5" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,46 +1138,46 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="AD5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO5" t="n">
         <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>600</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kastamonuspor</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>1.23</v>
       </c>
       <c r="I6" t="n">
-        <v>2.64</v>
+        <v>1.26</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="U6" t="n">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="V6" t="n">
-        <v>1.61</v>
+        <v>4.7</v>
       </c>
       <c r="W6" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="X6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
         <v>11</v>
       </c>
-      <c r="Z6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>130</v>
-      </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
         <v>8.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="AH6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>320</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>340</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
         <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>210</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Muglaspor</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.1</v>
+        <v>1.89</v>
       </c>
       <c r="G7" t="n">
-        <v>6.4</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.74</v>
+        <v>6.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.88</v>
+        <v>7.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.23</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>1.89</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>2.04</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.16</v>
+        <v>4.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="S7" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.32</v>
       </c>
       <c r="V7" t="n">
-        <v>2.14</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.19</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>340</v>
       </c>
       <c r="AB7" t="n">
-        <v>30</v>
+        <v>4.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>320</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AI7" t="n">
-        <v>120</v>
+        <v>630</v>
       </c>
       <c r="AJ7" t="n">
-        <v>900</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="AL7" t="n">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="AM7" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.29</v>
+        <v>160</v>
       </c>
       <c r="G8" t="n">
-        <v>1.34</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>15.5</v>
+        <v>1.01</v>
       </c>
       <c r="J8" t="n">
-        <v>5.8</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>840</v>
       </c>
       <c r="L8" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>6</v>
       </c>
       <c r="S8" t="n">
-        <v>2.72</v>
+        <v>1.18</v>
       </c>
       <c r="T8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="V8" t="n">
-        <v>1.07</v>
+        <v>100</v>
       </c>
       <c r="W8" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>340</v>
+        <v>42</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>160</v>
+        <v>590</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>120</v>
+        <v>870</v>
       </c>
       <c r="AI8" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Serbian First League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>FK Usce Novi Beograd</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>SU Dinamo Jug</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>2.08</v>
       </c>
       <c r="G9" t="n">
-        <v>160</v>
+        <v>2.14</v>
       </c>
       <c r="H9" t="n">
-        <v>1.05</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.07</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>21</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>34</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.11</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N9" t="n">
-        <v>9.4</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.03</v>
+        <v>1.51</v>
       </c>
       <c r="P9" t="n">
-        <v>6.8</v>
+        <v>1.57</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.15</v>
+        <v>2.54</v>
       </c>
       <c r="R9" t="n">
-        <v>3.45</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.35</v>
+        <v>5.2</v>
       </c>
       <c r="T9" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U9" t="n">
-        <v>1.63</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>17</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
+        <v>990</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC9" t="n">
         <v>12</v>
       </c>
-      <c r="AB9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH9" t="n">
         <v>60</v>
       </c>
-      <c r="AE9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1000</v>
-      </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Serbian First League</t>
+          <t>Thai League 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FK Usce Novi Beograd</t>
+          <t>Chonburi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SU Dinamo Jug</t>
+          <t>Kanchanaburi</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H10" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
         <v>4.3</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.86</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>2.08</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>1.9</v>
+        <v>2.16</v>
       </c>
       <c r="V10" t="n">
         <v>1.3</v>
       </c>
       <c r="W10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Z10" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO10" t="n">
         <v>60</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Thai League 1</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chonburi</t>
+          <t>Fethiyespor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kanchanaburi</t>
+          <t>Belediye Derincespor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.04</v>
+        <v>2.82</v>
       </c>
       <c r="G11" t="n">
-        <v>2.2</v>
+        <v>140</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>1.17</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="J11" t="n">
-        <v>3.55</v>
+        <v>3.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="L11" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>1.69</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="W11" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
         <v>17</v>
       </c>
-      <c r="Y11" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
+        <v>990</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF11" t="n">
         <v>28</v>
       </c>
-      <c r="AA11" t="n">
-        <v>200</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:25:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fethiyespor</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Belediye Derincespor</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.94</v>
       </c>
       <c r="G12" t="n">
-        <v>7.2</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
-        <v>1.89</v>
+        <v>4.6</v>
       </c>
       <c r="I12" t="n">
-        <v>970</v>
+        <v>5.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="U12" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V12" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>42</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13">
@@ -2138,30 +2138,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:25:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.52</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2170,100 +2170,100 @@
         <v>3.75</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>1.94</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="S13" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="X13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB13" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AJ13" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AL13" t="n">
         <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
         <v>21</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>10:15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>OLS</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>AC Oulu</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.54</v>
+        <v>6.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>1.33</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>1.38</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.8</v>
+        <v>29</v>
       </c>
       <c r="L14" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
         <v>1.43</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="S14" t="n">
-        <v>3.3</v>
+        <v>2.06</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.12</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>320</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN14" t="n">
         <v>130</v>
       </c>
-      <c r="AB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>330</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>26</v>
-      </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="15">
@@ -2422,40 +2422,40 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="G15" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.15</v>
       </c>
       <c r="K15" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.48</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P15" t="n">
         <v>1.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R15" t="n">
         <v>1.27</v>
@@ -2464,70 +2464,70 @@
         <v>4.1</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U15" t="n">
         <v>1.96</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X15" t="n">
         <v>11.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
@@ -2557,52 +2557,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G16" t="n">
         <v>1.36</v>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K16" t="n">
         <v>6.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="S16" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
         <v>1.07</v>
@@ -2611,58 +2611,58 @@
         <v>3.8</v>
       </c>
       <c r="X16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y16" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="Z16" t="n">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>610</v>
       </c>
       <c r="AB16" t="n">
         <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AE16" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AF16" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH16" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>190</v>
+        <v>690</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AM16" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="AN16" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="AO16" t="n">
-        <v>410</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17">
@@ -2695,16 +2695,16 @@
         <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="J17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
@@ -2713,70 +2713,70 @@
         <v>1.44</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
         <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T17" t="n">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="W17" t="n">
         <v>1.33</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA17" t="n">
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>42</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
         <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -2830,61 +2830,61 @@
         <v>3.3</v>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I18" t="n">
         <v>2.58</v>
       </c>
       <c r="J18" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M18" t="n">
         <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P18" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X18" t="n">
         <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
@@ -2905,34 +2905,34 @@
         <v>55</v>
       </c>
       <c r="AF18" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="AJ18" t="n">
-        <v>230</v>
+        <v>350</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="H19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K19" t="n">
         <v>3.75</v>
@@ -2983,55 +2983,55 @@
         <v>1.43</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="R19" t="n">
         <v>1.32</v>
       </c>
       <c r="S19" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="T19" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="W19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD19" t="n">
         <v>22</v>
@@ -3058,7 +3058,7 @@
         <v>21</v>
       </c>
       <c r="AL19" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
@@ -3067,7 +3067,7 @@
         <v>13.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,85 +3097,85 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="n">
         <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U20" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="W20" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>12.5</v>
+        <v>18</v>
       </c>
       <c r="AA20" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD20" t="n">
         <v>11.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
         <v>17.5</v>
@@ -3184,25 +3184,25 @@
         <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>480</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
         <v>95</v>
       </c>
       <c r="AK20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>240</v>
+        <v>480</v>
       </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
         <v>95</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,13 +3232,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="I21" t="n">
         <v>1.71</v>
@@ -3256,13 +3256,13 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
         <v>1.62</v>
@@ -3271,13 +3271,13 @@
         <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="T21" t="n">
         <v>1.71</v>
       </c>
       <c r="U21" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V21" t="n">
         <v>2.4</v>
@@ -3286,38 +3286,38 @@
         <v>1.22</v>
       </c>
       <c r="X21" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH21" t="n">
         <v>40</v>
       </c>
-      <c r="AB21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
       <c r="AI21" t="n">
         <v>1000</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
         <v>1000</v>
@@ -3337,7 +3337,7 @@
         <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="22">
@@ -3370,7 +3370,7 @@
         <v>4.7</v>
       </c>
       <c r="G22" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H22" t="n">
         <v>1.8</v>
@@ -3391,10 +3391,10 @@
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P22" t="n">
         <v>2.06</v>
@@ -3409,10 +3409,10 @@
         <v>3.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
         <v>2.14</v>
@@ -3421,58 +3421,58 @@
         <v>1.24</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="Z22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH22" t="n">
         <v>25</v>
       </c>
-      <c r="AB22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
         <v>11</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G23" t="n">
         <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I23" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="J23" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K23" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L23" t="n">
         <v>1.47</v>
@@ -3526,28 +3526,28 @@
         <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O23" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S23" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T23" t="n">
         <v>1.82</v>
       </c>
       <c r="U23" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V23" t="n">
         <v>1.56</v>
@@ -3556,7 +3556,7 @@
         <v>1.5</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3577,37 +3577,37 @@
         <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="n">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AI23" t="n">
         <v>120</v>
       </c>
       <c r="AJ23" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AK23" t="n">
         <v>110</v>
       </c>
       <c r="AL23" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -3640,13 +3640,13 @@
         <v>2.64</v>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
         <v>2.94</v>
       </c>
       <c r="I24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>3.4</v>
@@ -3655,7 +3655,7 @@
         <v>3.45</v>
       </c>
       <c r="L24" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -3667,28 +3667,28 @@
         <v>1.37</v>
       </c>
       <c r="P24" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
         <v>1.32</v>
       </c>
       <c r="S24" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U24" t="n">
         <v>2.12</v>
       </c>
       <c r="V24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X24" t="n">
         <v>13</v>
@@ -3697,7 +3697,7 @@
         <v>11.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AA24" t="n">
         <v>48</v>
@@ -3709,10 +3709,10 @@
         <v>7.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AF24" t="n">
         <v>17</v>
@@ -3727,7 +3727,7 @@
         <v>48</v>
       </c>
       <c r="AJ24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK24" t="n">
         <v>32</v>
@@ -3736,13 +3736,13 @@
         <v>110</v>
       </c>
       <c r="AM24" t="n">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="AN24" t="n">
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -3772,19 +3772,19 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
@@ -3796,10 +3796,10 @@
         <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
         <v>2.24</v>
@@ -3811,19 +3811,19 @@
         <v>1.51</v>
       </c>
       <c r="S25" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T25" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U25" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W25" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3838,7 +3838,7 @@
         <v>24</v>
       </c>
       <c r="AB25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC25" t="n">
         <v>8.800000000000001</v>
@@ -3847,25 +3847,25 @@
         <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG25" t="n">
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL25" t="n">
         <v>48</v>
@@ -3874,10 +3874,10 @@
         <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -3910,13 +3910,13 @@
         <v>2.3</v>
       </c>
       <c r="G26" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H26" t="n">
         <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -3931,37 +3931,37 @@
         <v>1.07</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W26" t="n">
         <v>1.75</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y26" t="n">
         <v>14</v>
@@ -3970,49 +3970,49 @@
         <v>25</v>
       </c>
       <c r="AA26" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>7.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
         <v>14.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH26" t="n">
         <v>16.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ26" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK26" t="n">
         <v>24</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM26" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -4042,19 +4042,19 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I27" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K27" t="n">
         <v>3.85</v>
@@ -4066,10 +4066,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="G28" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L28" t="n">
         <v>1.46</v>
@@ -4204,85 +4204,85 @@
         <v>3.4</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
         <v>1.3</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W28" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="X28" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AA28" t="n">
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="AF28" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AH28" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AI28" t="n">
         <v>260</v>
       </c>
       <c r="AJ28" t="n">
-        <v>900</v>
+        <v>34</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AL28" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -4318,46 +4318,46 @@
         <v>5.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="I29" t="n">
         <v>1.97</v>
       </c>
       <c r="J29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N29" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P29" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T29" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V29" t="n">
         <v>2.02</v>
@@ -4366,16 +4366,16 @@
         <v>1.25</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB29" t="n">
         <v>15.5</v>
@@ -4387,10 +4387,10 @@
         <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG29" t="n">
         <v>20</v>
@@ -4399,16 +4399,16 @@
         <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AK29" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM29" t="n">
         <v>580</v>
@@ -4417,7 +4417,7 @@
         <v>260</v>
       </c>
       <c r="AO29" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="30">
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G30" t="n">
         <v>1.34</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I30" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="K30" t="n">
         <v>6.2</v>
@@ -4468,49 +4468,49 @@
         <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
         <v>4.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
         <v>2.26</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R30" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S30" t="n">
         <v>2.88</v>
       </c>
       <c r="T30" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V30" t="n">
         <v>1.08</v>
       </c>
       <c r="W30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="X30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y30" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="Z30" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AA30" t="n">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="AB30" t="n">
         <v>8.4</v>
@@ -4522,7 +4522,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="n">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="AF30" t="n">
         <v>7.6</v>
@@ -4543,16 +4543,16 @@
         <v>14.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM30" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO30" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31">
@@ -4582,97 +4582,97 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>2.64</v>
       </c>
       <c r="G31" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="H31" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K31" t="n">
         <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U31" t="n">
         <v>1.92</v>
       </c>
       <c r="V31" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W31" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA31" t="n">
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC31" t="n">
         <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK31" t="n">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>3.65</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="H32" t="n">
         <v>2</v>
@@ -4732,7 +4732,7 @@
         <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.31</v>
@@ -4741,16 +4741,16 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
         <v>2.46</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R32" t="n">
         <v>1.57</v>
@@ -4768,19 +4768,19 @@
         <v>1.94</v>
       </c>
       <c r="W32" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="X32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y32" t="n">
         <v>13.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA32" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB32" t="n">
         <v>20</v>
@@ -4792,7 +4792,7 @@
         <v>11.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AF32" t="n">
         <v>32</v>
@@ -4804,7 +4804,7 @@
         <v>17</v>
       </c>
       <c r="AI32" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
         <v>70</v>
@@ -4816,13 +4816,13 @@
         <v>42</v>
       </c>
       <c r="AM32" t="n">
-        <v>330</v>
+        <v>70</v>
       </c>
       <c r="AN32" t="n">
         <v>30</v>
       </c>
       <c r="AO32" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="33">
@@ -4855,13 +4855,13 @@
         <v>2.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="H33" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I33" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
         <v>3.2</v>
@@ -4876,7 +4876,7 @@
         <v>1.08</v>
       </c>
       <c r="N33" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O33" t="n">
         <v>1.36</v>
@@ -4885,37 +4885,37 @@
         <v>1.81</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R33" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S33" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T33" t="n">
         <v>1.81</v>
       </c>
       <c r="U33" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W33" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y33" t="n">
         <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB33" t="n">
         <v>11</v>
@@ -4924,25 +4924,25 @@
         <v>8</v>
       </c>
       <c r="AD33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE33" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF33" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH33" t="n">
         <v>18.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK33" t="n">
         <v>34</v>
@@ -4954,10 +4954,10 @@
         <v>580</v>
       </c>
       <c r="AN33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO33" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
@@ -4990,40 +4990,40 @@
         <v>4.7</v>
       </c>
       <c r="G34" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H34" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="I34" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
         <v>1.47</v>
       </c>
       <c r="M34" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O34" t="n">
         <v>1.39</v>
       </c>
       <c r="P34" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q34" t="n">
         <v>2.18</v>
       </c>
       <c r="R34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S34" t="n">
         <v>4</v>
@@ -5032,28 +5032,28 @@
         <v>1.93</v>
       </c>
       <c r="U34" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V34" t="n">
         <v>2.04</v>
       </c>
       <c r="W34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X34" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
         <v>8</v>
       </c>
       <c r="Z34" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>900</v>
+        <v>44</v>
       </c>
       <c r="AB34" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="AC34" t="n">
         <v>8.4</v>
@@ -5062,19 +5062,19 @@
         <v>11</v>
       </c>
       <c r="AE34" t="n">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="AF34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG34" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="AH34" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ34" t="n">
         <v>1000</v>
@@ -5092,7 +5092,7 @@
         <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="G35" t="n">
         <v>2.48</v>
@@ -5131,46 +5131,46 @@
         <v>3.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>3.35</v>
       </c>
       <c r="L35" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S35" t="n">
         <v>4.1</v>
       </c>
       <c r="T35" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U35" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V35" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W35" t="n">
         <v>1.68</v>
@@ -5179,7 +5179,7 @@
         <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z35" t="n">
         <v>25</v>
@@ -5188,46 +5188,46 @@
         <v>530</v>
       </c>
       <c r="AB35" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC35" t="n">
         <v>7.8</v>
       </c>
       <c r="AD35" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="AF35" t="n">
         <v>15.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI35" t="n">
         <v>65</v>
       </c>
       <c r="AJ35" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AK35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL35" t="n">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO35" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="G36" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J36" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
         <v>3.6</v>
       </c>
       <c r="L36" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="M36" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="P36" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R36" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="T36" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="V36" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W36" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="X36" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Z36" t="n">
         <v>30</v>
       </c>
       <c r="AA36" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD36" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG36" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK36" t="n">
         <v>24</v>
       </c>
-      <c r="AI36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>32</v>
-      </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM36" t="n">
         <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37">
@@ -5395,10 +5395,10 @@
         <v>2.76</v>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H37" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="I37" t="n">
         <v>3.15</v>
@@ -5407,43 +5407,43 @@
         <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L37" t="n">
         <v>1.53</v>
       </c>
       <c r="M37" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N37" t="n">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="O37" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P37" t="n">
         <v>1.63</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R37" t="n">
         <v>1.23</v>
       </c>
       <c r="S37" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T37" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U37" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V37" t="n">
         <v>1.47</v>
       </c>
       <c r="W37" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X37" t="n">
         <v>10.5</v>
@@ -5452,13 +5452,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AA37" t="n">
-        <v>900</v>
+        <v>160</v>
       </c>
       <c r="AB37" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC37" t="n">
         <v>7.6</v>
@@ -5470,34 +5470,34 @@
         <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AG37" t="n">
         <v>14</v>
       </c>
       <c r="AH37" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AI37" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AJ37" t="n">
-        <v>900</v>
+        <v>55</v>
       </c>
       <c r="AK37" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AL37" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AM37" t="n">
         <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38">
@@ -5527,22 +5527,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.66</v>
+        <v>2.84</v>
       </c>
       <c r="G38" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H38" t="n">
         <v>2.9</v>
       </c>
-      <c r="H38" t="n">
-        <v>3</v>
-      </c>
       <c r="I38" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="J38" t="n">
         <v>3</v>
       </c>
       <c r="K38" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L38" t="n">
         <v>1.52</v>
@@ -5551,7 +5551,7 @@
         <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -5560,7 +5560,7 @@
         <v>1.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="R38" t="n">
         <v>1.24</v>
@@ -5569,55 +5569,55 @@
         <v>4.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="U38" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V38" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="Y38" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AA38" t="n">
         <v>900</v>
       </c>
       <c r="AB38" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC38" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD38" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE38" t="n">
         <v>230</v>
       </c>
       <c r="AF38" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AH38" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="n">
-        <v>380</v>
+        <v>170</v>
       </c>
       <c r="AJ38" t="n">
-        <v>900</v>
+        <v>85</v>
       </c>
       <c r="AK38" t="n">
         <v>120</v>
@@ -5629,10 +5629,10 @@
         <v>580</v>
       </c>
       <c r="AN38" t="n">
-        <v>600</v>
+        <v>70</v>
       </c>
       <c r="AO38" t="n">
-        <v>600</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -5662,109 +5662,109 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="G39" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I39" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K39" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L39" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M39" t="n">
         <v>1.08</v>
       </c>
       <c r="N39" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P39" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="R39" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S39" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="T39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W39" t="n">
         <v>1.94</v>
       </c>
-      <c r="U39" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.89</v>
-      </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z39" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA39" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AB39" t="n">
         <v>8.6</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>17.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="AF39" t="n">
         <v>12</v>
       </c>
       <c r="AG39" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="AJ39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK39" t="n">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="AL39" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="AM39" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN39" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO39" t="n">
         <v>65</v>
@@ -5797,91 +5797,91 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G40" t="n">
         <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="I40" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M40" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P40" t="n">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="Q40" t="n">
         <v>2.32</v>
       </c>
       <c r="R40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S40" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T40" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U40" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V40" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="W40" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X40" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA40" t="n">
         <v>1000</v>
       </c>
       <c r="AB40" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE40" t="n">
         <v>1000</v>
       </c>
       <c r="AF40" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG40" t="n">
         <v>10.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI40" t="n">
         <v>1000</v>
@@ -5893,13 +5893,13 @@
         <v>22</v>
       </c>
       <c r="AL40" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AM40" t="n">
         <v>1000</v>
       </c>
       <c r="AN40" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO40" t="n">
         <v>1000</v>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="G41" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="I41" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="J41" t="n">
         <v>2.9</v>
       </c>
       <c r="K41" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L41" t="n">
         <v>1.65</v>
@@ -5956,13 +5956,13 @@
         <v>1.15</v>
       </c>
       <c r="N41" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="O41" t="n">
         <v>1.62</v>
       </c>
       <c r="P41" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q41" t="n">
         <v>2.96</v>
@@ -5974,25 +5974,25 @@
         <v>6.4</v>
       </c>
       <c r="T41" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="V41" t="n">
-        <v>1.51</v>
+        <v>1.47</v>
       </c>
       <c r="W41" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X41" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y41" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="Z41" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
         <v>500</v>
@@ -6004,19 +6004,19 @@
         <v>7.4</v>
       </c>
       <c r="AD41" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF41" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG41" t="n">
         <v>15.5</v>
       </c>
       <c r="AH41" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="n">
         <v>400</v>
@@ -6025,19 +6025,19 @@
         <v>200</v>
       </c>
       <c r="AK41" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AL41" t="n">
-        <v>400</v>
+        <v>210</v>
       </c>
       <c r="AM41" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AN41" t="n">
         <v>600</v>
       </c>
       <c r="AO41" t="n">
-        <v>600</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -6067,19 +6067,19 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G42" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J42" t="n">
         <v>3.45</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.5</v>
       </c>
       <c r="K42" t="n">
         <v>3.55</v>
@@ -6091,40 +6091,40 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O42" t="n">
         <v>1.33</v>
       </c>
       <c r="P42" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S42" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T42" t="n">
         <v>1.76</v>
       </c>
       <c r="U42" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V42" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W42" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="X42" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z42" t="n">
         <v>23</v>
@@ -6133,7 +6133,7 @@
         <v>60</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC42" t="n">
         <v>8</v>
@@ -6142,7 +6142,7 @@
         <v>14.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF42" t="n">
         <v>15.5</v>
@@ -6151,7 +6151,7 @@
         <v>11.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI42" t="n">
         <v>50</v>
@@ -6160,19 +6160,19 @@
         <v>32</v>
       </c>
       <c r="AK42" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AL42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM42" t="n">
         <v>95</v>
       </c>
       <c r="AN42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO42" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -6205,13 +6205,13 @@
         <v>3.55</v>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H43" t="n">
         <v>2.44</v>
       </c>
       <c r="I43" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J43" t="n">
         <v>3.15</v>
@@ -6226,16 +6226,16 @@
         <v>1.11</v>
       </c>
       <c r="N43" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O43" t="n">
         <v>1.49</v>
       </c>
       <c r="P43" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R43" t="n">
         <v>1.22</v>
@@ -6244,7 +6244,7 @@
         <v>5</v>
       </c>
       <c r="T43" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U43" t="n">
         <v>1.86</v>
@@ -6253,16 +6253,16 @@
         <v>1.68</v>
       </c>
       <c r="W43" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X43" t="n">
         <v>9.6</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="Z43" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA43" t="n">
         <v>34</v>
@@ -6286,10 +6286,10 @@
         <v>15.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI43" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ43" t="n">
         <v>80</v>
@@ -6337,49 +6337,49 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I44" t="n">
         <v>4.5</v>
       </c>
       <c r="J44" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P44" t="n">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="R44" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="S44" t="n">
-        <v>2.52</v>
+        <v>2.7</v>
       </c>
       <c r="T44" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="U44" t="n">
         <v>2.48</v>
@@ -6388,61 +6388,61 @@
         <v>1.29</v>
       </c>
       <c r="W44" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X44" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="Y44" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA44" t="n">
         <v>300</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD44" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE44" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="AF44" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="AG44" t="n">
         <v>11</v>
       </c>
       <c r="AH44" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AI44" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ44" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AK44" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL44" t="n">
         <v>70</v>
       </c>
-      <c r="AL44" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM44" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN44" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45">
@@ -6475,10 +6475,10 @@
         <v>3.05</v>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H45" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="I45" t="n">
         <v>2.22</v>
@@ -6493,16 +6493,16 @@
         <v>1.2</v>
       </c>
       <c r="M45" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="O45" t="n">
         <v>1.1</v>
       </c>
       <c r="P45" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
         <v>1.33</v>
@@ -6514,64 +6514,64 @@
         <v>1.83</v>
       </c>
       <c r="T45" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="U45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="V45" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="W45" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X45" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA45" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB45" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AC45" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AG45" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AH45" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI45" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ45" t="n">
         <v>55</v>
       </c>
       <c r="AK45" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL45" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM45" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AN45" t="n">
         <v>13</v>
@@ -6607,16 +6607,16 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G46" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="H46" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I46" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J46" t="n">
         <v>4.4</v>
@@ -6637,19 +6637,19 @@
         <v>1.29</v>
       </c>
       <c r="P46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R46" t="n">
         <v>1.4</v>
       </c>
       <c r="S46" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T46" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
         <v>1.89</v>
@@ -6658,13 +6658,13 @@
         <v>1.14</v>
       </c>
       <c r="W46" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="X46" t="n">
         <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z46" t="n">
         <v>65</v>
@@ -6673,7 +6673,7 @@
         <v>250</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC46" t="n">
         <v>10.5</v>
@@ -6682,25 +6682,25 @@
         <v>28</v>
       </c>
       <c r="AE46" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG46" t="n">
         <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="n">
-        <v>110</v>
+        <v>290</v>
       </c>
       <c r="AJ46" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK46" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL46" t="n">
         <v>38</v>
@@ -6712,7 +6712,7 @@
         <v>8.4</v>
       </c>
       <c r="AO46" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G47" t="n">
         <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I47" t="n">
         <v>3.3</v>
@@ -6766,19 +6766,19 @@
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O47" t="n">
         <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q47" t="n">
         <v>1.54</v>
       </c>
       <c r="R47" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S47" t="n">
         <v>2.34</v>
@@ -6787,64 +6787,64 @@
         <v>1.54</v>
       </c>
       <c r="U47" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V47" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W47" t="n">
         <v>1.79</v>
       </c>
       <c r="X47" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="Y47" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AA47" t="n">
         <v>470</v>
       </c>
       <c r="AB47" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG47" t="n">
         <v>12</v>
       </c>
-      <c r="AD47" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>13</v>
-      </c>
       <c r="AH47" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI47" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL47" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AO47" t="n">
         <v>23</v>
@@ -6877,100 +6877,100 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
         <v>8.6</v>
       </c>
       <c r="H48" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="I48" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="J48" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K48" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.24</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P48" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S48" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="T48" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="U48" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W48" t="n">
         <v>1.13</v>
       </c>
       <c r="X48" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Y48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA48" t="n">
         <v>13.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AC48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE48" t="n">
         <v>14.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="AG48" t="n">
         <v>32</v>
       </c>
       <c r="AH48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI48" t="n">
         <v>28</v>
       </c>
       <c r="AJ48" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AK48" t="n">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="AL48" t="n">
         <v>80</v>
@@ -6979,10 +6979,10 @@
         <v>90</v>
       </c>
       <c r="AN48" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO48" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="49">
@@ -7015,109 +7015,109 @@
         <v>2.02</v>
       </c>
       <c r="G49" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J49" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K49" t="n">
         <v>4.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O49" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P49" t="n">
-        <v>2.24</v>
+        <v>2.36</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R49" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="S49" t="n">
-        <v>2.78</v>
+        <v>2.64</v>
       </c>
       <c r="T49" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U49" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="V49" t="n">
         <v>1.34</v>
       </c>
       <c r="W49" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X49" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="Y49" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z49" t="n">
         <v>48</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AA49" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM49" t="n">
         <v>100</v>
       </c>
-      <c r="AA49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF49" t="n">
+      <c r="AN49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO49" t="n">
         <v>36</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO49" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G50" t="n">
         <v>1.97</v>
@@ -7171,22 +7171,22 @@
         <v>1.02</v>
       </c>
       <c r="N50" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O50" t="n">
         <v>1.12</v>
       </c>
       <c r="P50" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q50" t="n">
         <v>1.38</v>
       </c>
       <c r="R50" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="T50" t="n">
         <v>1.44</v>
@@ -7204,7 +7204,7 @@
         <v>1000</v>
       </c>
       <c r="Y50" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="Z50" t="n">
         <v>190</v>
@@ -7213,46 +7213,46 @@
         <v>1000</v>
       </c>
       <c r="AB50" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AC50" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AE50" t="n">
         <v>1000</v>
       </c>
       <c r="AF50" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG50" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH50" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AI50" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AJ50" t="n">
         <v>1000</v>
       </c>
       <c r="AK50" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL50" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="AM50" t="n">
-        <v>580</v>
+        <v>130</v>
       </c>
       <c r="AN50" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO50" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="51">
@@ -7285,10 +7285,10 @@
         <v>2.16</v>
       </c>
       <c r="G51" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
         <v>3.35</v>
@@ -7297,7 +7297,7 @@
         <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L51" t="n">
         <v>1.28</v>
@@ -7306,7 +7306,7 @@
         <v>1.03</v>
       </c>
       <c r="N51" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="O51" t="n">
         <v>1.18</v>
@@ -7318,37 +7318,37 @@
         <v>1.54</v>
       </c>
       <c r="R51" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S51" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="T51" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="U51" t="n">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="V51" t="n">
         <v>1.42</v>
       </c>
       <c r="W51" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
      